--- a/Excell/akt_all.xlsx
+++ b/Excell/akt_all.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="3300" windowWidth="19245" windowHeight="4695" activeTab="2"/>
+    <workbookView xWindow="-180" yWindow="3300" windowWidth="19245" windowHeight="4695" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Адгезия" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="195">
   <si>
     <t>(подпись)</t>
   </si>
@@ -704,40 +704,6 @@
   </si>
   <si>
     <r>
-      <t>Установка муфты П-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> на секции № </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>%s.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Проведение ДДК секции № </t>
     </r>
     <r>
@@ -1020,6 +986,40 @@
   <si>
     <t xml:space="preserve">Представитель  субподрядной строительной организации                             </t>
   </si>
+  <si>
+    <r>
+      <t>Установка муфты</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> %s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> на секции № </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>%s.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -1029,7 +1029,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="76" x14ac:knownFonts="1">
+  <fonts count="77" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
@@ -1600,6 +1600,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -1824,7 +1831,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="413">
+  <cellXfs count="414">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2380,6 +2387,9 @@
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2729,6 +2739,9 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2738,17 +2751,20 @@
     <xf numFmtId="0" fontId="73" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2757,12 +2773,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3202,7 +3212,7 @@
   <dimension ref="A1:AM55"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A6" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="P31" sqref="P31:S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3562,32 +3572,32 @@
     </row>
     <row r="12" spans="1:39" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
-      <c r="B12" s="247" t="s">
-        <v>170</v>
-      </c>
-      <c r="C12" s="247"/>
-      <c r="D12" s="247"/>
-      <c r="E12" s="247"/>
-      <c r="F12" s="247"/>
-      <c r="G12" s="247"/>
-      <c r="H12" s="247"/>
-      <c r="I12" s="247"/>
-      <c r="J12" s="247"/>
-      <c r="K12" s="247"/>
-      <c r="L12" s="247"/>
-      <c r="M12" s="247"/>
-      <c r="N12" s="247"/>
-      <c r="O12" s="247"/>
-      <c r="P12" s="247"/>
-      <c r="Q12" s="247"/>
-      <c r="R12" s="247"/>
-      <c r="S12" s="247"/>
-      <c r="T12" s="247"/>
-      <c r="U12" s="247"/>
-      <c r="V12" s="247"/>
-      <c r="W12" s="247"/>
-      <c r="X12" s="247"/>
-      <c r="Y12" s="247"/>
+      <c r="B12" s="248" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" s="248"/>
+      <c r="D12" s="248"/>
+      <c r="E12" s="248"/>
+      <c r="F12" s="248"/>
+      <c r="G12" s="248"/>
+      <c r="H12" s="248"/>
+      <c r="I12" s="248"/>
+      <c r="J12" s="248"/>
+      <c r="K12" s="248"/>
+      <c r="L12" s="248"/>
+      <c r="M12" s="248"/>
+      <c r="N12" s="248"/>
+      <c r="O12" s="248"/>
+      <c r="P12" s="248"/>
+      <c r="Q12" s="248"/>
+      <c r="R12" s="248"/>
+      <c r="S12" s="248"/>
+      <c r="T12" s="248"/>
+      <c r="U12" s="248"/>
+      <c r="V12" s="248"/>
+      <c r="W12" s="248"/>
+      <c r="X12" s="248"/>
+      <c r="Y12" s="248"/>
       <c r="Z12" s="26"/>
       <c r="AA12" s="26"/>
       <c r="AB12" s="8"/>
@@ -3706,16 +3716,16 @@
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
-      <c r="B16" s="254" t="s">
+      <c r="B16" s="255" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="254"/>
-      <c r="D16" s="254"/>
-      <c r="E16" s="254"/>
-      <c r="F16" s="254"/>
-      <c r="G16" s="254"/>
-      <c r="H16" s="254"/>
-      <c r="I16" s="254"/>
+      <c r="C16" s="255"/>
+      <c r="D16" s="255"/>
+      <c r="E16" s="255"/>
+      <c r="F16" s="255"/>
+      <c r="G16" s="255"/>
+      <c r="H16" s="255"/>
+      <c r="I16" s="255"/>
       <c r="J16" s="70" t="s">
         <v>16</v>
       </c>
@@ -3768,29 +3778,29 @@
     </row>
     <row r="18" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
-      <c r="B18" s="264" t="s">
+      <c r="B18" s="265" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="264"/>
-      <c r="D18" s="264"/>
-      <c r="E18" s="264"/>
-      <c r="F18" s="264"/>
-      <c r="G18" s="264"/>
-      <c r="H18" s="264"/>
-      <c r="I18" s="264"/>
-      <c r="J18" s="264"/>
-      <c r="K18" s="264"/>
-      <c r="L18" s="264"/>
-      <c r="M18" s="264"/>
-      <c r="N18" s="267" t="s">
+      <c r="C18" s="265"/>
+      <c r="D18" s="265"/>
+      <c r="E18" s="265"/>
+      <c r="F18" s="265"/>
+      <c r="G18" s="265"/>
+      <c r="H18" s="265"/>
+      <c r="I18" s="265"/>
+      <c r="J18" s="265"/>
+      <c r="K18" s="265"/>
+      <c r="L18" s="265"/>
+      <c r="M18" s="265"/>
+      <c r="N18" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="O18" s="267"/>
-      <c r="P18" s="267"/>
-      <c r="Q18" s="267"/>
-      <c r="R18" s="267"/>
-      <c r="S18" s="267"/>
-      <c r="T18" s="267"/>
+      <c r="O18" s="268"/>
+      <c r="P18" s="268"/>
+      <c r="Q18" s="268"/>
+      <c r="R18" s="268"/>
+      <c r="S18" s="268"/>
+      <c r="T18" s="268"/>
       <c r="U18" s="46"/>
       <c r="V18" s="46"/>
       <c r="W18" s="46"/>
@@ -3900,34 +3910,34 @@
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
-      <c r="B22" s="265" t="s">
+      <c r="B22" s="266" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="265"/>
-      <c r="D22" s="265"/>
-      <c r="E22" s="265"/>
-      <c r="F22" s="265"/>
-      <c r="G22" s="265"/>
-      <c r="H22" s="265"/>
-      <c r="I22" s="265"/>
-      <c r="J22" s="265"/>
-      <c r="K22" s="266" t="s">
+      <c r="C22" s="266"/>
+      <c r="D22" s="266"/>
+      <c r="E22" s="266"/>
+      <c r="F22" s="266"/>
+      <c r="G22" s="266"/>
+      <c r="H22" s="266"/>
+      <c r="I22" s="266"/>
+      <c r="J22" s="266"/>
+      <c r="K22" s="267" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="266"/>
-      <c r="M22" s="266"/>
-      <c r="N22" s="266"/>
-      <c r="O22" s="266"/>
-      <c r="P22" s="266"/>
-      <c r="Q22" s="266"/>
-      <c r="R22" s="266"/>
-      <c r="S22" s="266"/>
-      <c r="T22" s="266"/>
-      <c r="U22" s="266"/>
-      <c r="V22" s="266"/>
-      <c r="W22" s="266"/>
-      <c r="X22" s="266"/>
-      <c r="Y22" s="266"/>
+      <c r="L22" s="267"/>
+      <c r="M22" s="267"/>
+      <c r="N22" s="267"/>
+      <c r="O22" s="267"/>
+      <c r="P22" s="267"/>
+      <c r="Q22" s="267"/>
+      <c r="R22" s="267"/>
+      <c r="S22" s="267"/>
+      <c r="T22" s="267"/>
+      <c r="U22" s="267"/>
+      <c r="V22" s="267"/>
+      <c r="W22" s="267"/>
+      <c r="X22" s="267"/>
+      <c r="Y22" s="267"/>
       <c r="Z22" s="17"/>
       <c r="AA22" s="17"/>
     </row>
@@ -4055,46 +4065,46 @@
       <c r="AM25" s="11"/>
     </row>
     <row r="26" spans="1:39" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="255" t="s">
+      <c r="A26" s="256" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="256"/>
-      <c r="C26" s="257"/>
-      <c r="D26" s="255" t="s">
+      <c r="B26" s="257"/>
+      <c r="C26" s="258"/>
+      <c r="D26" s="256" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="256"/>
-      <c r="F26" s="256"/>
-      <c r="G26" s="257"/>
-      <c r="H26" s="255" t="s">
+      <c r="E26" s="257"/>
+      <c r="F26" s="257"/>
+      <c r="G26" s="258"/>
+      <c r="H26" s="256" t="s">
         <v>20</v>
       </c>
-      <c r="I26" s="268"/>
-      <c r="J26" s="268"/>
-      <c r="K26" s="269"/>
-      <c r="L26" s="255" t="s">
+      <c r="I26" s="269"/>
+      <c r="J26" s="269"/>
+      <c r="K26" s="270"/>
+      <c r="L26" s="256" t="s">
         <v>6</v>
       </c>
-      <c r="M26" s="268"/>
-      <c r="N26" s="268"/>
-      <c r="O26" s="269"/>
-      <c r="P26" s="255" t="s">
+      <c r="M26" s="269"/>
+      <c r="N26" s="269"/>
+      <c r="O26" s="270"/>
+      <c r="P26" s="256" t="s">
         <v>7</v>
       </c>
-      <c r="Q26" s="268"/>
-      <c r="R26" s="268"/>
-      <c r="S26" s="269"/>
-      <c r="T26" s="255" t="s">
+      <c r="Q26" s="269"/>
+      <c r="R26" s="269"/>
+      <c r="S26" s="270"/>
+      <c r="T26" s="256" t="s">
         <v>23</v>
       </c>
-      <c r="U26" s="256"/>
-      <c r="V26" s="256"/>
-      <c r="W26" s="257"/>
-      <c r="X26" s="255" t="s">
+      <c r="U26" s="257"/>
+      <c r="V26" s="257"/>
+      <c r="W26" s="258"/>
+      <c r="X26" s="256" t="s">
         <v>21</v>
       </c>
-      <c r="Y26" s="256"/>
-      <c r="Z26" s="257"/>
+      <c r="Y26" s="257"/>
+      <c r="Z26" s="258"/>
       <c r="AA26" s="28"/>
       <c r="AB26" s="6"/>
       <c r="AC26" s="6"/>
@@ -4110,32 +4120,32 @@
       <c r="AM26" s="6"/>
     </row>
     <row r="27" spans="1:39" s="12" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="258"/>
-      <c r="B27" s="259"/>
-      <c r="C27" s="260"/>
-      <c r="D27" s="258"/>
-      <c r="E27" s="259"/>
-      <c r="F27" s="259"/>
-      <c r="G27" s="260"/>
-      <c r="H27" s="270"/>
-      <c r="I27" s="271"/>
-      <c r="J27" s="271"/>
-      <c r="K27" s="272"/>
-      <c r="L27" s="270"/>
-      <c r="M27" s="271"/>
-      <c r="N27" s="271"/>
-      <c r="O27" s="272"/>
-      <c r="P27" s="270"/>
-      <c r="Q27" s="271"/>
-      <c r="R27" s="271"/>
-      <c r="S27" s="272"/>
-      <c r="T27" s="258"/>
-      <c r="U27" s="259"/>
-      <c r="V27" s="259"/>
-      <c r="W27" s="260"/>
-      <c r="X27" s="258"/>
-      <c r="Y27" s="259"/>
-      <c r="Z27" s="260"/>
+      <c r="A27" s="259"/>
+      <c r="B27" s="260"/>
+      <c r="C27" s="261"/>
+      <c r="D27" s="259"/>
+      <c r="E27" s="260"/>
+      <c r="F27" s="260"/>
+      <c r="G27" s="261"/>
+      <c r="H27" s="271"/>
+      <c r="I27" s="272"/>
+      <c r="J27" s="272"/>
+      <c r="K27" s="273"/>
+      <c r="L27" s="271"/>
+      <c r="M27" s="272"/>
+      <c r="N27" s="272"/>
+      <c r="O27" s="273"/>
+      <c r="P27" s="271"/>
+      <c r="Q27" s="272"/>
+      <c r="R27" s="272"/>
+      <c r="S27" s="273"/>
+      <c r="T27" s="259"/>
+      <c r="U27" s="260"/>
+      <c r="V27" s="260"/>
+      <c r="W27" s="261"/>
+      <c r="X27" s="259"/>
+      <c r="Y27" s="260"/>
+      <c r="Z27" s="261"/>
       <c r="AA27" s="29"/>
       <c r="AB27" s="11"/>
       <c r="AC27" s="11"/>
@@ -4151,78 +4161,78 @@
       <c r="AM27" s="11"/>
     </row>
     <row r="28" spans="1:39" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="261"/>
-      <c r="B28" s="262"/>
-      <c r="C28" s="263"/>
-      <c r="D28" s="261"/>
-      <c r="E28" s="262"/>
-      <c r="F28" s="262"/>
-      <c r="G28" s="263"/>
-      <c r="H28" s="273"/>
-      <c r="I28" s="274"/>
-      <c r="J28" s="274"/>
-      <c r="K28" s="275"/>
-      <c r="L28" s="273"/>
-      <c r="M28" s="274"/>
-      <c r="N28" s="274"/>
-      <c r="O28" s="275"/>
-      <c r="P28" s="273"/>
-      <c r="Q28" s="274"/>
-      <c r="R28" s="274"/>
-      <c r="S28" s="275"/>
-      <c r="T28" s="261"/>
-      <c r="U28" s="262"/>
-      <c r="V28" s="262"/>
-      <c r="W28" s="263"/>
-      <c r="X28" s="261"/>
-      <c r="Y28" s="262"/>
-      <c r="Z28" s="263"/>
+      <c r="A28" s="262"/>
+      <c r="B28" s="263"/>
+      <c r="C28" s="264"/>
+      <c r="D28" s="262"/>
+      <c r="E28" s="263"/>
+      <c r="F28" s="263"/>
+      <c r="G28" s="264"/>
+      <c r="H28" s="274"/>
+      <c r="I28" s="275"/>
+      <c r="J28" s="275"/>
+      <c r="K28" s="276"/>
+      <c r="L28" s="274"/>
+      <c r="M28" s="275"/>
+      <c r="N28" s="275"/>
+      <c r="O28" s="276"/>
+      <c r="P28" s="274"/>
+      <c r="Q28" s="275"/>
+      <c r="R28" s="275"/>
+      <c r="S28" s="276"/>
+      <c r="T28" s="262"/>
+      <c r="U28" s="263"/>
+      <c r="V28" s="263"/>
+      <c r="W28" s="264"/>
+      <c r="X28" s="262"/>
+      <c r="Y28" s="263"/>
+      <c r="Z28" s="264"/>
       <c r="AA28" s="30"/>
     </row>
     <row r="29" spans="1:39" s="12" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="300">
+      <c r="A29" s="301">
         <f>W14</f>
         <v>0</v>
       </c>
-      <c r="B29" s="301"/>
-      <c r="C29" s="302"/>
-      <c r="D29" s="291" t="s">
+      <c r="B29" s="302"/>
+      <c r="C29" s="303"/>
+      <c r="D29" s="292" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="292"/>
-      <c r="F29" s="292"/>
-      <c r="G29" s="293"/>
-      <c r="H29" s="282" t="s">
+      <c r="E29" s="293"/>
+      <c r="F29" s="293"/>
+      <c r="G29" s="294"/>
+      <c r="H29" s="283" t="s">
         <v>151</v>
       </c>
-      <c r="I29" s="283"/>
-      <c r="J29" s="283"/>
-      <c r="K29" s="284"/>
-      <c r="L29" s="248">
+      <c r="I29" s="284"/>
+      <c r="J29" s="284"/>
+      <c r="K29" s="285"/>
+      <c r="L29" s="249">
         <v>1</v>
       </c>
-      <c r="M29" s="249"/>
-      <c r="N29" s="249"/>
-      <c r="O29" s="250"/>
-      <c r="P29" s="248">
+      <c r="M29" s="250"/>
+      <c r="N29" s="250"/>
+      <c r="O29" s="251"/>
+      <c r="P29" s="249">
         <f ca="1">RANDBETWEEN(64,67)*0.1</f>
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="Q29" s="249"/>
-      <c r="R29" s="249"/>
-      <c r="S29" s="250"/>
-      <c r="T29" s="248">
+        <v>6.5</v>
+      </c>
+      <c r="Q29" s="250"/>
+      <c r="R29" s="250"/>
+      <c r="S29" s="251"/>
+      <c r="T29" s="249">
         <f ca="1">RANDBETWEEN(24,27)*0.1</f>
-        <v>2.5</v>
-      </c>
-      <c r="U29" s="249"/>
-      <c r="V29" s="249"/>
-      <c r="W29" s="250"/>
-      <c r="X29" s="248" t="s">
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="U29" s="250"/>
+      <c r="V29" s="250"/>
+      <c r="W29" s="251"/>
+      <c r="X29" s="249" t="s">
         <v>8</v>
       </c>
-      <c r="Y29" s="249"/>
-      <c r="Z29" s="250"/>
+      <c r="Y29" s="250"/>
+      <c r="Z29" s="251"/>
       <c r="AA29" s="21"/>
       <c r="AB29" s="11"/>
       <c r="AC29" s="11"/>
@@ -4238,81 +4248,81 @@
       <c r="AM29" s="11"/>
     </row>
     <row r="30" spans="1:39" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="303"/>
-      <c r="B30" s="304"/>
-      <c r="C30" s="305"/>
-      <c r="D30" s="294"/>
-      <c r="E30" s="295"/>
-      <c r="F30" s="295"/>
-      <c r="G30" s="296"/>
-      <c r="H30" s="285"/>
-      <c r="I30" s="286"/>
-      <c r="J30" s="286"/>
-      <c r="K30" s="287"/>
-      <c r="L30" s="251">
+      <c r="A30" s="304"/>
+      <c r="B30" s="305"/>
+      <c r="C30" s="306"/>
+      <c r="D30" s="295"/>
+      <c r="E30" s="296"/>
+      <c r="F30" s="296"/>
+      <c r="G30" s="297"/>
+      <c r="H30" s="286"/>
+      <c r="I30" s="287"/>
+      <c r="J30" s="287"/>
+      <c r="K30" s="288"/>
+      <c r="L30" s="252">
         <v>2</v>
       </c>
-      <c r="M30" s="252"/>
-      <c r="N30" s="252"/>
-      <c r="O30" s="253"/>
-      <c r="P30" s="248">
+      <c r="M30" s="253"/>
+      <c r="N30" s="253"/>
+      <c r="O30" s="254"/>
+      <c r="P30" s="249">
         <f t="shared" ref="P30:P31" ca="1" si="0">RANDBETWEEN(64,67)*0.1</f>
-        <v>6.5</v>
-      </c>
-      <c r="Q30" s="249"/>
-      <c r="R30" s="249"/>
-      <c r="S30" s="250"/>
-      <c r="T30" s="248">
+        <v>6.4</v>
+      </c>
+      <c r="Q30" s="250"/>
+      <c r="R30" s="250"/>
+      <c r="S30" s="251"/>
+      <c r="T30" s="249">
         <f t="shared" ref="T30:T31" ca="1" si="1">RANDBETWEEN(24,27)*0.1</f>
-        <v>2.5</v>
-      </c>
-      <c r="U30" s="249"/>
-      <c r="V30" s="249"/>
-      <c r="W30" s="250"/>
-      <c r="X30" s="248" t="s">
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="U30" s="250"/>
+      <c r="V30" s="250"/>
+      <c r="W30" s="251"/>
+      <c r="X30" s="249" t="s">
         <v>8</v>
       </c>
-      <c r="Y30" s="249"/>
-      <c r="Z30" s="250"/>
+      <c r="Y30" s="250"/>
+      <c r="Z30" s="251"/>
       <c r="AA30" s="17"/>
     </row>
     <row r="31" spans="1:39" s="12" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="306"/>
-      <c r="B31" s="307"/>
-      <c r="C31" s="308"/>
-      <c r="D31" s="297"/>
-      <c r="E31" s="298"/>
-      <c r="F31" s="298"/>
-      <c r="G31" s="299"/>
-      <c r="H31" s="288"/>
-      <c r="I31" s="289"/>
-      <c r="J31" s="289"/>
-      <c r="K31" s="290"/>
-      <c r="L31" s="251">
+      <c r="A31" s="307"/>
+      <c r="B31" s="308"/>
+      <c r="C31" s="309"/>
+      <c r="D31" s="298"/>
+      <c r="E31" s="299"/>
+      <c r="F31" s="299"/>
+      <c r="G31" s="300"/>
+      <c r="H31" s="289"/>
+      <c r="I31" s="290"/>
+      <c r="J31" s="290"/>
+      <c r="K31" s="291"/>
+      <c r="L31" s="252">
         <v>3</v>
       </c>
-      <c r="M31" s="252"/>
-      <c r="N31" s="252"/>
-      <c r="O31" s="253"/>
-      <c r="P31" s="251">
+      <c r="M31" s="253"/>
+      <c r="N31" s="253"/>
+      <c r="O31" s="254"/>
+      <c r="P31" s="252">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5</v>
-      </c>
-      <c r="Q31" s="252"/>
-      <c r="R31" s="252"/>
-      <c r="S31" s="253"/>
-      <c r="T31" s="251">
+        <v>6.4</v>
+      </c>
+      <c r="Q31" s="253"/>
+      <c r="R31" s="253"/>
+      <c r="S31" s="254"/>
+      <c r="T31" s="252">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4000000000000004</v>
-      </c>
-      <c r="U31" s="252"/>
-      <c r="V31" s="252"/>
-      <c r="W31" s="253"/>
-      <c r="X31" s="251" t="s">
+        <v>2.7</v>
+      </c>
+      <c r="U31" s="253"/>
+      <c r="V31" s="253"/>
+      <c r="W31" s="254"/>
+      <c r="X31" s="252" t="s">
         <v>8</v>
       </c>
-      <c r="Y31" s="252"/>
-      <c r="Z31" s="253"/>
+      <c r="Y31" s="253"/>
+      <c r="Z31" s="254"/>
       <c r="AA31" s="21"/>
       <c r="AB31" s="11"/>
       <c r="AC31" s="11"/>
@@ -4328,37 +4338,37 @@
       <c r="AM31" s="11"/>
     </row>
     <row r="32" spans="1:39" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="276" t="s">
+      <c r="A32" s="277" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="277"/>
-      <c r="C32" s="277"/>
-      <c r="D32" s="277"/>
-      <c r="E32" s="277"/>
-      <c r="F32" s="277"/>
-      <c r="G32" s="277"/>
-      <c r="H32" s="277"/>
-      <c r="I32" s="277"/>
-      <c r="J32" s="277"/>
-      <c r="K32" s="277"/>
-      <c r="L32" s="277"/>
-      <c r="M32" s="277"/>
-      <c r="N32" s="277"/>
-      <c r="O32" s="277"/>
-      <c r="P32" s="277"/>
-      <c r="Q32" s="277"/>
-      <c r="R32" s="277"/>
-      <c r="S32" s="278"/>
-      <c r="T32" s="279">
+      <c r="B32" s="278"/>
+      <c r="C32" s="278"/>
+      <c r="D32" s="278"/>
+      <c r="E32" s="278"/>
+      <c r="F32" s="278"/>
+      <c r="G32" s="278"/>
+      <c r="H32" s="278"/>
+      <c r="I32" s="278"/>
+      <c r="J32" s="278"/>
+      <c r="K32" s="278"/>
+      <c r="L32" s="278"/>
+      <c r="M32" s="278"/>
+      <c r="N32" s="278"/>
+      <c r="O32" s="278"/>
+      <c r="P32" s="278"/>
+      <c r="Q32" s="278"/>
+      <c r="R32" s="278"/>
+      <c r="S32" s="279"/>
+      <c r="T32" s="280">
         <f ca="1">SUM(T29:W31)/3</f>
-        <v>2.4666666666666668</v>
-      </c>
-      <c r="U32" s="280"/>
-      <c r="V32" s="280"/>
-      <c r="W32" s="281"/>
-      <c r="X32" s="251"/>
-      <c r="Y32" s="252"/>
-      <c r="Z32" s="253"/>
+        <v>2.5000000000000004</v>
+      </c>
+      <c r="U32" s="281"/>
+      <c r="V32" s="281"/>
+      <c r="W32" s="282"/>
+      <c r="X32" s="252"/>
+      <c r="Y32" s="253"/>
+      <c r="Z32" s="254"/>
       <c r="AA32" s="17"/>
     </row>
     <row r="33" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -4444,30 +4454,30 @@
       <c r="AM34" s="11"/>
     </row>
     <row r="35" spans="1:39" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="316" t="s">
+      <c r="A35" s="317" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="316"/>
-      <c r="C35" s="316"/>
-      <c r="D35" s="316"/>
-      <c r="E35" s="316"/>
-      <c r="F35" s="316"/>
-      <c r="G35" s="316"/>
-      <c r="H35" s="316"/>
-      <c r="I35" s="316"/>
-      <c r="J35" s="309" t="s">
+      <c r="B35" s="317"/>
+      <c r="C35" s="317"/>
+      <c r="D35" s="317"/>
+      <c r="E35" s="317"/>
+      <c r="F35" s="317"/>
+      <c r="G35" s="317"/>
+      <c r="H35" s="317"/>
+      <c r="I35" s="317"/>
+      <c r="J35" s="310" t="s">
         <v>26</v>
       </c>
-      <c r="K35" s="309"/>
-      <c r="L35" s="309"/>
-      <c r="M35" s="309"/>
-      <c r="N35" s="309"/>
-      <c r="O35" s="309"/>
-      <c r="P35" s="309"/>
-      <c r="Q35" s="309"/>
-      <c r="R35" s="309"/>
-      <c r="S35" s="309"/>
-      <c r="T35" s="309"/>
+      <c r="K35" s="310"/>
+      <c r="L35" s="310"/>
+      <c r="M35" s="310"/>
+      <c r="N35" s="310"/>
+      <c r="O35" s="310"/>
+      <c r="P35" s="310"/>
+      <c r="Q35" s="310"/>
+      <c r="R35" s="310"/>
+      <c r="S35" s="310"/>
+      <c r="T35" s="310"/>
       <c r="U35" s="48"/>
       <c r="V35" s="48"/>
       <c r="W35" s="48"/>
@@ -4489,26 +4499,26 @@
       <c r="AM35" s="11"/>
     </row>
     <row r="36" spans="1:39" s="12" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="316"/>
-      <c r="B36" s="316"/>
-      <c r="C36" s="316"/>
-      <c r="D36" s="316"/>
-      <c r="E36" s="316"/>
-      <c r="F36" s="316"/>
-      <c r="G36" s="316"/>
-      <c r="H36" s="316"/>
-      <c r="I36" s="316"/>
-      <c r="J36" s="309"/>
-      <c r="K36" s="309"/>
-      <c r="L36" s="309"/>
-      <c r="M36" s="309"/>
-      <c r="N36" s="309"/>
-      <c r="O36" s="309"/>
-      <c r="P36" s="309"/>
-      <c r="Q36" s="309"/>
-      <c r="R36" s="309"/>
-      <c r="S36" s="309"/>
-      <c r="T36" s="309"/>
+      <c r="A36" s="317"/>
+      <c r="B36" s="317"/>
+      <c r="C36" s="317"/>
+      <c r="D36" s="317"/>
+      <c r="E36" s="317"/>
+      <c r="F36" s="317"/>
+      <c r="G36" s="317"/>
+      <c r="H36" s="317"/>
+      <c r="I36" s="317"/>
+      <c r="J36" s="310"/>
+      <c r="K36" s="310"/>
+      <c r="L36" s="310"/>
+      <c r="M36" s="310"/>
+      <c r="N36" s="310"/>
+      <c r="O36" s="310"/>
+      <c r="P36" s="310"/>
+      <c r="Q36" s="310"/>
+      <c r="R36" s="310"/>
+      <c r="S36" s="310"/>
+      <c r="T36" s="310"/>
       <c r="U36" s="50"/>
       <c r="V36" s="50"/>
       <c r="W36" s="50"/>
@@ -4799,23 +4809,23 @@
     </row>
     <row r="45" spans="1:39" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="51"/>
-      <c r="B45" s="310" t="s">
+      <c r="B45" s="311" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="310"/>
-      <c r="D45" s="310"/>
-      <c r="E45" s="310"/>
-      <c r="F45" s="310"/>
-      <c r="G45" s="310"/>
-      <c r="H45" s="311" t="s">
+      <c r="C45" s="311"/>
+      <c r="D45" s="311"/>
+      <c r="E45" s="311"/>
+      <c r="F45" s="311"/>
+      <c r="G45" s="311"/>
+      <c r="H45" s="312" t="s">
         <v>11</v>
       </c>
-      <c r="I45" s="311"/>
-      <c r="J45" s="311"/>
-      <c r="K45" s="311"/>
-      <c r="L45" s="311"/>
-      <c r="M45" s="311"/>
-      <c r="N45" s="311"/>
+      <c r="I45" s="312"/>
+      <c r="J45" s="312"/>
+      <c r="K45" s="312"/>
+      <c r="L45" s="312"/>
+      <c r="M45" s="312"/>
+      <c r="N45" s="312"/>
       <c r="O45" s="48"/>
       <c r="P45" s="63"/>
       <c r="Q45" s="63"/>
@@ -4824,13 +4834,13 @@
       <c r="T45" s="63"/>
       <c r="U45" s="63"/>
       <c r="V45" s="62"/>
-      <c r="W45" s="314">
+      <c r="W45" s="315">
         <f>W14</f>
         <v>0</v>
       </c>
-      <c r="X45" s="314"/>
-      <c r="Y45" s="314"/>
-      <c r="Z45" s="314"/>
+      <c r="X45" s="315"/>
+      <c r="Y45" s="315"/>
+      <c r="Z45" s="315"/>
       <c r="AA45" s="59"/>
     </row>
     <row r="46" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4841,31 +4851,31 @@
       <c r="E46" s="51"/>
       <c r="F46" s="51"/>
       <c r="G46" s="51"/>
-      <c r="H46" s="312" t="s">
+      <c r="H46" s="313" t="s">
         <v>12</v>
       </c>
-      <c r="I46" s="313"/>
-      <c r="J46" s="313"/>
-      <c r="K46" s="313"/>
-      <c r="L46" s="313"/>
-      <c r="M46" s="313"/>
-      <c r="N46" s="313"/>
+      <c r="I46" s="314"/>
+      <c r="J46" s="314"/>
+      <c r="K46" s="314"/>
+      <c r="L46" s="314"/>
+      <c r="M46" s="314"/>
+      <c r="N46" s="314"/>
       <c r="O46" s="50"/>
-      <c r="P46" s="315" t="s">
+      <c r="P46" s="316" t="s">
         <v>0</v>
       </c>
-      <c r="Q46" s="315"/>
-      <c r="R46" s="315"/>
-      <c r="S46" s="315"/>
-      <c r="T46" s="315"/>
-      <c r="U46" s="315"/>
+      <c r="Q46" s="316"/>
+      <c r="R46" s="316"/>
+      <c r="S46" s="316"/>
+      <c r="T46" s="316"/>
+      <c r="U46" s="316"/>
       <c r="V46" s="43"/>
-      <c r="W46" s="315" t="s">
+      <c r="W46" s="316" t="s">
         <v>1</v>
       </c>
-      <c r="X46" s="315"/>
-      <c r="Y46" s="315"/>
-      <c r="Z46" s="315"/>
+      <c r="X46" s="316"/>
+      <c r="Y46" s="316"/>
+      <c r="Z46" s="316"/>
       <c r="AA46" s="50"/>
     </row>
     <row r="47" spans="1:39" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5187,7 +5197,7 @@
   </sheetPr>
   <dimension ref="A1:AN61"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="V34" sqref="V34"/>
     </sheetView>
   </sheetViews>
@@ -5256,15 +5266,15 @@
       <c r="S2" s="4"/>
       <c r="T2" s="27"/>
       <c r="U2" s="27"/>
-      <c r="V2" s="317" t="s">
+      <c r="V2" s="318" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="317"/>
-      <c r="X2" s="317"/>
-      <c r="Y2" s="317"/>
-      <c r="Z2" s="317"/>
-      <c r="AA2" s="317"/>
-      <c r="AB2" s="317"/>
+      <c r="W2" s="318"/>
+      <c r="X2" s="318"/>
+      <c r="Y2" s="318"/>
+      <c r="Z2" s="318"/>
+      <c r="AA2" s="318"/>
+      <c r="AB2" s="318"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="41"/>
@@ -5288,15 +5298,15 @@
       <c r="S3" s="41"/>
       <c r="T3" s="41"/>
       <c r="U3" s="41"/>
-      <c r="V3" s="318" t="s">
+      <c r="V3" s="319" t="s">
         <v>28</v>
       </c>
-      <c r="W3" s="318"/>
-      <c r="X3" s="318"/>
-      <c r="Y3" s="318"/>
-      <c r="Z3" s="318"/>
-      <c r="AA3" s="318"/>
-      <c r="AB3" s="318"/>
+      <c r="W3" s="319"/>
+      <c r="X3" s="319"/>
+      <c r="Y3" s="319"/>
+      <c r="Z3" s="319"/>
+      <c r="AA3" s="319"/>
+      <c r="AB3" s="319"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="41"/>
@@ -5320,15 +5330,15 @@
       <c r="S4" s="41"/>
       <c r="T4" s="41"/>
       <c r="U4" s="41"/>
-      <c r="V4" s="318" t="s">
+      <c r="V4" s="319" t="s">
         <v>29</v>
       </c>
-      <c r="W4" s="318"/>
-      <c r="X4" s="318"/>
-      <c r="Y4" s="318"/>
-      <c r="Z4" s="318"/>
-      <c r="AA4" s="318"/>
-      <c r="AB4" s="318"/>
+      <c r="W4" s="319"/>
+      <c r="X4" s="319"/>
+      <c r="Y4" s="319"/>
+      <c r="Z4" s="319"/>
+      <c r="AA4" s="319"/>
+      <c r="AB4" s="319"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="41"/>
@@ -5507,27 +5517,27 @@
       <c r="F10" s="62"/>
       <c r="G10" s="62"/>
       <c r="H10" s="62"/>
-      <c r="I10" s="321" t="s">
+      <c r="I10" s="322" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="321"/>
-      <c r="K10" s="321"/>
-      <c r="L10" s="321"/>
-      <c r="M10" s="321"/>
-      <c r="N10" s="321"/>
-      <c r="O10" s="321"/>
-      <c r="P10" s="321"/>
-      <c r="Q10" s="321"/>
-      <c r="R10" s="321"/>
-      <c r="S10" s="319" t="s">
+      <c r="J10" s="322"/>
+      <c r="K10" s="322"/>
+      <c r="L10" s="322"/>
+      <c r="M10" s="322"/>
+      <c r="N10" s="322"/>
+      <c r="O10" s="322"/>
+      <c r="P10" s="322"/>
+      <c r="Q10" s="322"/>
+      <c r="R10" s="322"/>
+      <c r="S10" s="320" t="s">
         <v>152</v>
       </c>
-      <c r="T10" s="319"/>
-      <c r="U10" s="319"/>
-      <c r="V10" s="319"/>
-      <c r="W10" s="319"/>
-      <c r="X10" s="319"/>
-      <c r="Y10" s="319"/>
+      <c r="T10" s="320"/>
+      <c r="U10" s="320"/>
+      <c r="V10" s="320"/>
+      <c r="W10" s="320"/>
+      <c r="X10" s="320"/>
+      <c r="Y10" s="320"/>
       <c r="Z10" s="26"/>
       <c r="AA10" s="26"/>
       <c r="AB10" s="26"/>
@@ -5545,36 +5555,36 @@
       <c r="AN10" s="8"/>
     </row>
     <row r="11" spans="1:40" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="322" t="s">
+      <c r="A11" s="323" t="s">
         <v>153</v>
       </c>
-      <c r="B11" s="322"/>
-      <c r="C11" s="322"/>
-      <c r="D11" s="322"/>
-      <c r="E11" s="322"/>
-      <c r="F11" s="322"/>
-      <c r="G11" s="322"/>
-      <c r="H11" s="322"/>
-      <c r="I11" s="322"/>
-      <c r="J11" s="322"/>
-      <c r="K11" s="322"/>
-      <c r="L11" s="322"/>
-      <c r="M11" s="322"/>
-      <c r="N11" s="322"/>
-      <c r="O11" s="322"/>
-      <c r="P11" s="322"/>
-      <c r="Q11" s="322"/>
-      <c r="R11" s="322"/>
-      <c r="S11" s="322"/>
-      <c r="T11" s="322"/>
-      <c r="U11" s="322"/>
-      <c r="V11" s="322"/>
-      <c r="W11" s="322"/>
-      <c r="X11" s="322"/>
-      <c r="Y11" s="322"/>
-      <c r="Z11" s="322"/>
-      <c r="AA11" s="322"/>
-      <c r="AB11" s="322"/>
+      <c r="B11" s="323"/>
+      <c r="C11" s="323"/>
+      <c r="D11" s="323"/>
+      <c r="E11" s="323"/>
+      <c r="F11" s="323"/>
+      <c r="G11" s="323"/>
+      <c r="H11" s="323"/>
+      <c r="I11" s="323"/>
+      <c r="J11" s="323"/>
+      <c r="K11" s="323"/>
+      <c r="L11" s="323"/>
+      <c r="M11" s="323"/>
+      <c r="N11" s="323"/>
+      <c r="O11" s="323"/>
+      <c r="P11" s="323"/>
+      <c r="Q11" s="323"/>
+      <c r="R11" s="323"/>
+      <c r="S11" s="323"/>
+      <c r="T11" s="323"/>
+      <c r="U11" s="323"/>
+      <c r="V11" s="323"/>
+      <c r="W11" s="323"/>
+      <c r="X11" s="323"/>
+      <c r="Y11" s="323"/>
+      <c r="Z11" s="323"/>
+      <c r="AA11" s="323"/>
+      <c r="AB11" s="323"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
@@ -5589,64 +5599,64 @@
       <c r="AN11" s="2"/>
     </row>
     <row r="12" spans="1:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="322"/>
-      <c r="B12" s="322"/>
-      <c r="C12" s="322"/>
-      <c r="D12" s="322"/>
-      <c r="E12" s="322"/>
-      <c r="F12" s="322"/>
-      <c r="G12" s="322"/>
-      <c r="H12" s="322"/>
-      <c r="I12" s="322"/>
-      <c r="J12" s="322"/>
-      <c r="K12" s="322"/>
-      <c r="L12" s="322"/>
-      <c r="M12" s="322"/>
-      <c r="N12" s="322"/>
-      <c r="O12" s="322"/>
-      <c r="P12" s="322"/>
-      <c r="Q12" s="322"/>
-      <c r="R12" s="322"/>
-      <c r="S12" s="322"/>
-      <c r="T12" s="322"/>
-      <c r="U12" s="322"/>
-      <c r="V12" s="322"/>
-      <c r="W12" s="322"/>
-      <c r="X12" s="322"/>
-      <c r="Y12" s="322"/>
-      <c r="Z12" s="322"/>
-      <c r="AA12" s="322"/>
-      <c r="AB12" s="322"/>
+      <c r="A12" s="323"/>
+      <c r="B12" s="323"/>
+      <c r="C12" s="323"/>
+      <c r="D12" s="323"/>
+      <c r="E12" s="323"/>
+      <c r="F12" s="323"/>
+      <c r="G12" s="323"/>
+      <c r="H12" s="323"/>
+      <c r="I12" s="323"/>
+      <c r="J12" s="323"/>
+      <c r="K12" s="323"/>
+      <c r="L12" s="323"/>
+      <c r="M12" s="323"/>
+      <c r="N12" s="323"/>
+      <c r="O12" s="323"/>
+      <c r="P12" s="323"/>
+      <c r="Q12" s="323"/>
+      <c r="R12" s="323"/>
+      <c r="S12" s="323"/>
+      <c r="T12" s="323"/>
+      <c r="U12" s="323"/>
+      <c r="V12" s="323"/>
+      <c r="W12" s="323"/>
+      <c r="X12" s="323"/>
+      <c r="Y12" s="323"/>
+      <c r="Z12" s="323"/>
+      <c r="AA12" s="323"/>
+      <c r="AB12" s="323"/>
     </row>
     <row r="13" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="322"/>
-      <c r="B13" s="322"/>
-      <c r="C13" s="322"/>
-      <c r="D13" s="322"/>
-      <c r="E13" s="322"/>
-      <c r="F13" s="322"/>
-      <c r="G13" s="322"/>
-      <c r="H13" s="322"/>
-      <c r="I13" s="322"/>
-      <c r="J13" s="322"/>
-      <c r="K13" s="322"/>
-      <c r="L13" s="322"/>
-      <c r="M13" s="322"/>
-      <c r="N13" s="322"/>
-      <c r="O13" s="322"/>
-      <c r="P13" s="322"/>
-      <c r="Q13" s="322"/>
-      <c r="R13" s="322"/>
-      <c r="S13" s="322"/>
-      <c r="T13" s="322"/>
-      <c r="U13" s="322"/>
-      <c r="V13" s="322"/>
-      <c r="W13" s="322"/>
-      <c r="X13" s="322"/>
-      <c r="Y13" s="322"/>
-      <c r="Z13" s="322"/>
-      <c r="AA13" s="322"/>
-      <c r="AB13" s="322"/>
+      <c r="A13" s="323"/>
+      <c r="B13" s="323"/>
+      <c r="C13" s="323"/>
+      <c r="D13" s="323"/>
+      <c r="E13" s="323"/>
+      <c r="F13" s="323"/>
+      <c r="G13" s="323"/>
+      <c r="H13" s="323"/>
+      <c r="I13" s="323"/>
+      <c r="J13" s="323"/>
+      <c r="K13" s="323"/>
+      <c r="L13" s="323"/>
+      <c r="M13" s="323"/>
+      <c r="N13" s="323"/>
+      <c r="O13" s="323"/>
+      <c r="P13" s="323"/>
+      <c r="Q13" s="323"/>
+      <c r="R13" s="323"/>
+      <c r="S13" s="323"/>
+      <c r="T13" s="323"/>
+      <c r="U13" s="323"/>
+      <c r="V13" s="323"/>
+      <c r="W13" s="323"/>
+      <c r="X13" s="323"/>
+      <c r="Y13" s="323"/>
+      <c r="Z13" s="323"/>
+      <c r="AA13" s="323"/>
+      <c r="AB13" s="323"/>
     </row>
     <row r="14" spans="1:40" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
@@ -5685,27 +5695,27 @@
       <c r="D15" s="16"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="317" t="s">
+      <c r="G15" s="318" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="317"/>
-      <c r="I15" s="317"/>
-      <c r="J15" s="317"/>
-      <c r="K15" s="317"/>
-      <c r="L15" s="320" t="s">
+      <c r="H15" s="318"/>
+      <c r="I15" s="318"/>
+      <c r="J15" s="318"/>
+      <c r="K15" s="318"/>
+      <c r="L15" s="321" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="320"/>
-      <c r="N15" s="320"/>
-      <c r="O15" s="320"/>
-      <c r="P15" s="320"/>
-      <c r="Q15" s="320"/>
-      <c r="R15" s="320"/>
-      <c r="S15" s="320"/>
-      <c r="T15" s="320"/>
-      <c r="U15" s="320"/>
-      <c r="V15" s="320"/>
-      <c r="W15" s="320"/>
+      <c r="M15" s="321"/>
+      <c r="N15" s="321"/>
+      <c r="O15" s="321"/>
+      <c r="P15" s="321"/>
+      <c r="Q15" s="321"/>
+      <c r="R15" s="321"/>
+      <c r="S15" s="321"/>
+      <c r="T15" s="321"/>
+      <c r="U15" s="321"/>
+      <c r="V15" s="321"/>
+      <c r="W15" s="321"/>
       <c r="X15" s="69"/>
       <c r="Y15" s="70"/>
       <c r="Z15" s="70"/>
@@ -5719,26 +5729,26 @@
       <c r="D16" s="16"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="317" t="s">
+      <c r="G16" s="318" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="317"/>
-      <c r="I16" s="317"/>
-      <c r="J16" s="317"/>
-      <c r="K16" s="317"/>
-      <c r="L16" s="320" t="s">
+      <c r="H16" s="318"/>
+      <c r="I16" s="318"/>
+      <c r="J16" s="318"/>
+      <c r="K16" s="318"/>
+      <c r="L16" s="321" t="s">
         <v>34</v>
       </c>
-      <c r="M16" s="320"/>
-      <c r="N16" s="320"/>
-      <c r="O16" s="320"/>
-      <c r="P16" s="320"/>
-      <c r="Q16" s="320"/>
-      <c r="R16" s="320"/>
-      <c r="S16" s="320"/>
-      <c r="T16" s="320"/>
-      <c r="U16" s="320"/>
-      <c r="V16" s="320"/>
+      <c r="M16" s="321"/>
+      <c r="N16" s="321"/>
+      <c r="O16" s="321"/>
+      <c r="P16" s="321"/>
+      <c r="Q16" s="321"/>
+      <c r="R16" s="321"/>
+      <c r="S16" s="321"/>
+      <c r="T16" s="321"/>
+      <c r="U16" s="321"/>
+      <c r="V16" s="321"/>
       <c r="W16" s="71"/>
       <c r="X16" s="71"/>
       <c r="Y16" s="50"/>
@@ -5753,31 +5763,31 @@
       <c r="D17" s="72"/>
       <c r="E17" s="72"/>
       <c r="F17" s="72"/>
-      <c r="G17" s="323" t="s">
+      <c r="G17" s="324" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="323"/>
-      <c r="I17" s="323"/>
-      <c r="J17" s="323"/>
-      <c r="K17" s="323"/>
-      <c r="L17" s="324" t="s">
+      <c r="H17" s="324"/>
+      <c r="I17" s="324"/>
+      <c r="J17" s="324"/>
+      <c r="K17" s="324"/>
+      <c r="L17" s="325" t="s">
         <v>36</v>
       </c>
-      <c r="M17" s="324"/>
-      <c r="N17" s="324"/>
-      <c r="O17" s="324"/>
-      <c r="P17" s="324"/>
-      <c r="Q17" s="324"/>
-      <c r="R17" s="324"/>
-      <c r="S17" s="324"/>
-      <c r="T17" s="324"/>
-      <c r="U17" s="324"/>
-      <c r="V17" s="324"/>
-      <c r="W17" s="324"/>
-      <c r="X17" s="324"/>
-      <c r="Y17" s="324"/>
-      <c r="Z17" s="324"/>
-      <c r="AA17" s="324"/>
+      <c r="M17" s="325"/>
+      <c r="N17" s="325"/>
+      <c r="O17" s="325"/>
+      <c r="P17" s="325"/>
+      <c r="Q17" s="325"/>
+      <c r="R17" s="325"/>
+      <c r="S17" s="325"/>
+      <c r="T17" s="325"/>
+      <c r="U17" s="325"/>
+      <c r="V17" s="325"/>
+      <c r="W17" s="325"/>
+      <c r="X17" s="325"/>
+      <c r="Y17" s="325"/>
+      <c r="Z17" s="325"/>
+      <c r="AA17" s="325"/>
       <c r="AB17" s="17"/>
     </row>
     <row r="18" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5787,19 +5797,19 @@
       <c r="D18" s="16"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="317" t="s">
+      <c r="G18" s="318" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="317"/>
-      <c r="I18" s="317"/>
-      <c r="J18" s="317"/>
-      <c r="K18" s="317"/>
-      <c r="L18" s="325" t="s">
+      <c r="H18" s="318"/>
+      <c r="I18" s="318"/>
+      <c r="J18" s="318"/>
+      <c r="K18" s="318"/>
+      <c r="L18" s="326" t="s">
         <v>24</v>
       </c>
-      <c r="M18" s="325"/>
-      <c r="N18" s="325"/>
-      <c r="O18" s="325"/>
+      <c r="M18" s="326"/>
+      <c r="N18" s="326"/>
+      <c r="O18" s="326"/>
       <c r="P18" s="71"/>
       <c r="Q18" s="71"/>
       <c r="R18" s="71"/>
@@ -5917,47 +5927,47 @@
       <c r="AB21" s="17"/>
     </row>
     <row r="22" spans="1:40" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="326" t="s">
+      <c r="A22" s="327" t="s">
         <v>157</v>
       </c>
-      <c r="B22" s="327" t="s">
+      <c r="B22" s="328" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="327"/>
-      <c r="D22" s="327"/>
-      <c r="E22" s="328" t="s">
+      <c r="C22" s="328"/>
+      <c r="D22" s="328"/>
+      <c r="E22" s="329" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="328"/>
-      <c r="G22" s="328"/>
-      <c r="H22" s="326" t="s">
+      <c r="F22" s="329"/>
+      <c r="G22" s="329"/>
+      <c r="H22" s="327" t="s">
         <v>40</v>
       </c>
-      <c r="I22" s="326"/>
-      <c r="J22" s="326"/>
-      <c r="K22" s="328" t="s">
+      <c r="I22" s="327"/>
+      <c r="J22" s="327"/>
+      <c r="K22" s="329" t="s">
         <v>41</v>
       </c>
-      <c r="L22" s="328"/>
-      <c r="M22" s="328"/>
-      <c r="N22" s="328"/>
-      <c r="O22" s="328"/>
-      <c r="P22" s="328"/>
-      <c r="Q22" s="328"/>
-      <c r="R22" s="328"/>
-      <c r="S22" s="328"/>
-      <c r="T22" s="328"/>
-      <c r="U22" s="328"/>
-      <c r="V22" s="329" t="s">
+      <c r="L22" s="329"/>
+      <c r="M22" s="329"/>
+      <c r="N22" s="329"/>
+      <c r="O22" s="329"/>
+      <c r="P22" s="329"/>
+      <c r="Q22" s="329"/>
+      <c r="R22" s="329"/>
+      <c r="S22" s="329"/>
+      <c r="T22" s="329"/>
+      <c r="U22" s="329"/>
+      <c r="V22" s="330" t="s">
         <v>42</v>
       </c>
-      <c r="W22" s="329"/>
-      <c r="X22" s="329"/>
-      <c r="Y22" s="326" t="s">
+      <c r="W22" s="330"/>
+      <c r="X22" s="330"/>
+      <c r="Y22" s="327" t="s">
         <v>43</v>
       </c>
-      <c r="Z22" s="326"/>
-      <c r="AA22" s="326"/>
+      <c r="Z22" s="327"/>
+      <c r="AA22" s="327"/>
       <c r="AB22" s="43"/>
       <c r="AC22" s="11"/>
       <c r="AD22" s="11"/>
@@ -5973,33 +5983,33 @@
       <c r="AN22" s="11"/>
     </row>
     <row r="23" spans="1:40" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="326"/>
-      <c r="B23" s="327"/>
-      <c r="C23" s="327"/>
-      <c r="D23" s="327"/>
-      <c r="E23" s="328"/>
-      <c r="F23" s="328"/>
-      <c r="G23" s="328"/>
-      <c r="H23" s="326"/>
-      <c r="I23" s="326"/>
-      <c r="J23" s="326"/>
-      <c r="K23" s="328"/>
-      <c r="L23" s="328"/>
-      <c r="M23" s="328"/>
-      <c r="N23" s="328"/>
-      <c r="O23" s="328"/>
-      <c r="P23" s="328"/>
-      <c r="Q23" s="328"/>
-      <c r="R23" s="328"/>
-      <c r="S23" s="328"/>
-      <c r="T23" s="328"/>
-      <c r="U23" s="328"/>
-      <c r="V23" s="329"/>
-      <c r="W23" s="329"/>
-      <c r="X23" s="329"/>
-      <c r="Y23" s="326"/>
-      <c r="Z23" s="326"/>
-      <c r="AA23" s="326"/>
+      <c r="A23" s="327"/>
+      <c r="B23" s="328"/>
+      <c r="C23" s="328"/>
+      <c r="D23" s="328"/>
+      <c r="E23" s="329"/>
+      <c r="F23" s="329"/>
+      <c r="G23" s="329"/>
+      <c r="H23" s="327"/>
+      <c r="I23" s="327"/>
+      <c r="J23" s="327"/>
+      <c r="K23" s="329"/>
+      <c r="L23" s="329"/>
+      <c r="M23" s="329"/>
+      <c r="N23" s="329"/>
+      <c r="O23" s="329"/>
+      <c r="P23" s="329"/>
+      <c r="Q23" s="329"/>
+      <c r="R23" s="329"/>
+      <c r="S23" s="329"/>
+      <c r="T23" s="329"/>
+      <c r="U23" s="329"/>
+      <c r="V23" s="330"/>
+      <c r="W23" s="330"/>
+      <c r="X23" s="330"/>
+      <c r="Y23" s="327"/>
+      <c r="Z23" s="327"/>
+      <c r="AA23" s="327"/>
       <c r="AB23" s="43"/>
       <c r="AC23" s="11"/>
       <c r="AD23" s="11"/>
@@ -6015,41 +6025,41 @@
       <c r="AN23" s="11"/>
     </row>
     <row r="24" spans="1:40" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="326"/>
-      <c r="B24" s="327"/>
-      <c r="C24" s="327"/>
-      <c r="D24" s="327"/>
-      <c r="E24" s="328"/>
-      <c r="F24" s="328"/>
-      <c r="G24" s="328"/>
-      <c r="H24" s="326"/>
-      <c r="I24" s="326"/>
-      <c r="J24" s="326"/>
-      <c r="K24" s="326" t="s">
+      <c r="A24" s="327"/>
+      <c r="B24" s="328"/>
+      <c r="C24" s="328"/>
+      <c r="D24" s="328"/>
+      <c r="E24" s="329"/>
+      <c r="F24" s="329"/>
+      <c r="G24" s="329"/>
+      <c r="H24" s="327"/>
+      <c r="I24" s="327"/>
+      <c r="J24" s="327"/>
+      <c r="K24" s="327" t="s">
         <v>44</v>
       </c>
-      <c r="L24" s="326"/>
-      <c r="M24" s="326"/>
-      <c r="N24" s="326"/>
-      <c r="O24" s="326"/>
-      <c r="P24" s="328" t="s">
+      <c r="L24" s="327"/>
+      <c r="M24" s="327"/>
+      <c r="N24" s="327"/>
+      <c r="O24" s="327"/>
+      <c r="P24" s="329" t="s">
         <v>45</v>
       </c>
-      <c r="Q24" s="328"/>
-      <c r="R24" s="326" t="s">
+      <c r="Q24" s="329"/>
+      <c r="R24" s="327" t="s">
         <v>46</v>
       </c>
-      <c r="S24" s="326"/>
-      <c r="T24" s="326" t="s">
+      <c r="S24" s="327"/>
+      <c r="T24" s="327" t="s">
         <v>47</v>
       </c>
-      <c r="U24" s="326"/>
-      <c r="V24" s="329"/>
-      <c r="W24" s="329"/>
-      <c r="X24" s="329"/>
-      <c r="Y24" s="326"/>
-      <c r="Z24" s="326"/>
-      <c r="AA24" s="326"/>
+      <c r="U24" s="327"/>
+      <c r="V24" s="330"/>
+      <c r="W24" s="330"/>
+      <c r="X24" s="330"/>
+      <c r="Y24" s="327"/>
+      <c r="Z24" s="327"/>
+      <c r="AA24" s="327"/>
       <c r="AB24" s="43"/>
       <c r="AC24" s="11"/>
       <c r="AD24" s="11"/>
@@ -6066,32 +6076,32 @@
     </row>
     <row r="25" spans="1:40" s="7" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="198"/>
-      <c r="B25" s="331"/>
-      <c r="C25" s="331"/>
-      <c r="D25" s="331"/>
-      <c r="E25" s="331"/>
-      <c r="F25" s="331"/>
-      <c r="G25" s="331"/>
-      <c r="H25" s="331"/>
-      <c r="I25" s="331"/>
-      <c r="J25" s="331"/>
-      <c r="K25" s="331"/>
-      <c r="L25" s="331"/>
-      <c r="M25" s="331"/>
-      <c r="N25" s="331"/>
-      <c r="O25" s="331"/>
-      <c r="P25" s="330"/>
-      <c r="Q25" s="330"/>
-      <c r="R25" s="330"/>
-      <c r="S25" s="330"/>
-      <c r="T25" s="330"/>
-      <c r="U25" s="330"/>
-      <c r="V25" s="331"/>
-      <c r="W25" s="331"/>
-      <c r="X25" s="331"/>
-      <c r="Y25" s="331"/>
-      <c r="Z25" s="331"/>
-      <c r="AA25" s="331"/>
+      <c r="B25" s="332"/>
+      <c r="C25" s="332"/>
+      <c r="D25" s="332"/>
+      <c r="E25" s="332"/>
+      <c r="F25" s="332"/>
+      <c r="G25" s="332"/>
+      <c r="H25" s="332"/>
+      <c r="I25" s="332"/>
+      <c r="J25" s="332"/>
+      <c r="K25" s="332"/>
+      <c r="L25" s="332"/>
+      <c r="M25" s="332"/>
+      <c r="N25" s="332"/>
+      <c r="O25" s="332"/>
+      <c r="P25" s="331"/>
+      <c r="Q25" s="331"/>
+      <c r="R25" s="331"/>
+      <c r="S25" s="331"/>
+      <c r="T25" s="331"/>
+      <c r="U25" s="331"/>
+      <c r="V25" s="332"/>
+      <c r="W25" s="332"/>
+      <c r="X25" s="332"/>
+      <c r="Y25" s="332"/>
+      <c r="Z25" s="332"/>
+      <c r="AA25" s="332"/>
       <c r="AB25" s="28"/>
       <c r="AC25" s="6"/>
       <c r="AD25" s="6"/>
@@ -7390,7 +7400,7 @@
   </sheetPr>
   <dimension ref="A1:AN71"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="A45" sqref="A45:H47"/>
     </sheetView>
   </sheetViews>
@@ -7431,11 +7441,11 @@
       <c r="Z1" s="67"/>
       <c r="AA1" s="67"/>
       <c r="AB1" s="67"/>
-      <c r="AC1" s="333" t="s">
+      <c r="AC1" s="334" t="s">
         <v>66</v>
       </c>
-      <c r="AD1" s="333"/>
-      <c r="AE1" s="333"/>
+      <c r="AD1" s="334"/>
+      <c r="AE1" s="334"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -7468,154 +7478,154 @@
       <c r="AB2" s="51"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="334" t="s">
+      <c r="A3" s="335" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="334"/>
-      <c r="C3" s="334"/>
-      <c r="D3" s="334"/>
-      <c r="E3" s="334"/>
-      <c r="F3" s="334"/>
-      <c r="G3" s="334"/>
-      <c r="H3" s="334"/>
-      <c r="I3" s="334"/>
-      <c r="J3" s="334"/>
-      <c r="K3" s="334"/>
-      <c r="L3" s="334"/>
-      <c r="M3" s="334"/>
-      <c r="N3" s="334"/>
-      <c r="O3" s="334"/>
-      <c r="P3" s="334"/>
-      <c r="Q3" s="335" t="s">
+      <c r="B3" s="335"/>
+      <c r="C3" s="335"/>
+      <c r="D3" s="335"/>
+      <c r="E3" s="335"/>
+      <c r="F3" s="335"/>
+      <c r="G3" s="335"/>
+      <c r="H3" s="335"/>
+      <c r="I3" s="335"/>
+      <c r="J3" s="335"/>
+      <c r="K3" s="335"/>
+      <c r="L3" s="335"/>
+      <c r="M3" s="335"/>
+      <c r="N3" s="335"/>
+      <c r="O3" s="335"/>
+      <c r="P3" s="335"/>
+      <c r="Q3" s="336" t="s">
         <v>68</v>
       </c>
-      <c r="R3" s="335"/>
-      <c r="S3" s="335"/>
-      <c r="T3" s="335"/>
-      <c r="U3" s="335"/>
-      <c r="V3" s="335"/>
-      <c r="W3" s="335"/>
-      <c r="X3" s="335"/>
-      <c r="Y3" s="335"/>
-      <c r="Z3" s="335"/>
-      <c r="AA3" s="335"/>
-      <c r="AB3" s="335"/>
-      <c r="AC3" s="335"/>
-      <c r="AD3" s="335"/>
-      <c r="AE3" s="335"/>
-      <c r="AF3" s="335"/>
+      <c r="R3" s="336"/>
+      <c r="S3" s="336"/>
+      <c r="T3" s="336"/>
+      <c r="U3" s="336"/>
+      <c r="V3" s="336"/>
+      <c r="W3" s="336"/>
+      <c r="X3" s="336"/>
+      <c r="Y3" s="336"/>
+      <c r="Z3" s="336"/>
+      <c r="AA3" s="336"/>
+      <c r="AB3" s="336"/>
+      <c r="AC3" s="336"/>
+      <c r="AD3" s="336"/>
+      <c r="AE3" s="336"/>
+      <c r="AF3" s="336"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="334" t="s">
+      <c r="A4" s="335" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="334"/>
-      <c r="C4" s="334"/>
-      <c r="D4" s="334"/>
-      <c r="E4" s="334"/>
-      <c r="F4" s="334"/>
-      <c r="G4" s="334"/>
-      <c r="H4" s="334"/>
-      <c r="I4" s="334"/>
-      <c r="J4" s="334"/>
-      <c r="K4" s="334"/>
-      <c r="L4" s="334"/>
-      <c r="M4" s="334"/>
-      <c r="N4" s="334"/>
-      <c r="O4" s="334"/>
-      <c r="P4" s="334"/>
-      <c r="Q4" s="336" t="s">
+      <c r="B4" s="335"/>
+      <c r="C4" s="335"/>
+      <c r="D4" s="335"/>
+      <c r="E4" s="335"/>
+      <c r="F4" s="335"/>
+      <c r="G4" s="335"/>
+      <c r="H4" s="335"/>
+      <c r="I4" s="335"/>
+      <c r="J4" s="335"/>
+      <c r="K4" s="335"/>
+      <c r="L4" s="335"/>
+      <c r="M4" s="335"/>
+      <c r="N4" s="335"/>
+      <c r="O4" s="335"/>
+      <c r="P4" s="335"/>
+      <c r="Q4" s="337" t="s">
         <v>70</v>
       </c>
-      <c r="R4" s="336"/>
-      <c r="S4" s="336"/>
-      <c r="T4" s="336"/>
-      <c r="U4" s="336"/>
-      <c r="V4" s="336"/>
-      <c r="W4" s="336"/>
-      <c r="X4" s="336"/>
-      <c r="Y4" s="336"/>
-      <c r="Z4" s="336"/>
-      <c r="AA4" s="336"/>
-      <c r="AB4" s="336"/>
-      <c r="AC4" s="336"/>
-      <c r="AD4" s="336"/>
-      <c r="AE4" s="336"/>
-      <c r="AF4" s="336"/>
+      <c r="R4" s="337"/>
+      <c r="S4" s="337"/>
+      <c r="T4" s="337"/>
+      <c r="U4" s="337"/>
+      <c r="V4" s="337"/>
+      <c r="W4" s="337"/>
+      <c r="X4" s="337"/>
+      <c r="Y4" s="337"/>
+      <c r="Z4" s="337"/>
+      <c r="AA4" s="337"/>
+      <c r="AB4" s="337"/>
+      <c r="AC4" s="337"/>
+      <c r="AD4" s="337"/>
+      <c r="AE4" s="337"/>
+      <c r="AF4" s="337"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="334" t="s">
+      <c r="A5" s="335" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="334"/>
-      <c r="C5" s="334"/>
-      <c r="D5" s="334"/>
-      <c r="E5" s="334"/>
-      <c r="F5" s="334"/>
-      <c r="G5" s="334"/>
-      <c r="H5" s="334"/>
-      <c r="I5" s="334"/>
-      <c r="J5" s="334"/>
-      <c r="K5" s="334"/>
-      <c r="L5" s="334"/>
-      <c r="M5" s="334"/>
-      <c r="N5" s="334"/>
-      <c r="O5" s="334"/>
-      <c r="P5" s="334"/>
-      <c r="Q5" s="336"/>
-      <c r="R5" s="336"/>
-      <c r="S5" s="336"/>
-      <c r="T5" s="336"/>
-      <c r="U5" s="336"/>
-      <c r="V5" s="336"/>
-      <c r="W5" s="336"/>
-      <c r="X5" s="336"/>
-      <c r="Y5" s="336"/>
-      <c r="Z5" s="336"/>
-      <c r="AA5" s="336"/>
-      <c r="AB5" s="336"/>
-      <c r="AC5" s="336"/>
-      <c r="AD5" s="336"/>
-      <c r="AE5" s="336"/>
-      <c r="AF5" s="336"/>
+      <c r="B5" s="335"/>
+      <c r="C5" s="335"/>
+      <c r="D5" s="335"/>
+      <c r="E5" s="335"/>
+      <c r="F5" s="335"/>
+      <c r="G5" s="335"/>
+      <c r="H5" s="335"/>
+      <c r="I5" s="335"/>
+      <c r="J5" s="335"/>
+      <c r="K5" s="335"/>
+      <c r="L5" s="335"/>
+      <c r="M5" s="335"/>
+      <c r="N5" s="335"/>
+      <c r="O5" s="335"/>
+      <c r="P5" s="335"/>
+      <c r="Q5" s="337"/>
+      <c r="R5" s="337"/>
+      <c r="S5" s="337"/>
+      <c r="T5" s="337"/>
+      <c r="U5" s="337"/>
+      <c r="V5" s="337"/>
+      <c r="W5" s="337"/>
+      <c r="X5" s="337"/>
+      <c r="Y5" s="337"/>
+      <c r="Z5" s="337"/>
+      <c r="AA5" s="337"/>
+      <c r="AB5" s="337"/>
+      <c r="AC5" s="337"/>
+      <c r="AD5" s="337"/>
+      <c r="AE5" s="337"/>
+      <c r="AF5" s="337"/>
     </row>
     <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="337" t="s">
+      <c r="A6" s="338" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="337"/>
-      <c r="C6" s="337"/>
-      <c r="D6" s="338" t="s">
+      <c r="B6" s="338"/>
+      <c r="C6" s="338"/>
+      <c r="D6" s="339" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="338"/>
-      <c r="F6" s="338"/>
-      <c r="G6" s="338"/>
-      <c r="H6" s="338"/>
-      <c r="I6" s="338"/>
-      <c r="J6" s="338"/>
-      <c r="K6" s="338"/>
-      <c r="L6" s="338"/>
-      <c r="M6" s="338"/>
-      <c r="N6" s="338"/>
-      <c r="O6" s="338"/>
-      <c r="P6" s="338"/>
-      <c r="Q6" s="336"/>
-      <c r="R6" s="336"/>
-      <c r="S6" s="336"/>
-      <c r="T6" s="336"/>
-      <c r="U6" s="336"/>
-      <c r="V6" s="336"/>
-      <c r="W6" s="336"/>
-      <c r="X6" s="336"/>
-      <c r="Y6" s="336"/>
-      <c r="Z6" s="336"/>
-      <c r="AA6" s="336"/>
-      <c r="AB6" s="336"/>
-      <c r="AC6" s="336"/>
-      <c r="AD6" s="336"/>
-      <c r="AE6" s="336"/>
-      <c r="AF6" s="336"/>
+      <c r="E6" s="339"/>
+      <c r="F6" s="339"/>
+      <c r="G6" s="339"/>
+      <c r="H6" s="339"/>
+      <c r="I6" s="339"/>
+      <c r="J6" s="339"/>
+      <c r="K6" s="339"/>
+      <c r="L6" s="339"/>
+      <c r="M6" s="339"/>
+      <c r="N6" s="339"/>
+      <c r="O6" s="339"/>
+      <c r="P6" s="339"/>
+      <c r="Q6" s="337"/>
+      <c r="R6" s="337"/>
+      <c r="S6" s="337"/>
+      <c r="T6" s="337"/>
+      <c r="U6" s="337"/>
+      <c r="V6" s="337"/>
+      <c r="W6" s="337"/>
+      <c r="X6" s="337"/>
+      <c r="Y6" s="337"/>
+      <c r="Z6" s="337"/>
+      <c r="AA6" s="337"/>
+      <c r="AB6" s="337"/>
+      <c r="AC6" s="337"/>
+      <c r="AD6" s="337"/>
+      <c r="AE6" s="337"/>
+      <c r="AF6" s="337"/>
     </row>
     <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="90"/>
@@ -7686,40 +7696,40 @@
       <c r="AF8" s="91"/>
     </row>
     <row r="9" spans="1:40" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="339" t="s">
+      <c r="A9" s="340" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="340"/>
-      <c r="C9" s="340"/>
-      <c r="D9" s="340"/>
-      <c r="E9" s="340"/>
-      <c r="F9" s="340"/>
-      <c r="G9" s="340"/>
-      <c r="H9" s="340"/>
-      <c r="I9" s="340"/>
-      <c r="J9" s="340"/>
-      <c r="K9" s="340"/>
-      <c r="L9" s="340"/>
-      <c r="M9" s="340"/>
-      <c r="N9" s="340"/>
-      <c r="O9" s="340"/>
-      <c r="P9" s="340"/>
-      <c r="Q9" s="340"/>
-      <c r="R9" s="340"/>
-      <c r="S9" s="340"/>
-      <c r="T9" s="340"/>
-      <c r="U9" s="340"/>
-      <c r="V9" s="340"/>
-      <c r="W9" s="340"/>
-      <c r="X9" s="340"/>
-      <c r="Y9" s="340"/>
-      <c r="Z9" s="340"/>
-      <c r="AA9" s="340"/>
-      <c r="AB9" s="340"/>
-      <c r="AC9" s="340"/>
-      <c r="AD9" s="340"/>
-      <c r="AE9" s="340"/>
-      <c r="AF9" s="340"/>
+      <c r="B9" s="341"/>
+      <c r="C9" s="341"/>
+      <c r="D9" s="341"/>
+      <c r="E9" s="341"/>
+      <c r="F9" s="341"/>
+      <c r="G9" s="341"/>
+      <c r="H9" s="341"/>
+      <c r="I9" s="341"/>
+      <c r="J9" s="341"/>
+      <c r="K9" s="341"/>
+      <c r="L9" s="341"/>
+      <c r="M9" s="341"/>
+      <c r="N9" s="341"/>
+      <c r="O9" s="341"/>
+      <c r="P9" s="341"/>
+      <c r="Q9" s="341"/>
+      <c r="R9" s="341"/>
+      <c r="S9" s="341"/>
+      <c r="T9" s="341"/>
+      <c r="U9" s="341"/>
+      <c r="V9" s="341"/>
+      <c r="W9" s="341"/>
+      <c r="X9" s="341"/>
+      <c r="Y9" s="341"/>
+      <c r="Z9" s="341"/>
+      <c r="AA9" s="341"/>
+      <c r="AB9" s="341"/>
+      <c r="AC9" s="341"/>
+      <c r="AD9" s="341"/>
+      <c r="AE9" s="341"/>
+      <c r="AF9" s="341"/>
       <c r="AG9" s="6"/>
       <c r="AH9" s="6"/>
       <c r="AI9" s="6"/>
@@ -7768,40 +7778,40 @@
       <c r="AN10" s="8"/>
     </row>
     <row r="11" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="339" t="s">
+      <c r="A11" s="340" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="339"/>
-      <c r="C11" s="339"/>
-      <c r="D11" s="339"/>
-      <c r="E11" s="339"/>
-      <c r="F11" s="339"/>
-      <c r="G11" s="339"/>
-      <c r="H11" s="339"/>
-      <c r="I11" s="339"/>
-      <c r="J11" s="339"/>
-      <c r="K11" s="339"/>
-      <c r="L11" s="339"/>
-      <c r="M11" s="339"/>
-      <c r="N11" s="339"/>
-      <c r="O11" s="339"/>
-      <c r="P11" s="339"/>
-      <c r="Q11" s="339"/>
-      <c r="R11" s="339"/>
-      <c r="S11" s="339"/>
-      <c r="T11" s="339"/>
-      <c r="U11" s="339"/>
-      <c r="V11" s="339"/>
-      <c r="W11" s="339"/>
-      <c r="X11" s="339"/>
-      <c r="Y11" s="339"/>
-      <c r="Z11" s="339"/>
-      <c r="AA11" s="339"/>
-      <c r="AB11" s="339"/>
-      <c r="AC11" s="339"/>
-      <c r="AD11" s="339"/>
-      <c r="AE11" s="339"/>
-      <c r="AF11" s="339"/>
+      <c r="B11" s="340"/>
+      <c r="C11" s="340"/>
+      <c r="D11" s="340"/>
+      <c r="E11" s="340"/>
+      <c r="F11" s="340"/>
+      <c r="G11" s="340"/>
+      <c r="H11" s="340"/>
+      <c r="I11" s="340"/>
+      <c r="J11" s="340"/>
+      <c r="K11" s="340"/>
+      <c r="L11" s="340"/>
+      <c r="M11" s="340"/>
+      <c r="N11" s="340"/>
+      <c r="O11" s="340"/>
+      <c r="P11" s="340"/>
+      <c r="Q11" s="340"/>
+      <c r="R11" s="340"/>
+      <c r="S11" s="340"/>
+      <c r="T11" s="340"/>
+      <c r="U11" s="340"/>
+      <c r="V11" s="340"/>
+      <c r="W11" s="340"/>
+      <c r="X11" s="340"/>
+      <c r="Y11" s="340"/>
+      <c r="Z11" s="340"/>
+      <c r="AA11" s="340"/>
+      <c r="AB11" s="340"/>
+      <c r="AC11" s="340"/>
+      <c r="AD11" s="340"/>
+      <c r="AE11" s="340"/>
+      <c r="AF11" s="340"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
@@ -7873,12 +7883,12 @@
       <c r="Y13" s="93"/>
       <c r="Z13" s="93"/>
       <c r="AA13" s="93"/>
-      <c r="AB13" s="341" t="s">
+      <c r="AB13" s="342" t="s">
         <v>75</v>
       </c>
-      <c r="AC13" s="341"/>
-      <c r="AD13" s="341"/>
-      <c r="AE13" s="341"/>
+      <c r="AC13" s="342"/>
+      <c r="AD13" s="342"/>
+      <c r="AE13" s="342"/>
       <c r="AF13" s="73"/>
     </row>
     <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7968,25 +7978,25 @@
       <c r="L16" s="103"/>
       <c r="M16" s="103"/>
       <c r="N16" s="103"/>
-      <c r="O16" s="342" t="s">
+      <c r="O16" s="343" t="s">
         <v>154</v>
       </c>
-      <c r="P16" s="342"/>
-      <c r="Q16" s="342"/>
-      <c r="R16" s="342"/>
-      <c r="S16" s="342"/>
-      <c r="T16" s="342"/>
-      <c r="U16" s="342"/>
-      <c r="V16" s="342"/>
-      <c r="W16" s="342"/>
-      <c r="X16" s="342"/>
-      <c r="Y16" s="342"/>
-      <c r="Z16" s="342"/>
-      <c r="AA16" s="342"/>
-      <c r="AB16" s="342"/>
-      <c r="AC16" s="342"/>
-      <c r="AD16" s="342"/>
-      <c r="AE16" s="342"/>
+      <c r="P16" s="343"/>
+      <c r="Q16" s="343"/>
+      <c r="R16" s="343"/>
+      <c r="S16" s="343"/>
+      <c r="T16" s="343"/>
+      <c r="U16" s="343"/>
+      <c r="V16" s="343"/>
+      <c r="W16" s="343"/>
+      <c r="X16" s="343"/>
+      <c r="Y16" s="343"/>
+      <c r="Z16" s="343"/>
+      <c r="AA16" s="343"/>
+      <c r="AB16" s="343"/>
+      <c r="AC16" s="343"/>
+      <c r="AD16" s="343"/>
+      <c r="AE16" s="343"/>
       <c r="AF16" s="73"/>
     </row>
     <row r="17" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -7999,32 +8009,32 @@
       <c r="E17" s="101"/>
       <c r="F17" s="101"/>
       <c r="G17" s="102"/>
-      <c r="H17" s="343" t="s">
+      <c r="H17" s="344" t="s">
         <v>79</v>
       </c>
-      <c r="I17" s="343"/>
-      <c r="J17" s="343"/>
-      <c r="K17" s="343"/>
-      <c r="L17" s="343"/>
-      <c r="M17" s="343"/>
-      <c r="N17" s="343"/>
-      <c r="O17" s="343"/>
-      <c r="P17" s="343"/>
-      <c r="Q17" s="343"/>
-      <c r="R17" s="343"/>
-      <c r="S17" s="343"/>
-      <c r="T17" s="343"/>
-      <c r="U17" s="343"/>
-      <c r="V17" s="343"/>
-      <c r="W17" s="343"/>
-      <c r="X17" s="343"/>
-      <c r="Y17" s="343"/>
-      <c r="Z17" s="343"/>
-      <c r="AA17" s="343"/>
-      <c r="AB17" s="343"/>
-      <c r="AC17" s="343"/>
-      <c r="AD17" s="343"/>
-      <c r="AE17" s="343"/>
+      <c r="I17" s="344"/>
+      <c r="J17" s="344"/>
+      <c r="K17" s="344"/>
+      <c r="L17" s="344"/>
+      <c r="M17" s="344"/>
+      <c r="N17" s="344"/>
+      <c r="O17" s="344"/>
+      <c r="P17" s="344"/>
+      <c r="Q17" s="344"/>
+      <c r="R17" s="344"/>
+      <c r="S17" s="344"/>
+      <c r="T17" s="344"/>
+      <c r="U17" s="344"/>
+      <c r="V17" s="344"/>
+      <c r="W17" s="344"/>
+      <c r="X17" s="344"/>
+      <c r="Y17" s="344"/>
+      <c r="Z17" s="344"/>
+      <c r="AA17" s="344"/>
+      <c r="AB17" s="344"/>
+      <c r="AC17" s="344"/>
+      <c r="AD17" s="344"/>
+      <c r="AE17" s="344"/>
       <c r="AF17" s="73"/>
     </row>
     <row r="18" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -8043,26 +8053,26 @@
       <c r="K18" s="103"/>
       <c r="L18" s="103"/>
       <c r="M18" s="103"/>
-      <c r="N18" s="332" t="s">
+      <c r="N18" s="333" t="s">
         <v>81</v>
       </c>
-      <c r="O18" s="332"/>
-      <c r="P18" s="332"/>
-      <c r="Q18" s="332"/>
-      <c r="R18" s="332"/>
-      <c r="S18" s="332"/>
-      <c r="T18" s="332"/>
-      <c r="U18" s="332"/>
-      <c r="V18" s="332"/>
-      <c r="W18" s="332"/>
-      <c r="X18" s="332"/>
-      <c r="Y18" s="332"/>
-      <c r="Z18" s="332"/>
-      <c r="AA18" s="332"/>
-      <c r="AB18" s="332"/>
-      <c r="AC18" s="332"/>
-      <c r="AD18" s="332"/>
-      <c r="AE18" s="332"/>
+      <c r="O18" s="333"/>
+      <c r="P18" s="333"/>
+      <c r="Q18" s="333"/>
+      <c r="R18" s="333"/>
+      <c r="S18" s="333"/>
+      <c r="T18" s="333"/>
+      <c r="U18" s="333"/>
+      <c r="V18" s="333"/>
+      <c r="W18" s="333"/>
+      <c r="X18" s="333"/>
+      <c r="Y18" s="333"/>
+      <c r="Z18" s="333"/>
+      <c r="AA18" s="333"/>
+      <c r="AB18" s="333"/>
+      <c r="AC18" s="333"/>
+      <c r="AD18" s="333"/>
+      <c r="AE18" s="333"/>
       <c r="AF18" s="73"/>
     </row>
     <row r="19" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8080,27 +8090,27 @@
       <c r="J19" s="104"/>
       <c r="K19" s="104"/>
       <c r="L19" s="105"/>
-      <c r="M19" s="350" t="s">
+      <c r="M19" s="351" t="s">
         <v>36</v>
       </c>
-      <c r="N19" s="350"/>
-      <c r="O19" s="350"/>
-      <c r="P19" s="350"/>
-      <c r="Q19" s="350"/>
-      <c r="R19" s="350"/>
-      <c r="S19" s="350"/>
-      <c r="T19" s="350"/>
-      <c r="U19" s="350"/>
-      <c r="V19" s="350"/>
-      <c r="W19" s="350"/>
-      <c r="X19" s="350"/>
-      <c r="Y19" s="350"/>
-      <c r="Z19" s="350"/>
-      <c r="AA19" s="350"/>
-      <c r="AB19" s="350"/>
-      <c r="AC19" s="350"/>
-      <c r="AD19" s="350"/>
-      <c r="AE19" s="350"/>
+      <c r="N19" s="351"/>
+      <c r="O19" s="351"/>
+      <c r="P19" s="351"/>
+      <c r="Q19" s="351"/>
+      <c r="R19" s="351"/>
+      <c r="S19" s="351"/>
+      <c r="T19" s="351"/>
+      <c r="U19" s="351"/>
+      <c r="V19" s="351"/>
+      <c r="W19" s="351"/>
+      <c r="X19" s="351"/>
+      <c r="Y19" s="351"/>
+      <c r="Z19" s="351"/>
+      <c r="AA19" s="351"/>
+      <c r="AB19" s="351"/>
+      <c r="AC19" s="351"/>
+      <c r="AD19" s="351"/>
+      <c r="AE19" s="351"/>
       <c r="AF19" s="73"/>
     </row>
     <row r="20" spans="1:40" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8184,32 +8194,32 @@
       </c>
       <c r="E22" s="109"/>
       <c r="F22" s="109"/>
-      <c r="G22" s="353" t="s">
+      <c r="G22" s="354" t="s">
         <v>155</v>
       </c>
-      <c r="H22" s="353"/>
-      <c r="I22" s="353"/>
-      <c r="J22" s="353"/>
-      <c r="K22" s="353"/>
-      <c r="L22" s="353"/>
-      <c r="M22" s="353"/>
-      <c r="N22" s="353"/>
+      <c r="H22" s="354"/>
+      <c r="I22" s="354"/>
+      <c r="J22" s="354"/>
+      <c r="K22" s="354"/>
+      <c r="L22" s="354"/>
+      <c r="M22" s="354"/>
+      <c r="N22" s="354"/>
       <c r="O22" s="109"/>
       <c r="P22" s="108" t="s">
         <v>84</v>
       </c>
       <c r="Q22" s="109"/>
       <c r="R22" s="109"/>
-      <c r="S22" s="353" t="s">
+      <c r="S22" s="354" t="s">
         <v>85</v>
       </c>
-      <c r="T22" s="353"/>
-      <c r="U22" s="353"/>
-      <c r="V22" s="353"/>
-      <c r="W22" s="353"/>
-      <c r="X22" s="353"/>
-      <c r="Y22" s="353"/>
-      <c r="Z22" s="353"/>
+      <c r="T22" s="354"/>
+      <c r="U22" s="354"/>
+      <c r="V22" s="354"/>
+      <c r="W22" s="354"/>
+      <c r="X22" s="354"/>
+      <c r="Y22" s="354"/>
+      <c r="Z22" s="354"/>
       <c r="AA22" s="106"/>
       <c r="AB22" s="43"/>
       <c r="AG22" s="11"/>
@@ -8415,142 +8425,142 @@
     </row>
     <row r="28" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="99"/>
-      <c r="B28" s="351" t="s">
+      <c r="B28" s="352" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="351"/>
-      <c r="D28" s="351"/>
-      <c r="E28" s="351"/>
-      <c r="F28" s="351"/>
-      <c r="G28" s="351"/>
-      <c r="H28" s="351"/>
-      <c r="I28" s="351"/>
-      <c r="J28" s="351"/>
-      <c r="K28" s="351"/>
-      <c r="L28" s="351"/>
-      <c r="M28" s="351"/>
-      <c r="N28" s="351"/>
-      <c r="O28" s="351"/>
-      <c r="P28" s="351"/>
-      <c r="Q28" s="351"/>
-      <c r="R28" s="351"/>
-      <c r="S28" s="351"/>
-      <c r="T28" s="351"/>
-      <c r="U28" s="351"/>
-      <c r="V28" s="351"/>
-      <c r="W28" s="351"/>
-      <c r="X28" s="351"/>
-      <c r="Y28" s="351"/>
-      <c r="Z28" s="351"/>
-      <c r="AA28" s="351"/>
-      <c r="AB28" s="351"/>
-      <c r="AC28" s="351"/>
-      <c r="AD28" s="351"/>
-      <c r="AE28" s="351"/>
+      <c r="C28" s="352"/>
+      <c r="D28" s="352"/>
+      <c r="E28" s="352"/>
+      <c r="F28" s="352"/>
+      <c r="G28" s="352"/>
+      <c r="H28" s="352"/>
+      <c r="I28" s="352"/>
+      <c r="J28" s="352"/>
+      <c r="K28" s="352"/>
+      <c r="L28" s="352"/>
+      <c r="M28" s="352"/>
+      <c r="N28" s="352"/>
+      <c r="O28" s="352"/>
+      <c r="P28" s="352"/>
+      <c r="Q28" s="352"/>
+      <c r="R28" s="352"/>
+      <c r="S28" s="352"/>
+      <c r="T28" s="352"/>
+      <c r="U28" s="352"/>
+      <c r="V28" s="352"/>
+      <c r="W28" s="352"/>
+      <c r="X28" s="352"/>
+      <c r="Y28" s="352"/>
+      <c r="Z28" s="352"/>
+      <c r="AA28" s="352"/>
+      <c r="AB28" s="352"/>
+      <c r="AC28" s="352"/>
+      <c r="AD28" s="352"/>
+      <c r="AE28" s="352"/>
       <c r="AF28" s="118"/>
     </row>
     <row r="29" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="99"/>
-      <c r="B29" s="351"/>
-      <c r="C29" s="351"/>
-      <c r="D29" s="351"/>
-      <c r="E29" s="351"/>
-      <c r="F29" s="351"/>
-      <c r="G29" s="351"/>
-      <c r="H29" s="351"/>
-      <c r="I29" s="351"/>
-      <c r="J29" s="351"/>
-      <c r="K29" s="351"/>
-      <c r="L29" s="351"/>
-      <c r="M29" s="351"/>
-      <c r="N29" s="351"/>
-      <c r="O29" s="351"/>
-      <c r="P29" s="351"/>
-      <c r="Q29" s="351"/>
-      <c r="R29" s="351"/>
-      <c r="S29" s="351"/>
-      <c r="T29" s="351"/>
-      <c r="U29" s="351"/>
-      <c r="V29" s="351"/>
-      <c r="W29" s="351"/>
-      <c r="X29" s="351"/>
-      <c r="Y29" s="351"/>
-      <c r="Z29" s="351"/>
-      <c r="AA29" s="351"/>
-      <c r="AB29" s="351"/>
-      <c r="AC29" s="351"/>
-      <c r="AD29" s="351"/>
-      <c r="AE29" s="351"/>
+      <c r="B29" s="352"/>
+      <c r="C29" s="352"/>
+      <c r="D29" s="352"/>
+      <c r="E29" s="352"/>
+      <c r="F29" s="352"/>
+      <c r="G29" s="352"/>
+      <c r="H29" s="352"/>
+      <c r="I29" s="352"/>
+      <c r="J29" s="352"/>
+      <c r="K29" s="352"/>
+      <c r="L29" s="352"/>
+      <c r="M29" s="352"/>
+      <c r="N29" s="352"/>
+      <c r="O29" s="352"/>
+      <c r="P29" s="352"/>
+      <c r="Q29" s="352"/>
+      <c r="R29" s="352"/>
+      <c r="S29" s="352"/>
+      <c r="T29" s="352"/>
+      <c r="U29" s="352"/>
+      <c r="V29" s="352"/>
+      <c r="W29" s="352"/>
+      <c r="X29" s="352"/>
+      <c r="Y29" s="352"/>
+      <c r="Z29" s="352"/>
+      <c r="AA29" s="352"/>
+      <c r="AB29" s="352"/>
+      <c r="AC29" s="352"/>
+      <c r="AD29" s="352"/>
+      <c r="AE29" s="352"/>
       <c r="AF29" s="118"/>
     </row>
     <row r="30" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="119"/>
-      <c r="B30" s="351"/>
-      <c r="C30" s="351"/>
-      <c r="D30" s="351"/>
-      <c r="E30" s="351"/>
-      <c r="F30" s="351"/>
-      <c r="G30" s="351"/>
-      <c r="H30" s="351"/>
-      <c r="I30" s="351"/>
-      <c r="J30" s="351"/>
-      <c r="K30" s="351"/>
-      <c r="L30" s="351"/>
-      <c r="M30" s="351"/>
-      <c r="N30" s="351"/>
-      <c r="O30" s="351"/>
-      <c r="P30" s="351"/>
-      <c r="Q30" s="351"/>
-      <c r="R30" s="351"/>
-      <c r="S30" s="351"/>
-      <c r="T30" s="351"/>
-      <c r="U30" s="351"/>
-      <c r="V30" s="351"/>
-      <c r="W30" s="351"/>
-      <c r="X30" s="351"/>
-      <c r="Y30" s="351"/>
-      <c r="Z30" s="351"/>
-      <c r="AA30" s="351"/>
-      <c r="AB30" s="351"/>
-      <c r="AC30" s="351"/>
-      <c r="AD30" s="351"/>
-      <c r="AE30" s="351"/>
+      <c r="B30" s="352"/>
+      <c r="C30" s="352"/>
+      <c r="D30" s="352"/>
+      <c r="E30" s="352"/>
+      <c r="F30" s="352"/>
+      <c r="G30" s="352"/>
+      <c r="H30" s="352"/>
+      <c r="I30" s="352"/>
+      <c r="J30" s="352"/>
+      <c r="K30" s="352"/>
+      <c r="L30" s="352"/>
+      <c r="M30" s="352"/>
+      <c r="N30" s="352"/>
+      <c r="O30" s="352"/>
+      <c r="P30" s="352"/>
+      <c r="Q30" s="352"/>
+      <c r="R30" s="352"/>
+      <c r="S30" s="352"/>
+      <c r="T30" s="352"/>
+      <c r="U30" s="352"/>
+      <c r="V30" s="352"/>
+      <c r="W30" s="352"/>
+      <c r="X30" s="352"/>
+      <c r="Y30" s="352"/>
+      <c r="Z30" s="352"/>
+      <c r="AA30" s="352"/>
+      <c r="AB30" s="352"/>
+      <c r="AC30" s="352"/>
+      <c r="AD30" s="352"/>
+      <c r="AE30" s="352"/>
       <c r="AF30" s="118"/>
     </row>
     <row r="31" spans="1:40" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="120"/>
-      <c r="B31" s="352" t="s">
+      <c r="B31" s="353" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="352"/>
-      <c r="D31" s="352"/>
-      <c r="E31" s="352"/>
-      <c r="F31" s="352"/>
-      <c r="G31" s="352"/>
-      <c r="H31" s="352"/>
-      <c r="I31" s="352"/>
-      <c r="J31" s="352"/>
-      <c r="K31" s="352"/>
-      <c r="L31" s="352"/>
-      <c r="M31" s="352"/>
-      <c r="N31" s="352"/>
-      <c r="O31" s="352"/>
-      <c r="P31" s="352"/>
-      <c r="Q31" s="352"/>
-      <c r="R31" s="352"/>
-      <c r="S31" s="352"/>
-      <c r="T31" s="352"/>
-      <c r="U31" s="352"/>
-      <c r="V31" s="352"/>
-      <c r="W31" s="352"/>
-      <c r="X31" s="352"/>
-      <c r="Y31" s="352"/>
-      <c r="Z31" s="352"/>
-      <c r="AA31" s="352"/>
-      <c r="AB31" s="352"/>
-      <c r="AC31" s="352"/>
-      <c r="AD31" s="352"/>
-      <c r="AE31" s="352"/>
+      <c r="C31" s="353"/>
+      <c r="D31" s="353"/>
+      <c r="E31" s="353"/>
+      <c r="F31" s="353"/>
+      <c r="G31" s="353"/>
+      <c r="H31" s="353"/>
+      <c r="I31" s="353"/>
+      <c r="J31" s="353"/>
+      <c r="K31" s="353"/>
+      <c r="L31" s="353"/>
+      <c r="M31" s="353"/>
+      <c r="N31" s="353"/>
+      <c r="O31" s="353"/>
+      <c r="P31" s="353"/>
+      <c r="Q31" s="353"/>
+      <c r="R31" s="353"/>
+      <c r="S31" s="353"/>
+      <c r="T31" s="353"/>
+      <c r="U31" s="353"/>
+      <c r="V31" s="353"/>
+      <c r="W31" s="353"/>
+      <c r="X31" s="353"/>
+      <c r="Y31" s="353"/>
+      <c r="Z31" s="353"/>
+      <c r="AA31" s="353"/>
+      <c r="AB31" s="353"/>
+      <c r="AC31" s="353"/>
+      <c r="AD31" s="353"/>
+      <c r="AE31" s="353"/>
       <c r="AF31" s="121"/>
       <c r="AG31" s="6"/>
       <c r="AH31" s="6"/>
@@ -8563,36 +8573,36 @@
     </row>
     <row r="32" spans="1:40" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="120"/>
-      <c r="B32" s="352"/>
-      <c r="C32" s="352"/>
-      <c r="D32" s="352"/>
-      <c r="E32" s="352"/>
-      <c r="F32" s="352"/>
-      <c r="G32" s="352"/>
-      <c r="H32" s="352"/>
-      <c r="I32" s="352"/>
-      <c r="J32" s="352"/>
-      <c r="K32" s="352"/>
-      <c r="L32" s="352"/>
-      <c r="M32" s="352"/>
-      <c r="N32" s="352"/>
-      <c r="O32" s="352"/>
-      <c r="P32" s="352"/>
-      <c r="Q32" s="352"/>
-      <c r="R32" s="352"/>
-      <c r="S32" s="352"/>
-      <c r="T32" s="352"/>
-      <c r="U32" s="352"/>
-      <c r="V32" s="352"/>
-      <c r="W32" s="352"/>
-      <c r="X32" s="352"/>
-      <c r="Y32" s="352"/>
-      <c r="Z32" s="352"/>
-      <c r="AA32" s="352"/>
-      <c r="AB32" s="352"/>
-      <c r="AC32" s="352"/>
-      <c r="AD32" s="352"/>
-      <c r="AE32" s="352"/>
+      <c r="B32" s="353"/>
+      <c r="C32" s="353"/>
+      <c r="D32" s="353"/>
+      <c r="E32" s="353"/>
+      <c r="F32" s="353"/>
+      <c r="G32" s="353"/>
+      <c r="H32" s="353"/>
+      <c r="I32" s="353"/>
+      <c r="J32" s="353"/>
+      <c r="K32" s="353"/>
+      <c r="L32" s="353"/>
+      <c r="M32" s="353"/>
+      <c r="N32" s="353"/>
+      <c r="O32" s="353"/>
+      <c r="P32" s="353"/>
+      <c r="Q32" s="353"/>
+      <c r="R32" s="353"/>
+      <c r="S32" s="353"/>
+      <c r="T32" s="353"/>
+      <c r="U32" s="353"/>
+      <c r="V32" s="353"/>
+      <c r="W32" s="353"/>
+      <c r="X32" s="353"/>
+      <c r="Y32" s="353"/>
+      <c r="Z32" s="353"/>
+      <c r="AA32" s="353"/>
+      <c r="AB32" s="353"/>
+      <c r="AC32" s="353"/>
+      <c r="AD32" s="353"/>
+      <c r="AE32" s="353"/>
       <c r="AF32" s="121"/>
       <c r="AG32" s="6"/>
       <c r="AH32" s="6"/>
@@ -8605,36 +8615,36 @@
     </row>
     <row r="33" spans="1:40" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="120"/>
-      <c r="B33" s="352"/>
-      <c r="C33" s="352"/>
-      <c r="D33" s="352"/>
-      <c r="E33" s="352"/>
-      <c r="F33" s="352"/>
-      <c r="G33" s="352"/>
-      <c r="H33" s="352"/>
-      <c r="I33" s="352"/>
-      <c r="J33" s="352"/>
-      <c r="K33" s="352"/>
-      <c r="L33" s="352"/>
-      <c r="M33" s="352"/>
-      <c r="N33" s="352"/>
-      <c r="O33" s="352"/>
-      <c r="P33" s="352"/>
-      <c r="Q33" s="352"/>
-      <c r="R33" s="352"/>
-      <c r="S33" s="352"/>
-      <c r="T33" s="352"/>
-      <c r="U33" s="352"/>
-      <c r="V33" s="352"/>
-      <c r="W33" s="352"/>
-      <c r="X33" s="352"/>
-      <c r="Y33" s="352"/>
-      <c r="Z33" s="352"/>
-      <c r="AA33" s="352"/>
-      <c r="AB33" s="352"/>
-      <c r="AC33" s="352"/>
-      <c r="AD33" s="352"/>
-      <c r="AE33" s="352"/>
+      <c r="B33" s="353"/>
+      <c r="C33" s="353"/>
+      <c r="D33" s="353"/>
+      <c r="E33" s="353"/>
+      <c r="F33" s="353"/>
+      <c r="G33" s="353"/>
+      <c r="H33" s="353"/>
+      <c r="I33" s="353"/>
+      <c r="J33" s="353"/>
+      <c r="K33" s="353"/>
+      <c r="L33" s="353"/>
+      <c r="M33" s="353"/>
+      <c r="N33" s="353"/>
+      <c r="O33" s="353"/>
+      <c r="P33" s="353"/>
+      <c r="Q33" s="353"/>
+      <c r="R33" s="353"/>
+      <c r="S33" s="353"/>
+      <c r="T33" s="353"/>
+      <c r="U33" s="353"/>
+      <c r="V33" s="353"/>
+      <c r="W33" s="353"/>
+      <c r="X33" s="353"/>
+      <c r="Y33" s="353"/>
+      <c r="Z33" s="353"/>
+      <c r="AA33" s="353"/>
+      <c r="AB33" s="353"/>
+      <c r="AC33" s="353"/>
+      <c r="AD33" s="353"/>
+      <c r="AE33" s="353"/>
       <c r="AF33" s="121"/>
       <c r="AG33" s="6"/>
       <c r="AH33" s="6"/>
@@ -8848,30 +8858,30 @@
       <c r="AF38" s="118"/>
     </row>
     <row r="39" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="344" t="s">
+      <c r="A39" s="345" t="s">
         <v>89</v>
       </c>
-      <c r="B39" s="344"/>
-      <c r="C39" s="344"/>
-      <c r="D39" s="344"/>
-      <c r="E39" s="344"/>
-      <c r="F39" s="344"/>
-      <c r="G39" s="344"/>
-      <c r="H39" s="344"/>
-      <c r="I39" s="348" t="str">
+      <c r="B39" s="345"/>
+      <c r="C39" s="345"/>
+      <c r="D39" s="345"/>
+      <c r="E39" s="345"/>
+      <c r="F39" s="345"/>
+      <c r="G39" s="345"/>
+      <c r="H39" s="345"/>
+      <c r="I39" s="349" t="str">
         <f>O16</f>
         <v>SADASD</v>
       </c>
-      <c r="J39" s="348"/>
-      <c r="K39" s="348"/>
-      <c r="L39" s="348"/>
-      <c r="M39" s="348"/>
-      <c r="N39" s="348"/>
-      <c r="O39" s="348"/>
-      <c r="P39" s="348"/>
-      <c r="Q39" s="348"/>
-      <c r="R39" s="348"/>
-      <c r="S39" s="348"/>
+      <c r="J39" s="349"/>
+      <c r="K39" s="349"/>
+      <c r="L39" s="349"/>
+      <c r="M39" s="349"/>
+      <c r="N39" s="349"/>
+      <c r="O39" s="349"/>
+      <c r="P39" s="349"/>
+      <c r="Q39" s="349"/>
+      <c r="R39" s="349"/>
+      <c r="S39" s="349"/>
       <c r="T39" s="124"/>
       <c r="U39" s="124"/>
       <c r="V39" s="124"/>
@@ -8887,25 +8897,25 @@
       <c r="AF39" s="118"/>
     </row>
     <row r="40" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="344"/>
-      <c r="B40" s="344"/>
-      <c r="C40" s="344"/>
-      <c r="D40" s="344"/>
-      <c r="E40" s="344"/>
-      <c r="F40" s="344"/>
-      <c r="G40" s="344"/>
-      <c r="H40" s="344"/>
-      <c r="I40" s="349"/>
-      <c r="J40" s="349"/>
-      <c r="K40" s="349"/>
-      <c r="L40" s="349"/>
-      <c r="M40" s="349"/>
-      <c r="N40" s="349"/>
-      <c r="O40" s="349"/>
-      <c r="P40" s="349"/>
-      <c r="Q40" s="349"/>
-      <c r="R40" s="349"/>
-      <c r="S40" s="349"/>
+      <c r="A40" s="345"/>
+      <c r="B40" s="345"/>
+      <c r="C40" s="345"/>
+      <c r="D40" s="345"/>
+      <c r="E40" s="345"/>
+      <c r="F40" s="345"/>
+      <c r="G40" s="345"/>
+      <c r="H40" s="345"/>
+      <c r="I40" s="350"/>
+      <c r="J40" s="350"/>
+      <c r="K40" s="350"/>
+      <c r="L40" s="350"/>
+      <c r="M40" s="350"/>
+      <c r="N40" s="350"/>
+      <c r="O40" s="350"/>
+      <c r="P40" s="350"/>
+      <c r="Q40" s="350"/>
+      <c r="R40" s="350"/>
+      <c r="S40" s="350"/>
       <c r="T40" s="79"/>
       <c r="U40" s="125"/>
       <c r="V40" s="125"/>
@@ -8914,53 +8924,53 @@
       <c r="Y40" s="127"/>
       <c r="Z40" s="127"/>
       <c r="AA40" s="128"/>
-      <c r="AB40" s="345" t="str">
+      <c r="AB40" s="346" t="str">
         <f>AB13</f>
         <v xml:space="preserve">26.04.2019   г. </v>
       </c>
-      <c r="AC40" s="345"/>
-      <c r="AD40" s="345"/>
-      <c r="AE40" s="345"/>
+      <c r="AC40" s="346"/>
+      <c r="AD40" s="346"/>
+      <c r="AE40" s="346"/>
       <c r="AF40" s="118"/>
     </row>
     <row r="41" spans="1:40" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="344"/>
-      <c r="B41" s="344"/>
-      <c r="C41" s="344"/>
-      <c r="D41" s="344"/>
-      <c r="E41" s="344"/>
-      <c r="F41" s="344"/>
-      <c r="G41" s="344"/>
-      <c r="H41" s="344"/>
-      <c r="I41" s="346" t="s">
+      <c r="A41" s="345"/>
+      <c r="B41" s="345"/>
+      <c r="C41" s="345"/>
+      <c r="D41" s="345"/>
+      <c r="E41" s="345"/>
+      <c r="F41" s="345"/>
+      <c r="G41" s="345"/>
+      <c r="H41" s="345"/>
+      <c r="I41" s="347" t="s">
         <v>90</v>
       </c>
-      <c r="J41" s="346"/>
-      <c r="K41" s="346"/>
-      <c r="L41" s="346"/>
-      <c r="M41" s="346"/>
-      <c r="N41" s="346"/>
-      <c r="O41" s="346"/>
-      <c r="P41" s="346"/>
-      <c r="Q41" s="346"/>
-      <c r="R41" s="346"/>
-      <c r="S41" s="346"/>
+      <c r="J41" s="347"/>
+      <c r="K41" s="347"/>
+      <c r="L41" s="347"/>
+      <c r="M41" s="347"/>
+      <c r="N41" s="347"/>
+      <c r="O41" s="347"/>
+      <c r="P41" s="347"/>
+      <c r="Q41" s="347"/>
+      <c r="R41" s="347"/>
+      <c r="S41" s="347"/>
       <c r="T41" s="120"/>
-      <c r="U41" s="346" t="s">
+      <c r="U41" s="347" t="s">
         <v>91</v>
       </c>
-      <c r="V41" s="346"/>
-      <c r="W41" s="346"/>
-      <c r="X41" s="346"/>
-      <c r="Y41" s="346"/>
-      <c r="Z41" s="346"/>
+      <c r="V41" s="347"/>
+      <c r="W41" s="347"/>
+      <c r="X41" s="347"/>
+      <c r="Y41" s="347"/>
+      <c r="Z41" s="347"/>
       <c r="AA41" s="84"/>
-      <c r="AB41" s="347" t="s">
+      <c r="AB41" s="348" t="s">
         <v>1</v>
       </c>
-      <c r="AC41" s="347"/>
-      <c r="AD41" s="347"/>
-      <c r="AE41" s="347"/>
+      <c r="AC41" s="348"/>
+      <c r="AD41" s="348"/>
+      <c r="AE41" s="348"/>
       <c r="AF41" s="121"/>
       <c r="AG41" s="6"/>
       <c r="AH41" s="6"/>
@@ -8972,30 +8982,30 @@
       <c r="AN41" s="6"/>
     </row>
     <row r="42" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="344" t="s">
+      <c r="A42" s="345" t="s">
         <v>92</v>
       </c>
-      <c r="B42" s="344"/>
-      <c r="C42" s="344"/>
-      <c r="D42" s="344"/>
-      <c r="E42" s="344"/>
-      <c r="F42" s="344"/>
-      <c r="G42" s="344"/>
-      <c r="H42" s="344"/>
-      <c r="I42" s="348" t="str">
+      <c r="B42" s="345"/>
+      <c r="C42" s="345"/>
+      <c r="D42" s="345"/>
+      <c r="E42" s="345"/>
+      <c r="F42" s="345"/>
+      <c r="G42" s="345"/>
+      <c r="H42" s="345"/>
+      <c r="I42" s="349" t="str">
         <f>H17</f>
         <v>Начальник ЛАЭС ЛПДС "Рязань" Макаров М.А.</v>
       </c>
-      <c r="J42" s="348"/>
-      <c r="K42" s="348"/>
-      <c r="L42" s="348"/>
-      <c r="M42" s="348"/>
-      <c r="N42" s="348"/>
-      <c r="O42" s="348"/>
-      <c r="P42" s="348"/>
-      <c r="Q42" s="348"/>
-      <c r="R42" s="348"/>
-      <c r="S42" s="348"/>
+      <c r="J42" s="349"/>
+      <c r="K42" s="349"/>
+      <c r="L42" s="349"/>
+      <c r="M42" s="349"/>
+      <c r="N42" s="349"/>
+      <c r="O42" s="349"/>
+      <c r="P42" s="349"/>
+      <c r="Q42" s="349"/>
+      <c r="R42" s="349"/>
+      <c r="S42" s="349"/>
       <c r="T42" s="124"/>
       <c r="U42" s="124"/>
       <c r="V42" s="124"/>
@@ -9019,25 +9029,25 @@
       <c r="AN42" s="11"/>
     </row>
     <row r="43" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="344"/>
-      <c r="B43" s="344"/>
-      <c r="C43" s="344"/>
-      <c r="D43" s="344"/>
-      <c r="E43" s="344"/>
-      <c r="F43" s="344"/>
-      <c r="G43" s="344"/>
-      <c r="H43" s="344"/>
-      <c r="I43" s="349"/>
-      <c r="J43" s="349"/>
-      <c r="K43" s="349"/>
-      <c r="L43" s="349"/>
-      <c r="M43" s="349"/>
-      <c r="N43" s="349"/>
-      <c r="O43" s="349"/>
-      <c r="P43" s="349"/>
-      <c r="Q43" s="349"/>
-      <c r="R43" s="349"/>
-      <c r="S43" s="349"/>
+      <c r="A43" s="345"/>
+      <c r="B43" s="345"/>
+      <c r="C43" s="345"/>
+      <c r="D43" s="345"/>
+      <c r="E43" s="345"/>
+      <c r="F43" s="345"/>
+      <c r="G43" s="345"/>
+      <c r="H43" s="345"/>
+      <c r="I43" s="350"/>
+      <c r="J43" s="350"/>
+      <c r="K43" s="350"/>
+      <c r="L43" s="350"/>
+      <c r="M43" s="350"/>
+      <c r="N43" s="350"/>
+      <c r="O43" s="350"/>
+      <c r="P43" s="350"/>
+      <c r="Q43" s="350"/>
+      <c r="R43" s="350"/>
+      <c r="S43" s="350"/>
       <c r="T43" s="79"/>
       <c r="U43" s="125"/>
       <c r="V43" s="125"/>
@@ -9046,13 +9056,13 @@
       <c r="Y43" s="127"/>
       <c r="Z43" s="127"/>
       <c r="AA43" s="128"/>
-      <c r="AB43" s="345" t="str">
+      <c r="AB43" s="346" t="str">
         <f>AB13</f>
         <v xml:space="preserve">26.04.2019   г. </v>
       </c>
-      <c r="AC43" s="345"/>
-      <c r="AD43" s="345"/>
-      <c r="AE43" s="345"/>
+      <c r="AC43" s="346"/>
+      <c r="AD43" s="346"/>
+      <c r="AE43" s="346"/>
       <c r="AF43" s="117"/>
       <c r="AG43" s="11"/>
       <c r="AH43" s="11"/>
@@ -9064,70 +9074,70 @@
       <c r="AN43" s="11"/>
     </row>
     <row r="44" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="344"/>
-      <c r="B44" s="344"/>
-      <c r="C44" s="344"/>
-      <c r="D44" s="344"/>
-      <c r="E44" s="344"/>
-      <c r="F44" s="344"/>
-      <c r="G44" s="344"/>
-      <c r="H44" s="344"/>
-      <c r="I44" s="346" t="s">
+      <c r="A44" s="345"/>
+      <c r="B44" s="345"/>
+      <c r="C44" s="345"/>
+      <c r="D44" s="345"/>
+      <c r="E44" s="345"/>
+      <c r="F44" s="345"/>
+      <c r="G44" s="345"/>
+      <c r="H44" s="345"/>
+      <c r="I44" s="347" t="s">
         <v>12</v>
       </c>
-      <c r="J44" s="346"/>
-      <c r="K44" s="346"/>
-      <c r="L44" s="346"/>
-      <c r="M44" s="346"/>
-      <c r="N44" s="346"/>
-      <c r="O44" s="346"/>
-      <c r="P44" s="346"/>
-      <c r="Q44" s="346"/>
-      <c r="R44" s="346"/>
-      <c r="S44" s="346"/>
+      <c r="J44" s="347"/>
+      <c r="K44" s="347"/>
+      <c r="L44" s="347"/>
+      <c r="M44" s="347"/>
+      <c r="N44" s="347"/>
+      <c r="O44" s="347"/>
+      <c r="P44" s="347"/>
+      <c r="Q44" s="347"/>
+      <c r="R44" s="347"/>
+      <c r="S44" s="347"/>
       <c r="T44" s="120"/>
-      <c r="U44" s="346" t="s">
+      <c r="U44" s="347" t="s">
         <v>91</v>
       </c>
-      <c r="V44" s="346"/>
-      <c r="W44" s="346"/>
-      <c r="X44" s="346"/>
-      <c r="Y44" s="346"/>
-      <c r="Z44" s="346"/>
+      <c r="V44" s="347"/>
+      <c r="W44" s="347"/>
+      <c r="X44" s="347"/>
+      <c r="Y44" s="347"/>
+      <c r="Z44" s="347"/>
       <c r="AA44" s="84"/>
-      <c r="AB44" s="347" t="s">
+      <c r="AB44" s="348" t="s">
         <v>1</v>
       </c>
-      <c r="AC44" s="347"/>
-      <c r="AD44" s="347"/>
-      <c r="AE44" s="347"/>
+      <c r="AC44" s="348"/>
+      <c r="AD44" s="348"/>
+      <c r="AE44" s="348"/>
       <c r="AF44" s="118"/>
     </row>
     <row r="45" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="344" t="s">
+      <c r="A45" s="345" t="s">
         <v>93</v>
       </c>
-      <c r="B45" s="344"/>
-      <c r="C45" s="344"/>
-      <c r="D45" s="344"/>
-      <c r="E45" s="344"/>
-      <c r="F45" s="344"/>
-      <c r="G45" s="344"/>
-      <c r="H45" s="344"/>
-      <c r="I45" s="348" t="str">
+      <c r="B45" s="345"/>
+      <c r="C45" s="345"/>
+      <c r="D45" s="345"/>
+      <c r="E45" s="345"/>
+      <c r="F45" s="345"/>
+      <c r="G45" s="345"/>
+      <c r="H45" s="345"/>
+      <c r="I45" s="349" t="str">
         <f>N18</f>
         <v>Инженер-дефектоскопист ЛККиД РРНУ Кривцов Д.Н.</v>
       </c>
-      <c r="J45" s="348"/>
-      <c r="K45" s="348"/>
-      <c r="L45" s="348"/>
-      <c r="M45" s="348"/>
-      <c r="N45" s="348"/>
-      <c r="O45" s="348"/>
-      <c r="P45" s="348"/>
-      <c r="Q45" s="348"/>
-      <c r="R45" s="348"/>
-      <c r="S45" s="348"/>
+      <c r="J45" s="349"/>
+      <c r="K45" s="349"/>
+      <c r="L45" s="349"/>
+      <c r="M45" s="349"/>
+      <c r="N45" s="349"/>
+      <c r="O45" s="349"/>
+      <c r="P45" s="349"/>
+      <c r="Q45" s="349"/>
+      <c r="R45" s="349"/>
+      <c r="S45" s="349"/>
       <c r="T45" s="124"/>
       <c r="U45" s="124"/>
       <c r="V45" s="124"/>
@@ -9143,25 +9153,25 @@
       <c r="AF45" s="118"/>
     </row>
     <row r="46" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="344"/>
-      <c r="B46" s="344"/>
-      <c r="C46" s="344"/>
-      <c r="D46" s="344"/>
-      <c r="E46" s="344"/>
-      <c r="F46" s="344"/>
-      <c r="G46" s="344"/>
-      <c r="H46" s="344"/>
-      <c r="I46" s="349"/>
-      <c r="J46" s="349"/>
-      <c r="K46" s="349"/>
-      <c r="L46" s="349"/>
-      <c r="M46" s="349"/>
-      <c r="N46" s="349"/>
-      <c r="O46" s="349"/>
-      <c r="P46" s="349"/>
-      <c r="Q46" s="349"/>
-      <c r="R46" s="349"/>
-      <c r="S46" s="349"/>
+      <c r="A46" s="345"/>
+      <c r="B46" s="345"/>
+      <c r="C46" s="345"/>
+      <c r="D46" s="345"/>
+      <c r="E46" s="345"/>
+      <c r="F46" s="345"/>
+      <c r="G46" s="345"/>
+      <c r="H46" s="345"/>
+      <c r="I46" s="350"/>
+      <c r="J46" s="350"/>
+      <c r="K46" s="350"/>
+      <c r="L46" s="350"/>
+      <c r="M46" s="350"/>
+      <c r="N46" s="350"/>
+      <c r="O46" s="350"/>
+      <c r="P46" s="350"/>
+      <c r="Q46" s="350"/>
+      <c r="R46" s="350"/>
+      <c r="S46" s="350"/>
       <c r="T46" s="79"/>
       <c r="U46" s="125"/>
       <c r="V46" s="125"/>
@@ -9170,53 +9180,53 @@
       <c r="Y46" s="127"/>
       <c r="Z46" s="127"/>
       <c r="AA46" s="128"/>
-      <c r="AB46" s="345" t="str">
+      <c r="AB46" s="346" t="str">
         <f>AB13</f>
         <v xml:space="preserve">26.04.2019   г. </v>
       </c>
-      <c r="AC46" s="345"/>
-      <c r="AD46" s="345"/>
-      <c r="AE46" s="345"/>
+      <c r="AC46" s="346"/>
+      <c r="AD46" s="346"/>
+      <c r="AE46" s="346"/>
       <c r="AF46" s="118"/>
     </row>
     <row r="47" spans="1:40" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="344"/>
-      <c r="B47" s="344"/>
-      <c r="C47" s="344"/>
-      <c r="D47" s="344"/>
-      <c r="E47" s="344"/>
-      <c r="F47" s="344"/>
-      <c r="G47" s="344"/>
-      <c r="H47" s="344"/>
-      <c r="I47" s="346" t="s">
+      <c r="A47" s="345"/>
+      <c r="B47" s="345"/>
+      <c r="C47" s="345"/>
+      <c r="D47" s="345"/>
+      <c r="E47" s="345"/>
+      <c r="F47" s="345"/>
+      <c r="G47" s="345"/>
+      <c r="H47" s="345"/>
+      <c r="I47" s="347" t="s">
         <v>12</v>
       </c>
-      <c r="J47" s="346"/>
-      <c r="K47" s="346"/>
-      <c r="L47" s="346"/>
-      <c r="M47" s="346"/>
-      <c r="N47" s="346"/>
-      <c r="O47" s="346"/>
-      <c r="P47" s="346"/>
-      <c r="Q47" s="346"/>
-      <c r="R47" s="346"/>
-      <c r="S47" s="346"/>
+      <c r="J47" s="347"/>
+      <c r="K47" s="347"/>
+      <c r="L47" s="347"/>
+      <c r="M47" s="347"/>
+      <c r="N47" s="347"/>
+      <c r="O47" s="347"/>
+      <c r="P47" s="347"/>
+      <c r="Q47" s="347"/>
+      <c r="R47" s="347"/>
+      <c r="S47" s="347"/>
       <c r="T47" s="120"/>
-      <c r="U47" s="346" t="s">
+      <c r="U47" s="347" t="s">
         <v>91</v>
       </c>
-      <c r="V47" s="346"/>
-      <c r="W47" s="346"/>
-      <c r="X47" s="346"/>
-      <c r="Y47" s="346"/>
-      <c r="Z47" s="346"/>
+      <c r="V47" s="347"/>
+      <c r="W47" s="347"/>
+      <c r="X47" s="347"/>
+      <c r="Y47" s="347"/>
+      <c r="Z47" s="347"/>
       <c r="AA47" s="84"/>
-      <c r="AB47" s="347" t="s">
+      <c r="AB47" s="348" t="s">
         <v>1</v>
       </c>
-      <c r="AC47" s="347"/>
-      <c r="AD47" s="347"/>
-      <c r="AE47" s="347"/>
+      <c r="AC47" s="348"/>
+      <c r="AD47" s="348"/>
+      <c r="AE47" s="348"/>
       <c r="AF47" s="121"/>
       <c r="AG47" s="6"/>
       <c r="AH47" s="6"/>
@@ -10035,16 +10045,16 @@
     </row>
     <row r="5" spans="1:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="87"/>
-      <c r="B5" s="354" t="s">
+      <c r="B5" s="355" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="354"/>
-      <c r="D5" s="354"/>
-      <c r="E5" s="354"/>
-      <c r="F5" s="354"/>
-      <c r="G5" s="354"/>
-      <c r="H5" s="354"/>
-      <c r="I5" s="354"/>
+      <c r="C5" s="355"/>
+      <c r="D5" s="355"/>
+      <c r="E5" s="355"/>
+      <c r="F5" s="355"/>
+      <c r="G5" s="355"/>
+      <c r="H5" s="355"/>
+      <c r="I5" s="355"/>
       <c r="J5" s="87"/>
       <c r="K5" s="87"/>
       <c r="L5" s="87"/>
@@ -10240,40 +10250,40 @@
       <c r="AF10" s="87"/>
     </row>
     <row r="11" spans="1:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="355" t="s">
+      <c r="A11" s="356" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="356"/>
-      <c r="C11" s="356"/>
-      <c r="D11" s="356"/>
-      <c r="E11" s="356"/>
-      <c r="F11" s="356"/>
-      <c r="G11" s="356"/>
-      <c r="H11" s="356"/>
-      <c r="I11" s="356"/>
-      <c r="J11" s="356"/>
-      <c r="K11" s="356"/>
-      <c r="L11" s="356"/>
-      <c r="M11" s="356"/>
-      <c r="N11" s="356"/>
-      <c r="O11" s="356"/>
-      <c r="P11" s="356"/>
-      <c r="Q11" s="356"/>
-      <c r="R11" s="356"/>
-      <c r="S11" s="356"/>
-      <c r="T11" s="356"/>
-      <c r="U11" s="356"/>
-      <c r="V11" s="356"/>
-      <c r="W11" s="356"/>
-      <c r="X11" s="356"/>
-      <c r="Y11" s="356"/>
-      <c r="Z11" s="356"/>
-      <c r="AA11" s="356"/>
-      <c r="AB11" s="356"/>
-      <c r="AC11" s="356"/>
-      <c r="AD11" s="356"/>
-      <c r="AE11" s="356"/>
-      <c r="AF11" s="356"/>
+      <c r="B11" s="357"/>
+      <c r="C11" s="357"/>
+      <c r="D11" s="357"/>
+      <c r="E11" s="357"/>
+      <c r="F11" s="357"/>
+      <c r="G11" s="357"/>
+      <c r="H11" s="357"/>
+      <c r="I11" s="357"/>
+      <c r="J11" s="357"/>
+      <c r="K11" s="357"/>
+      <c r="L11" s="357"/>
+      <c r="M11" s="357"/>
+      <c r="N11" s="357"/>
+      <c r="O11" s="357"/>
+      <c r="P11" s="357"/>
+      <c r="Q11" s="357"/>
+      <c r="R11" s="357"/>
+      <c r="S11" s="357"/>
+      <c r="T11" s="357"/>
+      <c r="U11" s="357"/>
+      <c r="V11" s="357"/>
+      <c r="W11" s="357"/>
+      <c r="X11" s="357"/>
+      <c r="Y11" s="357"/>
+      <c r="Z11" s="357"/>
+      <c r="AA11" s="357"/>
+      <c r="AB11" s="357"/>
+      <c r="AC11" s="357"/>
+      <c r="AD11" s="357"/>
+      <c r="AE11" s="357"/>
+      <c r="AF11" s="357"/>
     </row>
     <row r="12" spans="1:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="87"/>
@@ -10310,40 +10320,40 @@
       <c r="AF12" s="119"/>
     </row>
     <row r="13" spans="1:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="357" t="s">
+      <c r="A13" s="358" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="357"/>
-      <c r="C13" s="357"/>
-      <c r="D13" s="357"/>
-      <c r="E13" s="357"/>
-      <c r="F13" s="357"/>
-      <c r="G13" s="357"/>
-      <c r="H13" s="357"/>
-      <c r="I13" s="357"/>
-      <c r="J13" s="357"/>
-      <c r="K13" s="357"/>
-      <c r="L13" s="357"/>
-      <c r="M13" s="357"/>
-      <c r="N13" s="357"/>
-      <c r="O13" s="357"/>
-      <c r="P13" s="357"/>
-      <c r="Q13" s="357"/>
-      <c r="R13" s="357"/>
-      <c r="S13" s="357"/>
-      <c r="T13" s="357"/>
-      <c r="U13" s="357"/>
-      <c r="V13" s="357"/>
-      <c r="W13" s="357"/>
-      <c r="X13" s="357"/>
-      <c r="Y13" s="357"/>
-      <c r="Z13" s="357"/>
-      <c r="AA13" s="357"/>
-      <c r="AB13" s="357"/>
-      <c r="AC13" s="357"/>
-      <c r="AD13" s="357"/>
-      <c r="AE13" s="357"/>
-      <c r="AF13" s="357"/>
+      <c r="B13" s="358"/>
+      <c r="C13" s="358"/>
+      <c r="D13" s="358"/>
+      <c r="E13" s="358"/>
+      <c r="F13" s="358"/>
+      <c r="G13" s="358"/>
+      <c r="H13" s="358"/>
+      <c r="I13" s="358"/>
+      <c r="J13" s="358"/>
+      <c r="K13" s="358"/>
+      <c r="L13" s="358"/>
+      <c r="M13" s="358"/>
+      <c r="N13" s="358"/>
+      <c r="O13" s="358"/>
+      <c r="P13" s="358"/>
+      <c r="Q13" s="358"/>
+      <c r="R13" s="358"/>
+      <c r="S13" s="358"/>
+      <c r="T13" s="358"/>
+      <c r="U13" s="358"/>
+      <c r="V13" s="358"/>
+      <c r="W13" s="358"/>
+      <c r="X13" s="358"/>
+      <c r="Y13" s="358"/>
+      <c r="Z13" s="358"/>
+      <c r="AA13" s="358"/>
+      <c r="AB13" s="358"/>
+      <c r="AC13" s="358"/>
+      <c r="AD13" s="358"/>
+      <c r="AE13" s="358"/>
+      <c r="AF13" s="358"/>
     </row>
     <row r="14" spans="1:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="91"/>
@@ -10396,7 +10406,7 @@
       <c r="L15" s="94"/>
       <c r="M15" s="94"/>
       <c r="N15" s="202" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O15" s="202"/>
       <c r="P15" s="94"/>
@@ -10515,50 +10525,50 @@
       </c>
       <c r="B18" s="62"/>
       <c r="C18" s="62"/>
-      <c r="D18" s="358" t="s">
+      <c r="D18" s="359" t="s">
         <v>100</v>
       </c>
-      <c r="E18" s="358"/>
-      <c r="F18" s="358"/>
-      <c r="G18" s="358"/>
-      <c r="H18" s="358"/>
-      <c r="I18" s="358"/>
-      <c r="J18" s="358"/>
+      <c r="E18" s="359"/>
+      <c r="F18" s="359"/>
+      <c r="G18" s="359"/>
+      <c r="H18" s="359"/>
+      <c r="I18" s="359"/>
+      <c r="J18" s="359"/>
       <c r="K18" s="108" t="s">
         <v>101</v>
       </c>
       <c r="L18" s="62"/>
-      <c r="M18" s="359" t="s">
+      <c r="M18" s="360" t="s">
         <v>102</v>
       </c>
-      <c r="N18" s="359"/>
-      <c r="O18" s="359"/>
+      <c r="N18" s="360"/>
+      <c r="O18" s="360"/>
       <c r="P18" s="135"/>
       <c r="Q18" s="108" t="s">
         <v>103</v>
       </c>
       <c r="R18" s="62"/>
       <c r="S18" s="62"/>
-      <c r="T18" s="358" t="s">
+      <c r="T18" s="359" t="s">
         <v>100</v>
       </c>
-      <c r="U18" s="358"/>
-      <c r="V18" s="358"/>
-      <c r="W18" s="358"/>
-      <c r="X18" s="358"/>
-      <c r="Y18" s="358"/>
-      <c r="Z18" s="358"/>
+      <c r="U18" s="359"/>
+      <c r="V18" s="359"/>
+      <c r="W18" s="359"/>
+      <c r="X18" s="359"/>
+      <c r="Y18" s="359"/>
+      <c r="Z18" s="359"/>
       <c r="AA18" s="108"/>
       <c r="AB18" s="108" t="s">
         <v>101</v>
       </c>
       <c r="AC18" s="62"/>
-      <c r="AD18" s="360" t="str">
+      <c r="AD18" s="361" t="str">
         <f>M18</f>
         <v>98 км.</v>
       </c>
-      <c r="AE18" s="360"/>
-      <c r="AF18" s="360"/>
+      <c r="AE18" s="361"/>
+      <c r="AF18" s="361"/>
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
@@ -10725,23 +10735,23 @@
       <c r="P23" s="100"/>
       <c r="Q23" s="100"/>
       <c r="R23" s="100"/>
-      <c r="S23" s="359" t="s">
+      <c r="S23" s="360" t="s">
         <v>105</v>
       </c>
-      <c r="T23" s="359"/>
-      <c r="U23" s="359"/>
-      <c r="V23" s="359"/>
-      <c r="W23" s="359"/>
+      <c r="T23" s="360"/>
+      <c r="U23" s="360"/>
+      <c r="V23" s="360"/>
+      <c r="W23" s="360"/>
       <c r="X23" s="139" t="s">
         <v>106</v>
       </c>
-      <c r="Y23" s="359" t="s">
+      <c r="Y23" s="360" t="s">
         <v>107</v>
       </c>
-      <c r="Z23" s="359"/>
-      <c r="AA23" s="359"/>
-      <c r="AB23" s="359"/>
-      <c r="AC23" s="359"/>
+      <c r="Z23" s="360"/>
+      <c r="AA23" s="360"/>
+      <c r="AB23" s="360"/>
+      <c r="AC23" s="360"/>
       <c r="AD23" s="100"/>
       <c r="AE23" s="100"/>
       <c r="AF23" s="97"/>
@@ -10854,38 +10864,38 @@
       <c r="A27" s="141" t="s">
         <v>109</v>
       </c>
-      <c r="B27" s="361" t="s">
+      <c r="B27" s="362" t="s">
         <v>156</v>
       </c>
-      <c r="C27" s="361"/>
-      <c r="D27" s="361"/>
-      <c r="E27" s="361"/>
-      <c r="F27" s="361"/>
-      <c r="G27" s="361"/>
-      <c r="H27" s="361"/>
-      <c r="I27" s="361"/>
-      <c r="J27" s="361"/>
-      <c r="K27" s="361"/>
-      <c r="L27" s="361"/>
-      <c r="M27" s="361"/>
-      <c r="N27" s="361"/>
-      <c r="O27" s="361"/>
-      <c r="P27" s="361"/>
-      <c r="Q27" s="361"/>
-      <c r="R27" s="361"/>
-      <c r="S27" s="361"/>
-      <c r="T27" s="361"/>
-      <c r="U27" s="361"/>
-      <c r="V27" s="361"/>
-      <c r="W27" s="361"/>
-      <c r="X27" s="361"/>
-      <c r="Y27" s="361"/>
-      <c r="Z27" s="361"/>
-      <c r="AA27" s="361"/>
-      <c r="AB27" s="361"/>
-      <c r="AC27" s="361"/>
-      <c r="AD27" s="361"/>
-      <c r="AE27" s="361"/>
+      <c r="C27" s="362"/>
+      <c r="D27" s="362"/>
+      <c r="E27" s="362"/>
+      <c r="F27" s="362"/>
+      <c r="G27" s="362"/>
+      <c r="H27" s="362"/>
+      <c r="I27" s="362"/>
+      <c r="J27" s="362"/>
+      <c r="K27" s="362"/>
+      <c r="L27" s="362"/>
+      <c r="M27" s="362"/>
+      <c r="N27" s="362"/>
+      <c r="O27" s="362"/>
+      <c r="P27" s="362"/>
+      <c r="Q27" s="362"/>
+      <c r="R27" s="362"/>
+      <c r="S27" s="362"/>
+      <c r="T27" s="362"/>
+      <c r="U27" s="362"/>
+      <c r="V27" s="362"/>
+      <c r="W27" s="362"/>
+      <c r="X27" s="362"/>
+      <c r="Y27" s="362"/>
+      <c r="Z27" s="362"/>
+      <c r="AA27" s="362"/>
+      <c r="AB27" s="362"/>
+      <c r="AC27" s="362"/>
+      <c r="AD27" s="362"/>
+      <c r="AE27" s="362"/>
       <c r="AF27" s="134"/>
       <c r="AG27" s="8"/>
       <c r="AH27" s="8"/>
@@ -10898,72 +10908,72 @@
     </row>
     <row r="28" spans="1:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="85"/>
-      <c r="B28" s="362" t="s">
+      <c r="B28" s="363" t="s">
         <v>110</v>
       </c>
-      <c r="C28" s="362"/>
-      <c r="D28" s="362"/>
-      <c r="E28" s="362"/>
-      <c r="F28" s="362"/>
-      <c r="G28" s="362"/>
-      <c r="H28" s="362"/>
-      <c r="I28" s="362"/>
-      <c r="J28" s="362"/>
-      <c r="K28" s="362"/>
-      <c r="L28" s="362"/>
-      <c r="M28" s="362"/>
-      <c r="N28" s="362"/>
-      <c r="O28" s="362"/>
-      <c r="P28" s="362"/>
-      <c r="Q28" s="362"/>
-      <c r="R28" s="362"/>
-      <c r="S28" s="362"/>
-      <c r="T28" s="362"/>
-      <c r="U28" s="362"/>
-      <c r="V28" s="362"/>
-      <c r="W28" s="362"/>
-      <c r="X28" s="362"/>
-      <c r="Y28" s="362"/>
-      <c r="Z28" s="362"/>
-      <c r="AA28" s="362"/>
-      <c r="AB28" s="362"/>
-      <c r="AC28" s="362"/>
-      <c r="AD28" s="362"/>
-      <c r="AE28" s="362"/>
+      <c r="C28" s="363"/>
+      <c r="D28" s="363"/>
+      <c r="E28" s="363"/>
+      <c r="F28" s="363"/>
+      <c r="G28" s="363"/>
+      <c r="H28" s="363"/>
+      <c r="I28" s="363"/>
+      <c r="J28" s="363"/>
+      <c r="K28" s="363"/>
+      <c r="L28" s="363"/>
+      <c r="M28" s="363"/>
+      <c r="N28" s="363"/>
+      <c r="O28" s="363"/>
+      <c r="P28" s="363"/>
+      <c r="Q28" s="363"/>
+      <c r="R28" s="363"/>
+      <c r="S28" s="363"/>
+      <c r="T28" s="363"/>
+      <c r="U28" s="363"/>
+      <c r="V28" s="363"/>
+      <c r="W28" s="363"/>
+      <c r="X28" s="363"/>
+      <c r="Y28" s="363"/>
+      <c r="Z28" s="363"/>
+      <c r="AA28" s="363"/>
+      <c r="AB28" s="363"/>
+      <c r="AC28" s="363"/>
+      <c r="AD28" s="363"/>
+      <c r="AE28" s="363"/>
       <c r="AF28" s="85"/>
     </row>
     <row r="29" spans="1:40" s="12" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="85"/>
-      <c r="B29" s="362"/>
-      <c r="C29" s="362"/>
-      <c r="D29" s="362"/>
-      <c r="E29" s="362"/>
-      <c r="F29" s="362"/>
-      <c r="G29" s="362"/>
-      <c r="H29" s="362"/>
-      <c r="I29" s="362"/>
-      <c r="J29" s="362"/>
-      <c r="K29" s="362"/>
-      <c r="L29" s="362"/>
-      <c r="M29" s="362"/>
-      <c r="N29" s="362"/>
-      <c r="O29" s="362"/>
-      <c r="P29" s="362"/>
-      <c r="Q29" s="362"/>
-      <c r="R29" s="362"/>
-      <c r="S29" s="362"/>
-      <c r="T29" s="362"/>
-      <c r="U29" s="362"/>
-      <c r="V29" s="362"/>
-      <c r="W29" s="362"/>
-      <c r="X29" s="362"/>
-      <c r="Y29" s="362"/>
-      <c r="Z29" s="362"/>
-      <c r="AA29" s="362"/>
-      <c r="AB29" s="362"/>
-      <c r="AC29" s="362"/>
-      <c r="AD29" s="362"/>
-      <c r="AE29" s="362"/>
+      <c r="B29" s="363"/>
+      <c r="C29" s="363"/>
+      <c r="D29" s="363"/>
+      <c r="E29" s="363"/>
+      <c r="F29" s="363"/>
+      <c r="G29" s="363"/>
+      <c r="H29" s="363"/>
+      <c r="I29" s="363"/>
+      <c r="J29" s="363"/>
+      <c r="K29" s="363"/>
+      <c r="L29" s="363"/>
+      <c r="M29" s="363"/>
+      <c r="N29" s="363"/>
+      <c r="O29" s="363"/>
+      <c r="P29" s="363"/>
+      <c r="Q29" s="363"/>
+      <c r="R29" s="363"/>
+      <c r="S29" s="363"/>
+      <c r="T29" s="363"/>
+      <c r="U29" s="363"/>
+      <c r="V29" s="363"/>
+      <c r="W29" s="363"/>
+      <c r="X29" s="363"/>
+      <c r="Y29" s="363"/>
+      <c r="Z29" s="363"/>
+      <c r="AA29" s="363"/>
+      <c r="AB29" s="363"/>
+      <c r="AC29" s="363"/>
+      <c r="AD29" s="363"/>
+      <c r="AE29" s="363"/>
       <c r="AF29" s="85"/>
       <c r="AG29" s="11"/>
       <c r="AH29" s="11"/>
@@ -10978,38 +10988,38 @@
       <c r="A30" s="141" t="s">
         <v>109</v>
       </c>
-      <c r="B30" s="363" t="s">
+      <c r="B30" s="364" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="363"/>
-      <c r="D30" s="363"/>
-      <c r="E30" s="363"/>
-      <c r="F30" s="363"/>
-      <c r="G30" s="363"/>
-      <c r="H30" s="363"/>
-      <c r="I30" s="363"/>
-      <c r="J30" s="363"/>
-      <c r="K30" s="363"/>
-      <c r="L30" s="363"/>
-      <c r="M30" s="363"/>
-      <c r="N30" s="363"/>
-      <c r="O30" s="363"/>
-      <c r="P30" s="363"/>
-      <c r="Q30" s="363"/>
-      <c r="R30" s="363"/>
-      <c r="S30" s="363"/>
-      <c r="T30" s="363"/>
-      <c r="U30" s="363"/>
-      <c r="V30" s="363"/>
-      <c r="W30" s="363"/>
-      <c r="X30" s="363"/>
-      <c r="Y30" s="363"/>
-      <c r="Z30" s="363"/>
-      <c r="AA30" s="363"/>
-      <c r="AB30" s="363"/>
-      <c r="AC30" s="363"/>
-      <c r="AD30" s="363"/>
-      <c r="AE30" s="363"/>
+      <c r="C30" s="364"/>
+      <c r="D30" s="364"/>
+      <c r="E30" s="364"/>
+      <c r="F30" s="364"/>
+      <c r="G30" s="364"/>
+      <c r="H30" s="364"/>
+      <c r="I30" s="364"/>
+      <c r="J30" s="364"/>
+      <c r="K30" s="364"/>
+      <c r="L30" s="364"/>
+      <c r="M30" s="364"/>
+      <c r="N30" s="364"/>
+      <c r="O30" s="364"/>
+      <c r="P30" s="364"/>
+      <c r="Q30" s="364"/>
+      <c r="R30" s="364"/>
+      <c r="S30" s="364"/>
+      <c r="T30" s="364"/>
+      <c r="U30" s="364"/>
+      <c r="V30" s="364"/>
+      <c r="W30" s="364"/>
+      <c r="X30" s="364"/>
+      <c r="Y30" s="364"/>
+      <c r="Z30" s="364"/>
+      <c r="AA30" s="364"/>
+      <c r="AB30" s="364"/>
+      <c r="AC30" s="364"/>
+      <c r="AD30" s="364"/>
+      <c r="AE30" s="364"/>
       <c r="AF30" s="142"/>
       <c r="AG30" s="11"/>
       <c r="AH30" s="11"/>
@@ -11022,36 +11032,36 @@
     </row>
     <row r="31" spans="1:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="99"/>
-      <c r="B31" s="363"/>
-      <c r="C31" s="363"/>
-      <c r="D31" s="363"/>
-      <c r="E31" s="363"/>
-      <c r="F31" s="363"/>
-      <c r="G31" s="363"/>
-      <c r="H31" s="363"/>
-      <c r="I31" s="363"/>
-      <c r="J31" s="363"/>
-      <c r="K31" s="363"/>
-      <c r="L31" s="363"/>
-      <c r="M31" s="363"/>
-      <c r="N31" s="363"/>
-      <c r="O31" s="363"/>
-      <c r="P31" s="363"/>
-      <c r="Q31" s="363"/>
-      <c r="R31" s="363"/>
-      <c r="S31" s="363"/>
-      <c r="T31" s="363"/>
-      <c r="U31" s="363"/>
-      <c r="V31" s="363"/>
-      <c r="W31" s="363"/>
-      <c r="X31" s="363"/>
-      <c r="Y31" s="363"/>
-      <c r="Z31" s="363"/>
-      <c r="AA31" s="363"/>
-      <c r="AB31" s="363"/>
-      <c r="AC31" s="363"/>
-      <c r="AD31" s="363"/>
-      <c r="AE31" s="363"/>
+      <c r="B31" s="364"/>
+      <c r="C31" s="364"/>
+      <c r="D31" s="364"/>
+      <c r="E31" s="364"/>
+      <c r="F31" s="364"/>
+      <c r="G31" s="364"/>
+      <c r="H31" s="364"/>
+      <c r="I31" s="364"/>
+      <c r="J31" s="364"/>
+      <c r="K31" s="364"/>
+      <c r="L31" s="364"/>
+      <c r="M31" s="364"/>
+      <c r="N31" s="364"/>
+      <c r="O31" s="364"/>
+      <c r="P31" s="364"/>
+      <c r="Q31" s="364"/>
+      <c r="R31" s="364"/>
+      <c r="S31" s="364"/>
+      <c r="T31" s="364"/>
+      <c r="U31" s="364"/>
+      <c r="V31" s="364"/>
+      <c r="W31" s="364"/>
+      <c r="X31" s="364"/>
+      <c r="Y31" s="364"/>
+      <c r="Z31" s="364"/>
+      <c r="AA31" s="364"/>
+      <c r="AB31" s="364"/>
+      <c r="AC31" s="364"/>
+      <c r="AD31" s="364"/>
+      <c r="AE31" s="364"/>
       <c r="AF31" s="87"/>
     </row>
     <row r="32" spans="1:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11401,29 +11411,29 @@
       <c r="AF40" s="118"/>
     </row>
     <row r="41" spans="1:40" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="344" t="s">
+      <c r="A41" s="345" t="s">
         <v>112</v>
       </c>
-      <c r="B41" s="344"/>
-      <c r="C41" s="344"/>
-      <c r="D41" s="344"/>
-      <c r="E41" s="344"/>
-      <c r="F41" s="344"/>
-      <c r="G41" s="344"/>
-      <c r="H41" s="344"/>
-      <c r="I41" s="348" t="s">
+      <c r="B41" s="345"/>
+      <c r="C41" s="345"/>
+      <c r="D41" s="345"/>
+      <c r="E41" s="345"/>
+      <c r="F41" s="345"/>
+      <c r="G41" s="345"/>
+      <c r="H41" s="345"/>
+      <c r="I41" s="349" t="s">
         <v>113</v>
       </c>
-      <c r="J41" s="348"/>
-      <c r="K41" s="348"/>
-      <c r="L41" s="348"/>
-      <c r="M41" s="348"/>
-      <c r="N41" s="348"/>
-      <c r="O41" s="348"/>
-      <c r="P41" s="348"/>
-      <c r="Q41" s="348"/>
-      <c r="R41" s="348"/>
-      <c r="S41" s="348"/>
+      <c r="J41" s="349"/>
+      <c r="K41" s="349"/>
+      <c r="L41" s="349"/>
+      <c r="M41" s="349"/>
+      <c r="N41" s="349"/>
+      <c r="O41" s="349"/>
+      <c r="P41" s="349"/>
+      <c r="Q41" s="349"/>
+      <c r="R41" s="349"/>
+      <c r="S41" s="349"/>
       <c r="T41" s="124"/>
       <c r="U41" s="124"/>
       <c r="V41" s="124"/>
@@ -11447,25 +11457,25 @@
       <c r="AN41" s="11"/>
     </row>
     <row r="42" spans="1:40" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="344"/>
-      <c r="B42" s="344"/>
-      <c r="C42" s="344"/>
-      <c r="D42" s="344"/>
-      <c r="E42" s="344"/>
-      <c r="F42" s="344"/>
-      <c r="G42" s="344"/>
-      <c r="H42" s="344"/>
-      <c r="I42" s="349"/>
-      <c r="J42" s="349"/>
-      <c r="K42" s="349"/>
-      <c r="L42" s="349"/>
-      <c r="M42" s="349"/>
-      <c r="N42" s="349"/>
-      <c r="O42" s="349"/>
-      <c r="P42" s="349"/>
-      <c r="Q42" s="349"/>
-      <c r="R42" s="349"/>
-      <c r="S42" s="349"/>
+      <c r="A42" s="345"/>
+      <c r="B42" s="345"/>
+      <c r="C42" s="345"/>
+      <c r="D42" s="345"/>
+      <c r="E42" s="345"/>
+      <c r="F42" s="345"/>
+      <c r="G42" s="345"/>
+      <c r="H42" s="345"/>
+      <c r="I42" s="350"/>
+      <c r="J42" s="350"/>
+      <c r="K42" s="350"/>
+      <c r="L42" s="350"/>
+      <c r="M42" s="350"/>
+      <c r="N42" s="350"/>
+      <c r="O42" s="350"/>
+      <c r="P42" s="350"/>
+      <c r="Q42" s="350"/>
+      <c r="R42" s="350"/>
+      <c r="S42" s="350"/>
       <c r="T42" s="79"/>
       <c r="U42" s="125"/>
       <c r="V42" s="125"/>
@@ -11474,13 +11484,13 @@
       <c r="Y42" s="127"/>
       <c r="Z42" s="127"/>
       <c r="AA42" s="128"/>
-      <c r="AB42" s="345" t="str">
+      <c r="AB42" s="346" t="str">
         <f>Y23</f>
         <v xml:space="preserve">27.04.2019   г. </v>
       </c>
-      <c r="AC42" s="345"/>
-      <c r="AD42" s="345"/>
-      <c r="AE42" s="345"/>
+      <c r="AC42" s="346"/>
+      <c r="AD42" s="346"/>
+      <c r="AE42" s="346"/>
       <c r="AF42" s="117"/>
       <c r="AG42" s="11"/>
       <c r="AH42" s="11"/>
@@ -11492,69 +11502,69 @@
       <c r="AN42" s="11"/>
     </row>
     <row r="43" spans="1:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="344"/>
-      <c r="B43" s="344"/>
-      <c r="C43" s="344"/>
-      <c r="D43" s="344"/>
-      <c r="E43" s="344"/>
-      <c r="F43" s="344"/>
-      <c r="G43" s="344"/>
-      <c r="H43" s="344"/>
-      <c r="I43" s="346" t="s">
+      <c r="A43" s="345"/>
+      <c r="B43" s="345"/>
+      <c r="C43" s="345"/>
+      <c r="D43" s="345"/>
+      <c r="E43" s="345"/>
+      <c r="F43" s="345"/>
+      <c r="G43" s="345"/>
+      <c r="H43" s="345"/>
+      <c r="I43" s="347" t="s">
         <v>12</v>
       </c>
-      <c r="J43" s="346"/>
-      <c r="K43" s="346"/>
-      <c r="L43" s="346"/>
-      <c r="M43" s="346"/>
-      <c r="N43" s="346"/>
-      <c r="O43" s="346"/>
-      <c r="P43" s="346"/>
-      <c r="Q43" s="346"/>
-      <c r="R43" s="346"/>
-      <c r="S43" s="346"/>
+      <c r="J43" s="347"/>
+      <c r="K43" s="347"/>
+      <c r="L43" s="347"/>
+      <c r="M43" s="347"/>
+      <c r="N43" s="347"/>
+      <c r="O43" s="347"/>
+      <c r="P43" s="347"/>
+      <c r="Q43" s="347"/>
+      <c r="R43" s="347"/>
+      <c r="S43" s="347"/>
       <c r="T43" s="120"/>
-      <c r="U43" s="346" t="s">
+      <c r="U43" s="347" t="s">
         <v>91</v>
       </c>
-      <c r="V43" s="346"/>
-      <c r="W43" s="346"/>
-      <c r="X43" s="346"/>
-      <c r="Y43" s="346"/>
-      <c r="Z43" s="346"/>
+      <c r="V43" s="347"/>
+      <c r="W43" s="347"/>
+      <c r="X43" s="347"/>
+      <c r="Y43" s="347"/>
+      <c r="Z43" s="347"/>
       <c r="AA43" s="84"/>
-      <c r="AB43" s="347" t="s">
+      <c r="AB43" s="348" t="s">
         <v>1</v>
       </c>
-      <c r="AC43" s="347"/>
-      <c r="AD43" s="347"/>
-      <c r="AE43" s="347"/>
+      <c r="AC43" s="348"/>
+      <c r="AD43" s="348"/>
+      <c r="AE43" s="348"/>
       <c r="AF43" s="118"/>
     </row>
     <row r="44" spans="1:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="344" t="s">
+      <c r="A44" s="345" t="s">
         <v>92</v>
       </c>
-      <c r="B44" s="344"/>
-      <c r="C44" s="344"/>
-      <c r="D44" s="344"/>
-      <c r="E44" s="344"/>
-      <c r="F44" s="344"/>
-      <c r="G44" s="344"/>
-      <c r="H44" s="344"/>
-      <c r="I44" s="348" t="s">
+      <c r="B44" s="345"/>
+      <c r="C44" s="345"/>
+      <c r="D44" s="345"/>
+      <c r="E44" s="345"/>
+      <c r="F44" s="345"/>
+      <c r="G44" s="345"/>
+      <c r="H44" s="345"/>
+      <c r="I44" s="349" t="s">
         <v>79</v>
       </c>
-      <c r="J44" s="348"/>
-      <c r="K44" s="348"/>
-      <c r="L44" s="348"/>
-      <c r="M44" s="348"/>
-      <c r="N44" s="348"/>
-      <c r="O44" s="348"/>
-      <c r="P44" s="348"/>
-      <c r="Q44" s="348"/>
-      <c r="R44" s="348"/>
-      <c r="S44" s="348"/>
+      <c r="J44" s="349"/>
+      <c r="K44" s="349"/>
+      <c r="L44" s="349"/>
+      <c r="M44" s="349"/>
+      <c r="N44" s="349"/>
+      <c r="O44" s="349"/>
+      <c r="P44" s="349"/>
+      <c r="Q44" s="349"/>
+      <c r="R44" s="349"/>
+      <c r="S44" s="349"/>
       <c r="T44" s="124"/>
       <c r="U44" s="124"/>
       <c r="V44" s="124"/>
@@ -11570,25 +11580,25 @@
       <c r="AF44" s="118"/>
     </row>
     <row r="45" spans="1:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="344"/>
-      <c r="B45" s="344"/>
-      <c r="C45" s="344"/>
-      <c r="D45" s="344"/>
-      <c r="E45" s="344"/>
-      <c r="F45" s="344"/>
-      <c r="G45" s="344"/>
-      <c r="H45" s="344"/>
-      <c r="I45" s="349"/>
-      <c r="J45" s="349"/>
-      <c r="K45" s="349"/>
-      <c r="L45" s="349"/>
-      <c r="M45" s="349"/>
-      <c r="N45" s="349"/>
-      <c r="O45" s="349"/>
-      <c r="P45" s="349"/>
-      <c r="Q45" s="349"/>
-      <c r="R45" s="349"/>
-      <c r="S45" s="349"/>
+      <c r="A45" s="345"/>
+      <c r="B45" s="345"/>
+      <c r="C45" s="345"/>
+      <c r="D45" s="345"/>
+      <c r="E45" s="345"/>
+      <c r="F45" s="345"/>
+      <c r="G45" s="345"/>
+      <c r="H45" s="345"/>
+      <c r="I45" s="350"/>
+      <c r="J45" s="350"/>
+      <c r="K45" s="350"/>
+      <c r="L45" s="350"/>
+      <c r="M45" s="350"/>
+      <c r="N45" s="350"/>
+      <c r="O45" s="350"/>
+      <c r="P45" s="350"/>
+      <c r="Q45" s="350"/>
+      <c r="R45" s="350"/>
+      <c r="S45" s="350"/>
       <c r="T45" s="79"/>
       <c r="U45" s="125"/>
       <c r="V45" s="125"/>
@@ -11597,53 +11607,53 @@
       <c r="Y45" s="127"/>
       <c r="Z45" s="127"/>
       <c r="AA45" s="128"/>
-      <c r="AB45" s="345" t="str">
+      <c r="AB45" s="346" t="str">
         <f>Y23</f>
         <v xml:space="preserve">27.04.2019   г. </v>
       </c>
-      <c r="AC45" s="345"/>
-      <c r="AD45" s="345"/>
-      <c r="AE45" s="345"/>
+      <c r="AC45" s="346"/>
+      <c r="AD45" s="346"/>
+      <c r="AE45" s="346"/>
       <c r="AF45" s="118"/>
     </row>
     <row r="46" spans="1:40" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="344"/>
-      <c r="B46" s="344"/>
-      <c r="C46" s="344"/>
-      <c r="D46" s="344"/>
-      <c r="E46" s="344"/>
-      <c r="F46" s="344"/>
-      <c r="G46" s="344"/>
-      <c r="H46" s="344"/>
-      <c r="I46" s="346" t="s">
+      <c r="A46" s="345"/>
+      <c r="B46" s="345"/>
+      <c r="C46" s="345"/>
+      <c r="D46" s="345"/>
+      <c r="E46" s="345"/>
+      <c r="F46" s="345"/>
+      <c r="G46" s="345"/>
+      <c r="H46" s="345"/>
+      <c r="I46" s="347" t="s">
         <v>12</v>
       </c>
-      <c r="J46" s="346"/>
-      <c r="K46" s="346"/>
-      <c r="L46" s="346"/>
-      <c r="M46" s="346"/>
-      <c r="N46" s="346"/>
-      <c r="O46" s="346"/>
-      <c r="P46" s="346"/>
-      <c r="Q46" s="346"/>
-      <c r="R46" s="346"/>
-      <c r="S46" s="346"/>
+      <c r="J46" s="347"/>
+      <c r="K46" s="347"/>
+      <c r="L46" s="347"/>
+      <c r="M46" s="347"/>
+      <c r="N46" s="347"/>
+      <c r="O46" s="347"/>
+      <c r="P46" s="347"/>
+      <c r="Q46" s="347"/>
+      <c r="R46" s="347"/>
+      <c r="S46" s="347"/>
       <c r="T46" s="120"/>
-      <c r="U46" s="346" t="s">
+      <c r="U46" s="347" t="s">
         <v>91</v>
       </c>
-      <c r="V46" s="346"/>
-      <c r="W46" s="346"/>
-      <c r="X46" s="346"/>
-      <c r="Y46" s="346"/>
-      <c r="Z46" s="346"/>
+      <c r="V46" s="347"/>
+      <c r="W46" s="347"/>
+      <c r="X46" s="347"/>
+      <c r="Y46" s="347"/>
+      <c r="Z46" s="347"/>
       <c r="AA46" s="84"/>
-      <c r="AB46" s="347" t="s">
+      <c r="AB46" s="348" t="s">
         <v>1</v>
       </c>
-      <c r="AC46" s="347"/>
-      <c r="AD46" s="347"/>
-      <c r="AE46" s="347"/>
+      <c r="AC46" s="348"/>
+      <c r="AD46" s="348"/>
+      <c r="AE46" s="348"/>
       <c r="AF46" s="121"/>
       <c r="AG46" s="6"/>
       <c r="AH46" s="6"/>
@@ -12275,7 +12285,7 @@
   <dimension ref="A1:AN62"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40:S41"/>
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12287,40 +12297,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="368" t="s">
-        <v>190</v>
-      </c>
-      <c r="B1" s="368"/>
-      <c r="C1" s="368"/>
-      <c r="D1" s="368"/>
-      <c r="E1" s="368"/>
-      <c r="F1" s="368"/>
-      <c r="G1" s="368"/>
-      <c r="H1" s="368"/>
-      <c r="I1" s="368"/>
-      <c r="J1" s="368"/>
-      <c r="K1" s="368"/>
-      <c r="L1" s="368"/>
-      <c r="M1" s="368"/>
-      <c r="N1" s="368"/>
-      <c r="O1" s="368"/>
-      <c r="P1" s="368"/>
-      <c r="Q1" s="368"/>
-      <c r="R1" s="368"/>
-      <c r="S1" s="368"/>
-      <c r="T1" s="368"/>
-      <c r="U1" s="368"/>
-      <c r="V1" s="368"/>
-      <c r="W1" s="368"/>
-      <c r="X1" s="368"/>
-      <c r="Y1" s="368"/>
-      <c r="Z1" s="368"/>
-      <c r="AA1" s="368"/>
-      <c r="AB1" s="368"/>
-      <c r="AC1" s="368"/>
-      <c r="AD1" s="368"/>
-      <c r="AE1" s="368"/>
-      <c r="AF1" s="368"/>
+      <c r="A1" s="372" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="372"/>
+      <c r="C1" s="372"/>
+      <c r="D1" s="372"/>
+      <c r="E1" s="372"/>
+      <c r="F1" s="372"/>
+      <c r="G1" s="372"/>
+      <c r="H1" s="372"/>
+      <c r="I1" s="372"/>
+      <c r="J1" s="372"/>
+      <c r="K1" s="372"/>
+      <c r="L1" s="372"/>
+      <c r="M1" s="372"/>
+      <c r="N1" s="372"/>
+      <c r="O1" s="372"/>
+      <c r="P1" s="372"/>
+      <c r="Q1" s="372"/>
+      <c r="R1" s="372"/>
+      <c r="S1" s="372"/>
+      <c r="T1" s="372"/>
+      <c r="U1" s="372"/>
+      <c r="V1" s="372"/>
+      <c r="W1" s="372"/>
+      <c r="X1" s="372"/>
+      <c r="Y1" s="372"/>
+      <c r="Z1" s="372"/>
+      <c r="AA1" s="372"/>
+      <c r="AB1" s="372"/>
+      <c r="AC1" s="372"/>
+      <c r="AD1" s="372"/>
+      <c r="AE1" s="372"/>
+      <c r="AF1" s="372"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -12340,7 +12350,7 @@
       <c r="O2" s="208"/>
       <c r="P2" s="80"/>
       <c r="Q2" s="208" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="R2" s="80"/>
       <c r="S2" s="4"/>
@@ -12359,40 +12369,40 @@
       <c r="AF2" s="97"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="369" t="s">
-        <v>189</v>
-      </c>
-      <c r="B3" s="369"/>
-      <c r="C3" s="369"/>
-      <c r="D3" s="369"/>
-      <c r="E3" s="369"/>
-      <c r="F3" s="369"/>
-      <c r="G3" s="369"/>
-      <c r="H3" s="369"/>
-      <c r="I3" s="369"/>
-      <c r="J3" s="369"/>
-      <c r="K3" s="369"/>
-      <c r="L3" s="369"/>
-      <c r="M3" s="369"/>
-      <c r="N3" s="369"/>
-      <c r="O3" s="369"/>
-      <c r="P3" s="369"/>
-      <c r="Q3" s="369"/>
-      <c r="R3" s="369"/>
-      <c r="S3" s="369"/>
-      <c r="T3" s="369"/>
-      <c r="U3" s="369"/>
-      <c r="V3" s="369"/>
-      <c r="W3" s="369"/>
-      <c r="X3" s="369"/>
-      <c r="Y3" s="369"/>
-      <c r="Z3" s="369"/>
-      <c r="AA3" s="369"/>
-      <c r="AB3" s="369"/>
-      <c r="AC3" s="369"/>
-      <c r="AD3" s="369"/>
-      <c r="AE3" s="369"/>
-      <c r="AF3" s="369"/>
+      <c r="A3" s="373" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="373"/>
+      <c r="C3" s="373"/>
+      <c r="D3" s="373"/>
+      <c r="E3" s="373"/>
+      <c r="F3" s="373"/>
+      <c r="G3" s="373"/>
+      <c r="H3" s="373"/>
+      <c r="I3" s="373"/>
+      <c r="J3" s="373"/>
+      <c r="K3" s="373"/>
+      <c r="L3" s="373"/>
+      <c r="M3" s="373"/>
+      <c r="N3" s="373"/>
+      <c r="O3" s="373"/>
+      <c r="P3" s="373"/>
+      <c r="Q3" s="373"/>
+      <c r="R3" s="373"/>
+      <c r="S3" s="373"/>
+      <c r="T3" s="373"/>
+      <c r="U3" s="373"/>
+      <c r="V3" s="373"/>
+      <c r="W3" s="373"/>
+      <c r="X3" s="373"/>
+      <c r="Y3" s="373"/>
+      <c r="Z3" s="373"/>
+      <c r="AA3" s="373"/>
+      <c r="AB3" s="373"/>
+      <c r="AC3" s="373"/>
+      <c r="AD3" s="373"/>
+      <c r="AE3" s="373"/>
+      <c r="AF3" s="373"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="207"/>
@@ -12412,7 +12422,7 @@
       <c r="O4" s="208"/>
       <c r="P4" s="87"/>
       <c r="Q4" s="208" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R4" s="87"/>
       <c r="S4" s="206"/>
@@ -12465,40 +12475,40 @@
       <c r="AF5" s="91"/>
     </row>
     <row r="6" spans="1:40" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="371" t="s">
-        <v>173</v>
-      </c>
-      <c r="B6" s="371"/>
-      <c r="C6" s="371"/>
-      <c r="D6" s="371"/>
-      <c r="E6" s="371"/>
-      <c r="F6" s="371"/>
-      <c r="G6" s="371"/>
-      <c r="H6" s="371"/>
-      <c r="I6" s="371"/>
-      <c r="J6" s="371"/>
-      <c r="K6" s="371"/>
-      <c r="L6" s="371"/>
-      <c r="M6" s="371"/>
-      <c r="N6" s="371"/>
-      <c r="O6" s="371"/>
-      <c r="P6" s="371"/>
-      <c r="Q6" s="371"/>
-      <c r="R6" s="371"/>
-      <c r="S6" s="371"/>
-      <c r="T6" s="371"/>
-      <c r="U6" s="371"/>
-      <c r="V6" s="371"/>
-      <c r="W6" s="371"/>
-      <c r="X6" s="371"/>
-      <c r="Y6" s="371"/>
-      <c r="Z6" s="371"/>
-      <c r="AA6" s="371"/>
-      <c r="AB6" s="371"/>
-      <c r="AC6" s="371"/>
-      <c r="AD6" s="371"/>
-      <c r="AE6" s="371"/>
-      <c r="AF6" s="371"/>
+      <c r="A6" s="374" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="374"/>
+      <c r="C6" s="374"/>
+      <c r="D6" s="374"/>
+      <c r="E6" s="374"/>
+      <c r="F6" s="374"/>
+      <c r="G6" s="374"/>
+      <c r="H6" s="374"/>
+      <c r="I6" s="374"/>
+      <c r="J6" s="374"/>
+      <c r="K6" s="374"/>
+      <c r="L6" s="374"/>
+      <c r="M6" s="374"/>
+      <c r="N6" s="374"/>
+      <c r="O6" s="374"/>
+      <c r="P6" s="374"/>
+      <c r="Q6" s="374"/>
+      <c r="R6" s="374"/>
+      <c r="S6" s="374"/>
+      <c r="T6" s="374"/>
+      <c r="U6" s="374"/>
+      <c r="V6" s="374"/>
+      <c r="W6" s="374"/>
+      <c r="X6" s="374"/>
+      <c r="Y6" s="374"/>
+      <c r="Z6" s="374"/>
+      <c r="AA6" s="374"/>
+      <c r="AB6" s="374"/>
+      <c r="AC6" s="374"/>
+      <c r="AD6" s="374"/>
+      <c r="AE6" s="374"/>
+      <c r="AF6" s="374"/>
       <c r="AG6" s="6"/>
       <c r="AH6" s="6"/>
       <c r="AI6" s="6"/>
@@ -12509,40 +12519,40 @@
       <c r="AN6" s="6"/>
     </row>
     <row r="7" spans="1:40" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="371" t="s">
-        <v>174</v>
-      </c>
-      <c r="B7" s="371"/>
-      <c r="C7" s="371"/>
-      <c r="D7" s="371"/>
-      <c r="E7" s="371"/>
-      <c r="F7" s="371"/>
-      <c r="G7" s="371"/>
-      <c r="H7" s="371"/>
-      <c r="I7" s="371"/>
-      <c r="J7" s="371"/>
-      <c r="K7" s="371"/>
-      <c r="L7" s="371"/>
-      <c r="M7" s="371"/>
-      <c r="N7" s="371"/>
-      <c r="O7" s="371"/>
-      <c r="P7" s="371"/>
-      <c r="Q7" s="371"/>
-      <c r="R7" s="371"/>
-      <c r="S7" s="371"/>
-      <c r="T7" s="371"/>
-      <c r="U7" s="371"/>
-      <c r="V7" s="371"/>
-      <c r="W7" s="371"/>
-      <c r="X7" s="371"/>
-      <c r="Y7" s="371"/>
-      <c r="Z7" s="371"/>
-      <c r="AA7" s="371"/>
-      <c r="AB7" s="371"/>
-      <c r="AC7" s="371"/>
-      <c r="AD7" s="371"/>
-      <c r="AE7" s="371"/>
-      <c r="AF7" s="371"/>
+      <c r="A7" s="374" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="374"/>
+      <c r="C7" s="374"/>
+      <c r="D7" s="374"/>
+      <c r="E7" s="374"/>
+      <c r="F7" s="374"/>
+      <c r="G7" s="374"/>
+      <c r="H7" s="374"/>
+      <c r="I7" s="374"/>
+      <c r="J7" s="374"/>
+      <c r="K7" s="374"/>
+      <c r="L7" s="374"/>
+      <c r="M7" s="374"/>
+      <c r="N7" s="374"/>
+      <c r="O7" s="374"/>
+      <c r="P7" s="374"/>
+      <c r="Q7" s="374"/>
+      <c r="R7" s="374"/>
+      <c r="S7" s="374"/>
+      <c r="T7" s="374"/>
+      <c r="U7" s="374"/>
+      <c r="V7" s="374"/>
+      <c r="W7" s="374"/>
+      <c r="X7" s="374"/>
+      <c r="Y7" s="374"/>
+      <c r="Z7" s="374"/>
+      <c r="AA7" s="374"/>
+      <c r="AB7" s="374"/>
+      <c r="AC7" s="374"/>
+      <c r="AD7" s="374"/>
+      <c r="AE7" s="374"/>
+      <c r="AF7" s="374"/>
       <c r="AG7" s="8"/>
       <c r="AH7" s="8"/>
       <c r="AI7" s="8"/>
@@ -12570,7 +12580,7 @@
       <c r="O8" s="210"/>
       <c r="P8" s="210"/>
       <c r="Q8" s="246" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R8" s="210"/>
       <c r="S8" s="211"/>
@@ -12678,7 +12688,7 @@
     </row>
     <row r="11" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="219" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B11" s="142"/>
       <c r="C11" s="142"/>
@@ -12748,7 +12758,7 @@
     </row>
     <row r="13" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="220" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B13" s="221"/>
       <c r="C13" s="221"/>
@@ -12806,7 +12816,7 @@
       <c r="S14" s="142"/>
       <c r="T14" s="142"/>
       <c r="U14" s="245" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V14" s="142"/>
       <c r="W14" s="142"/>
@@ -12822,7 +12832,7 @@
     </row>
     <row r="15" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="213" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B15" s="142"/>
       <c r="C15" s="142"/>
@@ -12858,7 +12868,7 @@
     </row>
     <row r="16" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="220" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B16" s="221"/>
       <c r="C16" s="221"/>
@@ -12916,7 +12926,7 @@
       <c r="S17" s="142"/>
       <c r="T17" s="142"/>
       <c r="U17" s="245" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V17" s="142"/>
       <c r="W17" s="142"/>
@@ -12932,7 +12942,7 @@
     </row>
     <row r="18" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="220" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B18" s="221"/>
       <c r="C18" s="221"/>
@@ -12947,8 +12957,9 @@
       <c r="L18" s="221"/>
       <c r="M18" s="221"/>
       <c r="N18" s="221"/>
-      <c r="O18" s="244" t="s">
-        <v>113</v>
+      <c r="O18" s="247" t="str">
+        <f>O13</f>
+        <v>Зам. начальника ЛПДС "Рязань" Костин В.К.</v>
       </c>
       <c r="P18" s="221"/>
       <c r="Q18" s="221"/>
@@ -12990,7 +13001,7 @@
       <c r="S19" s="142"/>
       <c r="T19" s="142"/>
       <c r="U19" s="245" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V19" s="142"/>
       <c r="W19" s="142"/>
@@ -13006,7 +13017,7 @@
     </row>
     <row r="20" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="220" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B20" s="221"/>
       <c r="C20" s="221"/>
@@ -13064,7 +13075,7 @@
       <c r="S21" s="142"/>
       <c r="T21" s="142"/>
       <c r="U21" s="245" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V21" s="142"/>
       <c r="W21" s="142"/>
@@ -13080,7 +13091,7 @@
     </row>
     <row r="22" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="219" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B22" s="142"/>
       <c r="C22" s="142"/>
@@ -13108,7 +13119,7 @@
       <c r="Y22" s="142"/>
       <c r="Z22" s="142"/>
       <c r="AA22" s="222" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AB22" s="221"/>
       <c r="AC22" s="221"/>
@@ -13129,31 +13140,31 @@
       </c>
       <c r="I23" s="225"/>
       <c r="J23" s="225"/>
-      <c r="K23" s="373" t="s">
+      <c r="K23" s="376" t="s">
         <v>115</v>
       </c>
-      <c r="L23" s="373"/>
-      <c r="M23" s="373"/>
-      <c r="N23" s="373"/>
-      <c r="O23" s="373"/>
-      <c r="P23" s="373"/>
-      <c r="Q23" s="373"/>
-      <c r="R23" s="373"/>
+      <c r="L23" s="376"/>
+      <c r="M23" s="376"/>
+      <c r="N23" s="376"/>
+      <c r="O23" s="376"/>
+      <c r="P23" s="376"/>
+      <c r="Q23" s="376"/>
+      <c r="R23" s="376"/>
       <c r="S23" s="223" t="s">
         <v>116</v>
       </c>
       <c r="T23" s="223"/>
       <c r="U23" s="225"/>
-      <c r="V23" s="372" t="s">
+      <c r="V23" s="375" t="s">
         <v>115</v>
       </c>
-      <c r="W23" s="372"/>
-      <c r="X23" s="372"/>
-      <c r="Y23" s="372"/>
-      <c r="Z23" s="372"/>
-      <c r="AA23" s="372"/>
-      <c r="AB23" s="372"/>
-      <c r="AC23" s="372"/>
+      <c r="W23" s="375"/>
+      <c r="X23" s="375"/>
+      <c r="Y23" s="375"/>
+      <c r="Z23" s="375"/>
+      <c r="AA23" s="375"/>
+      <c r="AB23" s="375"/>
+      <c r="AC23" s="375"/>
       <c r="AD23" s="103"/>
       <c r="AE23" s="103"/>
       <c r="AF23" s="97"/>
@@ -13217,12 +13228,12 @@
       <c r="J25" s="229"/>
       <c r="K25" s="229"/>
       <c r="L25" s="229"/>
-      <c r="M25" s="370" t="str">
+      <c r="M25" s="369" t="str">
         <f>AA22</f>
         <v>6,4 п.м.</v>
       </c>
-      <c r="N25" s="370"/>
-      <c r="O25" s="370"/>
+      <c r="N25" s="369"/>
+      <c r="O25" s="369"/>
       <c r="P25" s="229"/>
       <c r="Q25" s="229"/>
       <c r="R25" s="229"/>
@@ -13262,40 +13273,40 @@
       </c>
       <c r="I26" s="225"/>
       <c r="J26" s="225"/>
-      <c r="K26" s="375" t="str">
+      <c r="K26" s="371" t="str">
         <f>K23</f>
         <v>334,8 / 98 км</v>
       </c>
-      <c r="L26" s="375"/>
-      <c r="M26" s="375"/>
-      <c r="N26" s="375"/>
-      <c r="O26" s="375"/>
-      <c r="P26" s="375"/>
-      <c r="Q26" s="375"/>
-      <c r="R26" s="375"/>
+      <c r="L26" s="371"/>
+      <c r="M26" s="371"/>
+      <c r="N26" s="371"/>
+      <c r="O26" s="371"/>
+      <c r="P26" s="371"/>
+      <c r="Q26" s="371"/>
+      <c r="R26" s="371"/>
       <c r="S26" s="223" t="s">
         <v>116</v>
       </c>
       <c r="T26" s="223"/>
       <c r="U26" s="225"/>
-      <c r="V26" s="374" t="str">
+      <c r="V26" s="370" t="str">
         <f>V23</f>
         <v>334,8 / 98 км</v>
       </c>
-      <c r="W26" s="374"/>
-      <c r="X26" s="374"/>
-      <c r="Y26" s="374"/>
-      <c r="Z26" s="374"/>
-      <c r="AA26" s="374"/>
-      <c r="AB26" s="374"/>
-      <c r="AC26" s="374"/>
+      <c r="W26" s="370"/>
+      <c r="X26" s="370"/>
+      <c r="Y26" s="370"/>
+      <c r="Z26" s="370"/>
+      <c r="AA26" s="370"/>
+      <c r="AB26" s="370"/>
+      <c r="AC26" s="370"/>
       <c r="AD26" s="149"/>
       <c r="AE26" s="149"/>
       <c r="AF26" s="87"/>
     </row>
     <row r="27" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="226" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B27" s="226"/>
       <c r="C27" s="228"/>
@@ -13331,7 +13342,7 @@
     </row>
     <row r="28" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="226" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B28" s="230"/>
       <c r="C28" s="228"/>
@@ -13380,12 +13391,12 @@
       <c r="J29" s="229"/>
       <c r="K29" s="229"/>
       <c r="L29" s="229"/>
-      <c r="M29" s="370" t="str">
+      <c r="M29" s="369" t="str">
         <f>M25</f>
         <v>6,4 п.м.</v>
       </c>
-      <c r="N29" s="370"/>
-      <c r="O29" s="370"/>
+      <c r="N29" s="369"/>
+      <c r="O29" s="369"/>
       <c r="P29" s="232"/>
       <c r="Q29" s="232"/>
       <c r="R29" s="232"/>
@@ -13425,33 +13436,33 @@
       </c>
       <c r="I30" s="225"/>
       <c r="J30" s="225"/>
-      <c r="K30" s="375" t="str">
+      <c r="K30" s="371" t="str">
         <f>K23</f>
         <v>334,8 / 98 км</v>
       </c>
-      <c r="L30" s="375"/>
-      <c r="M30" s="375"/>
-      <c r="N30" s="375"/>
-      <c r="O30" s="375"/>
-      <c r="P30" s="375"/>
-      <c r="Q30" s="375"/>
-      <c r="R30" s="375"/>
+      <c r="L30" s="371"/>
+      <c r="M30" s="371"/>
+      <c r="N30" s="371"/>
+      <c r="O30" s="371"/>
+      <c r="P30" s="371"/>
+      <c r="Q30" s="371"/>
+      <c r="R30" s="371"/>
       <c r="S30" s="223" t="s">
         <v>116</v>
       </c>
       <c r="T30" s="223"/>
       <c r="U30" s="225"/>
-      <c r="V30" s="374" t="str">
+      <c r="V30" s="370" t="str">
         <f>V23</f>
         <v>334,8 / 98 км</v>
       </c>
-      <c r="W30" s="374"/>
-      <c r="X30" s="374"/>
-      <c r="Y30" s="374"/>
-      <c r="Z30" s="374"/>
-      <c r="AA30" s="374"/>
-      <c r="AB30" s="374"/>
-      <c r="AC30" s="374"/>
+      <c r="W30" s="370"/>
+      <c r="X30" s="370"/>
+      <c r="Y30" s="370"/>
+      <c r="Z30" s="370"/>
+      <c r="AA30" s="370"/>
+      <c r="AB30" s="370"/>
+      <c r="AC30" s="370"/>
       <c r="AD30" s="122"/>
       <c r="AE30" s="122"/>
       <c r="AF30" s="144"/>
@@ -13510,7 +13521,7 @@
     </row>
     <row r="32" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="226" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B32" s="235"/>
       <c r="C32" s="235"/>
@@ -13591,7 +13602,7 @@
     <row r="34" spans="1:40" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="227"/>
       <c r="B34" s="226" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C34" s="227"/>
       <c r="D34" s="227"/>
@@ -13667,30 +13678,30 @@
       <c r="AF35" s="87"/>
     </row>
     <row r="36" spans="1:40" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="367" t="s">
-        <v>191</v>
-      </c>
-      <c r="B36" s="367"/>
-      <c r="C36" s="367"/>
-      <c r="D36" s="367"/>
-      <c r="E36" s="367"/>
-      <c r="F36" s="367"/>
-      <c r="G36" s="367"/>
-      <c r="H36" s="367"/>
-      <c r="I36" s="364" t="str">
+      <c r="A36" s="365" t="s">
+        <v>190</v>
+      </c>
+      <c r="B36" s="365"/>
+      <c r="C36" s="365"/>
+      <c r="D36" s="365"/>
+      <c r="E36" s="365"/>
+      <c r="F36" s="365"/>
+      <c r="G36" s="365"/>
+      <c r="H36" s="365"/>
+      <c r="I36" s="366" t="str">
         <f>O13</f>
         <v>Зам. начальника ЛПДС "Рязань" Костин В.К.</v>
       </c>
-      <c r="J36" s="364"/>
-      <c r="K36" s="364"/>
-      <c r="L36" s="364"/>
-      <c r="M36" s="364"/>
-      <c r="N36" s="364"/>
-      <c r="O36" s="364"/>
-      <c r="P36" s="364"/>
-      <c r="Q36" s="364"/>
-      <c r="R36" s="364"/>
-      <c r="S36" s="364"/>
+      <c r="J36" s="366"/>
+      <c r="K36" s="366"/>
+      <c r="L36" s="366"/>
+      <c r="M36" s="366"/>
+      <c r="N36" s="366"/>
+      <c r="O36" s="366"/>
+      <c r="P36" s="366"/>
+      <c r="Q36" s="366"/>
+      <c r="R36" s="366"/>
+      <c r="S36" s="366"/>
       <c r="T36" s="124"/>
       <c r="U36" s="124"/>
       <c r="V36" s="124"/>
@@ -13714,25 +13725,25 @@
       <c r="AN36" s="11"/>
     </row>
     <row r="37" spans="1:40" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="367"/>
-      <c r="B37" s="367"/>
-      <c r="C37" s="367"/>
-      <c r="D37" s="367"/>
-      <c r="E37" s="367"/>
-      <c r="F37" s="367"/>
-      <c r="G37" s="367"/>
-      <c r="H37" s="367"/>
-      <c r="I37" s="365"/>
-      <c r="J37" s="365"/>
-      <c r="K37" s="365"/>
-      <c r="L37" s="365"/>
-      <c r="M37" s="365"/>
-      <c r="N37" s="365"/>
-      <c r="O37" s="365"/>
-      <c r="P37" s="365"/>
-      <c r="Q37" s="365"/>
-      <c r="R37" s="365"/>
-      <c r="S37" s="365"/>
+      <c r="A37" s="365"/>
+      <c r="B37" s="365"/>
+      <c r="C37" s="365"/>
+      <c r="D37" s="365"/>
+      <c r="E37" s="365"/>
+      <c r="F37" s="365"/>
+      <c r="G37" s="365"/>
+      <c r="H37" s="365"/>
+      <c r="I37" s="367"/>
+      <c r="J37" s="367"/>
+      <c r="K37" s="367"/>
+      <c r="L37" s="367"/>
+      <c r="M37" s="367"/>
+      <c r="N37" s="367"/>
+      <c r="O37" s="367"/>
+      <c r="P37" s="367"/>
+      <c r="Q37" s="367"/>
+      <c r="R37" s="367"/>
+      <c r="S37" s="367"/>
       <c r="T37" s="79"/>
       <c r="U37" s="125"/>
       <c r="V37" s="125"/>
@@ -13741,13 +13752,13 @@
       <c r="Y37" s="127"/>
       <c r="Z37" s="127"/>
       <c r="AA37" s="128"/>
-      <c r="AB37" s="366" t="str">
+      <c r="AB37" s="368" t="str">
         <f>P9</f>
         <v>27.04.2019 г.</v>
       </c>
-      <c r="AC37" s="366"/>
-      <c r="AD37" s="366"/>
-      <c r="AE37" s="366"/>
+      <c r="AC37" s="368"/>
+      <c r="AD37" s="368"/>
+      <c r="AE37" s="368"/>
       <c r="AF37" s="117"/>
       <c r="AG37" s="11"/>
       <c r="AH37" s="11"/>
@@ -13759,56 +13770,56 @@
       <c r="AN37" s="11"/>
     </row>
     <row r="38" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="367"/>
-      <c r="B38" s="367"/>
-      <c r="C38" s="367"/>
-      <c r="D38" s="367"/>
-      <c r="E38" s="367"/>
-      <c r="F38" s="367"/>
-      <c r="G38" s="367"/>
-      <c r="H38" s="367"/>
-      <c r="I38" s="346" t="s">
+      <c r="A38" s="365"/>
+      <c r="B38" s="365"/>
+      <c r="C38" s="365"/>
+      <c r="D38" s="365"/>
+      <c r="E38" s="365"/>
+      <c r="F38" s="365"/>
+      <c r="G38" s="365"/>
+      <c r="H38" s="365"/>
+      <c r="I38" s="347" t="s">
         <v>12</v>
       </c>
-      <c r="J38" s="346"/>
-      <c r="K38" s="346"/>
-      <c r="L38" s="346"/>
-      <c r="M38" s="346"/>
-      <c r="N38" s="346"/>
-      <c r="O38" s="346"/>
-      <c r="P38" s="346"/>
-      <c r="Q38" s="346"/>
-      <c r="R38" s="346"/>
-      <c r="S38" s="346"/>
+      <c r="J38" s="347"/>
+      <c r="K38" s="347"/>
+      <c r="L38" s="347"/>
+      <c r="M38" s="347"/>
+      <c r="N38" s="347"/>
+      <c r="O38" s="347"/>
+      <c r="P38" s="347"/>
+      <c r="Q38" s="347"/>
+      <c r="R38" s="347"/>
+      <c r="S38" s="347"/>
       <c r="T38" s="120"/>
-      <c r="U38" s="346" t="s">
+      <c r="U38" s="347" t="s">
         <v>91</v>
       </c>
-      <c r="V38" s="346"/>
-      <c r="W38" s="346"/>
-      <c r="X38" s="346"/>
-      <c r="Y38" s="346"/>
-      <c r="Z38" s="346"/>
+      <c r="V38" s="347"/>
+      <c r="W38" s="347"/>
+      <c r="X38" s="347"/>
+      <c r="Y38" s="347"/>
+      <c r="Z38" s="347"/>
       <c r="AA38" s="84"/>
-      <c r="AB38" s="347" t="s">
+      <c r="AB38" s="348" t="s">
         <v>1</v>
       </c>
-      <c r="AC38" s="347"/>
-      <c r="AD38" s="347"/>
-      <c r="AE38" s="347"/>
+      <c r="AC38" s="348"/>
+      <c r="AD38" s="348"/>
+      <c r="AE38" s="348"/>
       <c r="AF38" s="118"/>
     </row>
     <row r="39" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="367" t="s">
-        <v>192</v>
-      </c>
-      <c r="B39" s="367"/>
-      <c r="C39" s="367"/>
-      <c r="D39" s="367"/>
-      <c r="E39" s="367"/>
-      <c r="F39" s="367"/>
-      <c r="G39" s="367"/>
-      <c r="H39" s="367"/>
+      <c r="A39" s="365" t="s">
+        <v>191</v>
+      </c>
+      <c r="B39" s="365"/>
+      <c r="C39" s="365"/>
+      <c r="D39" s="365"/>
+      <c r="E39" s="365"/>
+      <c r="F39" s="365"/>
+      <c r="G39" s="365"/>
+      <c r="H39" s="365"/>
       <c r="I39" s="242"/>
       <c r="J39" s="242"/>
       <c r="K39" s="242"/>
@@ -13835,28 +13846,28 @@
       <c r="AF39" s="118"/>
     </row>
     <row r="40" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="367"/>
-      <c r="B40" s="367"/>
-      <c r="C40" s="367"/>
-      <c r="D40" s="367"/>
-      <c r="E40" s="367"/>
-      <c r="F40" s="367"/>
-      <c r="G40" s="367"/>
-      <c r="H40" s="367"/>
-      <c r="I40" s="364" t="str">
+      <c r="A40" s="365"/>
+      <c r="B40" s="365"/>
+      <c r="C40" s="365"/>
+      <c r="D40" s="365"/>
+      <c r="E40" s="365"/>
+      <c r="F40" s="365"/>
+      <c r="G40" s="365"/>
+      <c r="H40" s="365"/>
+      <c r="I40" s="366" t="str">
         <f>O16</f>
         <v>Зам. начальника ЛПДС "Рязань" Костин В.К.</v>
       </c>
-      <c r="J40" s="364"/>
-      <c r="K40" s="364"/>
-      <c r="L40" s="364"/>
-      <c r="M40" s="364"/>
-      <c r="N40" s="364"/>
-      <c r="O40" s="364"/>
-      <c r="P40" s="364"/>
-      <c r="Q40" s="364"/>
-      <c r="R40" s="364"/>
-      <c r="S40" s="364"/>
+      <c r="J40" s="366"/>
+      <c r="K40" s="366"/>
+      <c r="L40" s="366"/>
+      <c r="M40" s="366"/>
+      <c r="N40" s="366"/>
+      <c r="O40" s="366"/>
+      <c r="P40" s="366"/>
+      <c r="Q40" s="366"/>
+      <c r="R40" s="366"/>
+      <c r="S40" s="366"/>
       <c r="T40" s="124"/>
       <c r="U40" s="124"/>
       <c r="V40" s="124"/>
@@ -13872,25 +13883,25 @@
       <c r="AF40" s="117"/>
     </row>
     <row r="41" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="367"/>
-      <c r="B41" s="367"/>
-      <c r="C41" s="367"/>
-      <c r="D41" s="367"/>
-      <c r="E41" s="367"/>
-      <c r="F41" s="367"/>
-      <c r="G41" s="367"/>
-      <c r="H41" s="367"/>
-      <c r="I41" s="365"/>
-      <c r="J41" s="365"/>
-      <c r="K41" s="365"/>
-      <c r="L41" s="365"/>
-      <c r="M41" s="365"/>
-      <c r="N41" s="365"/>
-      <c r="O41" s="365"/>
-      <c r="P41" s="365"/>
-      <c r="Q41" s="365"/>
-      <c r="R41" s="365"/>
-      <c r="S41" s="365"/>
+      <c r="A41" s="365"/>
+      <c r="B41" s="365"/>
+      <c r="C41" s="365"/>
+      <c r="D41" s="365"/>
+      <c r="E41" s="365"/>
+      <c r="F41" s="365"/>
+      <c r="G41" s="365"/>
+      <c r="H41" s="365"/>
+      <c r="I41" s="367"/>
+      <c r="J41" s="367"/>
+      <c r="K41" s="367"/>
+      <c r="L41" s="367"/>
+      <c r="M41" s="367"/>
+      <c r="N41" s="367"/>
+      <c r="O41" s="367"/>
+      <c r="P41" s="367"/>
+      <c r="Q41" s="367"/>
+      <c r="R41" s="367"/>
+      <c r="S41" s="367"/>
       <c r="T41" s="79"/>
       <c r="U41" s="125"/>
       <c r="V41" s="125"/>
@@ -13899,80 +13910,80 @@
       <c r="Y41" s="127"/>
       <c r="Z41" s="127"/>
       <c r="AA41" s="128"/>
-      <c r="AB41" s="366" t="str">
+      <c r="AB41" s="368" t="str">
         <f>P9</f>
         <v>27.04.2019 г.</v>
       </c>
-      <c r="AC41" s="366"/>
-      <c r="AD41" s="366"/>
-      <c r="AE41" s="366"/>
+      <c r="AC41" s="368"/>
+      <c r="AD41" s="368"/>
+      <c r="AE41" s="368"/>
       <c r="AF41" s="117"/>
     </row>
     <row r="42" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="367"/>
-      <c r="B42" s="367"/>
-      <c r="C42" s="367"/>
-      <c r="D42" s="367"/>
-      <c r="E42" s="367"/>
-      <c r="F42" s="367"/>
-      <c r="G42" s="367"/>
-      <c r="H42" s="367"/>
-      <c r="I42" s="346" t="s">
+      <c r="A42" s="365"/>
+      <c r="B42" s="365"/>
+      <c r="C42" s="365"/>
+      <c r="D42" s="365"/>
+      <c r="E42" s="365"/>
+      <c r="F42" s="365"/>
+      <c r="G42" s="365"/>
+      <c r="H42" s="365"/>
+      <c r="I42" s="347" t="s">
         <v>12</v>
       </c>
-      <c r="J42" s="346"/>
-      <c r="K42" s="346"/>
-      <c r="L42" s="346"/>
-      <c r="M42" s="346"/>
-      <c r="N42" s="346"/>
-      <c r="O42" s="346"/>
-      <c r="P42" s="346"/>
-      <c r="Q42" s="346"/>
-      <c r="R42" s="346"/>
-      <c r="S42" s="346"/>
+      <c r="J42" s="347"/>
+      <c r="K42" s="347"/>
+      <c r="L42" s="347"/>
+      <c r="M42" s="347"/>
+      <c r="N42" s="347"/>
+      <c r="O42" s="347"/>
+      <c r="P42" s="347"/>
+      <c r="Q42" s="347"/>
+      <c r="R42" s="347"/>
+      <c r="S42" s="347"/>
       <c r="T42" s="120"/>
-      <c r="U42" s="346" t="s">
+      <c r="U42" s="347" t="s">
         <v>91</v>
       </c>
-      <c r="V42" s="346"/>
-      <c r="W42" s="346"/>
-      <c r="X42" s="346"/>
-      <c r="Y42" s="346"/>
-      <c r="Z42" s="346"/>
+      <c r="V42" s="347"/>
+      <c r="W42" s="347"/>
+      <c r="X42" s="347"/>
+      <c r="Y42" s="347"/>
+      <c r="Z42" s="347"/>
       <c r="AA42" s="84"/>
-      <c r="AB42" s="347" t="s">
+      <c r="AB42" s="348" t="s">
         <v>1</v>
       </c>
-      <c r="AC42" s="347"/>
-      <c r="AD42" s="347"/>
-      <c r="AE42" s="347"/>
+      <c r="AC42" s="348"/>
+      <c r="AD42" s="348"/>
+      <c r="AE42" s="348"/>
       <c r="AF42" s="118"/>
     </row>
     <row r="43" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="367" t="s">
-        <v>193</v>
-      </c>
-      <c r="B43" s="367"/>
-      <c r="C43" s="367"/>
-      <c r="D43" s="367"/>
-      <c r="E43" s="367"/>
-      <c r="F43" s="367"/>
-      <c r="G43" s="367"/>
-      <c r="H43" s="367"/>
-      <c r="I43" s="364" t="str">
+      <c r="A43" s="365" t="s">
+        <v>192</v>
+      </c>
+      <c r="B43" s="365"/>
+      <c r="C43" s="365"/>
+      <c r="D43" s="365"/>
+      <c r="E43" s="365"/>
+      <c r="F43" s="365"/>
+      <c r="G43" s="365"/>
+      <c r="H43" s="365"/>
+      <c r="I43" s="366" t="str">
         <f>O18</f>
         <v>Зам. начальника ЛПДС "Рязань" Костин В.К.</v>
       </c>
-      <c r="J43" s="364"/>
-      <c r="K43" s="364"/>
-      <c r="L43" s="364"/>
-      <c r="M43" s="364"/>
-      <c r="N43" s="364"/>
-      <c r="O43" s="364"/>
-      <c r="P43" s="364"/>
-      <c r="Q43" s="364"/>
-      <c r="R43" s="364"/>
-      <c r="S43" s="364"/>
+      <c r="J43" s="366"/>
+      <c r="K43" s="366"/>
+      <c r="L43" s="366"/>
+      <c r="M43" s="366"/>
+      <c r="N43" s="366"/>
+      <c r="O43" s="366"/>
+      <c r="P43" s="366"/>
+      <c r="Q43" s="366"/>
+      <c r="R43" s="366"/>
+      <c r="S43" s="366"/>
       <c r="T43" s="124"/>
       <c r="U43" s="124"/>
       <c r="V43" s="124"/>
@@ -13988,25 +13999,25 @@
       <c r="AF43" s="118"/>
     </row>
     <row r="44" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="367"/>
-      <c r="B44" s="367"/>
-      <c r="C44" s="367"/>
-      <c r="D44" s="367"/>
-      <c r="E44" s="367"/>
-      <c r="F44" s="367"/>
-      <c r="G44" s="367"/>
-      <c r="H44" s="367"/>
-      <c r="I44" s="365"/>
-      <c r="J44" s="365"/>
-      <c r="K44" s="365"/>
-      <c r="L44" s="365"/>
-      <c r="M44" s="365"/>
-      <c r="N44" s="365"/>
-      <c r="O44" s="365"/>
-      <c r="P44" s="365"/>
-      <c r="Q44" s="365"/>
-      <c r="R44" s="365"/>
-      <c r="S44" s="365"/>
+      <c r="A44" s="365"/>
+      <c r="B44" s="365"/>
+      <c r="C44" s="365"/>
+      <c r="D44" s="365"/>
+      <c r="E44" s="365"/>
+      <c r="F44" s="365"/>
+      <c r="G44" s="365"/>
+      <c r="H44" s="365"/>
+      <c r="I44" s="367"/>
+      <c r="J44" s="367"/>
+      <c r="K44" s="367"/>
+      <c r="L44" s="367"/>
+      <c r="M44" s="367"/>
+      <c r="N44" s="367"/>
+      <c r="O44" s="367"/>
+      <c r="P44" s="367"/>
+      <c r="Q44" s="367"/>
+      <c r="R44" s="367"/>
+      <c r="S44" s="367"/>
       <c r="T44" s="79"/>
       <c r="U44" s="125"/>
       <c r="V44" s="125"/>
@@ -14015,53 +14026,53 @@
       <c r="Y44" s="127"/>
       <c r="Z44" s="127"/>
       <c r="AA44" s="128"/>
-      <c r="AB44" s="366" t="str">
+      <c r="AB44" s="368" t="str">
         <f>P9</f>
         <v>27.04.2019 г.</v>
       </c>
-      <c r="AC44" s="366"/>
-      <c r="AD44" s="366"/>
-      <c r="AE44" s="366"/>
+      <c r="AC44" s="368"/>
+      <c r="AD44" s="368"/>
+      <c r="AE44" s="368"/>
       <c r="AF44" s="118"/>
     </row>
     <row r="45" spans="1:40" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="367"/>
-      <c r="B45" s="367"/>
-      <c r="C45" s="367"/>
-      <c r="D45" s="367"/>
-      <c r="E45" s="367"/>
-      <c r="F45" s="367"/>
-      <c r="G45" s="367"/>
-      <c r="H45" s="367"/>
-      <c r="I45" s="346" t="s">
+      <c r="A45" s="365"/>
+      <c r="B45" s="365"/>
+      <c r="C45" s="365"/>
+      <c r="D45" s="365"/>
+      <c r="E45" s="365"/>
+      <c r="F45" s="365"/>
+      <c r="G45" s="365"/>
+      <c r="H45" s="365"/>
+      <c r="I45" s="347" t="s">
         <v>12</v>
       </c>
-      <c r="J45" s="346"/>
-      <c r="K45" s="346"/>
-      <c r="L45" s="346"/>
-      <c r="M45" s="346"/>
-      <c r="N45" s="346"/>
-      <c r="O45" s="346"/>
-      <c r="P45" s="346"/>
-      <c r="Q45" s="346"/>
-      <c r="R45" s="346"/>
-      <c r="S45" s="346"/>
+      <c r="J45" s="347"/>
+      <c r="K45" s="347"/>
+      <c r="L45" s="347"/>
+      <c r="M45" s="347"/>
+      <c r="N45" s="347"/>
+      <c r="O45" s="347"/>
+      <c r="P45" s="347"/>
+      <c r="Q45" s="347"/>
+      <c r="R45" s="347"/>
+      <c r="S45" s="347"/>
       <c r="T45" s="120"/>
-      <c r="U45" s="346" t="s">
+      <c r="U45" s="347" t="s">
         <v>91</v>
       </c>
-      <c r="V45" s="346"/>
-      <c r="W45" s="346"/>
-      <c r="X45" s="346"/>
-      <c r="Y45" s="346"/>
-      <c r="Z45" s="346"/>
+      <c r="V45" s="347"/>
+      <c r="W45" s="347"/>
+      <c r="X45" s="347"/>
+      <c r="Y45" s="347"/>
+      <c r="Z45" s="347"/>
       <c r="AA45" s="84"/>
-      <c r="AB45" s="347" t="s">
+      <c r="AB45" s="348" t="s">
         <v>1</v>
       </c>
-      <c r="AC45" s="347"/>
-      <c r="AD45" s="347"/>
-      <c r="AE45" s="347"/>
+      <c r="AC45" s="348"/>
+      <c r="AD45" s="348"/>
+      <c r="AE45" s="348"/>
       <c r="AF45" s="121"/>
       <c r="AG45" s="6"/>
       <c r="AH45" s="6"/>
@@ -14073,30 +14084,30 @@
       <c r="AN45" s="6"/>
     </row>
     <row r="46" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="367" t="s">
-        <v>194</v>
-      </c>
-      <c r="B46" s="367"/>
-      <c r="C46" s="367"/>
-      <c r="D46" s="367"/>
-      <c r="E46" s="367"/>
-      <c r="F46" s="367"/>
-      <c r="G46" s="367"/>
-      <c r="H46" s="367"/>
-      <c r="I46" s="364" t="str">
+      <c r="A46" s="365" t="s">
+        <v>193</v>
+      </c>
+      <c r="B46" s="365"/>
+      <c r="C46" s="365"/>
+      <c r="D46" s="365"/>
+      <c r="E46" s="365"/>
+      <c r="F46" s="365"/>
+      <c r="G46" s="365"/>
+      <c r="H46" s="365"/>
+      <c r="I46" s="366" t="str">
         <f>O20</f>
         <v>Зам. начальника ЛПДС "Рязань" Костин В.К.</v>
       </c>
-      <c r="J46" s="364"/>
-      <c r="K46" s="364"/>
-      <c r="L46" s="364"/>
-      <c r="M46" s="364"/>
-      <c r="N46" s="364"/>
-      <c r="O46" s="364"/>
-      <c r="P46" s="364"/>
-      <c r="Q46" s="364"/>
-      <c r="R46" s="364"/>
-      <c r="S46" s="364"/>
+      <c r="J46" s="366"/>
+      <c r="K46" s="366"/>
+      <c r="L46" s="366"/>
+      <c r="M46" s="366"/>
+      <c r="N46" s="366"/>
+      <c r="O46" s="366"/>
+      <c r="P46" s="366"/>
+      <c r="Q46" s="366"/>
+      <c r="R46" s="366"/>
+      <c r="S46" s="366"/>
       <c r="T46" s="124"/>
       <c r="U46" s="124"/>
       <c r="V46" s="124"/>
@@ -14112,25 +14123,25 @@
       <c r="AF46" s="118"/>
     </row>
     <row r="47" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="367"/>
-      <c r="B47" s="367"/>
-      <c r="C47" s="367"/>
-      <c r="D47" s="367"/>
-      <c r="E47" s="367"/>
-      <c r="F47" s="367"/>
-      <c r="G47" s="367"/>
-      <c r="H47" s="367"/>
-      <c r="I47" s="365"/>
-      <c r="J47" s="365"/>
-      <c r="K47" s="365"/>
-      <c r="L47" s="365"/>
-      <c r="M47" s="365"/>
-      <c r="N47" s="365"/>
-      <c r="O47" s="365"/>
-      <c r="P47" s="365"/>
-      <c r="Q47" s="365"/>
-      <c r="R47" s="365"/>
-      <c r="S47" s="365"/>
+      <c r="A47" s="365"/>
+      <c r="B47" s="365"/>
+      <c r="C47" s="365"/>
+      <c r="D47" s="365"/>
+      <c r="E47" s="365"/>
+      <c r="F47" s="365"/>
+      <c r="G47" s="365"/>
+      <c r="H47" s="365"/>
+      <c r="I47" s="367"/>
+      <c r="J47" s="367"/>
+      <c r="K47" s="367"/>
+      <c r="L47" s="367"/>
+      <c r="M47" s="367"/>
+      <c r="N47" s="367"/>
+      <c r="O47" s="367"/>
+      <c r="P47" s="367"/>
+      <c r="Q47" s="367"/>
+      <c r="R47" s="367"/>
+      <c r="S47" s="367"/>
       <c r="T47" s="79"/>
       <c r="U47" s="125"/>
       <c r="V47" s="125"/>
@@ -14139,53 +14150,53 @@
       <c r="Y47" s="127"/>
       <c r="Z47" s="127"/>
       <c r="AA47" s="128"/>
-      <c r="AB47" s="366" t="str">
+      <c r="AB47" s="368" t="str">
         <f>P9</f>
         <v>27.04.2019 г.</v>
       </c>
-      <c r="AC47" s="366"/>
-      <c r="AD47" s="366"/>
-      <c r="AE47" s="366"/>
+      <c r="AC47" s="368"/>
+      <c r="AD47" s="368"/>
+      <c r="AE47" s="368"/>
       <c r="AF47" s="118"/>
     </row>
     <row r="48" spans="1:40" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="367"/>
-      <c r="B48" s="367"/>
-      <c r="C48" s="367"/>
-      <c r="D48" s="367"/>
-      <c r="E48" s="367"/>
-      <c r="F48" s="367"/>
-      <c r="G48" s="367"/>
-      <c r="H48" s="367"/>
-      <c r="I48" s="346" t="s">
+      <c r="A48" s="365"/>
+      <c r="B48" s="365"/>
+      <c r="C48" s="365"/>
+      <c r="D48" s="365"/>
+      <c r="E48" s="365"/>
+      <c r="F48" s="365"/>
+      <c r="G48" s="365"/>
+      <c r="H48" s="365"/>
+      <c r="I48" s="347" t="s">
         <v>12</v>
       </c>
-      <c r="J48" s="346"/>
-      <c r="K48" s="346"/>
-      <c r="L48" s="346"/>
-      <c r="M48" s="346"/>
-      <c r="N48" s="346"/>
-      <c r="O48" s="346"/>
-      <c r="P48" s="346"/>
-      <c r="Q48" s="346"/>
-      <c r="R48" s="346"/>
-      <c r="S48" s="346"/>
+      <c r="J48" s="347"/>
+      <c r="K48" s="347"/>
+      <c r="L48" s="347"/>
+      <c r="M48" s="347"/>
+      <c r="N48" s="347"/>
+      <c r="O48" s="347"/>
+      <c r="P48" s="347"/>
+      <c r="Q48" s="347"/>
+      <c r="R48" s="347"/>
+      <c r="S48" s="347"/>
       <c r="T48" s="120"/>
-      <c r="U48" s="346" t="s">
+      <c r="U48" s="347" t="s">
         <v>91</v>
       </c>
-      <c r="V48" s="346"/>
-      <c r="W48" s="346"/>
-      <c r="X48" s="346"/>
-      <c r="Y48" s="346"/>
-      <c r="Z48" s="346"/>
+      <c r="V48" s="347"/>
+      <c r="W48" s="347"/>
+      <c r="X48" s="347"/>
+      <c r="Y48" s="347"/>
+      <c r="Z48" s="347"/>
       <c r="AA48" s="84"/>
-      <c r="AB48" s="347" t="s">
+      <c r="AB48" s="348" t="s">
         <v>1</v>
       </c>
-      <c r="AC48" s="347"/>
-      <c r="AD48" s="347"/>
-      <c r="AE48" s="347"/>
+      <c r="AC48" s="348"/>
+      <c r="AD48" s="348"/>
+      <c r="AE48" s="348"/>
       <c r="AF48" s="121"/>
       <c r="AG48" s="6"/>
       <c r="AH48" s="6"/>
@@ -14595,22 +14606,18 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="AB37:AE37"/>
-    <mergeCell ref="I38:S38"/>
-    <mergeCell ref="U38:Z38"/>
+    <mergeCell ref="A43:H45"/>
+    <mergeCell ref="I43:S44"/>
+    <mergeCell ref="AB44:AE44"/>
+    <mergeCell ref="I45:S45"/>
+    <mergeCell ref="U45:Z45"/>
+    <mergeCell ref="AB45:AE45"/>
     <mergeCell ref="A46:H48"/>
     <mergeCell ref="I46:S47"/>
     <mergeCell ref="AB47:AE47"/>
     <mergeCell ref="I48:S48"/>
     <mergeCell ref="U48:Z48"/>
     <mergeCell ref="AB48:AE48"/>
-    <mergeCell ref="A43:H45"/>
-    <mergeCell ref="I43:S44"/>
-    <mergeCell ref="AB44:AE44"/>
-    <mergeCell ref="I45:S45"/>
-    <mergeCell ref="U45:Z45"/>
-    <mergeCell ref="AB45:AE45"/>
-    <mergeCell ref="A39:H42"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="A3:AF3"/>
     <mergeCell ref="M25:O25"/>
@@ -14623,14 +14630,18 @@
     <mergeCell ref="V30:AC30"/>
     <mergeCell ref="K26:R26"/>
     <mergeCell ref="K30:R30"/>
+    <mergeCell ref="I42:S42"/>
+    <mergeCell ref="U42:Z42"/>
+    <mergeCell ref="AB42:AE42"/>
     <mergeCell ref="AB38:AE38"/>
     <mergeCell ref="A36:H38"/>
     <mergeCell ref="I36:S37"/>
     <mergeCell ref="I40:S41"/>
     <mergeCell ref="AB41:AE41"/>
-    <mergeCell ref="I42:S42"/>
-    <mergeCell ref="U42:Z42"/>
-    <mergeCell ref="AB42:AE42"/>
+    <mergeCell ref="AB37:AE37"/>
+    <mergeCell ref="I38:S38"/>
+    <mergeCell ref="U38:Z38"/>
+    <mergeCell ref="A39:H42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="91" orientation="portrait" r:id="rId1"/>
@@ -14645,7 +14656,7 @@
   <dimension ref="A1:AN67"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31:Q31"/>
+      <selection activeCell="B29" sqref="B29:M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14742,15 +14753,15 @@
       <c r="S3" s="153"/>
       <c r="T3" s="51"/>
       <c r="U3" s="51"/>
-      <c r="V3" s="317" t="s">
+      <c r="V3" s="318" t="s">
         <v>27</v>
       </c>
-      <c r="W3" s="317"/>
-      <c r="X3" s="317"/>
-      <c r="Y3" s="317"/>
-      <c r="Z3" s="317"/>
-      <c r="AA3" s="317"/>
-      <c r="AB3" s="317"/>
+      <c r="W3" s="318"/>
+      <c r="X3" s="318"/>
+      <c r="Y3" s="318"/>
+      <c r="Z3" s="318"/>
+      <c r="AA3" s="318"/>
+      <c r="AB3" s="318"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="118"/>
@@ -14774,15 +14785,15 @@
       <c r="S4" s="118"/>
       <c r="T4" s="118"/>
       <c r="U4" s="118"/>
-      <c r="V4" s="318" t="s">
+      <c r="V4" s="319" t="s">
         <v>28</v>
       </c>
-      <c r="W4" s="318"/>
-      <c r="X4" s="318"/>
-      <c r="Y4" s="318"/>
-      <c r="Z4" s="318"/>
-      <c r="AA4" s="318"/>
-      <c r="AB4" s="318"/>
+      <c r="W4" s="319"/>
+      <c r="X4" s="319"/>
+      <c r="Y4" s="319"/>
+      <c r="Z4" s="319"/>
+      <c r="AA4" s="319"/>
+      <c r="AB4" s="319"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="118"/>
@@ -14806,15 +14817,15 @@
       <c r="S5" s="118"/>
       <c r="T5" s="118"/>
       <c r="U5" s="118"/>
-      <c r="V5" s="318" t="s">
+      <c r="V5" s="319" t="s">
         <v>29</v>
       </c>
-      <c r="W5" s="318"/>
-      <c r="X5" s="318"/>
-      <c r="Y5" s="318"/>
-      <c r="Z5" s="318"/>
-      <c r="AA5" s="318"/>
-      <c r="AB5" s="318"/>
+      <c r="W5" s="319"/>
+      <c r="X5" s="319"/>
+      <c r="Y5" s="319"/>
+      <c r="Z5" s="319"/>
+      <c r="AA5" s="319"/>
+      <c r="AB5" s="319"/>
     </row>
     <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="118"/>
@@ -14838,15 +14849,15 @@
       <c r="S6" s="118"/>
       <c r="T6" s="118"/>
       <c r="U6" s="118"/>
-      <c r="V6" s="376" t="s">
+      <c r="V6" s="377" t="s">
         <v>30</v>
       </c>
-      <c r="W6" s="376"/>
-      <c r="X6" s="376"/>
-      <c r="Y6" s="376"/>
-      <c r="Z6" s="376"/>
-      <c r="AA6" s="376"/>
-      <c r="AB6" s="376"/>
+      <c r="W6" s="377"/>
+      <c r="X6" s="377"/>
+      <c r="Y6" s="377"/>
+      <c r="Z6" s="377"/>
+      <c r="AA6" s="377"/>
+      <c r="AB6" s="377"/>
     </row>
     <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="118"/>
@@ -14920,16 +14931,16 @@
       <c r="I9" s="47"/>
       <c r="J9" s="47"/>
       <c r="K9" s="47"/>
-      <c r="L9" s="378" t="s">
-        <v>162</v>
-      </c>
-      <c r="M9" s="378"/>
-      <c r="N9" s="378"/>
-      <c r="O9" s="377">
+      <c r="L9" s="379" t="s">
+        <v>161</v>
+      </c>
+      <c r="M9" s="379"/>
+      <c r="N9" s="379"/>
+      <c r="O9" s="378">
         <f>'Выборочный ремонт'!P9</f>
         <v>3</v>
       </c>
-      <c r="P9" s="377"/>
+      <c r="P9" s="378"/>
       <c r="Q9" s="47"/>
       <c r="R9" s="47"/>
       <c r="S9" s="47"/>
@@ -14956,36 +14967,36 @@
       <c r="AN9" s="6"/>
     </row>
     <row r="10" spans="1:40" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="339" t="s">
+      <c r="A10" s="340" t="s">
         <v>121</v>
       </c>
-      <c r="B10" s="339"/>
-      <c r="C10" s="339"/>
-      <c r="D10" s="339"/>
-      <c r="E10" s="339"/>
-      <c r="F10" s="339"/>
-      <c r="G10" s="339"/>
-      <c r="H10" s="339"/>
-      <c r="I10" s="339"/>
-      <c r="J10" s="339"/>
-      <c r="K10" s="339"/>
-      <c r="L10" s="339"/>
-      <c r="M10" s="339"/>
-      <c r="N10" s="339"/>
-      <c r="O10" s="339"/>
-      <c r="P10" s="339"/>
-      <c r="Q10" s="339"/>
-      <c r="R10" s="339"/>
-      <c r="S10" s="339"/>
-      <c r="T10" s="339"/>
-      <c r="U10" s="339"/>
-      <c r="V10" s="339"/>
-      <c r="W10" s="339"/>
-      <c r="X10" s="339"/>
-      <c r="Y10" s="339"/>
-      <c r="Z10" s="339"/>
-      <c r="AA10" s="339"/>
-      <c r="AB10" s="339"/>
+      <c r="B10" s="340"/>
+      <c r="C10" s="340"/>
+      <c r="D10" s="340"/>
+      <c r="E10" s="340"/>
+      <c r="F10" s="340"/>
+      <c r="G10" s="340"/>
+      <c r="H10" s="340"/>
+      <c r="I10" s="340"/>
+      <c r="J10" s="340"/>
+      <c r="K10" s="340"/>
+      <c r="L10" s="340"/>
+      <c r="M10" s="340"/>
+      <c r="N10" s="340"/>
+      <c r="O10" s="340"/>
+      <c r="P10" s="340"/>
+      <c r="Q10" s="340"/>
+      <c r="R10" s="340"/>
+      <c r="S10" s="340"/>
+      <c r="T10" s="340"/>
+      <c r="U10" s="340"/>
+      <c r="V10" s="340"/>
+      <c r="W10" s="340"/>
+      <c r="X10" s="340"/>
+      <c r="Y10" s="340"/>
+      <c r="Z10" s="340"/>
+      <c r="AA10" s="340"/>
+      <c r="AB10" s="340"/>
       <c r="AC10" s="8"/>
       <c r="AD10" s="8"/>
       <c r="AE10" s="8"/>
@@ -15000,36 +15011,36 @@
       <c r="AN10" s="8"/>
     </row>
     <row r="11" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="339" t="s">
+      <c r="A11" s="340" t="s">
         <v>122</v>
       </c>
-      <c r="B11" s="339"/>
-      <c r="C11" s="339"/>
-      <c r="D11" s="339"/>
-      <c r="E11" s="339"/>
-      <c r="F11" s="339"/>
-      <c r="G11" s="339"/>
-      <c r="H11" s="339"/>
-      <c r="I11" s="339"/>
-      <c r="J11" s="339"/>
-      <c r="K11" s="339"/>
-      <c r="L11" s="339"/>
-      <c r="M11" s="339"/>
-      <c r="N11" s="339"/>
-      <c r="O11" s="339"/>
-      <c r="P11" s="339"/>
-      <c r="Q11" s="339"/>
-      <c r="R11" s="339"/>
-      <c r="S11" s="339"/>
-      <c r="T11" s="339"/>
-      <c r="U11" s="339"/>
-      <c r="V11" s="339"/>
-      <c r="W11" s="339"/>
-      <c r="X11" s="339"/>
-      <c r="Y11" s="339"/>
-      <c r="Z11" s="339"/>
-      <c r="AA11" s="339"/>
-      <c r="AB11" s="339"/>
+      <c r="B11" s="340"/>
+      <c r="C11" s="340"/>
+      <c r="D11" s="340"/>
+      <c r="E11" s="340"/>
+      <c r="F11" s="340"/>
+      <c r="G11" s="340"/>
+      <c r="H11" s="340"/>
+      <c r="I11" s="340"/>
+      <c r="J11" s="340"/>
+      <c r="K11" s="340"/>
+      <c r="L11" s="340"/>
+      <c r="M11" s="340"/>
+      <c r="N11" s="340"/>
+      <c r="O11" s="340"/>
+      <c r="P11" s="340"/>
+      <c r="Q11" s="340"/>
+      <c r="R11" s="340"/>
+      <c r="S11" s="340"/>
+      <c r="T11" s="340"/>
+      <c r="U11" s="340"/>
+      <c r="V11" s="340"/>
+      <c r="W11" s="340"/>
+      <c r="X11" s="340"/>
+      <c r="Y11" s="340"/>
+      <c r="Z11" s="340"/>
+      <c r="AA11" s="340"/>
+      <c r="AB11" s="340"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
@@ -15080,27 +15091,27 @@
       <c r="D13" s="51"/>
       <c r="E13" s="118"/>
       <c r="F13" s="118"/>
-      <c r="G13" s="317" t="s">
+      <c r="G13" s="318" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="317"/>
-      <c r="I13" s="317"/>
-      <c r="J13" s="317"/>
-      <c r="K13" s="317"/>
-      <c r="L13" s="320" t="s">
+      <c r="H13" s="318"/>
+      <c r="I13" s="318"/>
+      <c r="J13" s="318"/>
+      <c r="K13" s="318"/>
+      <c r="L13" s="321" t="s">
         <v>3</v>
       </c>
-      <c r="M13" s="320"/>
-      <c r="N13" s="320"/>
-      <c r="O13" s="320"/>
-      <c r="P13" s="320"/>
-      <c r="Q13" s="320"/>
-      <c r="R13" s="320"/>
-      <c r="S13" s="320"/>
-      <c r="T13" s="320"/>
-      <c r="U13" s="320"/>
-      <c r="V13" s="320"/>
-      <c r="W13" s="320"/>
+      <c r="M13" s="321"/>
+      <c r="N13" s="321"/>
+      <c r="O13" s="321"/>
+      <c r="P13" s="321"/>
+      <c r="Q13" s="321"/>
+      <c r="R13" s="321"/>
+      <c r="S13" s="321"/>
+      <c r="T13" s="321"/>
+      <c r="U13" s="321"/>
+      <c r="V13" s="321"/>
+      <c r="W13" s="321"/>
       <c r="X13" s="69"/>
       <c r="Y13" s="70"/>
       <c r="Z13" s="70"/>
@@ -15114,26 +15125,26 @@
       <c r="D14" s="51"/>
       <c r="E14" s="118"/>
       <c r="F14" s="118"/>
-      <c r="G14" s="317" t="s">
+      <c r="G14" s="318" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="317"/>
-      <c r="I14" s="317"/>
-      <c r="J14" s="317"/>
-      <c r="K14" s="317"/>
-      <c r="L14" s="320" t="s">
+      <c r="H14" s="318"/>
+      <c r="I14" s="318"/>
+      <c r="J14" s="318"/>
+      <c r="K14" s="318"/>
+      <c r="L14" s="321" t="s">
         <v>34</v>
       </c>
-      <c r="M14" s="320"/>
-      <c r="N14" s="320"/>
-      <c r="O14" s="320"/>
-      <c r="P14" s="320"/>
-      <c r="Q14" s="320"/>
-      <c r="R14" s="320"/>
-      <c r="S14" s="320"/>
-      <c r="T14" s="320"/>
-      <c r="U14" s="320"/>
-      <c r="V14" s="320"/>
+      <c r="M14" s="321"/>
+      <c r="N14" s="321"/>
+      <c r="O14" s="321"/>
+      <c r="P14" s="321"/>
+      <c r="Q14" s="321"/>
+      <c r="R14" s="321"/>
+      <c r="S14" s="321"/>
+      <c r="T14" s="321"/>
+      <c r="U14" s="321"/>
+      <c r="V14" s="321"/>
       <c r="W14" s="71"/>
       <c r="X14" s="71"/>
       <c r="Y14" s="50"/>
@@ -15148,13 +15159,13 @@
       <c r="D15" s="155"/>
       <c r="E15" s="155"/>
       <c r="F15" s="155"/>
-      <c r="G15" s="323" t="s">
+      <c r="G15" s="324" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="323"/>
-      <c r="I15" s="323"/>
-      <c r="J15" s="323"/>
-      <c r="K15" s="323"/>
+      <c r="H15" s="324"/>
+      <c r="I15" s="324"/>
+      <c r="J15" s="324"/>
+      <c r="K15" s="324"/>
       <c r="L15" s="197" t="s">
         <v>36</v>
       </c>
@@ -15182,19 +15193,19 @@
       <c r="D16" s="51"/>
       <c r="E16" s="118"/>
       <c r="F16" s="118"/>
-      <c r="G16" s="317" t="s">
+      <c r="G16" s="318" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="317"/>
-      <c r="I16" s="317"/>
-      <c r="J16" s="317"/>
-      <c r="K16" s="317"/>
-      <c r="L16" s="325" t="s">
+      <c r="H16" s="318"/>
+      <c r="I16" s="318"/>
+      <c r="J16" s="318"/>
+      <c r="K16" s="318"/>
+      <c r="L16" s="326" t="s">
         <v>24</v>
       </c>
-      <c r="M16" s="325"/>
-      <c r="N16" s="325"/>
-      <c r="O16" s="325"/>
+      <c r="M16" s="326"/>
+      <c r="N16" s="326"/>
+      <c r="O16" s="326"/>
       <c r="P16" s="71"/>
       <c r="Q16" s="71"/>
       <c r="R16" s="71"/>
@@ -15240,66 +15251,66 @@
       <c r="AB17" s="51"/>
     </row>
     <row r="18" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="351" t="s">
-        <v>163</v>
-      </c>
-      <c r="B18" s="351"/>
-      <c r="C18" s="351"/>
-      <c r="D18" s="351"/>
-      <c r="E18" s="351"/>
-      <c r="F18" s="351"/>
-      <c r="G18" s="351"/>
-      <c r="H18" s="351"/>
-      <c r="I18" s="351"/>
-      <c r="J18" s="351"/>
-      <c r="K18" s="351"/>
-      <c r="L18" s="351"/>
-      <c r="M18" s="351"/>
-      <c r="N18" s="351"/>
-      <c r="O18" s="351"/>
-      <c r="P18" s="351"/>
-      <c r="Q18" s="351"/>
-      <c r="R18" s="351"/>
-      <c r="S18" s="351"/>
-      <c r="T18" s="351"/>
-      <c r="U18" s="351"/>
-      <c r="V18" s="351"/>
-      <c r="W18" s="351"/>
-      <c r="X18" s="351"/>
-      <c r="Y18" s="351"/>
-      <c r="Z18" s="351"/>
-      <c r="AA18" s="351"/>
-      <c r="AB18" s="351"/>
+      <c r="A18" s="352" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="352"/>
+      <c r="C18" s="352"/>
+      <c r="D18" s="352"/>
+      <c r="E18" s="352"/>
+      <c r="F18" s="352"/>
+      <c r="G18" s="352"/>
+      <c r="H18" s="352"/>
+      <c r="I18" s="352"/>
+      <c r="J18" s="352"/>
+      <c r="K18" s="352"/>
+      <c r="L18" s="352"/>
+      <c r="M18" s="352"/>
+      <c r="N18" s="352"/>
+      <c r="O18" s="352"/>
+      <c r="P18" s="352"/>
+      <c r="Q18" s="352"/>
+      <c r="R18" s="352"/>
+      <c r="S18" s="352"/>
+      <c r="T18" s="352"/>
+      <c r="U18" s="352"/>
+      <c r="V18" s="352"/>
+      <c r="W18" s="352"/>
+      <c r="X18" s="352"/>
+      <c r="Y18" s="352"/>
+      <c r="Z18" s="352"/>
+      <c r="AA18" s="352"/>
+      <c r="AB18" s="352"/>
     </row>
     <row r="19" spans="1:40" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="351"/>
-      <c r="B19" s="351"/>
-      <c r="C19" s="351"/>
-      <c r="D19" s="351"/>
-      <c r="E19" s="351"/>
-      <c r="F19" s="351"/>
-      <c r="G19" s="351"/>
-      <c r="H19" s="351"/>
-      <c r="I19" s="351"/>
-      <c r="J19" s="351"/>
-      <c r="K19" s="351"/>
-      <c r="L19" s="351"/>
-      <c r="M19" s="351"/>
-      <c r="N19" s="351"/>
-      <c r="O19" s="351"/>
-      <c r="P19" s="351"/>
-      <c r="Q19" s="351"/>
-      <c r="R19" s="351"/>
-      <c r="S19" s="351"/>
-      <c r="T19" s="351"/>
-      <c r="U19" s="351"/>
-      <c r="V19" s="351"/>
-      <c r="W19" s="351"/>
-      <c r="X19" s="351"/>
-      <c r="Y19" s="351"/>
-      <c r="Z19" s="351"/>
-      <c r="AA19" s="351"/>
-      <c r="AB19" s="351"/>
+      <c r="A19" s="352"/>
+      <c r="B19" s="352"/>
+      <c r="C19" s="352"/>
+      <c r="D19" s="352"/>
+      <c r="E19" s="352"/>
+      <c r="F19" s="352"/>
+      <c r="G19" s="352"/>
+      <c r="H19" s="352"/>
+      <c r="I19" s="352"/>
+      <c r="J19" s="352"/>
+      <c r="K19" s="352"/>
+      <c r="L19" s="352"/>
+      <c r="M19" s="352"/>
+      <c r="N19" s="352"/>
+      <c r="O19" s="352"/>
+      <c r="P19" s="352"/>
+      <c r="Q19" s="352"/>
+      <c r="R19" s="352"/>
+      <c r="S19" s="352"/>
+      <c r="T19" s="352"/>
+      <c r="U19" s="352"/>
+      <c r="V19" s="352"/>
+      <c r="W19" s="352"/>
+      <c r="X19" s="352"/>
+      <c r="Y19" s="352"/>
+      <c r="Z19" s="352"/>
+      <c r="AA19" s="352"/>
+      <c r="AB19" s="352"/>
       <c r="AC19" s="8"/>
       <c r="AD19" s="8"/>
       <c r="AE19" s="8"/>
@@ -15314,110 +15325,110 @@
       <c r="AN19" s="8"/>
     </row>
     <row r="20" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="351"/>
-      <c r="B20" s="351"/>
-      <c r="C20" s="351"/>
-      <c r="D20" s="351"/>
-      <c r="E20" s="351"/>
-      <c r="F20" s="351"/>
-      <c r="G20" s="351"/>
-      <c r="H20" s="351"/>
-      <c r="I20" s="351"/>
-      <c r="J20" s="351"/>
-      <c r="K20" s="351"/>
-      <c r="L20" s="351"/>
-      <c r="M20" s="351"/>
-      <c r="N20" s="351"/>
-      <c r="O20" s="351"/>
-      <c r="P20" s="351"/>
-      <c r="Q20" s="351"/>
-      <c r="R20" s="351"/>
-      <c r="S20" s="351"/>
-      <c r="T20" s="351"/>
-      <c r="U20" s="351"/>
-      <c r="V20" s="351"/>
-      <c r="W20" s="351"/>
-      <c r="X20" s="351"/>
-      <c r="Y20" s="351"/>
-      <c r="Z20" s="351"/>
-      <c r="AA20" s="351"/>
-      <c r="AB20" s="351"/>
+      <c r="A20" s="352"/>
+      <c r="B20" s="352"/>
+      <c r="C20" s="352"/>
+      <c r="D20" s="352"/>
+      <c r="E20" s="352"/>
+      <c r="F20" s="352"/>
+      <c r="G20" s="352"/>
+      <c r="H20" s="352"/>
+      <c r="I20" s="352"/>
+      <c r="J20" s="352"/>
+      <c r="K20" s="352"/>
+      <c r="L20" s="352"/>
+      <c r="M20" s="352"/>
+      <c r="N20" s="352"/>
+      <c r="O20" s="352"/>
+      <c r="P20" s="352"/>
+      <c r="Q20" s="352"/>
+      <c r="R20" s="352"/>
+      <c r="S20" s="352"/>
+      <c r="T20" s="352"/>
+      <c r="U20" s="352"/>
+      <c r="V20" s="352"/>
+      <c r="W20" s="352"/>
+      <c r="X20" s="352"/>
+      <c r="Y20" s="352"/>
+      <c r="Z20" s="352"/>
+      <c r="AA20" s="352"/>
+      <c r="AB20" s="352"/>
     </row>
     <row r="21" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="339" t="s">
+      <c r="A21" s="340" t="s">
         <v>123</v>
       </c>
-      <c r="B21" s="339"/>
-      <c r="C21" s="339"/>
-      <c r="D21" s="339"/>
-      <c r="E21" s="339"/>
-      <c r="F21" s="339"/>
-      <c r="G21" s="339"/>
-      <c r="H21" s="339"/>
-      <c r="I21" s="339"/>
-      <c r="J21" s="339"/>
-      <c r="K21" s="339"/>
-      <c r="L21" s="339"/>
-      <c r="M21" s="339"/>
-      <c r="N21" s="339"/>
-      <c r="O21" s="339"/>
-      <c r="P21" s="339"/>
-      <c r="Q21" s="339"/>
-      <c r="R21" s="339"/>
-      <c r="S21" s="339"/>
-      <c r="T21" s="339"/>
-      <c r="U21" s="339"/>
-      <c r="V21" s="339"/>
-      <c r="W21" s="339"/>
-      <c r="X21" s="339"/>
-      <c r="Y21" s="339"/>
-      <c r="Z21" s="339"/>
-      <c r="AA21" s="339"/>
-      <c r="AB21" s="339"/>
+      <c r="B21" s="340"/>
+      <c r="C21" s="340"/>
+      <c r="D21" s="340"/>
+      <c r="E21" s="340"/>
+      <c r="F21" s="340"/>
+      <c r="G21" s="340"/>
+      <c r="H21" s="340"/>
+      <c r="I21" s="340"/>
+      <c r="J21" s="340"/>
+      <c r="K21" s="340"/>
+      <c r="L21" s="340"/>
+      <c r="M21" s="340"/>
+      <c r="N21" s="340"/>
+      <c r="O21" s="340"/>
+      <c r="P21" s="340"/>
+      <c r="Q21" s="340"/>
+      <c r="R21" s="340"/>
+      <c r="S21" s="340"/>
+      <c r="T21" s="340"/>
+      <c r="U21" s="340"/>
+      <c r="V21" s="340"/>
+      <c r="W21" s="340"/>
+      <c r="X21" s="340"/>
+      <c r="Y21" s="340"/>
+      <c r="Z21" s="340"/>
+      <c r="AA21" s="340"/>
+      <c r="AB21" s="340"/>
     </row>
     <row r="22" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="379" t="s">
+      <c r="A22" s="380" t="s">
         <v>124</v>
       </c>
-      <c r="B22" s="381" t="s">
+      <c r="B22" s="382" t="s">
         <v>125</v>
       </c>
-      <c r="C22" s="381"/>
-      <c r="D22" s="381"/>
-      <c r="E22" s="381"/>
-      <c r="F22" s="381"/>
-      <c r="G22" s="381"/>
-      <c r="H22" s="381"/>
-      <c r="I22" s="381"/>
-      <c r="J22" s="381"/>
-      <c r="K22" s="381"/>
-      <c r="L22" s="381"/>
-      <c r="M22" s="381"/>
-      <c r="N22" s="382" t="s">
+      <c r="C22" s="382"/>
+      <c r="D22" s="382"/>
+      <c r="E22" s="382"/>
+      <c r="F22" s="382"/>
+      <c r="G22" s="382"/>
+      <c r="H22" s="382"/>
+      <c r="I22" s="382"/>
+      <c r="J22" s="382"/>
+      <c r="K22" s="382"/>
+      <c r="L22" s="382"/>
+      <c r="M22" s="382"/>
+      <c r="N22" s="383" t="s">
         <v>126</v>
       </c>
-      <c r="O22" s="382"/>
-      <c r="P22" s="382" t="s">
+      <c r="O22" s="383"/>
+      <c r="P22" s="383" t="s">
         <v>127</v>
       </c>
-      <c r="Q22" s="382"/>
-      <c r="R22" s="379" t="s">
+      <c r="Q22" s="383"/>
+      <c r="R22" s="380" t="s">
         <v>128</v>
       </c>
-      <c r="S22" s="379"/>
-      <c r="T22" s="379"/>
-      <c r="U22" s="379"/>
-      <c r="V22" s="379" t="s">
+      <c r="S22" s="380"/>
+      <c r="T22" s="380"/>
+      <c r="U22" s="380"/>
+      <c r="V22" s="380" t="s">
         <v>129</v>
       </c>
-      <c r="W22" s="379"/>
-      <c r="X22" s="379"/>
-      <c r="Y22" s="379"/>
-      <c r="Z22" s="379"/>
-      <c r="AA22" s="381" t="s">
+      <c r="W22" s="380"/>
+      <c r="X22" s="380"/>
+      <c r="Y22" s="380"/>
+      <c r="Z22" s="380"/>
+      <c r="AA22" s="382" t="s">
         <v>130</v>
       </c>
-      <c r="AB22" s="381"/>
+      <c r="AB22" s="382"/>
       <c r="AC22" s="11"/>
       <c r="AD22" s="11"/>
       <c r="AE22" s="11"/>
@@ -15432,34 +15443,34 @@
       <c r="AN22" s="11"/>
     </row>
     <row r="23" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="380"/>
-      <c r="B23" s="381"/>
-      <c r="C23" s="381"/>
-      <c r="D23" s="381"/>
-      <c r="E23" s="381"/>
-      <c r="F23" s="381"/>
-      <c r="G23" s="381"/>
-      <c r="H23" s="381"/>
-      <c r="I23" s="381"/>
-      <c r="J23" s="381"/>
-      <c r="K23" s="381"/>
-      <c r="L23" s="381"/>
-      <c r="M23" s="381"/>
-      <c r="N23" s="382"/>
-      <c r="O23" s="382"/>
-      <c r="P23" s="382"/>
-      <c r="Q23" s="382"/>
-      <c r="R23" s="379"/>
-      <c r="S23" s="379"/>
-      <c r="T23" s="379"/>
-      <c r="U23" s="379"/>
-      <c r="V23" s="379"/>
-      <c r="W23" s="379"/>
-      <c r="X23" s="379"/>
-      <c r="Y23" s="379"/>
-      <c r="Z23" s="379"/>
-      <c r="AA23" s="381"/>
-      <c r="AB23" s="381"/>
+      <c r="A23" s="381"/>
+      <c r="B23" s="382"/>
+      <c r="C23" s="382"/>
+      <c r="D23" s="382"/>
+      <c r="E23" s="382"/>
+      <c r="F23" s="382"/>
+      <c r="G23" s="382"/>
+      <c r="H23" s="382"/>
+      <c r="I23" s="382"/>
+      <c r="J23" s="382"/>
+      <c r="K23" s="382"/>
+      <c r="L23" s="382"/>
+      <c r="M23" s="382"/>
+      <c r="N23" s="383"/>
+      <c r="O23" s="383"/>
+      <c r="P23" s="383"/>
+      <c r="Q23" s="383"/>
+      <c r="R23" s="380"/>
+      <c r="S23" s="380"/>
+      <c r="T23" s="380"/>
+      <c r="U23" s="380"/>
+      <c r="V23" s="380"/>
+      <c r="W23" s="380"/>
+      <c r="X23" s="380"/>
+      <c r="Y23" s="380"/>
+      <c r="Z23" s="380"/>
+      <c r="AA23" s="382"/>
+      <c r="AB23" s="382"/>
       <c r="AC23" s="11"/>
       <c r="AD23" s="11"/>
       <c r="AE23" s="11"/>
@@ -15474,34 +15485,34 @@
       <c r="AN23" s="11"/>
     </row>
     <row r="24" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="380"/>
-      <c r="B24" s="381"/>
-      <c r="C24" s="381"/>
-      <c r="D24" s="381"/>
-      <c r="E24" s="381"/>
-      <c r="F24" s="381"/>
-      <c r="G24" s="381"/>
-      <c r="H24" s="381"/>
-      <c r="I24" s="381"/>
-      <c r="J24" s="381"/>
-      <c r="K24" s="381"/>
-      <c r="L24" s="381"/>
-      <c r="M24" s="381"/>
-      <c r="N24" s="382"/>
-      <c r="O24" s="382"/>
-      <c r="P24" s="382"/>
-      <c r="Q24" s="382"/>
-      <c r="R24" s="379"/>
-      <c r="S24" s="379"/>
-      <c r="T24" s="379"/>
-      <c r="U24" s="379"/>
-      <c r="V24" s="379"/>
-      <c r="W24" s="379"/>
-      <c r="X24" s="379"/>
-      <c r="Y24" s="379"/>
-      <c r="Z24" s="379"/>
-      <c r="AA24" s="381"/>
-      <c r="AB24" s="381"/>
+      <c r="A24" s="381"/>
+      <c r="B24" s="382"/>
+      <c r="C24" s="382"/>
+      <c r="D24" s="382"/>
+      <c r="E24" s="382"/>
+      <c r="F24" s="382"/>
+      <c r="G24" s="382"/>
+      <c r="H24" s="382"/>
+      <c r="I24" s="382"/>
+      <c r="J24" s="382"/>
+      <c r="K24" s="382"/>
+      <c r="L24" s="382"/>
+      <c r="M24" s="382"/>
+      <c r="N24" s="383"/>
+      <c r="O24" s="383"/>
+      <c r="P24" s="383"/>
+      <c r="Q24" s="383"/>
+      <c r="R24" s="380"/>
+      <c r="S24" s="380"/>
+      <c r="T24" s="380"/>
+      <c r="U24" s="380"/>
+      <c r="V24" s="380"/>
+      <c r="W24" s="380"/>
+      <c r="X24" s="380"/>
+      <c r="Y24" s="380"/>
+      <c r="Z24" s="380"/>
+      <c r="AA24" s="382"/>
+      <c r="AB24" s="382"/>
       <c r="AC24" s="11"/>
       <c r="AD24" s="11"/>
       <c r="AE24" s="11"/>
@@ -15519,43 +15530,43 @@
       <c r="A25" s="156">
         <v>1</v>
       </c>
-      <c r="B25" s="383" t="s">
-        <v>161</v>
-      </c>
-      <c r="C25" s="384"/>
-      <c r="D25" s="384"/>
-      <c r="E25" s="384"/>
-      <c r="F25" s="384"/>
-      <c r="G25" s="384"/>
-      <c r="H25" s="384"/>
-      <c r="I25" s="384"/>
-      <c r="J25" s="384"/>
-      <c r="K25" s="384"/>
-      <c r="L25" s="384"/>
-      <c r="M25" s="385"/>
-      <c r="N25" s="386" t="s">
+      <c r="B25" s="384" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" s="385"/>
+      <c r="D25" s="385"/>
+      <c r="E25" s="385"/>
+      <c r="F25" s="385"/>
+      <c r="G25" s="385"/>
+      <c r="H25" s="385"/>
+      <c r="I25" s="385"/>
+      <c r="J25" s="385"/>
+      <c r="K25" s="385"/>
+      <c r="L25" s="385"/>
+      <c r="M25" s="386"/>
+      <c r="N25" s="387" t="s">
         <v>131</v>
       </c>
-      <c r="O25" s="387"/>
-      <c r="P25" s="390">
+      <c r="O25" s="388"/>
+      <c r="P25" s="391">
         <v>63</v>
       </c>
-      <c r="Q25" s="391"/>
-      <c r="R25" s="392" t="s">
+      <c r="Q25" s="392"/>
+      <c r="R25" s="393" t="s">
         <v>132</v>
       </c>
-      <c r="S25" s="393"/>
-      <c r="T25" s="393"/>
-      <c r="U25" s="394"/>
-      <c r="V25" s="383" t="s">
+      <c r="S25" s="394"/>
+      <c r="T25" s="394"/>
+      <c r="U25" s="395"/>
+      <c r="V25" s="384" t="s">
         <v>133</v>
       </c>
-      <c r="W25" s="384"/>
-      <c r="X25" s="384"/>
-      <c r="Y25" s="384"/>
-      <c r="Z25" s="385"/>
-      <c r="AA25" s="395"/>
-      <c r="AB25" s="396"/>
+      <c r="W25" s="385"/>
+      <c r="X25" s="385"/>
+      <c r="Y25" s="385"/>
+      <c r="Z25" s="386"/>
+      <c r="AA25" s="396"/>
+      <c r="AB25" s="397"/>
       <c r="AC25" s="11"/>
       <c r="AD25" s="11"/>
       <c r="AE25" s="11"/>
@@ -15573,45 +15584,45 @@
       <c r="A26" s="157">
         <v>2</v>
       </c>
-      <c r="B26" s="383" t="s">
+      <c r="B26" s="384" t="s">
         <v>134</v>
       </c>
-      <c r="C26" s="384"/>
-      <c r="D26" s="384"/>
-      <c r="E26" s="384"/>
-      <c r="F26" s="384"/>
-      <c r="G26" s="384"/>
-      <c r="H26" s="384"/>
-      <c r="I26" s="384"/>
-      <c r="J26" s="384"/>
-      <c r="K26" s="384"/>
-      <c r="L26" s="384"/>
-      <c r="M26" s="385"/>
-      <c r="N26" s="386" t="s">
+      <c r="C26" s="385"/>
+      <c r="D26" s="385"/>
+      <c r="E26" s="385"/>
+      <c r="F26" s="385"/>
+      <c r="G26" s="385"/>
+      <c r="H26" s="385"/>
+      <c r="I26" s="385"/>
+      <c r="J26" s="385"/>
+      <c r="K26" s="385"/>
+      <c r="L26" s="385"/>
+      <c r="M26" s="386"/>
+      <c r="N26" s="387" t="s">
         <v>135</v>
       </c>
-      <c r="O26" s="387"/>
-      <c r="P26" s="388">
+      <c r="O26" s="388"/>
+      <c r="P26" s="389">
         <v>1.2</v>
       </c>
-      <c r="Q26" s="389"/>
-      <c r="R26" s="383" t="str">
+      <c r="Q26" s="390"/>
+      <c r="R26" s="384" t="str">
         <f>R25</f>
         <v>25.04.2019 г.</v>
       </c>
-      <c r="S26" s="384"/>
-      <c r="T26" s="384"/>
-      <c r="U26" s="385"/>
-      <c r="V26" s="383" t="str">
+      <c r="S26" s="385"/>
+      <c r="T26" s="385"/>
+      <c r="U26" s="386"/>
+      <c r="V26" s="384" t="str">
         <f>V25</f>
         <v>ППС "Плавск" РРНУ</v>
       </c>
-      <c r="W26" s="384"/>
-      <c r="X26" s="384"/>
-      <c r="Y26" s="384"/>
-      <c r="Z26" s="385"/>
-      <c r="AA26" s="383"/>
-      <c r="AB26" s="385"/>
+      <c r="W26" s="385"/>
+      <c r="X26" s="385"/>
+      <c r="Y26" s="385"/>
+      <c r="Z26" s="386"/>
+      <c r="AA26" s="384"/>
+      <c r="AB26" s="386"/>
       <c r="AC26" s="11"/>
       <c r="AD26" s="11"/>
       <c r="AE26" s="11"/>
@@ -15629,44 +15640,44 @@
       <c r="A27" s="157">
         <v>3</v>
       </c>
-      <c r="B27" s="383" t="s">
-        <v>160</v>
-      </c>
-      <c r="C27" s="384"/>
-      <c r="D27" s="384"/>
-      <c r="E27" s="384"/>
-      <c r="F27" s="384"/>
-      <c r="G27" s="384"/>
-      <c r="H27" s="384"/>
-      <c r="I27" s="384"/>
-      <c r="J27" s="384"/>
-      <c r="K27" s="384"/>
-      <c r="L27" s="384"/>
-      <c r="M27" s="385"/>
-      <c r="N27" s="386" t="s">
+      <c r="B27" s="384" t="s">
+        <v>159</v>
+      </c>
+      <c r="C27" s="385"/>
+      <c r="D27" s="385"/>
+      <c r="E27" s="385"/>
+      <c r="F27" s="385"/>
+      <c r="G27" s="385"/>
+      <c r="H27" s="385"/>
+      <c r="I27" s="385"/>
+      <c r="J27" s="385"/>
+      <c r="K27" s="385"/>
+      <c r="L27" s="385"/>
+      <c r="M27" s="386"/>
+      <c r="N27" s="387" t="s">
         <v>136</v>
       </c>
-      <c r="O27" s="387"/>
-      <c r="P27" s="386">
+      <c r="O27" s="388"/>
+      <c r="P27" s="387">
         <v>1</v>
       </c>
-      <c r="Q27" s="387"/>
-      <c r="R27" s="383" t="str">
+      <c r="Q27" s="388"/>
+      <c r="R27" s="384" t="str">
         <f>R25</f>
         <v>25.04.2019 г.</v>
       </c>
-      <c r="S27" s="384"/>
-      <c r="T27" s="384"/>
-      <c r="U27" s="385"/>
-      <c r="V27" s="383" t="s">
+      <c r="S27" s="385"/>
+      <c r="T27" s="385"/>
+      <c r="U27" s="386"/>
+      <c r="V27" s="384" t="s">
         <v>137</v>
       </c>
-      <c r="W27" s="384"/>
-      <c r="X27" s="384"/>
-      <c r="Y27" s="384"/>
-      <c r="Z27" s="385"/>
-      <c r="AA27" s="383"/>
-      <c r="AB27" s="385"/>
+      <c r="W27" s="385"/>
+      <c r="X27" s="385"/>
+      <c r="Y27" s="385"/>
+      <c r="Z27" s="386"/>
+      <c r="AA27" s="384"/>
+      <c r="AB27" s="386"/>
       <c r="AC27" s="11"/>
       <c r="AD27" s="11"/>
       <c r="AE27" s="11"/>
@@ -15684,45 +15695,45 @@
       <c r="A28" s="157">
         <v>4</v>
       </c>
-      <c r="B28" s="383" t="s">
-        <v>159</v>
-      </c>
-      <c r="C28" s="384"/>
-      <c r="D28" s="384"/>
-      <c r="E28" s="384"/>
-      <c r="F28" s="384"/>
-      <c r="G28" s="384"/>
-      <c r="H28" s="384"/>
-      <c r="I28" s="384"/>
-      <c r="J28" s="384"/>
-      <c r="K28" s="384"/>
-      <c r="L28" s="384"/>
-      <c r="M28" s="385"/>
-      <c r="N28" s="386" t="s">
+      <c r="B28" s="384" t="s">
+        <v>194</v>
+      </c>
+      <c r="C28" s="385"/>
+      <c r="D28" s="385"/>
+      <c r="E28" s="385"/>
+      <c r="F28" s="385"/>
+      <c r="G28" s="385"/>
+      <c r="H28" s="385"/>
+      <c r="I28" s="385"/>
+      <c r="J28" s="385"/>
+      <c r="K28" s="385"/>
+      <c r="L28" s="385"/>
+      <c r="M28" s="386"/>
+      <c r="N28" s="387" t="s">
         <v>136</v>
       </c>
-      <c r="O28" s="387"/>
-      <c r="P28" s="397">
+      <c r="O28" s="388"/>
+      <c r="P28" s="398">
         <v>1</v>
       </c>
-      <c r="Q28" s="398"/>
-      <c r="R28" s="383" t="str">
+      <c r="Q28" s="399"/>
+      <c r="R28" s="384" t="str">
         <f>R25</f>
         <v>25.04.2019 г.</v>
       </c>
-      <c r="S28" s="384"/>
-      <c r="T28" s="384"/>
-      <c r="U28" s="385"/>
-      <c r="V28" s="383" t="str">
+      <c r="S28" s="385"/>
+      <c r="T28" s="385"/>
+      <c r="U28" s="386"/>
+      <c r="V28" s="384" t="str">
         <f>V25</f>
         <v>ППС "Плавск" РРНУ</v>
       </c>
-      <c r="W28" s="384"/>
-      <c r="X28" s="384"/>
-      <c r="Y28" s="384"/>
-      <c r="Z28" s="385"/>
-      <c r="AA28" s="383"/>
-      <c r="AB28" s="385"/>
+      <c r="W28" s="385"/>
+      <c r="X28" s="385"/>
+      <c r="Y28" s="385"/>
+      <c r="Z28" s="386"/>
+      <c r="AA28" s="384"/>
+      <c r="AB28" s="386"/>
       <c r="AC28" s="11"/>
       <c r="AD28" s="11"/>
       <c r="AE28" s="11"/>
@@ -15740,44 +15751,44 @@
       <c r="A29" s="157">
         <v>5</v>
       </c>
-      <c r="B29" s="383" t="s">
+      <c r="B29" s="384" t="s">
         <v>138</v>
       </c>
-      <c r="C29" s="384"/>
-      <c r="D29" s="384"/>
-      <c r="E29" s="384"/>
-      <c r="F29" s="384"/>
-      <c r="G29" s="384"/>
-      <c r="H29" s="384"/>
-      <c r="I29" s="384"/>
-      <c r="J29" s="384"/>
-      <c r="K29" s="384"/>
-      <c r="L29" s="384"/>
-      <c r="M29" s="385"/>
-      <c r="N29" s="386" t="s">
+      <c r="C29" s="385"/>
+      <c r="D29" s="385"/>
+      <c r="E29" s="385"/>
+      <c r="F29" s="385"/>
+      <c r="G29" s="385"/>
+      <c r="H29" s="385"/>
+      <c r="I29" s="385"/>
+      <c r="J29" s="385"/>
+      <c r="K29" s="385"/>
+      <c r="L29" s="385"/>
+      <c r="M29" s="386"/>
+      <c r="N29" s="387" t="s">
         <v>136</v>
       </c>
-      <c r="O29" s="387"/>
-      <c r="P29" s="397">
+      <c r="O29" s="388"/>
+      <c r="P29" s="398">
         <v>2</v>
       </c>
-      <c r="Q29" s="398"/>
-      <c r="R29" s="383" t="str">
+      <c r="Q29" s="399"/>
+      <c r="R29" s="384" t="str">
         <f>R25</f>
         <v>25.04.2019 г.</v>
       </c>
-      <c r="S29" s="384"/>
-      <c r="T29" s="384"/>
-      <c r="U29" s="385"/>
-      <c r="V29" s="383" t="s">
+      <c r="S29" s="385"/>
+      <c r="T29" s="385"/>
+      <c r="U29" s="386"/>
+      <c r="V29" s="384" t="s">
         <v>137</v>
       </c>
-      <c r="W29" s="384"/>
-      <c r="X29" s="384"/>
-      <c r="Y29" s="384"/>
-      <c r="Z29" s="385"/>
-      <c r="AA29" s="383"/>
-      <c r="AB29" s="385"/>
+      <c r="W29" s="385"/>
+      <c r="X29" s="385"/>
+      <c r="Y29" s="385"/>
+      <c r="Z29" s="386"/>
+      <c r="AA29" s="384"/>
+      <c r="AB29" s="386"/>
       <c r="AC29" s="11"/>
       <c r="AD29" s="11"/>
       <c r="AE29" s="11"/>
@@ -15795,45 +15806,45 @@
       <c r="A30" s="157">
         <v>6</v>
       </c>
-      <c r="B30" s="383" t="s">
+      <c r="B30" s="384" t="s">
         <v>139</v>
       </c>
-      <c r="C30" s="384"/>
-      <c r="D30" s="384"/>
-      <c r="E30" s="384"/>
-      <c r="F30" s="384"/>
-      <c r="G30" s="384"/>
-      <c r="H30" s="384"/>
-      <c r="I30" s="384"/>
-      <c r="J30" s="384"/>
-      <c r="K30" s="384"/>
-      <c r="L30" s="384"/>
-      <c r="M30" s="385"/>
-      <c r="N30" s="386" t="s">
+      <c r="C30" s="385"/>
+      <c r="D30" s="385"/>
+      <c r="E30" s="385"/>
+      <c r="F30" s="385"/>
+      <c r="G30" s="385"/>
+      <c r="H30" s="385"/>
+      <c r="I30" s="385"/>
+      <c r="J30" s="385"/>
+      <c r="K30" s="385"/>
+      <c r="L30" s="385"/>
+      <c r="M30" s="386"/>
+      <c r="N30" s="387" t="s">
         <v>135</v>
       </c>
-      <c r="O30" s="387"/>
-      <c r="P30" s="388">
+      <c r="O30" s="388"/>
+      <c r="P30" s="389">
         <f>P26+0.45</f>
         <v>1.65</v>
       </c>
-      <c r="Q30" s="389"/>
-      <c r="R30" s="392" t="s">
+      <c r="Q30" s="390"/>
+      <c r="R30" s="393" t="s">
         <v>132</v>
       </c>
-      <c r="S30" s="393"/>
-      <c r="T30" s="393"/>
-      <c r="U30" s="394"/>
-      <c r="V30" s="383" t="str">
+      <c r="S30" s="394"/>
+      <c r="T30" s="394"/>
+      <c r="U30" s="395"/>
+      <c r="V30" s="384" t="str">
         <f>V25</f>
         <v>ППС "Плавск" РРНУ</v>
       </c>
-      <c r="W30" s="384"/>
-      <c r="X30" s="384"/>
-      <c r="Y30" s="384"/>
-      <c r="Z30" s="385"/>
-      <c r="AA30" s="383"/>
-      <c r="AB30" s="385"/>
+      <c r="W30" s="385"/>
+      <c r="X30" s="385"/>
+      <c r="Y30" s="385"/>
+      <c r="Z30" s="386"/>
+      <c r="AA30" s="384"/>
+      <c r="AB30" s="386"/>
       <c r="AC30" s="11"/>
       <c r="AD30" s="11"/>
       <c r="AE30" s="11"/>
@@ -15851,44 +15862,44 @@
       <c r="A31" s="157">
         <v>7</v>
       </c>
-      <c r="B31" s="383" t="s">
+      <c r="B31" s="384" t="s">
         <v>140</v>
       </c>
-      <c r="C31" s="384"/>
-      <c r="D31" s="384"/>
-      <c r="E31" s="384"/>
-      <c r="F31" s="384"/>
-      <c r="G31" s="384"/>
-      <c r="H31" s="384"/>
-      <c r="I31" s="384"/>
-      <c r="J31" s="384"/>
-      <c r="K31" s="384"/>
-      <c r="L31" s="384"/>
-      <c r="M31" s="385"/>
-      <c r="N31" s="386" t="s">
-        <v>164</v>
-      </c>
-      <c r="O31" s="387"/>
-      <c r="P31" s="386">
+      <c r="C31" s="385"/>
+      <c r="D31" s="385"/>
+      <c r="E31" s="385"/>
+      <c r="F31" s="385"/>
+      <c r="G31" s="385"/>
+      <c r="H31" s="385"/>
+      <c r="I31" s="385"/>
+      <c r="J31" s="385"/>
+      <c r="K31" s="385"/>
+      <c r="L31" s="385"/>
+      <c r="M31" s="386"/>
+      <c r="N31" s="387" t="s">
+        <v>163</v>
+      </c>
+      <c r="O31" s="388"/>
+      <c r="P31" s="387">
         <v>3</v>
       </c>
-      <c r="Q31" s="387"/>
-      <c r="R31" s="392" t="s">
+      <c r="Q31" s="388"/>
+      <c r="R31" s="393" t="s">
         <v>132</v>
       </c>
-      <c r="S31" s="393"/>
-      <c r="T31" s="393"/>
-      <c r="U31" s="394"/>
-      <c r="V31" s="383" t="str">
+      <c r="S31" s="394"/>
+      <c r="T31" s="394"/>
+      <c r="U31" s="395"/>
+      <c r="V31" s="384" t="str">
         <f>V25</f>
         <v>ППС "Плавск" РРНУ</v>
       </c>
-      <c r="W31" s="384"/>
-      <c r="X31" s="384"/>
-      <c r="Y31" s="384"/>
-      <c r="Z31" s="385"/>
-      <c r="AA31" s="383"/>
-      <c r="AB31" s="385"/>
+      <c r="W31" s="385"/>
+      <c r="X31" s="385"/>
+      <c r="Y31" s="385"/>
+      <c r="Z31" s="386"/>
+      <c r="AA31" s="384"/>
+      <c r="AB31" s="386"/>
       <c r="AC31" s="11"/>
       <c r="AD31" s="11"/>
       <c r="AE31" s="11"/>
@@ -15906,46 +15917,46 @@
       <c r="A32" s="158">
         <v>8</v>
       </c>
-      <c r="B32" s="399" t="s">
+      <c r="B32" s="400" t="s">
         <v>158</v>
       </c>
-      <c r="C32" s="400"/>
-      <c r="D32" s="400"/>
-      <c r="E32" s="400"/>
-      <c r="F32" s="400"/>
-      <c r="G32" s="400"/>
-      <c r="H32" s="400"/>
-      <c r="I32" s="400"/>
-      <c r="J32" s="400"/>
-      <c r="K32" s="400"/>
-      <c r="L32" s="400"/>
-      <c r="M32" s="401"/>
-      <c r="N32" s="386" t="s">
+      <c r="C32" s="401"/>
+      <c r="D32" s="401"/>
+      <c r="E32" s="401"/>
+      <c r="F32" s="401"/>
+      <c r="G32" s="401"/>
+      <c r="H32" s="401"/>
+      <c r="I32" s="401"/>
+      <c r="J32" s="401"/>
+      <c r="K32" s="401"/>
+      <c r="L32" s="401"/>
+      <c r="M32" s="402"/>
+      <c r="N32" s="387" t="s">
         <v>131</v>
       </c>
-      <c r="O32" s="387"/>
-      <c r="P32" s="402">
+      <c r="O32" s="388"/>
+      <c r="P32" s="403">
         <f>P25</f>
         <v>63</v>
       </c>
-      <c r="Q32" s="403"/>
-      <c r="R32" s="383" t="str">
+      <c r="Q32" s="404"/>
+      <c r="R32" s="384" t="str">
         <f>R31</f>
         <v>25.04.2019 г.</v>
       </c>
-      <c r="S32" s="384"/>
-      <c r="T32" s="384"/>
-      <c r="U32" s="385"/>
-      <c r="V32" s="383" t="str">
+      <c r="S32" s="385"/>
+      <c r="T32" s="385"/>
+      <c r="U32" s="386"/>
+      <c r="V32" s="384" t="str">
         <f>V25</f>
         <v>ППС "Плавск" РРНУ</v>
       </c>
-      <c r="W32" s="384"/>
-      <c r="X32" s="384"/>
-      <c r="Y32" s="384"/>
-      <c r="Z32" s="385"/>
-      <c r="AA32" s="399"/>
-      <c r="AB32" s="401"/>
+      <c r="W32" s="385"/>
+      <c r="X32" s="385"/>
+      <c r="Y32" s="385"/>
+      <c r="Z32" s="386"/>
+      <c r="AA32" s="400"/>
+      <c r="AB32" s="402"/>
       <c r="AC32" s="6"/>
       <c r="AD32" s="6"/>
       <c r="AE32" s="6"/>
@@ -16002,31 +16013,31 @@
       <c r="AN33" s="11"/>
     </row>
     <row r="34" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="406" t="s">
+      <c r="A34" s="407" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="406"/>
-      <c r="C34" s="406"/>
-      <c r="D34" s="406"/>
-      <c r="E34" s="406"/>
-      <c r="F34" s="406"/>
-      <c r="G34" s="406"/>
-      <c r="H34" s="406"/>
-      <c r="I34" s="406"/>
-      <c r="J34" s="406"/>
-      <c r="K34" s="406"/>
-      <c r="L34" s="406"/>
-      <c r="M34" s="406"/>
-      <c r="N34" s="406"/>
-      <c r="O34" s="407"/>
-      <c r="P34" s="407"/>
-      <c r="Q34" s="407"/>
-      <c r="R34" s="407"/>
-      <c r="S34" s="407"/>
-      <c r="T34" s="407"/>
-      <c r="U34" s="407"/>
-      <c r="V34" s="407"/>
-      <c r="W34" s="407"/>
+      <c r="B34" s="407"/>
+      <c r="C34" s="407"/>
+      <c r="D34" s="407"/>
+      <c r="E34" s="407"/>
+      <c r="F34" s="407"/>
+      <c r="G34" s="407"/>
+      <c r="H34" s="407"/>
+      <c r="I34" s="407"/>
+      <c r="J34" s="407"/>
+      <c r="K34" s="407"/>
+      <c r="L34" s="407"/>
+      <c r="M34" s="407"/>
+      <c r="N34" s="407"/>
+      <c r="O34" s="408"/>
+      <c r="P34" s="408"/>
+      <c r="Q34" s="408"/>
+      <c r="R34" s="408"/>
+      <c r="S34" s="408"/>
+      <c r="T34" s="408"/>
+      <c r="U34" s="408"/>
+      <c r="V34" s="408"/>
+      <c r="W34" s="408"/>
       <c r="X34" s="76"/>
       <c r="Y34" s="76"/>
       <c r="Z34" s="76"/>
@@ -16060,17 +16071,17 @@
       <c r="L35" s="78"/>
       <c r="M35" s="79"/>
       <c r="N35" s="79"/>
-      <c r="O35" s="408" t="s">
+      <c r="O35" s="409" t="s">
         <v>52</v>
       </c>
-      <c r="P35" s="408"/>
-      <c r="Q35" s="408"/>
-      <c r="R35" s="408"/>
-      <c r="S35" s="408"/>
-      <c r="T35" s="408"/>
-      <c r="U35" s="408"/>
-      <c r="V35" s="408"/>
-      <c r="W35" s="408"/>
+      <c r="P35" s="409"/>
+      <c r="Q35" s="409"/>
+      <c r="R35" s="409"/>
+      <c r="S35" s="409"/>
+      <c r="T35" s="409"/>
+      <c r="U35" s="409"/>
+      <c r="V35" s="409"/>
+      <c r="W35" s="409"/>
       <c r="X35" s="79"/>
       <c r="Y35" s="79"/>
       <c r="Z35" s="79"/>
@@ -16108,79 +16119,79 @@
       <c r="AB36" s="80"/>
     </row>
     <row r="37" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="343" t="s">
+      <c r="A37" s="344" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="343"/>
-      <c r="C37" s="343"/>
-      <c r="D37" s="343"/>
-      <c r="E37" s="343"/>
-      <c r="F37" s="343"/>
-      <c r="G37" s="343"/>
+      <c r="B37" s="344"/>
+      <c r="C37" s="344"/>
+      <c r="D37" s="344"/>
+      <c r="E37" s="344"/>
+      <c r="F37" s="344"/>
+      <c r="G37" s="344"/>
       <c r="H37" s="79"/>
-      <c r="I37" s="343" t="s">
+      <c r="I37" s="344" t="s">
         <v>54</v>
       </c>
-      <c r="J37" s="343"/>
-      <c r="K37" s="343"/>
-      <c r="L37" s="343"/>
-      <c r="M37" s="343"/>
-      <c r="N37" s="343"/>
-      <c r="O37" s="343"/>
+      <c r="J37" s="344"/>
+      <c r="K37" s="344"/>
+      <c r="L37" s="344"/>
+      <c r="M37" s="344"/>
+      <c r="N37" s="344"/>
+      <c r="O37" s="344"/>
       <c r="P37" s="79"/>
-      <c r="Q37" s="409"/>
-      <c r="R37" s="409"/>
-      <c r="S37" s="409"/>
-      <c r="T37" s="409"/>
-      <c r="U37" s="409"/>
-      <c r="V37" s="409"/>
-      <c r="W37" s="409"/>
+      <c r="Q37" s="410"/>
+      <c r="R37" s="410"/>
+      <c r="S37" s="410"/>
+      <c r="T37" s="410"/>
+      <c r="U37" s="410"/>
+      <c r="V37" s="410"/>
+      <c r="W37" s="410"/>
       <c r="X37" s="82"/>
-      <c r="Y37" s="404" t="str">
+      <c r="Y37" s="405" t="str">
         <f>V6</f>
         <v>27.04.2019  года.</v>
       </c>
-      <c r="Z37" s="404"/>
-      <c r="AA37" s="404"/>
-      <c r="AB37" s="404"/>
+      <c r="Z37" s="405"/>
+      <c r="AA37" s="405"/>
+      <c r="AB37" s="405"/>
     </row>
     <row r="38" spans="1:40" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="346" t="s">
+      <c r="A38" s="347" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="346"/>
-      <c r="C38" s="346"/>
-      <c r="D38" s="346"/>
-      <c r="E38" s="346"/>
-      <c r="F38" s="346"/>
-      <c r="G38" s="346"/>
+      <c r="B38" s="347"/>
+      <c r="C38" s="347"/>
+      <c r="D38" s="347"/>
+      <c r="E38" s="347"/>
+      <c r="F38" s="347"/>
+      <c r="G38" s="347"/>
       <c r="H38" s="83"/>
-      <c r="I38" s="346" t="s">
+      <c r="I38" s="347" t="s">
         <v>56</v>
       </c>
-      <c r="J38" s="346"/>
-      <c r="K38" s="346"/>
-      <c r="L38" s="346"/>
-      <c r="M38" s="346"/>
-      <c r="N38" s="346"/>
-      <c r="O38" s="346"/>
+      <c r="J38" s="347"/>
+      <c r="K38" s="347"/>
+      <c r="L38" s="347"/>
+      <c r="M38" s="347"/>
+      <c r="N38" s="347"/>
+      <c r="O38" s="347"/>
       <c r="P38" s="83"/>
-      <c r="Q38" s="346" t="s">
+      <c r="Q38" s="347" t="s">
         <v>57</v>
       </c>
-      <c r="R38" s="346"/>
-      <c r="S38" s="346"/>
-      <c r="T38" s="346"/>
-      <c r="U38" s="346"/>
-      <c r="V38" s="346"/>
-      <c r="W38" s="346"/>
+      <c r="R38" s="347"/>
+      <c r="S38" s="347"/>
+      <c r="T38" s="347"/>
+      <c r="U38" s="347"/>
+      <c r="V38" s="347"/>
+      <c r="W38" s="347"/>
       <c r="X38" s="84"/>
-      <c r="Y38" s="405" t="s">
+      <c r="Y38" s="406" t="s">
         <v>58</v>
       </c>
-      <c r="Z38" s="405"/>
-      <c r="AA38" s="405"/>
-      <c r="AB38" s="405"/>
+      <c r="Z38" s="406"/>
+      <c r="AA38" s="406"/>
+      <c r="AB38" s="406"/>
       <c r="AC38" s="6"/>
       <c r="AD38" s="6"/>
       <c r="AE38" s="6"/>
@@ -16237,33 +16248,33 @@
       <c r="AN39" s="11"/>
     </row>
     <row r="40" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="406" t="s">
+      <c r="A40" s="407" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="406"/>
-      <c r="C40" s="406"/>
-      <c r="D40" s="406"/>
-      <c r="E40" s="406"/>
-      <c r="F40" s="406"/>
-      <c r="G40" s="406"/>
-      <c r="H40" s="406"/>
-      <c r="I40" s="406"/>
-      <c r="J40" s="406"/>
-      <c r="K40" s="406"/>
-      <c r="L40" s="406"/>
-      <c r="M40" s="406"/>
-      <c r="N40" s="406"/>
-      <c r="O40" s="407" t="s">
+      <c r="B40" s="407"/>
+      <c r="C40" s="407"/>
+      <c r="D40" s="407"/>
+      <c r="E40" s="407"/>
+      <c r="F40" s="407"/>
+      <c r="G40" s="407"/>
+      <c r="H40" s="407"/>
+      <c r="I40" s="407"/>
+      <c r="J40" s="407"/>
+      <c r="K40" s="407"/>
+      <c r="L40" s="407"/>
+      <c r="M40" s="407"/>
+      <c r="N40" s="407"/>
+      <c r="O40" s="408" t="s">
         <v>51</v>
       </c>
-      <c r="P40" s="407"/>
-      <c r="Q40" s="407"/>
-      <c r="R40" s="407"/>
-      <c r="S40" s="407"/>
-      <c r="T40" s="407"/>
-      <c r="U40" s="407"/>
-      <c r="V40" s="407"/>
-      <c r="W40" s="407"/>
+      <c r="P40" s="408"/>
+      <c r="Q40" s="408"/>
+      <c r="R40" s="408"/>
+      <c r="S40" s="408"/>
+      <c r="T40" s="408"/>
+      <c r="U40" s="408"/>
+      <c r="V40" s="408"/>
+      <c r="W40" s="408"/>
       <c r="X40" s="76"/>
       <c r="Y40" s="76"/>
       <c r="Z40" s="76"/>
@@ -16297,17 +16308,17 @@
       <c r="L41" s="78"/>
       <c r="M41" s="79"/>
       <c r="N41" s="79"/>
-      <c r="O41" s="408" t="s">
+      <c r="O41" s="409" t="s">
         <v>52</v>
       </c>
-      <c r="P41" s="408"/>
-      <c r="Q41" s="408"/>
-      <c r="R41" s="408"/>
-      <c r="S41" s="408"/>
-      <c r="T41" s="408"/>
-      <c r="U41" s="408"/>
-      <c r="V41" s="408"/>
-      <c r="W41" s="408"/>
+      <c r="P41" s="409"/>
+      <c r="Q41" s="409"/>
+      <c r="R41" s="409"/>
+      <c r="S41" s="409"/>
+      <c r="T41" s="409"/>
+      <c r="U41" s="409"/>
+      <c r="V41" s="409"/>
+      <c r="W41" s="409"/>
       <c r="X41" s="79"/>
       <c r="Y41" s="79"/>
       <c r="Z41" s="79"/>
@@ -16345,79 +16356,79 @@
       <c r="AB42" s="80"/>
     </row>
     <row r="43" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="343" t="s">
+      <c r="A43" s="344" t="s">
         <v>60</v>
       </c>
-      <c r="B43" s="343"/>
-      <c r="C43" s="343"/>
-      <c r="D43" s="343"/>
-      <c r="E43" s="343"/>
-      <c r="F43" s="343"/>
-      <c r="G43" s="343"/>
+      <c r="B43" s="344"/>
+      <c r="C43" s="344"/>
+      <c r="D43" s="344"/>
+      <c r="E43" s="344"/>
+      <c r="F43" s="344"/>
+      <c r="G43" s="344"/>
       <c r="H43" s="79"/>
-      <c r="I43" s="343" t="s">
+      <c r="I43" s="344" t="s">
         <v>61</v>
       </c>
-      <c r="J43" s="343"/>
-      <c r="K43" s="343"/>
-      <c r="L43" s="343"/>
-      <c r="M43" s="343"/>
-      <c r="N43" s="343"/>
-      <c r="O43" s="343"/>
+      <c r="J43" s="344"/>
+      <c r="K43" s="344"/>
+      <c r="L43" s="344"/>
+      <c r="M43" s="344"/>
+      <c r="N43" s="344"/>
+      <c r="O43" s="344"/>
       <c r="P43" s="79"/>
-      <c r="Q43" s="409"/>
-      <c r="R43" s="409"/>
-      <c r="S43" s="409"/>
-      <c r="T43" s="409"/>
-      <c r="U43" s="409"/>
-      <c r="V43" s="409"/>
-      <c r="W43" s="409"/>
+      <c r="Q43" s="410"/>
+      <c r="R43" s="410"/>
+      <c r="S43" s="410"/>
+      <c r="T43" s="410"/>
+      <c r="U43" s="410"/>
+      <c r="V43" s="410"/>
+      <c r="W43" s="410"/>
       <c r="X43" s="82"/>
-      <c r="Y43" s="404" t="str">
+      <c r="Y43" s="405" t="str">
         <f>V6</f>
         <v>27.04.2019  года.</v>
       </c>
-      <c r="Z43" s="404"/>
-      <c r="AA43" s="404"/>
-      <c r="AB43" s="404"/>
+      <c r="Z43" s="405"/>
+      <c r="AA43" s="405"/>
+      <c r="AB43" s="405"/>
     </row>
     <row r="44" spans="1:40" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="346" t="s">
+      <c r="A44" s="347" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="346"/>
-      <c r="C44" s="346"/>
-      <c r="D44" s="346"/>
-      <c r="E44" s="346"/>
-      <c r="F44" s="346"/>
-      <c r="G44" s="346"/>
+      <c r="B44" s="347"/>
+      <c r="C44" s="347"/>
+      <c r="D44" s="347"/>
+      <c r="E44" s="347"/>
+      <c r="F44" s="347"/>
+      <c r="G44" s="347"/>
       <c r="H44" s="83"/>
-      <c r="I44" s="346" t="s">
+      <c r="I44" s="347" t="s">
         <v>56</v>
       </c>
-      <c r="J44" s="346"/>
-      <c r="K44" s="346"/>
-      <c r="L44" s="346"/>
-      <c r="M44" s="346"/>
-      <c r="N44" s="346"/>
-      <c r="O44" s="346"/>
+      <c r="J44" s="347"/>
+      <c r="K44" s="347"/>
+      <c r="L44" s="347"/>
+      <c r="M44" s="347"/>
+      <c r="N44" s="347"/>
+      <c r="O44" s="347"/>
       <c r="P44" s="83"/>
-      <c r="Q44" s="346" t="s">
+      <c r="Q44" s="347" t="s">
         <v>57</v>
       </c>
-      <c r="R44" s="346"/>
-      <c r="S44" s="346"/>
-      <c r="T44" s="346"/>
-      <c r="U44" s="346"/>
-      <c r="V44" s="346"/>
-      <c r="W44" s="346"/>
+      <c r="R44" s="347"/>
+      <c r="S44" s="347"/>
+      <c r="T44" s="347"/>
+      <c r="U44" s="347"/>
+      <c r="V44" s="347"/>
+      <c r="W44" s="347"/>
       <c r="X44" s="84"/>
-      <c r="Y44" s="405" t="s">
+      <c r="Y44" s="406" t="s">
         <v>58</v>
       </c>
-      <c r="Z44" s="405"/>
-      <c r="AA44" s="405"/>
-      <c r="AB44" s="405"/>
+      <c r="Z44" s="406"/>
+      <c r="AA44" s="406"/>
+      <c r="AB44" s="406"/>
       <c r="AC44" s="6"/>
       <c r="AD44" s="6"/>
       <c r="AE44" s="6"/>
@@ -16474,33 +16485,33 @@
       <c r="AN45" s="11"/>
     </row>
     <row r="46" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="406" t="s">
+      <c r="A46" s="407" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="406"/>
-      <c r="C46" s="406"/>
-      <c r="D46" s="406"/>
-      <c r="E46" s="406"/>
-      <c r="F46" s="406"/>
-      <c r="G46" s="406"/>
-      <c r="H46" s="406"/>
-      <c r="I46" s="406"/>
-      <c r="J46" s="406"/>
-      <c r="K46" s="406"/>
-      <c r="L46" s="406"/>
-      <c r="M46" s="406"/>
-      <c r="N46" s="406"/>
-      <c r="O46" s="407" t="s">
+      <c r="B46" s="407"/>
+      <c r="C46" s="407"/>
+      <c r="D46" s="407"/>
+      <c r="E46" s="407"/>
+      <c r="F46" s="407"/>
+      <c r="G46" s="407"/>
+      <c r="H46" s="407"/>
+      <c r="I46" s="407"/>
+      <c r="J46" s="407"/>
+      <c r="K46" s="407"/>
+      <c r="L46" s="407"/>
+      <c r="M46" s="407"/>
+      <c r="N46" s="407"/>
+      <c r="O46" s="408" t="s">
         <v>63</v>
       </c>
-      <c r="P46" s="407"/>
-      <c r="Q46" s="407"/>
-      <c r="R46" s="407"/>
-      <c r="S46" s="407"/>
-      <c r="T46" s="407"/>
-      <c r="U46" s="407"/>
-      <c r="V46" s="407"/>
-      <c r="W46" s="407"/>
+      <c r="P46" s="408"/>
+      <c r="Q46" s="408"/>
+      <c r="R46" s="408"/>
+      <c r="S46" s="408"/>
+      <c r="T46" s="408"/>
+      <c r="U46" s="408"/>
+      <c r="V46" s="408"/>
+      <c r="W46" s="408"/>
       <c r="X46" s="76"/>
       <c r="Y46" s="76"/>
       <c r="Z46" s="76"/>
@@ -16534,17 +16545,17 @@
       <c r="L47" s="78"/>
       <c r="M47" s="79"/>
       <c r="N47" s="79"/>
-      <c r="O47" s="408" t="s">
+      <c r="O47" s="409" t="s">
         <v>52</v>
       </c>
-      <c r="P47" s="408"/>
-      <c r="Q47" s="408"/>
-      <c r="R47" s="408"/>
-      <c r="S47" s="408"/>
-      <c r="T47" s="408"/>
-      <c r="U47" s="408"/>
-      <c r="V47" s="408"/>
-      <c r="W47" s="408"/>
+      <c r="P47" s="409"/>
+      <c r="Q47" s="409"/>
+      <c r="R47" s="409"/>
+      <c r="S47" s="409"/>
+      <c r="T47" s="409"/>
+      <c r="U47" s="409"/>
+      <c r="V47" s="409"/>
+      <c r="W47" s="409"/>
       <c r="X47" s="79"/>
       <c r="Y47" s="79"/>
       <c r="Z47" s="79"/>
@@ -16582,79 +16593,79 @@
       <c r="AB48" s="80"/>
     </row>
     <row r="49" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="343" t="s">
+      <c r="A49" s="344" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="343"/>
-      <c r="C49" s="343"/>
-      <c r="D49" s="343"/>
-      <c r="E49" s="343"/>
-      <c r="F49" s="343"/>
-      <c r="G49" s="343"/>
+      <c r="B49" s="344"/>
+      <c r="C49" s="344"/>
+      <c r="D49" s="344"/>
+      <c r="E49" s="344"/>
+      <c r="F49" s="344"/>
+      <c r="G49" s="344"/>
       <c r="H49" s="79"/>
-      <c r="I49" s="343" t="s">
+      <c r="I49" s="344" t="s">
         <v>65</v>
       </c>
-      <c r="J49" s="343"/>
-      <c r="K49" s="343"/>
-      <c r="L49" s="343"/>
-      <c r="M49" s="343"/>
-      <c r="N49" s="343"/>
-      <c r="O49" s="343"/>
+      <c r="J49" s="344"/>
+      <c r="K49" s="344"/>
+      <c r="L49" s="344"/>
+      <c r="M49" s="344"/>
+      <c r="N49" s="344"/>
+      <c r="O49" s="344"/>
       <c r="P49" s="79"/>
-      <c r="Q49" s="409"/>
-      <c r="R49" s="409"/>
-      <c r="S49" s="409"/>
-      <c r="T49" s="409"/>
-      <c r="U49" s="409"/>
-      <c r="V49" s="409"/>
-      <c r="W49" s="409"/>
+      <c r="Q49" s="410"/>
+      <c r="R49" s="410"/>
+      <c r="S49" s="410"/>
+      <c r="T49" s="410"/>
+      <c r="U49" s="410"/>
+      <c r="V49" s="410"/>
+      <c r="W49" s="410"/>
       <c r="X49" s="82"/>
-      <c r="Y49" s="404" t="str">
+      <c r="Y49" s="405" t="str">
         <f>V6</f>
         <v>27.04.2019  года.</v>
       </c>
-      <c r="Z49" s="404"/>
-      <c r="AA49" s="404"/>
-      <c r="AB49" s="404"/>
+      <c r="Z49" s="405"/>
+      <c r="AA49" s="405"/>
+      <c r="AB49" s="405"/>
     </row>
     <row r="50" spans="1:40" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="346" t="s">
+      <c r="A50" s="347" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="346"/>
-      <c r="C50" s="346"/>
-      <c r="D50" s="346"/>
-      <c r="E50" s="346"/>
-      <c r="F50" s="346"/>
-      <c r="G50" s="346"/>
+      <c r="B50" s="347"/>
+      <c r="C50" s="347"/>
+      <c r="D50" s="347"/>
+      <c r="E50" s="347"/>
+      <c r="F50" s="347"/>
+      <c r="G50" s="347"/>
       <c r="H50" s="83"/>
-      <c r="I50" s="346" t="s">
+      <c r="I50" s="347" t="s">
         <v>56</v>
       </c>
-      <c r="J50" s="346"/>
-      <c r="K50" s="346"/>
-      <c r="L50" s="346"/>
-      <c r="M50" s="346"/>
-      <c r="N50" s="346"/>
-      <c r="O50" s="346"/>
+      <c r="J50" s="347"/>
+      <c r="K50" s="347"/>
+      <c r="L50" s="347"/>
+      <c r="M50" s="347"/>
+      <c r="N50" s="347"/>
+      <c r="O50" s="347"/>
       <c r="P50" s="83"/>
-      <c r="Q50" s="346" t="s">
+      <c r="Q50" s="347" t="s">
         <v>57</v>
       </c>
-      <c r="R50" s="346"/>
-      <c r="S50" s="346"/>
-      <c r="T50" s="346"/>
-      <c r="U50" s="346"/>
-      <c r="V50" s="346"/>
-      <c r="W50" s="346"/>
+      <c r="R50" s="347"/>
+      <c r="S50" s="347"/>
+      <c r="T50" s="347"/>
+      <c r="U50" s="347"/>
+      <c r="V50" s="347"/>
+      <c r="W50" s="347"/>
       <c r="X50" s="84"/>
-      <c r="Y50" s="405" t="s">
+      <c r="Y50" s="406" t="s">
         <v>58</v>
       </c>
-      <c r="Z50" s="405"/>
-      <c r="AA50" s="405"/>
-      <c r="AB50" s="405"/>
+      <c r="Z50" s="406"/>
+      <c r="AA50" s="406"/>
+      <c r="AB50" s="406"/>
       <c r="AC50" s="6"/>
       <c r="AD50" s="6"/>
       <c r="AE50" s="6"/>
@@ -17310,7 +17321,7 @@
   </sheetPr>
   <dimension ref="A1:AO79"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:AH8"/>
     </sheetView>
   </sheetViews>
@@ -17431,7 +17442,7 @@
       <c r="I4" s="51"/>
       <c r="J4" s="51"/>
       <c r="K4" s="159" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L4" s="159"/>
       <c r="M4" s="51"/>
@@ -17513,79 +17524,79 @@
       <c r="AC6" s="87"/>
     </row>
     <row r="7" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="410" t="s">
-        <v>169</v>
-      </c>
-      <c r="B7" s="410"/>
-      <c r="C7" s="410"/>
-      <c r="D7" s="410"/>
-      <c r="E7" s="410"/>
-      <c r="F7" s="410"/>
-      <c r="G7" s="410"/>
-      <c r="H7" s="410"/>
-      <c r="I7" s="410"/>
-      <c r="J7" s="410"/>
-      <c r="K7" s="410"/>
-      <c r="L7" s="410"/>
-      <c r="M7" s="410"/>
-      <c r="N7" s="410"/>
-      <c r="O7" s="410"/>
-      <c r="P7" s="410"/>
-      <c r="Q7" s="410"/>
-      <c r="R7" s="410"/>
-      <c r="S7" s="410"/>
-      <c r="T7" s="410"/>
-      <c r="U7" s="410"/>
-      <c r="V7" s="410"/>
-      <c r="W7" s="410"/>
-      <c r="X7" s="410"/>
-      <c r="Y7" s="410"/>
-      <c r="Z7" s="410"/>
-      <c r="AA7" s="410"/>
-      <c r="AB7" s="410"/>
-      <c r="AC7" s="410"/>
-      <c r="AD7" s="410"/>
-      <c r="AE7" s="410"/>
-      <c r="AF7" s="410"/>
-      <c r="AG7" s="410"/>
-      <c r="AH7" s="410"/>
+      <c r="A7" s="411" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" s="411"/>
+      <c r="C7" s="411"/>
+      <c r="D7" s="411"/>
+      <c r="E7" s="411"/>
+      <c r="F7" s="411"/>
+      <c r="G7" s="411"/>
+      <c r="H7" s="411"/>
+      <c r="I7" s="411"/>
+      <c r="J7" s="411"/>
+      <c r="K7" s="411"/>
+      <c r="L7" s="411"/>
+      <c r="M7" s="411"/>
+      <c r="N7" s="411"/>
+      <c r="O7" s="411"/>
+      <c r="P7" s="411"/>
+      <c r="Q7" s="411"/>
+      <c r="R7" s="411"/>
+      <c r="S7" s="411"/>
+      <c r="T7" s="411"/>
+      <c r="U7" s="411"/>
+      <c r="V7" s="411"/>
+      <c r="W7" s="411"/>
+      <c r="X7" s="411"/>
+      <c r="Y7" s="411"/>
+      <c r="Z7" s="411"/>
+      <c r="AA7" s="411"/>
+      <c r="AB7" s="411"/>
+      <c r="AC7" s="411"/>
+      <c r="AD7" s="411"/>
+      <c r="AE7" s="411"/>
+      <c r="AF7" s="411"/>
+      <c r="AG7" s="411"/>
+      <c r="AH7" s="411"/>
       <c r="AI7" s="161"/>
     </row>
     <row r="8" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="410"/>
-      <c r="B8" s="410"/>
-      <c r="C8" s="410"/>
-      <c r="D8" s="410"/>
-      <c r="E8" s="410"/>
-      <c r="F8" s="410"/>
-      <c r="G8" s="410"/>
-      <c r="H8" s="410"/>
-      <c r="I8" s="410"/>
-      <c r="J8" s="410"/>
-      <c r="K8" s="410"/>
-      <c r="L8" s="410"/>
-      <c r="M8" s="410"/>
-      <c r="N8" s="410"/>
-      <c r="O8" s="410"/>
-      <c r="P8" s="410"/>
-      <c r="Q8" s="410"/>
-      <c r="R8" s="410"/>
-      <c r="S8" s="410"/>
-      <c r="T8" s="410"/>
-      <c r="U8" s="410"/>
-      <c r="V8" s="410"/>
-      <c r="W8" s="410"/>
-      <c r="X8" s="410"/>
-      <c r="Y8" s="410"/>
-      <c r="Z8" s="410"/>
-      <c r="AA8" s="410"/>
-      <c r="AB8" s="410"/>
-      <c r="AC8" s="410"/>
-      <c r="AD8" s="410"/>
-      <c r="AE8" s="410"/>
-      <c r="AF8" s="410"/>
-      <c r="AG8" s="410"/>
-      <c r="AH8" s="410"/>
+      <c r="A8" s="411"/>
+      <c r="B8" s="411"/>
+      <c r="C8" s="411"/>
+      <c r="D8" s="411"/>
+      <c r="E8" s="411"/>
+      <c r="F8" s="411"/>
+      <c r="G8" s="411"/>
+      <c r="H8" s="411"/>
+      <c r="I8" s="411"/>
+      <c r="J8" s="411"/>
+      <c r="K8" s="411"/>
+      <c r="L8" s="411"/>
+      <c r="M8" s="411"/>
+      <c r="N8" s="411"/>
+      <c r="O8" s="411"/>
+      <c r="P8" s="411"/>
+      <c r="Q8" s="411"/>
+      <c r="R8" s="411"/>
+      <c r="S8" s="411"/>
+      <c r="T8" s="411"/>
+      <c r="U8" s="411"/>
+      <c r="V8" s="411"/>
+      <c r="W8" s="411"/>
+      <c r="X8" s="411"/>
+      <c r="Y8" s="411"/>
+      <c r="Z8" s="411"/>
+      <c r="AA8" s="411"/>
+      <c r="AB8" s="411"/>
+      <c r="AC8" s="411"/>
+      <c r="AD8" s="411"/>
+      <c r="AE8" s="411"/>
+      <c r="AF8" s="411"/>
+      <c r="AG8" s="411"/>
+      <c r="AH8" s="411"/>
       <c r="AI8" s="161"/>
     </row>
     <row r="9" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17756,18 +17767,18 @@
       <c r="J13" s="62"/>
       <c r="K13" s="62"/>
       <c r="L13" s="62"/>
-      <c r="M13" s="411" t="s">
+      <c r="M13" s="412" t="s">
         <v>51</v>
       </c>
-      <c r="N13" s="411"/>
-      <c r="O13" s="411"/>
-      <c r="P13" s="411"/>
-      <c r="Q13" s="411"/>
-      <c r="R13" s="411"/>
-      <c r="S13" s="411"/>
-      <c r="T13" s="411"/>
-      <c r="U13" s="411"/>
-      <c r="V13" s="411"/>
+      <c r="N13" s="412"/>
+      <c r="O13" s="412"/>
+      <c r="P13" s="412"/>
+      <c r="Q13" s="412"/>
+      <c r="R13" s="412"/>
+      <c r="S13" s="412"/>
+      <c r="T13" s="412"/>
+      <c r="U13" s="412"/>
+      <c r="V13" s="412"/>
       <c r="W13" s="62"/>
       <c r="X13" s="62"/>
       <c r="Y13" s="62"/>
@@ -18498,25 +18509,25 @@
     </row>
     <row r="34" spans="2:41" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="175"/>
-      <c r="C34" s="379" t="s">
+      <c r="C34" s="380" t="s">
         <v>144</v>
       </c>
-      <c r="D34" s="379"/>
-      <c r="E34" s="379"/>
-      <c r="F34" s="381" t="s">
+      <c r="D34" s="380"/>
+      <c r="E34" s="380"/>
+      <c r="F34" s="382" t="s">
         <v>145</v>
       </c>
-      <c r="G34" s="381"/>
-      <c r="H34" s="381"/>
-      <c r="I34" s="381"/>
-      <c r="J34" s="381"/>
-      <c r="K34" s="381"/>
-      <c r="L34" s="381"/>
-      <c r="M34" s="381" t="s">
+      <c r="G34" s="382"/>
+      <c r="H34" s="382"/>
+      <c r="I34" s="382"/>
+      <c r="J34" s="382"/>
+      <c r="K34" s="382"/>
+      <c r="L34" s="382"/>
+      <c r="M34" s="382" t="s">
         <v>146</v>
       </c>
-      <c r="N34" s="381"/>
-      <c r="O34" s="381"/>
+      <c r="N34" s="382"/>
+      <c r="O34" s="382"/>
       <c r="P34" s="171"/>
       <c r="Q34" s="173"/>
       <c r="R34" s="173"/>
@@ -18546,19 +18557,19 @@
     </row>
     <row r="35" spans="2:41" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="175"/>
-      <c r="C35" s="379"/>
-      <c r="D35" s="379"/>
-      <c r="E35" s="379"/>
-      <c r="F35" s="381"/>
-      <c r="G35" s="381"/>
-      <c r="H35" s="381"/>
-      <c r="I35" s="381"/>
-      <c r="J35" s="381"/>
-      <c r="K35" s="381"/>
-      <c r="L35" s="381"/>
-      <c r="M35" s="381"/>
-      <c r="N35" s="381"/>
-      <c r="O35" s="381"/>
+      <c r="C35" s="380"/>
+      <c r="D35" s="380"/>
+      <c r="E35" s="380"/>
+      <c r="F35" s="382"/>
+      <c r="G35" s="382"/>
+      <c r="H35" s="382"/>
+      <c r="I35" s="382"/>
+      <c r="J35" s="382"/>
+      <c r="K35" s="382"/>
+      <c r="L35" s="382"/>
+      <c r="M35" s="382"/>
+      <c r="N35" s="382"/>
+      <c r="O35" s="382"/>
       <c r="P35" s="171"/>
       <c r="Q35" s="173"/>
       <c r="R35" s="173"/>
@@ -18588,25 +18599,25 @@
     </row>
     <row r="36" spans="2:41" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="175"/>
-      <c r="C36" s="379" t="s">
-        <v>167</v>
-      </c>
-      <c r="D36" s="379"/>
-      <c r="E36" s="379"/>
-      <c r="F36" s="412" t="s">
+      <c r="C36" s="380" t="s">
+        <v>166</v>
+      </c>
+      <c r="D36" s="380"/>
+      <c r="E36" s="380"/>
+      <c r="F36" s="413" t="s">
         <v>147</v>
       </c>
-      <c r="G36" s="412"/>
-      <c r="H36" s="412"/>
-      <c r="I36" s="412"/>
-      <c r="J36" s="412"/>
-      <c r="K36" s="412"/>
-      <c r="L36" s="412"/>
-      <c r="M36" s="412">
+      <c r="G36" s="413"/>
+      <c r="H36" s="413"/>
+      <c r="I36" s="413"/>
+      <c r="J36" s="413"/>
+      <c r="K36" s="413"/>
+      <c r="L36" s="413"/>
+      <c r="M36" s="413">
         <v>2165</v>
       </c>
-      <c r="N36" s="412"/>
-      <c r="O36" s="412"/>
+      <c r="N36" s="413"/>
+      <c r="O36" s="413"/>
       <c r="P36" s="171"/>
       <c r="Q36" s="173"/>
       <c r="R36" s="173"/>
@@ -18636,25 +18647,25 @@
     </row>
     <row r="37" spans="2:41" s="12" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="175"/>
-      <c r="C37" s="379" t="s">
-        <v>168</v>
-      </c>
-      <c r="D37" s="379"/>
-      <c r="E37" s="379"/>
-      <c r="F37" s="412" t="s">
+      <c r="C37" s="380" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37" s="380"/>
+      <c r="E37" s="380"/>
+      <c r="F37" s="413" t="s">
         <v>147</v>
       </c>
-      <c r="G37" s="412"/>
-      <c r="H37" s="412"/>
-      <c r="I37" s="412"/>
-      <c r="J37" s="412"/>
-      <c r="K37" s="412"/>
-      <c r="L37" s="412"/>
-      <c r="M37" s="412">
+      <c r="G37" s="413"/>
+      <c r="H37" s="413"/>
+      <c r="I37" s="413"/>
+      <c r="J37" s="413"/>
+      <c r="K37" s="413"/>
+      <c r="L37" s="413"/>
+      <c r="M37" s="413">
         <v>2165</v>
       </c>
-      <c r="N37" s="412"/>
-      <c r="O37" s="412"/>
+      <c r="N37" s="413"/>
+      <c r="O37" s="413"/>
       <c r="P37" s="171"/>
       <c r="Q37" s="171"/>
       <c r="R37" s="171"/>

--- a/Excell/akt_all.xlsx
+++ b/Excell/akt_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dmitr0\Desktop\Программирование\Proj PSD\PSD\Excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA63A85C-15E4-4892-895D-95F696D4F637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D23B8B5-48A8-452F-BF22-E42EC62D4BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="1095" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Адгезия" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Схема" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Адгезия!$A$1:$Z$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Адгезия!$A$1:$Z$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Выборочный ремонт'!$A$1:$AB$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">Схема!$A$1:$AH$53</definedName>
   </definedNames>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="177">
   <si>
     <t>(подпись)</t>
   </si>
@@ -62,12 +62,6 @@
   </si>
   <si>
     <t>Среднее значение адгезии:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Производитель работ                   </t>
-  </si>
-  <si>
-    <t>Мастер РУ №2 ЦРС «Рязань» Лазарев А.В.</t>
   </si>
   <si>
     <t>(должность, организация, Ф.И.О.)</t>
@@ -912,6 +906,15 @@
   <si>
     <t>Усилие отслаивания,
 F,H (кгс)</t>
+  </si>
+  <si>
+    <t>Представитель подрядчика</t>
+  </si>
+  <si>
+    <t>Представитель заказчика</t>
+  </si>
+  <si>
+    <t>Представитель строительного контроля</t>
   </si>
 </sst>
 </file>
@@ -2454,9 +2457,6 @@
     <xf numFmtId="14" fontId="79" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="88" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2482,33 +2482,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="66" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2944,6 +2917,36 @@
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="22">
@@ -3307,10 +3310,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AL53"/>
+  <dimension ref="A1:AL52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="W39" sqref="W39:Z39"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43:N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3436,7 +3439,7 @@
       <c r="K4" s="227"/>
       <c r="L4" s="227"/>
       <c r="M4" s="229" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="N4" s="227"/>
       <c r="O4" s="227"/>
@@ -3467,7 +3470,7 @@
       <c r="K5" s="227"/>
       <c r="L5" s="227"/>
       <c r="M5" s="230" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N5" s="227"/>
       <c r="O5" s="227"/>
@@ -3498,7 +3501,7 @@
       <c r="K6" s="227"/>
       <c r="L6" s="227"/>
       <c r="M6" s="231" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N6" s="227"/>
       <c r="O6" s="227"/>
@@ -3648,7 +3651,7 @@
       <c r="K11" s="238"/>
       <c r="L11" s="239"/>
       <c r="M11" s="233" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N11" s="240"/>
       <c r="O11" s="241"/>
@@ -3666,34 +3669,34 @@
       <c r="AA11" s="242"/>
     </row>
     <row r="12" spans="1:38" s="244" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="282" t="s">
-        <v>168</v>
-      </c>
-      <c r="B12" s="282"/>
-      <c r="C12" s="282"/>
-      <c r="D12" s="282"/>
-      <c r="E12" s="282"/>
-      <c r="F12" s="282"/>
-      <c r="G12" s="282"/>
-      <c r="H12" s="282"/>
-      <c r="I12" s="282"/>
-      <c r="J12" s="282"/>
-      <c r="K12" s="282"/>
-      <c r="L12" s="282"/>
-      <c r="M12" s="282"/>
-      <c r="N12" s="282"/>
-      <c r="O12" s="282"/>
-      <c r="P12" s="282"/>
-      <c r="Q12" s="282"/>
-      <c r="R12" s="282"/>
-      <c r="S12" s="282"/>
-      <c r="T12" s="282"/>
-      <c r="U12" s="282"/>
-      <c r="V12" s="282"/>
-      <c r="W12" s="282"/>
-      <c r="X12" s="282"/>
-      <c r="Y12" s="282"/>
-      <c r="Z12" s="282"/>
+      <c r="A12" s="281" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="281"/>
+      <c r="C12" s="281"/>
+      <c r="D12" s="281"/>
+      <c r="E12" s="281"/>
+      <c r="F12" s="281"/>
+      <c r="G12" s="281"/>
+      <c r="H12" s="281"/>
+      <c r="I12" s="281"/>
+      <c r="J12" s="281"/>
+      <c r="K12" s="281"/>
+      <c r="L12" s="281"/>
+      <c r="M12" s="281"/>
+      <c r="N12" s="281"/>
+      <c r="O12" s="281"/>
+      <c r="P12" s="281"/>
+      <c r="Q12" s="281"/>
+      <c r="R12" s="281"/>
+      <c r="S12" s="281"/>
+      <c r="T12" s="281"/>
+      <c r="U12" s="281"/>
+      <c r="V12" s="281"/>
+      <c r="W12" s="281"/>
+      <c r="X12" s="281"/>
+      <c r="Y12" s="281"/>
+      <c r="Z12" s="281"/>
       <c r="AA12" s="182"/>
     </row>
     <row r="13" spans="1:38" s="235" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3749,7 +3752,7 @@
       <c r="T14" s="242"/>
       <c r="U14" s="242"/>
       <c r="V14" s="247" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="W14" s="247"/>
       <c r="X14" s="247"/>
@@ -3788,18 +3791,18 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="224"/>
-      <c r="B16" s="309" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="309"/>
-      <c r="D16" s="309"/>
-      <c r="E16" s="309"/>
-      <c r="F16" s="309"/>
-      <c r="G16" s="309"/>
-      <c r="H16" s="309"/>
-      <c r="I16" s="309"/>
+      <c r="B16" s="299" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="299"/>
+      <c r="D16" s="299"/>
+      <c r="E16" s="299"/>
+      <c r="F16" s="299"/>
+      <c r="G16" s="299"/>
+      <c r="H16" s="299"/>
+      <c r="I16" s="299"/>
       <c r="J16" s="249" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K16" s="250"/>
       <c r="L16" s="250"/>
@@ -3850,29 +3853,29 @@
     </row>
     <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="224"/>
-      <c r="B18" s="319" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="319"/>
-      <c r="D18" s="319"/>
-      <c r="E18" s="319"/>
-      <c r="F18" s="319"/>
-      <c r="G18" s="319"/>
-      <c r="H18" s="319"/>
-      <c r="I18" s="319"/>
-      <c r="J18" s="319"/>
-      <c r="K18" s="319"/>
-      <c r="L18" s="319"/>
-      <c r="M18" s="319"/>
-      <c r="N18" s="322" t="s">
-        <v>14</v>
-      </c>
-      <c r="O18" s="322"/>
-      <c r="P18" s="322"/>
-      <c r="Q18" s="322"/>
-      <c r="R18" s="322"/>
-      <c r="S18" s="322"/>
-      <c r="T18" s="322"/>
+      <c r="B18" s="309" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="309"/>
+      <c r="D18" s="309"/>
+      <c r="E18" s="309"/>
+      <c r="F18" s="309"/>
+      <c r="G18" s="309"/>
+      <c r="H18" s="309"/>
+      <c r="I18" s="309"/>
+      <c r="J18" s="309"/>
+      <c r="K18" s="309"/>
+      <c r="L18" s="309"/>
+      <c r="M18" s="309"/>
+      <c r="N18" s="312" t="s">
+        <v>12</v>
+      </c>
+      <c r="O18" s="312"/>
+      <c r="P18" s="312"/>
+      <c r="Q18" s="312"/>
+      <c r="R18" s="312"/>
+      <c r="S18" s="312"/>
+      <c r="T18" s="312"/>
       <c r="U18" s="252"/>
       <c r="V18" s="252"/>
       <c r="W18" s="252"/>
@@ -3970,34 +3973,34 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="224"/>
-      <c r="B22" s="320" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="320"/>
-      <c r="D22" s="320"/>
-      <c r="E22" s="320"/>
-      <c r="F22" s="320"/>
-      <c r="G22" s="320"/>
-      <c r="H22" s="320"/>
-      <c r="I22" s="320"/>
-      <c r="J22" s="320"/>
-      <c r="K22" s="321" t="s">
-        <v>15</v>
-      </c>
-      <c r="L22" s="321"/>
-      <c r="M22" s="321"/>
-      <c r="N22" s="321"/>
-      <c r="O22" s="321"/>
-      <c r="P22" s="321"/>
-      <c r="Q22" s="321"/>
-      <c r="R22" s="321"/>
-      <c r="S22" s="321"/>
-      <c r="T22" s="321"/>
-      <c r="U22" s="321"/>
-      <c r="V22" s="321"/>
-      <c r="W22" s="321"/>
-      <c r="X22" s="321"/>
-      <c r="Y22" s="321"/>
+      <c r="B22" s="310" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="310"/>
+      <c r="D22" s="310"/>
+      <c r="E22" s="310"/>
+      <c r="F22" s="310"/>
+      <c r="G22" s="310"/>
+      <c r="H22" s="310"/>
+      <c r="I22" s="310"/>
+      <c r="J22" s="310"/>
+      <c r="K22" s="311" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22" s="311"/>
+      <c r="M22" s="311"/>
+      <c r="N22" s="311"/>
+      <c r="O22" s="311"/>
+      <c r="P22" s="311"/>
+      <c r="Q22" s="311"/>
+      <c r="R22" s="311"/>
+      <c r="S22" s="311"/>
+      <c r="T22" s="311"/>
+      <c r="U22" s="311"/>
+      <c r="V22" s="311"/>
+      <c r="W22" s="311"/>
+      <c r="X22" s="311"/>
+      <c r="Y22" s="311"/>
       <c r="Z22" s="224"/>
       <c r="AA22" s="224"/>
     </row>
@@ -4089,273 +4092,273 @@
       <c r="AA25" s="248"/>
     </row>
     <row r="26" spans="1:27" s="243" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="310" t="s">
+      <c r="A26" s="300" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" s="301"/>
+      <c r="C26" s="302"/>
+      <c r="D26" s="300" t="s">
+        <v>167</v>
+      </c>
+      <c r="E26" s="301"/>
+      <c r="F26" s="301"/>
+      <c r="G26" s="302"/>
+      <c r="H26" s="327" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="328"/>
+      <c r="J26" s="328"/>
+      <c r="K26" s="322" t="s">
+        <v>172</v>
+      </c>
+      <c r="L26" s="322"/>
+      <c r="M26" s="322"/>
+      <c r="N26" s="321" t="s">
+        <v>173</v>
+      </c>
+      <c r="O26" s="321"/>
+      <c r="P26" s="321"/>
+      <c r="Q26" s="322" t="s">
+        <v>171</v>
+      </c>
+      <c r="R26" s="322"/>
+      <c r="S26" s="322"/>
+      <c r="T26" s="322"/>
+      <c r="U26" s="313" t="s">
         <v>170</v>
       </c>
-      <c r="B26" s="311"/>
-      <c r="C26" s="312"/>
-      <c r="D26" s="310" t="s">
+      <c r="V26" s="313"/>
+      <c r="W26" s="314"/>
+      <c r="X26" s="300" t="s">
         <v>169</v>
       </c>
-      <c r="E26" s="311"/>
-      <c r="F26" s="311"/>
-      <c r="G26" s="312"/>
-      <c r="H26" s="337" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="338"/>
-      <c r="J26" s="338"/>
-      <c r="K26" s="332" t="s">
-        <v>174</v>
-      </c>
-      <c r="L26" s="332"/>
-      <c r="M26" s="332"/>
-      <c r="N26" s="331" t="s">
-        <v>175</v>
-      </c>
-      <c r="O26" s="331"/>
-      <c r="P26" s="331"/>
-      <c r="Q26" s="332" t="s">
-        <v>173</v>
-      </c>
-      <c r="R26" s="332"/>
-      <c r="S26" s="332"/>
-      <c r="T26" s="332"/>
-      <c r="U26" s="323" t="s">
-        <v>172</v>
-      </c>
-      <c r="V26" s="323"/>
-      <c r="W26" s="324"/>
-      <c r="X26" s="310" t="s">
-        <v>171</v>
-      </c>
-      <c r="Y26" s="311"/>
-      <c r="Z26" s="312"/>
+      <c r="Y26" s="301"/>
+      <c r="Z26" s="302"/>
       <c r="AA26" s="238"/>
     </row>
     <row r="27" spans="1:27" s="255" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="313"/>
-      <c r="B27" s="314"/>
-      <c r="C27" s="315"/>
-      <c r="D27" s="313"/>
-      <c r="E27" s="314"/>
-      <c r="F27" s="314"/>
-      <c r="G27" s="315"/>
-      <c r="H27" s="339"/>
-      <c r="I27" s="340"/>
-      <c r="J27" s="340"/>
-      <c r="K27" s="332"/>
-      <c r="L27" s="332"/>
-      <c r="M27" s="332"/>
-      <c r="N27" s="331"/>
-      <c r="O27" s="331"/>
-      <c r="P27" s="331"/>
-      <c r="Q27" s="332"/>
-      <c r="R27" s="332"/>
-      <c r="S27" s="332"/>
-      <c r="T27" s="332"/>
-      <c r="U27" s="325"/>
-      <c r="V27" s="325"/>
-      <c r="W27" s="326"/>
-      <c r="X27" s="313"/>
-      <c r="Y27" s="314"/>
-      <c r="Z27" s="315"/>
+      <c r="A27" s="303"/>
+      <c r="B27" s="304"/>
+      <c r="C27" s="305"/>
+      <c r="D27" s="303"/>
+      <c r="E27" s="304"/>
+      <c r="F27" s="304"/>
+      <c r="G27" s="305"/>
+      <c r="H27" s="329"/>
+      <c r="I27" s="330"/>
+      <c r="J27" s="330"/>
+      <c r="K27" s="322"/>
+      <c r="L27" s="322"/>
+      <c r="M27" s="322"/>
+      <c r="N27" s="321"/>
+      <c r="O27" s="321"/>
+      <c r="P27" s="321"/>
+      <c r="Q27" s="322"/>
+      <c r="R27" s="322"/>
+      <c r="S27" s="322"/>
+      <c r="T27" s="322"/>
+      <c r="U27" s="315"/>
+      <c r="V27" s="315"/>
+      <c r="W27" s="316"/>
+      <c r="X27" s="303"/>
+      <c r="Y27" s="304"/>
+      <c r="Z27" s="305"/>
       <c r="AA27" s="256"/>
     </row>
     <row r="28" spans="1:27" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="316"/>
-      <c r="B28" s="317"/>
-      <c r="C28" s="318"/>
-      <c r="D28" s="316"/>
-      <c r="E28" s="317"/>
-      <c r="F28" s="317"/>
-      <c r="G28" s="318"/>
-      <c r="H28" s="341"/>
-      <c r="I28" s="342"/>
-      <c r="J28" s="342"/>
-      <c r="K28" s="332"/>
-      <c r="L28" s="332"/>
-      <c r="M28" s="332"/>
-      <c r="N28" s="331"/>
-      <c r="O28" s="331"/>
-      <c r="P28" s="331"/>
-      <c r="Q28" s="332"/>
-      <c r="R28" s="332"/>
-      <c r="S28" s="332"/>
-      <c r="T28" s="332"/>
-      <c r="U28" s="327"/>
-      <c r="V28" s="327"/>
-      <c r="W28" s="328"/>
-      <c r="X28" s="316"/>
-      <c r="Y28" s="317"/>
-      <c r="Z28" s="318"/>
+      <c r="A28" s="306"/>
+      <c r="B28" s="307"/>
+      <c r="C28" s="308"/>
+      <c r="D28" s="306"/>
+      <c r="E28" s="307"/>
+      <c r="F28" s="307"/>
+      <c r="G28" s="308"/>
+      <c r="H28" s="331"/>
+      <c r="I28" s="332"/>
+      <c r="J28" s="332"/>
+      <c r="K28" s="322"/>
+      <c r="L28" s="322"/>
+      <c r="M28" s="322"/>
+      <c r="N28" s="321"/>
+      <c r="O28" s="321"/>
+      <c r="P28" s="321"/>
+      <c r="Q28" s="322"/>
+      <c r="R28" s="322"/>
+      <c r="S28" s="322"/>
+      <c r="T28" s="322"/>
+      <c r="U28" s="317"/>
+      <c r="V28" s="317"/>
+      <c r="W28" s="318"/>
+      <c r="X28" s="306"/>
+      <c r="Y28" s="307"/>
+      <c r="Z28" s="308"/>
       <c r="AA28" s="257"/>
     </row>
     <row r="29" spans="1:27" s="255" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="295">
+      <c r="A29" s="285">
         <f>W14</f>
         <v>0</v>
       </c>
-      <c r="B29" s="296"/>
-      <c r="C29" s="297"/>
-      <c r="D29" s="286" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="287"/>
-      <c r="F29" s="287"/>
-      <c r="G29" s="288"/>
-      <c r="H29" s="343" t="s">
-        <v>167</v>
-      </c>
-      <c r="I29" s="344"/>
-      <c r="J29" s="344"/>
-      <c r="K29" s="349">
+      <c r="B29" s="286"/>
+      <c r="C29" s="287"/>
+      <c r="D29" s="432" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="433"/>
+      <c r="F29" s="433"/>
+      <c r="G29" s="434"/>
+      <c r="H29" s="333" t="s">
+        <v>165</v>
+      </c>
+      <c r="I29" s="334"/>
+      <c r="J29" s="334"/>
+      <c r="K29" s="339">
         <v>1</v>
       </c>
-      <c r="L29" s="349"/>
-      <c r="M29" s="349"/>
-      <c r="N29" s="333">
+      <c r="L29" s="339"/>
+      <c r="M29" s="339"/>
+      <c r="N29" s="323">
         <f ca="1">RANDBETWEEN(121,149)</f>
-        <v>134</v>
-      </c>
-      <c r="O29" s="333"/>
-      <c r="P29" s="333"/>
-      <c r="Q29" s="334">
+        <v>138</v>
+      </c>
+      <c r="O29" s="323"/>
+      <c r="P29" s="323"/>
+      <c r="Q29" s="324">
         <f ca="1">RANDBETWEEN(23,29)/10</f>
-        <v>2.8</v>
-      </c>
-      <c r="R29" s="335"/>
-      <c r="S29" s="335"/>
-      <c r="T29" s="336"/>
-      <c r="U29" s="329">
+        <v>2.9</v>
+      </c>
+      <c r="R29" s="325"/>
+      <c r="S29" s="325"/>
+      <c r="T29" s="326"/>
+      <c r="U29" s="319">
         <f ca="1">RANDBETWEEN(520,530)/10</f>
-        <v>52.8</v>
-      </c>
-      <c r="V29" s="330"/>
-      <c r="W29" s="330"/>
-      <c r="X29" s="283" t="s">
+        <v>52.1</v>
+      </c>
+      <c r="V29" s="320"/>
+      <c r="W29" s="320"/>
+      <c r="X29" s="282" t="s">
         <v>5</v>
       </c>
-      <c r="Y29" s="284"/>
-      <c r="Z29" s="285"/>
+      <c r="Y29" s="283"/>
+      <c r="Z29" s="284"/>
       <c r="AA29" s="248"/>
     </row>
     <row r="30" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="298"/>
-      <c r="B30" s="299"/>
-      <c r="C30" s="300"/>
-      <c r="D30" s="289"/>
-      <c r="E30" s="290"/>
-      <c r="F30" s="290"/>
-      <c r="G30" s="291"/>
-      <c r="H30" s="345"/>
-      <c r="I30" s="346"/>
-      <c r="J30" s="346"/>
-      <c r="K30" s="349">
+      <c r="A30" s="288"/>
+      <c r="B30" s="289"/>
+      <c r="C30" s="290"/>
+      <c r="D30" s="435"/>
+      <c r="E30" s="436"/>
+      <c r="F30" s="436"/>
+      <c r="G30" s="437"/>
+      <c r="H30" s="335"/>
+      <c r="I30" s="336"/>
+      <c r="J30" s="336"/>
+      <c r="K30" s="339">
         <v>2</v>
       </c>
-      <c r="L30" s="349"/>
-      <c r="M30" s="349"/>
-      <c r="N30" s="333">
+      <c r="L30" s="339"/>
+      <c r="M30" s="339"/>
+      <c r="N30" s="323">
         <f t="shared" ref="N30:N31" ca="1" si="0">RANDBETWEEN(121,149)</f>
-        <v>148</v>
-      </c>
-      <c r="O30" s="333"/>
-      <c r="P30" s="333"/>
-      <c r="Q30" s="334">
+        <v>149</v>
+      </c>
+      <c r="O30" s="323"/>
+      <c r="P30" s="323"/>
+      <c r="Q30" s="324">
         <f t="shared" ref="Q30:Q31" ca="1" si="1">RANDBETWEEN(23,29)/10</f>
-        <v>2.7</v>
-      </c>
-      <c r="R30" s="335"/>
-      <c r="S30" s="335"/>
-      <c r="T30" s="336"/>
-      <c r="U30" s="329">
+        <v>2.5</v>
+      </c>
+      <c r="R30" s="325"/>
+      <c r="S30" s="325"/>
+      <c r="T30" s="326"/>
+      <c r="U30" s="319">
         <f t="shared" ref="U30:U31" ca="1" si="2">RANDBETWEEN(520,530)/10</f>
-        <v>52.7</v>
-      </c>
-      <c r="V30" s="330"/>
-      <c r="W30" s="330"/>
-      <c r="X30" s="283" t="s">
+        <v>52.2</v>
+      </c>
+      <c r="V30" s="320"/>
+      <c r="W30" s="320"/>
+      <c r="X30" s="282" t="s">
         <v>5</v>
       </c>
-      <c r="Y30" s="284"/>
-      <c r="Z30" s="285"/>
+      <c r="Y30" s="283"/>
+      <c r="Z30" s="284"/>
       <c r="AA30" s="224"/>
     </row>
     <row r="31" spans="1:27" s="255" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="301"/>
-      <c r="B31" s="302"/>
-      <c r="C31" s="303"/>
-      <c r="D31" s="292"/>
-      <c r="E31" s="293"/>
-      <c r="F31" s="293"/>
-      <c r="G31" s="294"/>
-      <c r="H31" s="347"/>
-      <c r="I31" s="348"/>
-      <c r="J31" s="348"/>
-      <c r="K31" s="349">
+      <c r="A31" s="291"/>
+      <c r="B31" s="292"/>
+      <c r="C31" s="293"/>
+      <c r="D31" s="438"/>
+      <c r="E31" s="439"/>
+      <c r="F31" s="439"/>
+      <c r="G31" s="440"/>
+      <c r="H31" s="337"/>
+      <c r="I31" s="338"/>
+      <c r="J31" s="338"/>
+      <c r="K31" s="339">
         <v>3</v>
       </c>
-      <c r="L31" s="349"/>
-      <c r="M31" s="349"/>
-      <c r="N31" s="333">
+      <c r="L31" s="339"/>
+      <c r="M31" s="339"/>
+      <c r="N31" s="323">
         <f t="shared" ca="1" si="0"/>
-        <v>132</v>
-      </c>
-      <c r="O31" s="333"/>
-      <c r="P31" s="333"/>
-      <c r="Q31" s="334">
+        <v>135</v>
+      </c>
+      <c r="O31" s="323"/>
+      <c r="P31" s="323"/>
+      <c r="Q31" s="324">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4</v>
-      </c>
-      <c r="R31" s="335"/>
-      <c r="S31" s="335"/>
-      <c r="T31" s="336"/>
-      <c r="U31" s="329">
+        <v>2.6</v>
+      </c>
+      <c r="R31" s="325"/>
+      <c r="S31" s="325"/>
+      <c r="T31" s="326"/>
+      <c r="U31" s="319">
         <f t="shared" ca="1" si="2"/>
-        <v>52.7</v>
-      </c>
-      <c r="V31" s="330"/>
-      <c r="W31" s="330"/>
-      <c r="X31" s="306" t="s">
+        <v>52.1</v>
+      </c>
+      <c r="V31" s="320"/>
+      <c r="W31" s="320"/>
+      <c r="X31" s="296" t="s">
         <v>5</v>
       </c>
-      <c r="Y31" s="307"/>
-      <c r="Z31" s="308"/>
+      <c r="Y31" s="297"/>
+      <c r="Z31" s="298"/>
       <c r="AA31" s="248"/>
     </row>
     <row r="32" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="350" t="s">
+      <c r="A32" s="340" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="351"/>
-      <c r="C32" s="351"/>
-      <c r="D32" s="351"/>
-      <c r="E32" s="351"/>
-      <c r="F32" s="351"/>
-      <c r="G32" s="351"/>
-      <c r="H32" s="351"/>
-      <c r="I32" s="351"/>
-      <c r="J32" s="351"/>
-      <c r="K32" s="351"/>
-      <c r="L32" s="351"/>
-      <c r="M32" s="351"/>
-      <c r="N32" s="352">
+      <c r="B32" s="341"/>
+      <c r="C32" s="341"/>
+      <c r="D32" s="341"/>
+      <c r="E32" s="341"/>
+      <c r="F32" s="341"/>
+      <c r="G32" s="341"/>
+      <c r="H32" s="341"/>
+      <c r="I32" s="341"/>
+      <c r="J32" s="341"/>
+      <c r="K32" s="341"/>
+      <c r="L32" s="341"/>
+      <c r="M32" s="341"/>
+      <c r="N32" s="342">
         <f ca="1">SUM(N29:P31)/3</f>
-        <v>138</v>
-      </c>
-      <c r="O32" s="353"/>
-      <c r="P32" s="353"/>
-      <c r="Q32" s="353"/>
-      <c r="R32" s="353"/>
-      <c r="S32" s="353"/>
-      <c r="T32" s="353"/>
-      <c r="U32" s="353"/>
-      <c r="V32" s="353"/>
-      <c r="W32" s="353"/>
-      <c r="X32" s="353"/>
-      <c r="Y32" s="353"/>
-      <c r="Z32" s="354"/>
+        <v>140.66666666666666</v>
+      </c>
+      <c r="O32" s="343"/>
+      <c r="P32" s="343"/>
+      <c r="Q32" s="343"/>
+      <c r="R32" s="343"/>
+      <c r="S32" s="343"/>
+      <c r="T32" s="343"/>
+      <c r="U32" s="343"/>
+      <c r="V32" s="343"/>
+      <c r="W32" s="343"/>
+      <c r="X32" s="343"/>
+      <c r="Y32" s="343"/>
+      <c r="Z32" s="344"/>
       <c r="AA32" s="224"/>
     </row>
     <row r="33" spans="1:27" s="243" customFormat="1" x14ac:dyDescent="0.3">
@@ -4387,334 +4390,343 @@
       <c r="Z33" s="259"/>
       <c r="AA33" s="259"/>
     </row>
-    <row r="34" spans="1:27" s="255" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="203"/>
-      <c r="B34" s="203"/>
-      <c r="C34" s="203"/>
-      <c r="D34" s="203"/>
-      <c r="E34" s="203"/>
-      <c r="F34" s="203"/>
-      <c r="G34" s="203"/>
-      <c r="H34" s="203"/>
-      <c r="I34" s="203"/>
-      <c r="J34" s="203"/>
-      <c r="K34" s="203"/>
-      <c r="L34" s="203"/>
-      <c r="M34" s="203"/>
-      <c r="N34" s="203"/>
-      <c r="O34" s="203"/>
-      <c r="P34" s="203"/>
-      <c r="Q34" s="203"/>
-      <c r="R34" s="203"/>
-      <c r="S34" s="203"/>
-      <c r="T34" s="203"/>
-      <c r="U34" s="203"/>
-      <c r="V34" s="203"/>
-      <c r="W34" s="203"/>
-      <c r="X34" s="203"/>
-      <c r="Y34" s="203"/>
-      <c r="Z34" s="203"/>
-      <c r="AA34" s="203"/>
-    </row>
-    <row r="35" spans="1:27" s="255" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="305" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" s="305"/>
-      <c r="C35" s="305"/>
-      <c r="D35" s="305"/>
-      <c r="E35" s="305"/>
-      <c r="F35" s="305"/>
-      <c r="G35" s="305"/>
-      <c r="H35" s="305"/>
-      <c r="I35" s="305"/>
-      <c r="J35" s="304" t="s">
-        <v>19</v>
-      </c>
-      <c r="K35" s="304"/>
-      <c r="L35" s="304"/>
-      <c r="M35" s="304"/>
-      <c r="N35" s="304"/>
-      <c r="O35" s="304"/>
-      <c r="P35" s="304"/>
-      <c r="Q35" s="304"/>
-      <c r="R35" s="304"/>
-      <c r="S35" s="304"/>
-      <c r="T35" s="304"/>
-      <c r="U35" s="259"/>
-      <c r="V35" s="259"/>
-      <c r="W35" s="259"/>
-      <c r="X35" s="259"/>
-      <c r="Y35" s="259"/>
-      <c r="Z35" s="259"/>
-      <c r="AA35" s="259"/>
-    </row>
-    <row r="36" spans="1:27" s="255" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="305"/>
-      <c r="B36" s="305"/>
-      <c r="C36" s="305"/>
-      <c r="D36" s="305"/>
-      <c r="E36" s="305"/>
-      <c r="F36" s="305"/>
-      <c r="G36" s="305"/>
-      <c r="H36" s="305"/>
-      <c r="I36" s="305"/>
-      <c r="J36" s="304"/>
-      <c r="K36" s="304"/>
-      <c r="L36" s="304"/>
-      <c r="M36" s="304"/>
-      <c r="N36" s="304"/>
-      <c r="O36" s="304"/>
-      <c r="P36" s="304"/>
-      <c r="Q36" s="304"/>
-      <c r="R36" s="304"/>
-      <c r="S36" s="304"/>
-      <c r="T36" s="304"/>
-      <c r="U36" s="203"/>
-      <c r="V36" s="203"/>
-      <c r="W36" s="203"/>
-      <c r="X36" s="203"/>
-      <c r="Y36" s="203"/>
-      <c r="Z36" s="203"/>
-      <c r="AA36" s="203"/>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A37" s="196"/>
-      <c r="B37" s="196"/>
-      <c r="C37" s="196"/>
-      <c r="D37" s="196"/>
-      <c r="E37" s="196"/>
-      <c r="F37" s="196"/>
-      <c r="G37" s="196"/>
-      <c r="H37" s="261"/>
-      <c r="I37" s="261"/>
-      <c r="J37" s="261"/>
-      <c r="K37" s="261"/>
-      <c r="L37" s="261"/>
-      <c r="M37" s="261"/>
-      <c r="N37" s="261"/>
-      <c r="O37" s="261"/>
-      <c r="P37" s="261"/>
-      <c r="Q37" s="261"/>
-      <c r="R37" s="261"/>
-      <c r="S37" s="261"/>
-      <c r="T37" s="261"/>
-      <c r="U37" s="261"/>
-      <c r="V37" s="261"/>
-      <c r="W37" s="259"/>
-      <c r="X37" s="259"/>
-      <c r="Y37" s="260"/>
-      <c r="Z37" s="262"/>
-      <c r="AA37" s="259"/>
-    </row>
-    <row r="38" spans="1:27" s="255" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="203"/>
-      <c r="B38" s="203"/>
-      <c r="C38" s="203"/>
-      <c r="D38" s="203"/>
-      <c r="E38" s="203"/>
-      <c r="F38" s="203"/>
-      <c r="G38" s="203"/>
-      <c r="H38" s="203"/>
-      <c r="I38" s="203"/>
-      <c r="J38" s="263"/>
-      <c r="K38" s="263"/>
-      <c r="L38" s="263"/>
-      <c r="M38" s="263"/>
-      <c r="N38" s="263"/>
-      <c r="O38" s="263"/>
-      <c r="P38" s="263"/>
-      <c r="Q38" s="263"/>
-      <c r="R38" s="263"/>
-      <c r="S38" s="263"/>
-      <c r="T38" s="263"/>
-      <c r="U38" s="263"/>
-      <c r="V38" s="263"/>
-      <c r="W38" s="263"/>
-      <c r="X38" s="263"/>
-      <c r="Y38" s="263"/>
-      <c r="Z38" s="263"/>
-      <c r="AA38" s="263"/>
-    </row>
-    <row r="39" spans="1:27" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="196"/>
-      <c r="B39" s="276" t="s">
+    <row r="34" spans="1:27" s="255" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="295" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="295"/>
+      <c r="C34" s="295"/>
+      <c r="D34" s="295"/>
+      <c r="E34" s="295"/>
+      <c r="F34" s="295"/>
+      <c r="G34" s="295"/>
+      <c r="H34" s="295"/>
+      <c r="I34" s="295"/>
+      <c r="J34" s="294" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="294"/>
+      <c r="L34" s="294"/>
+      <c r="M34" s="294"/>
+      <c r="N34" s="294"/>
+      <c r="O34" s="294"/>
+      <c r="P34" s="294"/>
+      <c r="Q34" s="294"/>
+      <c r="R34" s="294"/>
+      <c r="S34" s="294"/>
+      <c r="T34" s="294"/>
+      <c r="U34" s="259"/>
+      <c r="V34" s="259"/>
+      <c r="W34" s="259"/>
+      <c r="X34" s="259"/>
+      <c r="Y34" s="259"/>
+      <c r="Z34" s="259"/>
+      <c r="AA34" s="259"/>
+    </row>
+    <row r="35" spans="1:27" s="255" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="295"/>
+      <c r="B35" s="295"/>
+      <c r="C35" s="295"/>
+      <c r="D35" s="295"/>
+      <c r="E35" s="295"/>
+      <c r="F35" s="295"/>
+      <c r="G35" s="295"/>
+      <c r="H35" s="295"/>
+      <c r="I35" s="295"/>
+      <c r="J35" s="294"/>
+      <c r="K35" s="294"/>
+      <c r="L35" s="294"/>
+      <c r="M35" s="294"/>
+      <c r="N35" s="294"/>
+      <c r="O35" s="294"/>
+      <c r="P35" s="294"/>
+      <c r="Q35" s="294"/>
+      <c r="R35" s="294"/>
+      <c r="S35" s="294"/>
+      <c r="T35" s="294"/>
+      <c r="U35" s="203"/>
+      <c r="V35" s="203"/>
+      <c r="W35" s="203"/>
+      <c r="X35" s="203"/>
+      <c r="Y35" s="203"/>
+      <c r="Z35" s="203"/>
+      <c r="AA35" s="203"/>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A36" s="196"/>
+      <c r="B36" s="196"/>
+      <c r="C36" s="196"/>
+      <c r="D36" s="196"/>
+      <c r="E36" s="196"/>
+      <c r="F36" s="196"/>
+      <c r="G36" s="196"/>
+      <c r="H36" s="261"/>
+      <c r="I36" s="261"/>
+      <c r="J36" s="261"/>
+      <c r="K36" s="261"/>
+      <c r="L36" s="261"/>
+      <c r="M36" s="261"/>
+      <c r="N36" s="261"/>
+      <c r="O36" s="261"/>
+      <c r="P36" s="261"/>
+      <c r="Q36" s="261"/>
+      <c r="R36" s="261"/>
+      <c r="S36" s="261"/>
+      <c r="T36" s="261"/>
+      <c r="U36" s="261"/>
+      <c r="V36" s="261"/>
+      <c r="W36" s="259"/>
+      <c r="X36" s="259"/>
+      <c r="Y36" s="260"/>
+      <c r="Z36" s="262"/>
+      <c r="AA36" s="259"/>
+    </row>
+    <row r="37" spans="1:27" s="255" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="203"/>
+      <c r="B37" s="203"/>
+      <c r="C37" s="203"/>
+      <c r="D37" s="203"/>
+      <c r="E37" s="203"/>
+      <c r="F37" s="203"/>
+      <c r="G37" s="203"/>
+      <c r="H37" s="203"/>
+      <c r="I37" s="203"/>
+      <c r="J37" s="263"/>
+      <c r="K37" s="263"/>
+      <c r="L37" s="263"/>
+      <c r="M37" s="263"/>
+      <c r="N37" s="263"/>
+      <c r="O37" s="263"/>
+      <c r="P37" s="263"/>
+      <c r="Q37" s="263"/>
+      <c r="R37" s="263"/>
+      <c r="S37" s="263"/>
+      <c r="T37" s="263"/>
+      <c r="U37" s="263"/>
+      <c r="V37" s="263"/>
+      <c r="W37" s="263"/>
+      <c r="X37" s="263"/>
+      <c r="Y37" s="263"/>
+      <c r="Z37" s="263"/>
+      <c r="AA37" s="263"/>
+    </row>
+    <row r="38" spans="1:27" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="196"/>
+      <c r="B38" s="431" t="s">
+        <v>174</v>
+      </c>
+      <c r="C38" s="431"/>
+      <c r="D38" s="431"/>
+      <c r="E38" s="431"/>
+      <c r="F38" s="431"/>
+      <c r="G38" s="431"/>
+      <c r="H38" s="276">
+        <f>BA1</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="276"/>
+      <c r="J38" s="276"/>
+      <c r="K38" s="276"/>
+      <c r="L38" s="276"/>
+      <c r="M38" s="276"/>
+      <c r="N38" s="276"/>
+      <c r="O38" s="259"/>
+      <c r="P38" s="266"/>
+      <c r="Q38" s="266"/>
+      <c r="R38" s="266"/>
+      <c r="S38" s="266"/>
+      <c r="T38" s="266"/>
+      <c r="U38" s="266"/>
+      <c r="V38" s="183"/>
+      <c r="W38" s="279">
+        <f>W14</f>
+        <v>0</v>
+      </c>
+      <c r="X38" s="279"/>
+      <c r="Y38" s="279"/>
+      <c r="Z38" s="279"/>
+      <c r="AA38" s="259"/>
+    </row>
+    <row r="39" spans="1:27" s="264" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="263"/>
+      <c r="B39" s="196"/>
+      <c r="C39" s="196"/>
+      <c r="D39" s="196"/>
+      <c r="E39" s="196"/>
+      <c r="F39" s="196"/>
+      <c r="G39" s="196"/>
+      <c r="H39" s="277" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="276"/>
-      <c r="D39" s="276"/>
-      <c r="E39" s="276"/>
-      <c r="F39" s="276"/>
-      <c r="G39" s="276"/>
-      <c r="H39" s="277" t="s">
-        <v>8</v>
-      </c>
-      <c r="I39" s="277"/>
-      <c r="J39" s="277"/>
-      <c r="K39" s="277"/>
-      <c r="L39" s="277"/>
-      <c r="M39" s="277"/>
-      <c r="N39" s="277"/>
-      <c r="O39" s="259"/>
-      <c r="P39" s="266"/>
-      <c r="Q39" s="266"/>
-      <c r="R39" s="266"/>
-      <c r="S39" s="266"/>
-      <c r="T39" s="266"/>
-      <c r="U39" s="266"/>
-      <c r="V39" s="183"/>
-      <c r="W39" s="280">
-        <f>W10</f>
+      <c r="I39" s="278"/>
+      <c r="J39" s="278"/>
+      <c r="K39" s="278"/>
+      <c r="L39" s="278"/>
+      <c r="M39" s="278"/>
+      <c r="N39" s="278"/>
+      <c r="O39" s="203"/>
+      <c r="P39" s="280" t="s">
         <v>0</v>
+      </c>
+      <c r="Q39" s="280"/>
+      <c r="R39" s="280"/>
+      <c r="S39" s="280"/>
+      <c r="T39" s="280"/>
+      <c r="U39" s="280"/>
+      <c r="V39" s="248"/>
+      <c r="W39" s="280" t="s">
+        <v>1</v>
       </c>
       <c r="X39" s="280"/>
       <c r="Y39" s="280"/>
       <c r="Z39" s="280"/>
-      <c r="AA39" s="259"/>
-    </row>
-    <row r="40" spans="1:27" s="264" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="263"/>
-      <c r="B40" s="196"/>
-      <c r="C40" s="196"/>
-      <c r="D40" s="196"/>
-      <c r="E40" s="196"/>
-      <c r="F40" s="196"/>
-      <c r="G40" s="196"/>
-      <c r="H40" s="278" t="s">
-        <v>9</v>
-      </c>
-      <c r="I40" s="279"/>
-      <c r="J40" s="279"/>
-      <c r="K40" s="279"/>
-      <c r="L40" s="279"/>
-      <c r="M40" s="279"/>
-      <c r="N40" s="279"/>
-      <c r="O40" s="203"/>
-      <c r="P40" s="281" t="s">
+      <c r="AA39" s="263"/>
+    </row>
+    <row r="40" spans="1:27" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="196"/>
+      <c r="B40" s="431" t="s">
+        <v>175</v>
+      </c>
+      <c r="C40" s="431"/>
+      <c r="D40" s="431"/>
+      <c r="E40" s="431"/>
+      <c r="F40" s="431"/>
+      <c r="G40" s="431"/>
+      <c r="H40" s="276">
+        <f>BA2</f>
         <v>0</v>
       </c>
-      <c r="Q40" s="281"/>
-      <c r="R40" s="281"/>
-      <c r="S40" s="281"/>
-      <c r="T40" s="281"/>
-      <c r="U40" s="281"/>
-      <c r="V40" s="248"/>
-      <c r="W40" s="281" t="s">
+      <c r="I40" s="276"/>
+      <c r="J40" s="276"/>
+      <c r="K40" s="276"/>
+      <c r="L40" s="276"/>
+      <c r="M40" s="276"/>
+      <c r="N40" s="276"/>
+      <c r="O40" s="259"/>
+      <c r="P40" s="266"/>
+      <c r="Q40" s="266"/>
+      <c r="R40" s="266"/>
+      <c r="S40" s="266"/>
+      <c r="T40" s="266"/>
+      <c r="U40" s="266"/>
+      <c r="V40" s="183"/>
+      <c r="W40" s="279">
+        <f>W14</f>
+        <v>0</v>
+      </c>
+      <c r="X40" s="279"/>
+      <c r="Y40" s="279"/>
+      <c r="Z40" s="279"/>
+      <c r="AA40" s="265"/>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A41" s="196"/>
+      <c r="B41" s="196"/>
+      <c r="C41" s="196"/>
+      <c r="D41" s="196"/>
+      <c r="E41" s="196"/>
+      <c r="F41" s="196"/>
+      <c r="G41" s="196"/>
+      <c r="H41" s="277" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" s="278"/>
+      <c r="J41" s="278"/>
+      <c r="K41" s="278"/>
+      <c r="L41" s="278"/>
+      <c r="M41" s="278"/>
+      <c r="N41" s="278"/>
+      <c r="O41" s="203"/>
+      <c r="P41" s="280" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="280"/>
+      <c r="R41" s="280"/>
+      <c r="S41" s="280"/>
+      <c r="T41" s="280"/>
+      <c r="U41" s="280"/>
+      <c r="V41" s="248"/>
+      <c r="W41" s="280" t="s">
         <v>1</v>
-      </c>
-      <c r="X40" s="281"/>
-      <c r="Y40" s="281"/>
-      <c r="Z40" s="281"/>
-      <c r="AA40" s="263"/>
-    </row>
-    <row r="41" spans="1:27" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="196"/>
-      <c r="B41" s="276" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="276"/>
-      <c r="D41" s="276"/>
-      <c r="E41" s="276"/>
-      <c r="F41" s="276"/>
-      <c r="G41" s="276"/>
-      <c r="H41" s="277" t="s">
-        <v>8</v>
-      </c>
-      <c r="I41" s="277"/>
-      <c r="J41" s="277"/>
-      <c r="K41" s="277"/>
-      <c r="L41" s="277"/>
-      <c r="M41" s="277"/>
-      <c r="N41" s="277"/>
-      <c r="O41" s="259"/>
-      <c r="P41" s="266"/>
-      <c r="Q41" s="266"/>
-      <c r="R41" s="266"/>
-      <c r="S41" s="266"/>
-      <c r="T41" s="266"/>
-      <c r="U41" s="266"/>
-      <c r="V41" s="183"/>
-      <c r="W41" s="280">
-        <f>W12</f>
-        <v>0</v>
       </c>
       <c r="X41" s="280"/>
       <c r="Y41" s="280"/>
       <c r="Z41" s="280"/>
-      <c r="AA41" s="265"/>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AA41" s="259"/>
+    </row>
+    <row r="42" spans="1:27" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="196"/>
-      <c r="B42" s="196"/>
-      <c r="C42" s="196"/>
-      <c r="D42" s="196"/>
-      <c r="E42" s="196"/>
-      <c r="F42" s="196"/>
-      <c r="G42" s="196"/>
-      <c r="H42" s="278" t="s">
-        <v>9</v>
-      </c>
-      <c r="I42" s="279"/>
-      <c r="J42" s="279"/>
-      <c r="K42" s="279"/>
-      <c r="L42" s="279"/>
-      <c r="M42" s="279"/>
-      <c r="N42" s="279"/>
-      <c r="O42" s="203"/>
-      <c r="P42" s="281" t="s">
+      <c r="B42" s="431" t="s">
+        <v>176</v>
+      </c>
+      <c r="C42" s="431"/>
+      <c r="D42" s="431"/>
+      <c r="E42" s="431"/>
+      <c r="F42" s="431"/>
+      <c r="G42" s="431"/>
+      <c r="H42" s="276">
+        <f>BA3</f>
         <v>0</v>
       </c>
-      <c r="Q42" s="281"/>
-      <c r="R42" s="281"/>
-      <c r="S42" s="281"/>
-      <c r="T42" s="281"/>
-      <c r="U42" s="281"/>
-      <c r="V42" s="248"/>
-      <c r="W42" s="281" t="s">
-        <v>1</v>
-      </c>
-      <c r="X42" s="281"/>
-      <c r="Y42" s="281"/>
-      <c r="Z42" s="281"/>
-      <c r="AA42" s="259"/>
-    </row>
-    <row r="43" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="196"/>
-      <c r="B43" s="276" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="276"/>
-      <c r="D43" s="276"/>
-      <c r="E43" s="276"/>
-      <c r="F43" s="276"/>
-      <c r="G43" s="276"/>
-      <c r="H43" s="277" t="s">
-        <v>8</v>
-      </c>
-      <c r="I43" s="277"/>
-      <c r="J43" s="277"/>
-      <c r="K43" s="277"/>
-      <c r="L43" s="277"/>
-      <c r="M43" s="277"/>
-      <c r="N43" s="277"/>
-      <c r="O43" s="259"/>
-      <c r="P43" s="266"/>
-      <c r="Q43" s="266"/>
-      <c r="R43" s="266"/>
-      <c r="S43" s="266"/>
-      <c r="T43" s="266"/>
-      <c r="U43" s="266"/>
-      <c r="V43" s="183"/>
-      <c r="W43" s="280">
+      <c r="I42" s="276"/>
+      <c r="J42" s="276"/>
+      <c r="K42" s="276"/>
+      <c r="L42" s="276"/>
+      <c r="M42" s="276"/>
+      <c r="N42" s="276"/>
+      <c r="O42" s="259"/>
+      <c r="P42" s="266"/>
+      <c r="Q42" s="266"/>
+      <c r="R42" s="266"/>
+      <c r="S42" s="266"/>
+      <c r="T42" s="266"/>
+      <c r="U42" s="266"/>
+      <c r="V42" s="183"/>
+      <c r="W42" s="279">
         <f>W14</f>
         <v>0</v>
+      </c>
+      <c r="X42" s="279"/>
+      <c r="Y42" s="279"/>
+      <c r="Z42" s="279"/>
+      <c r="AA42" s="267"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A43" s="196"/>
+      <c r="B43" s="196"/>
+      <c r="C43" s="196"/>
+      <c r="D43" s="196"/>
+      <c r="E43" s="196"/>
+      <c r="F43" s="196"/>
+      <c r="G43" s="196"/>
+      <c r="H43" s="277" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="278"/>
+      <c r="J43" s="278"/>
+      <c r="K43" s="278"/>
+      <c r="L43" s="278"/>
+      <c r="M43" s="278"/>
+      <c r="N43" s="278"/>
+      <c r="O43" s="203"/>
+      <c r="P43" s="280" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="280"/>
+      <c r="R43" s="280"/>
+      <c r="S43" s="280"/>
+      <c r="T43" s="280"/>
+      <c r="U43" s="280"/>
+      <c r="V43" s="248"/>
+      <c r="W43" s="280" t="s">
+        <v>1</v>
       </c>
       <c r="X43" s="280"/>
       <c r="Y43" s="280"/>
       <c r="Z43" s="280"/>
-      <c r="AA43" s="267"/>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AA43" s="203"/>
+    </row>
+    <row r="44" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="196"/>
       <c r="B44" s="196"/>
       <c r="C44" s="196"/>
@@ -4722,34 +4734,28 @@
       <c r="E44" s="196"/>
       <c r="F44" s="196"/>
       <c r="G44" s="196"/>
-      <c r="H44" s="278" t="s">
-        <v>9</v>
-      </c>
-      <c r="I44" s="279"/>
-      <c r="J44" s="279"/>
-      <c r="K44" s="279"/>
-      <c r="L44" s="279"/>
-      <c r="M44" s="279"/>
-      <c r="N44" s="279"/>
-      <c r="O44" s="203"/>
-      <c r="P44" s="281" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="281"/>
-      <c r="R44" s="281"/>
-      <c r="S44" s="281"/>
-      <c r="T44" s="281"/>
-      <c r="U44" s="281"/>
-      <c r="V44" s="248"/>
-      <c r="W44" s="281" t="s">
-        <v>1</v>
-      </c>
-      <c r="X44" s="281"/>
-      <c r="Y44" s="281"/>
-      <c r="Z44" s="281"/>
-      <c r="AA44" s="203"/>
-    </row>
-    <row r="45" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H44" s="196"/>
+      <c r="I44" s="196"/>
+      <c r="J44" s="196"/>
+      <c r="K44" s="196"/>
+      <c r="L44" s="196"/>
+      <c r="M44" s="196"/>
+      <c r="N44" s="196"/>
+      <c r="O44" s="196"/>
+      <c r="P44" s="196"/>
+      <c r="Q44" s="196"/>
+      <c r="R44" s="196"/>
+      <c r="S44" s="196"/>
+      <c r="T44" s="196"/>
+      <c r="U44" s="196"/>
+      <c r="V44" s="196"/>
+      <c r="W44" s="196"/>
+      <c r="X44" s="196"/>
+      <c r="Y44" s="196"/>
+      <c r="Z44" s="196"/>
+      <c r="AA44" s="196"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" s="196"/>
       <c r="B45" s="196"/>
       <c r="C45" s="196"/>
@@ -4759,12 +4765,12 @@
       <c r="G45" s="196"/>
       <c r="H45" s="196"/>
       <c r="I45" s="196"/>
-      <c r="J45" s="196"/>
-      <c r="K45" s="196"/>
-      <c r="L45" s="196"/>
-      <c r="M45" s="196"/>
-      <c r="N45" s="196"/>
-      <c r="O45" s="196"/>
+      <c r="J45" s="259"/>
+      <c r="K45" s="259"/>
+      <c r="L45" s="259"/>
+      <c r="M45" s="259"/>
+      <c r="N45" s="259"/>
+      <c r="O45" s="259"/>
       <c r="P45" s="196"/>
       <c r="Q45" s="196"/>
       <c r="R45" s="196"/>
@@ -4773,10 +4779,10 @@
       <c r="U45" s="196"/>
       <c r="V45" s="196"/>
       <c r="W45" s="196"/>
-      <c r="X45" s="196"/>
-      <c r="Y45" s="196"/>
-      <c r="Z45" s="196"/>
-      <c r="AA45" s="196"/>
+      <c r="X45" s="267"/>
+      <c r="Y45" s="259"/>
+      <c r="Z45" s="259"/>
+      <c r="AA45" s="259"/>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" s="196"/>
@@ -4788,55 +4794,55 @@
       <c r="G46" s="196"/>
       <c r="H46" s="196"/>
       <c r="I46" s="196"/>
-      <c r="J46" s="259"/>
-      <c r="K46" s="259"/>
-      <c r="L46" s="259"/>
-      <c r="M46" s="259"/>
-      <c r="N46" s="259"/>
-      <c r="O46" s="259"/>
-      <c r="P46" s="196"/>
-      <c r="Q46" s="196"/>
-      <c r="R46" s="196"/>
-      <c r="S46" s="196"/>
-      <c r="T46" s="196"/>
-      <c r="U46" s="196"/>
-      <c r="V46" s="196"/>
-      <c r="W46" s="196"/>
-      <c r="X46" s="267"/>
-      <c r="Y46" s="259"/>
-      <c r="Z46" s="259"/>
-      <c r="AA46" s="259"/>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A47" s="196"/>
-      <c r="B47" s="196"/>
-      <c r="C47" s="196"/>
-      <c r="D47" s="196"/>
-      <c r="E47" s="196"/>
-      <c r="F47" s="196"/>
-      <c r="G47" s="196"/>
-      <c r="H47" s="196"/>
-      <c r="I47" s="196"/>
-      <c r="J47" s="196"/>
-      <c r="K47" s="203"/>
-      <c r="L47" s="203"/>
-      <c r="M47" s="203"/>
-      <c r="N47" s="203"/>
-      <c r="O47" s="203"/>
-      <c r="P47" s="203"/>
-      <c r="Q47" s="203"/>
-      <c r="R47" s="203"/>
-      <c r="S47" s="203"/>
-      <c r="T47" s="268"/>
-      <c r="U47" s="203"/>
-      <c r="V47" s="203"/>
-      <c r="W47" s="203"/>
-      <c r="X47" s="203"/>
-      <c r="Y47" s="203"/>
-      <c r="Z47" s="269"/>
-      <c r="AA47" s="203"/>
-    </row>
-    <row r="48" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J46" s="196"/>
+      <c r="K46" s="203"/>
+      <c r="L46" s="203"/>
+      <c r="M46" s="203"/>
+      <c r="N46" s="203"/>
+      <c r="O46" s="203"/>
+      <c r="P46" s="203"/>
+      <c r="Q46" s="203"/>
+      <c r="R46" s="203"/>
+      <c r="S46" s="203"/>
+      <c r="T46" s="268"/>
+      <c r="U46" s="203"/>
+      <c r="V46" s="203"/>
+      <c r="W46" s="203"/>
+      <c r="X46" s="203"/>
+      <c r="Y46" s="203"/>
+      <c r="Z46" s="269"/>
+      <c r="AA46" s="203"/>
+    </row>
+    <row r="47" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="224"/>
+      <c r="B47" s="224"/>
+      <c r="C47" s="224"/>
+      <c r="D47" s="224"/>
+      <c r="E47" s="224"/>
+      <c r="F47" s="224"/>
+      <c r="G47" s="224"/>
+      <c r="H47" s="224"/>
+      <c r="I47" s="224"/>
+      <c r="J47" s="224"/>
+      <c r="K47" s="224"/>
+      <c r="L47" s="224"/>
+      <c r="M47" s="224"/>
+      <c r="N47" s="224"/>
+      <c r="O47" s="224"/>
+      <c r="P47" s="224"/>
+      <c r="Q47" s="224"/>
+      <c r="R47" s="224"/>
+      <c r="S47" s="224"/>
+      <c r="T47" s="224"/>
+      <c r="U47" s="224"/>
+      <c r="V47" s="224"/>
+      <c r="W47" s="224"/>
+      <c r="X47" s="224"/>
+      <c r="Y47" s="224"/>
+      <c r="Z47" s="224"/>
+      <c r="AA47" s="224"/>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" s="224"/>
       <c r="B48" s="224"/>
       <c r="C48" s="224"/>
@@ -4846,12 +4852,12 @@
       <c r="G48" s="224"/>
       <c r="H48" s="224"/>
       <c r="I48" s="224"/>
-      <c r="J48" s="224"/>
-      <c r="K48" s="224"/>
-      <c r="L48" s="224"/>
-      <c r="M48" s="224"/>
-      <c r="N48" s="224"/>
-      <c r="O48" s="224"/>
+      <c r="J48" s="242"/>
+      <c r="K48" s="242"/>
+      <c r="L48" s="242"/>
+      <c r="M48" s="242"/>
+      <c r="N48" s="242"/>
+      <c r="O48" s="242"/>
       <c r="P48" s="224"/>
       <c r="Q48" s="224"/>
       <c r="R48" s="224"/>
@@ -4860,12 +4866,12 @@
       <c r="U48" s="224"/>
       <c r="V48" s="224"/>
       <c r="W48" s="224"/>
-      <c r="X48" s="224"/>
-      <c r="Y48" s="224"/>
-      <c r="Z48" s="224"/>
-      <c r="AA48" s="224"/>
-    </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="X48" s="270"/>
+      <c r="Y48" s="242"/>
+      <c r="Z48" s="242"/>
+      <c r="AA48" s="242"/>
+    </row>
+    <row r="49" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="224"/>
       <c r="B49" s="224"/>
       <c r="C49" s="224"/>
@@ -4875,28 +4881,28 @@
       <c r="G49" s="224"/>
       <c r="H49" s="224"/>
       <c r="I49" s="224"/>
-      <c r="J49" s="242"/>
-      <c r="K49" s="242"/>
-      <c r="L49" s="242"/>
-      <c r="M49" s="242"/>
-      <c r="N49" s="242"/>
-      <c r="O49" s="242"/>
-      <c r="P49" s="224"/>
-      <c r="Q49" s="224"/>
-      <c r="R49" s="224"/>
-      <c r="S49" s="224"/>
-      <c r="T49" s="224"/>
-      <c r="U49" s="224"/>
-      <c r="V49" s="224"/>
-      <c r="W49" s="224"/>
-      <c r="X49" s="270"/>
-      <c r="Y49" s="242"/>
-      <c r="Z49" s="242"/>
-      <c r="AA49" s="242"/>
-    </row>
-    <row r="50" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J49" s="224"/>
+      <c r="K49" s="248"/>
+      <c r="L49" s="248"/>
+      <c r="M49" s="248"/>
+      <c r="N49" s="248"/>
+      <c r="O49" s="248"/>
+      <c r="P49" s="248"/>
+      <c r="Q49" s="248"/>
+      <c r="R49" s="248"/>
+      <c r="S49" s="248"/>
+      <c r="T49" s="271"/>
+      <c r="U49" s="248"/>
+      <c r="V49" s="248"/>
+      <c r="W49" s="248"/>
+      <c r="X49" s="248"/>
+      <c r="Y49" s="248"/>
+      <c r="Z49" s="272"/>
+      <c r="AA49" s="273"/>
+    </row>
+    <row r="50" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="224"/>
-      <c r="B50" s="224"/>
+      <c r="B50" s="274"/>
       <c r="C50" s="224"/>
       <c r="D50" s="224"/>
       <c r="E50" s="224"/>
@@ -4904,126 +4910,97 @@
       <c r="G50" s="224"/>
       <c r="H50" s="224"/>
       <c r="I50" s="224"/>
-      <c r="J50" s="224"/>
-      <c r="K50" s="248"/>
-      <c r="L50" s="248"/>
-      <c r="M50" s="248"/>
-      <c r="N50" s="248"/>
-      <c r="O50" s="248"/>
-      <c r="P50" s="248"/>
-      <c r="Q50" s="248"/>
-      <c r="R50" s="248"/>
-      <c r="S50" s="248"/>
-      <c r="T50" s="271"/>
-      <c r="U50" s="248"/>
-      <c r="V50" s="248"/>
-      <c r="W50" s="248"/>
-      <c r="X50" s="248"/>
-      <c r="Y50" s="248"/>
-      <c r="Z50" s="272"/>
-      <c r="AA50" s="273"/>
-    </row>
-    <row r="51" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J50" s="242"/>
+      <c r="K50" s="242"/>
+      <c r="L50" s="242"/>
+      <c r="M50" s="242"/>
+      <c r="N50" s="242"/>
+      <c r="O50" s="242"/>
+      <c r="P50" s="224"/>
+      <c r="Q50" s="224"/>
+      <c r="R50" s="224"/>
+      <c r="S50" s="224"/>
+      <c r="T50" s="224"/>
+      <c r="U50" s="224"/>
+      <c r="V50" s="224"/>
+      <c r="W50" s="224"/>
+      <c r="X50" s="270"/>
+      <c r="Y50" s="242"/>
+      <c r="Z50" s="242"/>
+      <c r="AA50" s="242"/>
+    </row>
+    <row r="51" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="224"/>
-      <c r="B51" s="274"/>
-      <c r="C51" s="224"/>
-      <c r="D51" s="224"/>
-      <c r="E51" s="224"/>
-      <c r="F51" s="224"/>
-      <c r="G51" s="224"/>
-      <c r="H51" s="224"/>
-      <c r="I51" s="224"/>
+      <c r="B51" s="224"/>
+      <c r="C51" s="242"/>
+      <c r="D51" s="242"/>
+      <c r="E51" s="242"/>
+      <c r="F51" s="242"/>
+      <c r="G51" s="242"/>
+      <c r="H51" s="242"/>
+      <c r="I51" s="242"/>
       <c r="J51" s="242"/>
       <c r="K51" s="242"/>
       <c r="L51" s="242"/>
       <c r="M51" s="242"/>
       <c r="N51" s="242"/>
       <c r="O51" s="242"/>
-      <c r="P51" s="224"/>
-      <c r="Q51" s="224"/>
+      <c r="P51" s="242"/>
+      <c r="Q51" s="242"/>
       <c r="R51" s="224"/>
-      <c r="S51" s="224"/>
-      <c r="T51" s="224"/>
-      <c r="U51" s="224"/>
-      <c r="V51" s="224"/>
-      <c r="W51" s="224"/>
-      <c r="X51" s="270"/>
-      <c r="Y51" s="242"/>
-      <c r="Z51" s="242"/>
-      <c r="AA51" s="242"/>
-    </row>
-    <row r="52" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S51" s="242"/>
+      <c r="T51" s="242"/>
+      <c r="U51" s="242"/>
+      <c r="V51" s="242"/>
+      <c r="W51" s="242"/>
+      <c r="X51" s="275"/>
+      <c r="Y51" s="275"/>
+      <c r="Z51" s="275"/>
+      <c r="AA51" s="275"/>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52" s="224"/>
       <c r="B52" s="224"/>
-      <c r="C52" s="242"/>
-      <c r="D52" s="242"/>
-      <c r="E52" s="242"/>
-      <c r="F52" s="242"/>
-      <c r="G52" s="242"/>
-      <c r="H52" s="242"/>
-      <c r="I52" s="242"/>
-      <c r="J52" s="242"/>
-      <c r="K52" s="242"/>
-      <c r="L52" s="242"/>
-      <c r="M52" s="242"/>
-      <c r="N52" s="242"/>
-      <c r="O52" s="242"/>
-      <c r="P52" s="242"/>
-      <c r="Q52" s="242"/>
+      <c r="C52" s="224"/>
+      <c r="D52" s="224"/>
+      <c r="E52" s="224"/>
+      <c r="F52" s="224"/>
+      <c r="G52" s="224"/>
+      <c r="H52" s="224"/>
+      <c r="I52" s="224"/>
+      <c r="J52" s="224"/>
+      <c r="K52" s="224"/>
+      <c r="L52" s="224"/>
+      <c r="M52" s="224"/>
+      <c r="N52" s="224"/>
+      <c r="O52" s="224"/>
+      <c r="P52" s="224"/>
+      <c r="Q52" s="224"/>
       <c r="R52" s="224"/>
-      <c r="S52" s="242"/>
-      <c r="T52" s="242"/>
-      <c r="U52" s="242"/>
-      <c r="V52" s="242"/>
-      <c r="W52" s="242"/>
-      <c r="X52" s="275"/>
-      <c r="Y52" s="275"/>
-      <c r="Z52" s="275"/>
-      <c r="AA52" s="275"/>
-    </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A53" s="224"/>
-      <c r="B53" s="224"/>
-      <c r="C53" s="224"/>
-      <c r="D53" s="224"/>
-      <c r="E53" s="224"/>
-      <c r="F53" s="224"/>
-      <c r="G53" s="224"/>
-      <c r="H53" s="224"/>
-      <c r="I53" s="224"/>
-      <c r="J53" s="224"/>
-      <c r="K53" s="224"/>
-      <c r="L53" s="224"/>
-      <c r="M53" s="224"/>
-      <c r="N53" s="224"/>
-      <c r="O53" s="224"/>
-      <c r="P53" s="224"/>
-      <c r="Q53" s="224"/>
-      <c r="R53" s="224"/>
-      <c r="S53" s="224"/>
-      <c r="T53" s="224"/>
-      <c r="U53" s="224"/>
-      <c r="V53" s="224"/>
-      <c r="W53" s="224"/>
-      <c r="X53" s="224"/>
-      <c r="Y53" s="224"/>
-      <c r="Z53" s="224"/>
-      <c r="AA53" s="253"/>
+      <c r="S52" s="224"/>
+      <c r="T52" s="224"/>
+      <c r="U52" s="224"/>
+      <c r="V52" s="224"/>
+      <c r="W52" s="224"/>
+      <c r="X52" s="224"/>
+      <c r="Y52" s="224"/>
+      <c r="Z52" s="224"/>
+      <c r="AA52" s="253"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="H38:N38"/>
+    <mergeCell ref="W38:Z38"/>
     <mergeCell ref="H39:N39"/>
+    <mergeCell ref="P39:U39"/>
     <mergeCell ref="W39:Z39"/>
+    <mergeCell ref="B40:G40"/>
     <mergeCell ref="H40:N40"/>
-    <mergeCell ref="P40:U40"/>
     <mergeCell ref="W40:Z40"/>
-    <mergeCell ref="B41:G41"/>
     <mergeCell ref="H41:N41"/>
+    <mergeCell ref="P41:U41"/>
     <mergeCell ref="W41:Z41"/>
-    <mergeCell ref="H42:N42"/>
-    <mergeCell ref="P42:U42"/>
-    <mergeCell ref="W42:Z42"/>
     <mergeCell ref="A32:M32"/>
     <mergeCell ref="Q30:T30"/>
     <mergeCell ref="Q31:T31"/>
@@ -5049,8 +5026,8 @@
     <mergeCell ref="X30:Z30"/>
     <mergeCell ref="D29:G31"/>
     <mergeCell ref="A29:C31"/>
-    <mergeCell ref="J35:T36"/>
-    <mergeCell ref="A35:I36"/>
+    <mergeCell ref="J34:T35"/>
+    <mergeCell ref="A34:I35"/>
     <mergeCell ref="X29:Z29"/>
     <mergeCell ref="X31:Z31"/>
     <mergeCell ref="B16:I16"/>
@@ -5061,12 +5038,12 @@
     <mergeCell ref="K22:Y22"/>
     <mergeCell ref="N18:T18"/>
     <mergeCell ref="X26:Z28"/>
-    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="H42:N42"/>
     <mergeCell ref="H43:N43"/>
-    <mergeCell ref="H44:N44"/>
+    <mergeCell ref="W42:Z42"/>
+    <mergeCell ref="P43:U43"/>
     <mergeCell ref="W43:Z43"/>
-    <mergeCell ref="P44:U44"/>
-    <mergeCell ref="W44:Z44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="96" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5153,15 +5130,15 @@
       <c r="S2" s="4"/>
       <c r="T2" s="23"/>
       <c r="U2" s="23"/>
-      <c r="V2" s="360" t="s">
-        <v>20</v>
-      </c>
-      <c r="W2" s="360"/>
-      <c r="X2" s="360"/>
-      <c r="Y2" s="360"/>
-      <c r="Z2" s="360"/>
-      <c r="AA2" s="360"/>
-      <c r="AB2" s="360"/>
+      <c r="V2" s="350" t="s">
+        <v>18</v>
+      </c>
+      <c r="W2" s="350"/>
+      <c r="X2" s="350"/>
+      <c r="Y2" s="350"/>
+      <c r="Z2" s="350"/>
+      <c r="AA2" s="350"/>
+      <c r="AB2" s="350"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="34"/>
@@ -5185,15 +5162,15 @@
       <c r="S3" s="34"/>
       <c r="T3" s="34"/>
       <c r="U3" s="34"/>
-      <c r="V3" s="368" t="s">
-        <v>21</v>
-      </c>
-      <c r="W3" s="368"/>
-      <c r="X3" s="368"/>
-      <c r="Y3" s="368"/>
-      <c r="Z3" s="368"/>
-      <c r="AA3" s="368"/>
-      <c r="AB3" s="368"/>
+      <c r="V3" s="358" t="s">
+        <v>19</v>
+      </c>
+      <c r="W3" s="358"/>
+      <c r="X3" s="358"/>
+      <c r="Y3" s="358"/>
+      <c r="Z3" s="358"/>
+      <c r="AA3" s="358"/>
+      <c r="AB3" s="358"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="34"/>
@@ -5217,15 +5194,15 @@
       <c r="S4" s="34"/>
       <c r="T4" s="34"/>
       <c r="U4" s="34"/>
-      <c r="V4" s="368" t="s">
-        <v>22</v>
-      </c>
-      <c r="W4" s="368"/>
-      <c r="X4" s="368"/>
-      <c r="Y4" s="368"/>
-      <c r="Z4" s="368"/>
-      <c r="AA4" s="368"/>
-      <c r="AB4" s="368"/>
+      <c r="V4" s="358" t="s">
+        <v>20</v>
+      </c>
+      <c r="W4" s="358"/>
+      <c r="X4" s="358"/>
+      <c r="Y4" s="358"/>
+      <c r="Z4" s="358"/>
+      <c r="AA4" s="358"/>
+      <c r="AB4" s="358"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="34"/>
@@ -5256,7 +5233,7 @@
       <c r="Z5" s="172"/>
       <c r="AA5" s="172"/>
       <c r="AB5" s="57" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
@@ -5365,7 +5342,7 @@
       <c r="M9" s="157"/>
       <c r="N9" s="157"/>
       <c r="O9" s="158" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P9" s="55">
         <v>3</v>
@@ -5404,27 +5381,27 @@
       <c r="F10" s="52"/>
       <c r="G10" s="52"/>
       <c r="H10" s="52"/>
-      <c r="I10" s="364" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="364"/>
-      <c r="K10" s="364"/>
-      <c r="L10" s="364"/>
-      <c r="M10" s="364"/>
-      <c r="N10" s="364"/>
-      <c r="O10" s="364"/>
-      <c r="P10" s="364"/>
-      <c r="Q10" s="364"/>
-      <c r="R10" s="364"/>
-      <c r="S10" s="369" t="s">
-        <v>125</v>
-      </c>
-      <c r="T10" s="369"/>
-      <c r="U10" s="369"/>
-      <c r="V10" s="369"/>
-      <c r="W10" s="369"/>
-      <c r="X10" s="369"/>
-      <c r="Y10" s="369"/>
+      <c r="I10" s="354" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="354"/>
+      <c r="K10" s="354"/>
+      <c r="L10" s="354"/>
+      <c r="M10" s="354"/>
+      <c r="N10" s="354"/>
+      <c r="O10" s="354"/>
+      <c r="P10" s="354"/>
+      <c r="Q10" s="354"/>
+      <c r="R10" s="354"/>
+      <c r="S10" s="359" t="s">
+        <v>123</v>
+      </c>
+      <c r="T10" s="359"/>
+      <c r="U10" s="359"/>
+      <c r="V10" s="359"/>
+      <c r="W10" s="359"/>
+      <c r="X10" s="359"/>
+      <c r="Y10" s="359"/>
       <c r="Z10" s="22"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="22"/>
@@ -5442,36 +5419,36 @@
       <c r="AN10" s="8"/>
     </row>
     <row r="11" spans="1:40" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="365" t="s">
-        <v>126</v>
-      </c>
-      <c r="B11" s="365"/>
-      <c r="C11" s="365"/>
-      <c r="D11" s="365"/>
-      <c r="E11" s="365"/>
-      <c r="F11" s="365"/>
-      <c r="G11" s="365"/>
-      <c r="H11" s="365"/>
-      <c r="I11" s="365"/>
-      <c r="J11" s="365"/>
-      <c r="K11" s="365"/>
-      <c r="L11" s="365"/>
-      <c r="M11" s="365"/>
-      <c r="N11" s="365"/>
-      <c r="O11" s="365"/>
-      <c r="P11" s="365"/>
-      <c r="Q11" s="365"/>
-      <c r="R11" s="365"/>
-      <c r="S11" s="365"/>
-      <c r="T11" s="365"/>
-      <c r="U11" s="365"/>
-      <c r="V11" s="365"/>
-      <c r="W11" s="365"/>
-      <c r="X11" s="365"/>
-      <c r="Y11" s="365"/>
-      <c r="Z11" s="365"/>
-      <c r="AA11" s="365"/>
-      <c r="AB11" s="365"/>
+      <c r="A11" s="355" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="355"/>
+      <c r="C11" s="355"/>
+      <c r="D11" s="355"/>
+      <c r="E11" s="355"/>
+      <c r="F11" s="355"/>
+      <c r="G11" s="355"/>
+      <c r="H11" s="355"/>
+      <c r="I11" s="355"/>
+      <c r="J11" s="355"/>
+      <c r="K11" s="355"/>
+      <c r="L11" s="355"/>
+      <c r="M11" s="355"/>
+      <c r="N11" s="355"/>
+      <c r="O11" s="355"/>
+      <c r="P11" s="355"/>
+      <c r="Q11" s="355"/>
+      <c r="R11" s="355"/>
+      <c r="S11" s="355"/>
+      <c r="T11" s="355"/>
+      <c r="U11" s="355"/>
+      <c r="V11" s="355"/>
+      <c r="W11" s="355"/>
+      <c r="X11" s="355"/>
+      <c r="Y11" s="355"/>
+      <c r="Z11" s="355"/>
+      <c r="AA11" s="355"/>
+      <c r="AB11" s="355"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
@@ -5486,64 +5463,64 @@
       <c r="AN11" s="2"/>
     </row>
     <row r="12" spans="1:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="365"/>
-      <c r="B12" s="365"/>
-      <c r="C12" s="365"/>
-      <c r="D12" s="365"/>
-      <c r="E12" s="365"/>
-      <c r="F12" s="365"/>
-      <c r="G12" s="365"/>
-      <c r="H12" s="365"/>
-      <c r="I12" s="365"/>
-      <c r="J12" s="365"/>
-      <c r="K12" s="365"/>
-      <c r="L12" s="365"/>
-      <c r="M12" s="365"/>
-      <c r="N12" s="365"/>
-      <c r="O12" s="365"/>
-      <c r="P12" s="365"/>
-      <c r="Q12" s="365"/>
-      <c r="R12" s="365"/>
-      <c r="S12" s="365"/>
-      <c r="T12" s="365"/>
-      <c r="U12" s="365"/>
-      <c r="V12" s="365"/>
-      <c r="W12" s="365"/>
-      <c r="X12" s="365"/>
-      <c r="Y12" s="365"/>
-      <c r="Z12" s="365"/>
-      <c r="AA12" s="365"/>
-      <c r="AB12" s="365"/>
+      <c r="A12" s="355"/>
+      <c r="B12" s="355"/>
+      <c r="C12" s="355"/>
+      <c r="D12" s="355"/>
+      <c r="E12" s="355"/>
+      <c r="F12" s="355"/>
+      <c r="G12" s="355"/>
+      <c r="H12" s="355"/>
+      <c r="I12" s="355"/>
+      <c r="J12" s="355"/>
+      <c r="K12" s="355"/>
+      <c r="L12" s="355"/>
+      <c r="M12" s="355"/>
+      <c r="N12" s="355"/>
+      <c r="O12" s="355"/>
+      <c r="P12" s="355"/>
+      <c r="Q12" s="355"/>
+      <c r="R12" s="355"/>
+      <c r="S12" s="355"/>
+      <c r="T12" s="355"/>
+      <c r="U12" s="355"/>
+      <c r="V12" s="355"/>
+      <c r="W12" s="355"/>
+      <c r="X12" s="355"/>
+      <c r="Y12" s="355"/>
+      <c r="Z12" s="355"/>
+      <c r="AA12" s="355"/>
+      <c r="AB12" s="355"/>
     </row>
     <row r="13" spans="1:40" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="365"/>
-      <c r="B13" s="365"/>
-      <c r="C13" s="365"/>
-      <c r="D13" s="365"/>
-      <c r="E13" s="365"/>
-      <c r="F13" s="365"/>
-      <c r="G13" s="365"/>
-      <c r="H13" s="365"/>
-      <c r="I13" s="365"/>
-      <c r="J13" s="365"/>
-      <c r="K13" s="365"/>
-      <c r="L13" s="365"/>
-      <c r="M13" s="365"/>
-      <c r="N13" s="365"/>
-      <c r="O13" s="365"/>
-      <c r="P13" s="365"/>
-      <c r="Q13" s="365"/>
-      <c r="R13" s="365"/>
-      <c r="S13" s="365"/>
-      <c r="T13" s="365"/>
-      <c r="U13" s="365"/>
-      <c r="V13" s="365"/>
-      <c r="W13" s="365"/>
-      <c r="X13" s="365"/>
-      <c r="Y13" s="365"/>
-      <c r="Z13" s="365"/>
-      <c r="AA13" s="365"/>
-      <c r="AB13" s="365"/>
+      <c r="A13" s="355"/>
+      <c r="B13" s="355"/>
+      <c r="C13" s="355"/>
+      <c r="D13" s="355"/>
+      <c r="E13" s="355"/>
+      <c r="F13" s="355"/>
+      <c r="G13" s="355"/>
+      <c r="H13" s="355"/>
+      <c r="I13" s="355"/>
+      <c r="J13" s="355"/>
+      <c r="K13" s="355"/>
+      <c r="L13" s="355"/>
+      <c r="M13" s="355"/>
+      <c r="N13" s="355"/>
+      <c r="O13" s="355"/>
+      <c r="P13" s="355"/>
+      <c r="Q13" s="355"/>
+      <c r="R13" s="355"/>
+      <c r="S13" s="355"/>
+      <c r="T13" s="355"/>
+      <c r="U13" s="355"/>
+      <c r="V13" s="355"/>
+      <c r="W13" s="355"/>
+      <c r="X13" s="355"/>
+      <c r="Y13" s="355"/>
+      <c r="Z13" s="355"/>
+      <c r="AA13" s="355"/>
+      <c r="AB13" s="355"/>
     </row>
     <row r="14" spans="1:40" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
@@ -5582,27 +5559,27 @@
       <c r="D15" s="14"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="360" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="360"/>
-      <c r="I15" s="360"/>
-      <c r="J15" s="360"/>
-      <c r="K15" s="360"/>
-      <c r="L15" s="363" t="s">
+      <c r="G15" s="350" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="350"/>
+      <c r="I15" s="350"/>
+      <c r="J15" s="350"/>
+      <c r="K15" s="350"/>
+      <c r="L15" s="353" t="s">
         <v>2</v>
       </c>
-      <c r="M15" s="363"/>
-      <c r="N15" s="363"/>
-      <c r="O15" s="363"/>
-      <c r="P15" s="363"/>
-      <c r="Q15" s="363"/>
-      <c r="R15" s="363"/>
-      <c r="S15" s="363"/>
-      <c r="T15" s="363"/>
-      <c r="U15" s="363"/>
-      <c r="V15" s="363"/>
-      <c r="W15" s="363"/>
+      <c r="M15" s="353"/>
+      <c r="N15" s="353"/>
+      <c r="O15" s="353"/>
+      <c r="P15" s="353"/>
+      <c r="Q15" s="353"/>
+      <c r="R15" s="353"/>
+      <c r="S15" s="353"/>
+      <c r="T15" s="353"/>
+      <c r="U15" s="353"/>
+      <c r="V15" s="353"/>
+      <c r="W15" s="353"/>
       <c r="X15" s="58"/>
       <c r="Y15" s="59"/>
       <c r="Z15" s="59"/>
@@ -5616,26 +5593,26 @@
       <c r="D16" s="14"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="360" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="360"/>
-      <c r="I16" s="360"/>
-      <c r="J16" s="360"/>
-      <c r="K16" s="360"/>
-      <c r="L16" s="363" t="s">
-        <v>27</v>
-      </c>
-      <c r="M16" s="363"/>
-      <c r="N16" s="363"/>
-      <c r="O16" s="363"/>
-      <c r="P16" s="363"/>
-      <c r="Q16" s="363"/>
-      <c r="R16" s="363"/>
-      <c r="S16" s="363"/>
-      <c r="T16" s="363"/>
-      <c r="U16" s="363"/>
-      <c r="V16" s="363"/>
+      <c r="G16" s="350" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="350"/>
+      <c r="I16" s="350"/>
+      <c r="J16" s="350"/>
+      <c r="K16" s="350"/>
+      <c r="L16" s="353" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="353"/>
+      <c r="N16" s="353"/>
+      <c r="O16" s="353"/>
+      <c r="P16" s="353"/>
+      <c r="Q16" s="353"/>
+      <c r="R16" s="353"/>
+      <c r="S16" s="353"/>
+      <c r="T16" s="353"/>
+      <c r="U16" s="353"/>
+      <c r="V16" s="353"/>
       <c r="W16" s="60"/>
       <c r="X16" s="60"/>
       <c r="Y16" s="42"/>
@@ -5650,31 +5627,31 @@
       <c r="D17" s="61"/>
       <c r="E17" s="61"/>
       <c r="F17" s="61"/>
-      <c r="G17" s="366" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="366"/>
-      <c r="I17" s="366"/>
-      <c r="J17" s="366"/>
-      <c r="K17" s="366"/>
-      <c r="L17" s="367" t="s">
-        <v>29</v>
-      </c>
-      <c r="M17" s="367"/>
-      <c r="N17" s="367"/>
-      <c r="O17" s="367"/>
-      <c r="P17" s="367"/>
-      <c r="Q17" s="367"/>
-      <c r="R17" s="367"/>
-      <c r="S17" s="367"/>
-      <c r="T17" s="367"/>
-      <c r="U17" s="367"/>
-      <c r="V17" s="367"/>
-      <c r="W17" s="367"/>
-      <c r="X17" s="367"/>
-      <c r="Y17" s="367"/>
-      <c r="Z17" s="367"/>
-      <c r="AA17" s="367"/>
+      <c r="G17" s="356" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="356"/>
+      <c r="I17" s="356"/>
+      <c r="J17" s="356"/>
+      <c r="K17" s="356"/>
+      <c r="L17" s="357" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="357"/>
+      <c r="N17" s="357"/>
+      <c r="O17" s="357"/>
+      <c r="P17" s="357"/>
+      <c r="Q17" s="357"/>
+      <c r="R17" s="357"/>
+      <c r="S17" s="357"/>
+      <c r="T17" s="357"/>
+      <c r="U17" s="357"/>
+      <c r="V17" s="357"/>
+      <c r="W17" s="357"/>
+      <c r="X17" s="357"/>
+      <c r="Y17" s="357"/>
+      <c r="Z17" s="357"/>
+      <c r="AA17" s="357"/>
       <c r="AB17" s="15"/>
     </row>
     <row r="18" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5684,19 +5661,19 @@
       <c r="D18" s="14"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="360" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="360"/>
-      <c r="I18" s="360"/>
-      <c r="J18" s="360"/>
-      <c r="K18" s="360"/>
-      <c r="L18" s="361" t="s">
-        <v>17</v>
-      </c>
-      <c r="M18" s="361"/>
-      <c r="N18" s="361"/>
-      <c r="O18" s="361"/>
+      <c r="G18" s="350" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="350"/>
+      <c r="I18" s="350"/>
+      <c r="J18" s="350"/>
+      <c r="K18" s="350"/>
+      <c r="L18" s="351" t="s">
+        <v>15</v>
+      </c>
+      <c r="M18" s="351"/>
+      <c r="N18" s="351"/>
+      <c r="O18" s="351"/>
       <c r="P18" s="60"/>
       <c r="Q18" s="60"/>
       <c r="R18" s="60"/>
@@ -5814,47 +5791,47 @@
       <c r="AB21" s="15"/>
     </row>
     <row r="22" spans="1:40" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="358" t="s">
-        <v>129</v>
-      </c>
-      <c r="B22" s="362" t="s">
+      <c r="A22" s="348" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" s="352" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="352"/>
+      <c r="D22" s="352"/>
+      <c r="E22" s="349" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="349"/>
+      <c r="G22" s="349"/>
+      <c r="H22" s="348" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="362"/>
-      <c r="D22" s="362"/>
-      <c r="E22" s="359" t="s">
+      <c r="I22" s="348"/>
+      <c r="J22" s="348"/>
+      <c r="K22" s="349" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="359"/>
-      <c r="G22" s="359"/>
-      <c r="H22" s="358" t="s">
+      <c r="L22" s="349"/>
+      <c r="M22" s="349"/>
+      <c r="N22" s="349"/>
+      <c r="O22" s="349"/>
+      <c r="P22" s="349"/>
+      <c r="Q22" s="349"/>
+      <c r="R22" s="349"/>
+      <c r="S22" s="349"/>
+      <c r="T22" s="349"/>
+      <c r="U22" s="349"/>
+      <c r="V22" s="347" t="s">
         <v>33</v>
       </c>
-      <c r="I22" s="358"/>
-      <c r="J22" s="358"/>
-      <c r="K22" s="359" t="s">
+      <c r="W22" s="347"/>
+      <c r="X22" s="347"/>
+      <c r="Y22" s="348" t="s">
         <v>34</v>
       </c>
-      <c r="L22" s="359"/>
-      <c r="M22" s="359"/>
-      <c r="N22" s="359"/>
-      <c r="O22" s="359"/>
-      <c r="P22" s="359"/>
-      <c r="Q22" s="359"/>
-      <c r="R22" s="359"/>
-      <c r="S22" s="359"/>
-      <c r="T22" s="359"/>
-      <c r="U22" s="359"/>
-      <c r="V22" s="357" t="s">
-        <v>35</v>
-      </c>
-      <c r="W22" s="357"/>
-      <c r="X22" s="357"/>
-      <c r="Y22" s="358" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z22" s="358"/>
-      <c r="AA22" s="358"/>
+      <c r="Z22" s="348"/>
+      <c r="AA22" s="348"/>
       <c r="AB22" s="36"/>
       <c r="AC22" s="11"/>
       <c r="AD22" s="11"/>
@@ -5870,33 +5847,33 @@
       <c r="AN22" s="11"/>
     </row>
     <row r="23" spans="1:40" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="358"/>
-      <c r="B23" s="362"/>
-      <c r="C23" s="362"/>
-      <c r="D23" s="362"/>
-      <c r="E23" s="359"/>
-      <c r="F23" s="359"/>
-      <c r="G23" s="359"/>
-      <c r="H23" s="358"/>
-      <c r="I23" s="358"/>
-      <c r="J23" s="358"/>
-      <c r="K23" s="359"/>
-      <c r="L23" s="359"/>
-      <c r="M23" s="359"/>
-      <c r="N23" s="359"/>
-      <c r="O23" s="359"/>
-      <c r="P23" s="359"/>
-      <c r="Q23" s="359"/>
-      <c r="R23" s="359"/>
-      <c r="S23" s="359"/>
-      <c r="T23" s="359"/>
-      <c r="U23" s="359"/>
-      <c r="V23" s="357"/>
-      <c r="W23" s="357"/>
-      <c r="X23" s="357"/>
-      <c r="Y23" s="358"/>
-      <c r="Z23" s="358"/>
-      <c r="AA23" s="358"/>
+      <c r="A23" s="348"/>
+      <c r="B23" s="352"/>
+      <c r="C23" s="352"/>
+      <c r="D23" s="352"/>
+      <c r="E23" s="349"/>
+      <c r="F23" s="349"/>
+      <c r="G23" s="349"/>
+      <c r="H23" s="348"/>
+      <c r="I23" s="348"/>
+      <c r="J23" s="348"/>
+      <c r="K23" s="349"/>
+      <c r="L23" s="349"/>
+      <c r="M23" s="349"/>
+      <c r="N23" s="349"/>
+      <c r="O23" s="349"/>
+      <c r="P23" s="349"/>
+      <c r="Q23" s="349"/>
+      <c r="R23" s="349"/>
+      <c r="S23" s="349"/>
+      <c r="T23" s="349"/>
+      <c r="U23" s="349"/>
+      <c r="V23" s="347"/>
+      <c r="W23" s="347"/>
+      <c r="X23" s="347"/>
+      <c r="Y23" s="348"/>
+      <c r="Z23" s="348"/>
+      <c r="AA23" s="348"/>
       <c r="AB23" s="36"/>
       <c r="AC23" s="11"/>
       <c r="AD23" s="11"/>
@@ -5912,41 +5889,41 @@
       <c r="AN23" s="11"/>
     </row>
     <row r="24" spans="1:40" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="358"/>
-      <c r="B24" s="362"/>
-      <c r="C24" s="362"/>
-      <c r="D24" s="362"/>
-      <c r="E24" s="359"/>
-      <c r="F24" s="359"/>
-      <c r="G24" s="359"/>
-      <c r="H24" s="358"/>
-      <c r="I24" s="358"/>
-      <c r="J24" s="358"/>
-      <c r="K24" s="358" t="s">
+      <c r="A24" s="348"/>
+      <c r="B24" s="352"/>
+      <c r="C24" s="352"/>
+      <c r="D24" s="352"/>
+      <c r="E24" s="349"/>
+      <c r="F24" s="349"/>
+      <c r="G24" s="349"/>
+      <c r="H24" s="348"/>
+      <c r="I24" s="348"/>
+      <c r="J24" s="348"/>
+      <c r="K24" s="348" t="s">
+        <v>35</v>
+      </c>
+      <c r="L24" s="348"/>
+      <c r="M24" s="348"/>
+      <c r="N24" s="348"/>
+      <c r="O24" s="348"/>
+      <c r="P24" s="349" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q24" s="349"/>
+      <c r="R24" s="348" t="s">
         <v>37</v>
       </c>
-      <c r="L24" s="358"/>
-      <c r="M24" s="358"/>
-      <c r="N24" s="358"/>
-      <c r="O24" s="358"/>
-      <c r="P24" s="359" t="s">
+      <c r="S24" s="348"/>
+      <c r="T24" s="348" t="s">
         <v>38</v>
       </c>
-      <c r="Q24" s="359"/>
-      <c r="R24" s="358" t="s">
-        <v>39</v>
-      </c>
-      <c r="S24" s="358"/>
-      <c r="T24" s="358" t="s">
-        <v>40</v>
-      </c>
-      <c r="U24" s="358"/>
-      <c r="V24" s="357"/>
-      <c r="W24" s="357"/>
-      <c r="X24" s="357"/>
-      <c r="Y24" s="358"/>
-      <c r="Z24" s="358"/>
-      <c r="AA24" s="358"/>
+      <c r="U24" s="348"/>
+      <c r="V24" s="347"/>
+      <c r="W24" s="347"/>
+      <c r="X24" s="347"/>
+      <c r="Y24" s="348"/>
+      <c r="Z24" s="348"/>
+      <c r="AA24" s="348"/>
       <c r="AB24" s="36"/>
       <c r="AC24" s="11"/>
       <c r="AD24" s="11"/>
@@ -5963,32 +5940,32 @@
     </row>
     <row r="25" spans="1:40" s="7" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="173"/>
-      <c r="B25" s="356"/>
-      <c r="C25" s="356"/>
-      <c r="D25" s="356"/>
-      <c r="E25" s="356"/>
-      <c r="F25" s="356"/>
-      <c r="G25" s="356"/>
-      <c r="H25" s="356"/>
-      <c r="I25" s="356"/>
-      <c r="J25" s="356"/>
-      <c r="K25" s="356"/>
-      <c r="L25" s="356"/>
-      <c r="M25" s="356"/>
-      <c r="N25" s="356"/>
-      <c r="O25" s="356"/>
-      <c r="P25" s="355"/>
-      <c r="Q25" s="355"/>
-      <c r="R25" s="355"/>
-      <c r="S25" s="355"/>
-      <c r="T25" s="355"/>
-      <c r="U25" s="355"/>
-      <c r="V25" s="356"/>
-      <c r="W25" s="356"/>
-      <c r="X25" s="356"/>
-      <c r="Y25" s="356"/>
-      <c r="Z25" s="356"/>
-      <c r="AA25" s="356"/>
+      <c r="B25" s="346"/>
+      <c r="C25" s="346"/>
+      <c r="D25" s="346"/>
+      <c r="E25" s="346"/>
+      <c r="F25" s="346"/>
+      <c r="G25" s="346"/>
+      <c r="H25" s="346"/>
+      <c r="I25" s="346"/>
+      <c r="J25" s="346"/>
+      <c r="K25" s="346"/>
+      <c r="L25" s="346"/>
+      <c r="M25" s="346"/>
+      <c r="N25" s="346"/>
+      <c r="O25" s="346"/>
+      <c r="P25" s="345"/>
+      <c r="Q25" s="345"/>
+      <c r="R25" s="345"/>
+      <c r="S25" s="345"/>
+      <c r="T25" s="345"/>
+      <c r="U25" s="345"/>
+      <c r="V25" s="346"/>
+      <c r="W25" s="346"/>
+      <c r="X25" s="346"/>
+      <c r="Y25" s="346"/>
+      <c r="Z25" s="346"/>
+      <c r="AA25" s="346"/>
       <c r="AB25" s="24"/>
       <c r="AC25" s="6"/>
       <c r="AD25" s="6"/>
@@ -6005,7 +5982,7 @@
     </row>
     <row r="26" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="101" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B26" s="159"/>
       <c r="C26" s="159"/>
@@ -6067,7 +6044,7 @@
     </row>
     <row r="28" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="160" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B28" s="160"/>
       <c r="C28" s="160"/>
@@ -6125,7 +6102,7 @@
       <c r="M29" s="162"/>
       <c r="N29" s="162"/>
       <c r="O29" s="163" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P29" s="163"/>
       <c r="Q29" s="163"/>
@@ -6208,7 +6185,7 @@
       <c r="A32" s="169"/>
       <c r="B32" s="169"/>
       <c r="C32" s="169" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D32" s="169"/>
       <c r="E32" s="169"/>
@@ -6217,7 +6194,7 @@
       <c r="H32" s="170"/>
       <c r="I32" s="169"/>
       <c r="J32" s="169" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K32" s="169"/>
       <c r="L32" s="169"/>
@@ -6229,14 +6206,14 @@
       <c r="R32" s="169"/>
       <c r="S32" s="169"/>
       <c r="T32" s="169" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U32" s="169"/>
       <c r="V32" s="169"/>
       <c r="W32" s="169"/>
       <c r="X32" s="171"/>
       <c r="Y32" s="163" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Z32" s="163"/>
       <c r="AA32" s="163"/>
@@ -6298,7 +6275,7 @@
     </row>
     <row r="34" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="160" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B34" s="160"/>
       <c r="C34" s="160"/>
@@ -6356,7 +6333,7 @@
       <c r="M35" s="162"/>
       <c r="N35" s="162"/>
       <c r="O35" s="163" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P35" s="163"/>
       <c r="Q35" s="163"/>
@@ -6439,7 +6416,7 @@
       <c r="A38" s="169"/>
       <c r="B38" s="169"/>
       <c r="C38" s="169" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D38" s="169"/>
       <c r="E38" s="169"/>
@@ -6448,7 +6425,7 @@
       <c r="H38" s="170"/>
       <c r="I38" s="169"/>
       <c r="J38" s="169" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K38" s="169"/>
       <c r="L38" s="169"/>
@@ -6460,14 +6437,14 @@
       <c r="R38" s="169"/>
       <c r="S38" s="169"/>
       <c r="T38" s="169" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U38" s="169"/>
       <c r="V38" s="169"/>
       <c r="W38" s="169"/>
       <c r="X38" s="171"/>
       <c r="Y38" s="163" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Z38" s="163"/>
       <c r="AA38" s="163"/>
@@ -6529,7 +6506,7 @@
     </row>
     <row r="40" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="160" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B40" s="160"/>
       <c r="C40" s="160"/>
@@ -6587,7 +6564,7 @@
       <c r="M41" s="162"/>
       <c r="N41" s="162"/>
       <c r="O41" s="163" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P41" s="163"/>
       <c r="Q41" s="163"/>
@@ -6670,7 +6647,7 @@
       <c r="A44" s="169"/>
       <c r="B44" s="169"/>
       <c r="C44" s="169" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D44" s="169"/>
       <c r="E44" s="169"/>
@@ -6679,7 +6656,7 @@
       <c r="H44" s="170"/>
       <c r="I44" s="169"/>
       <c r="J44" s="169" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K44" s="169"/>
       <c r="L44" s="169"/>
@@ -6691,14 +6668,14 @@
       <c r="R44" s="169"/>
       <c r="S44" s="169"/>
       <c r="T44" s="169" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U44" s="169"/>
       <c r="V44" s="169"/>
       <c r="W44" s="169"/>
       <c r="X44" s="171"/>
       <c r="Y44" s="163" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Z44" s="163"/>
       <c r="AA44" s="163"/>
@@ -7287,7 +7264,7 @@
   </sheetPr>
   <dimension ref="A1:AN71"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="A45" sqref="A45:H47"/>
     </sheetView>
   </sheetViews>
@@ -7328,11 +7305,11 @@
       <c r="Z1" s="56"/>
       <c r="AA1" s="56"/>
       <c r="AB1" s="56"/>
-      <c r="AC1" s="381" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD1" s="381"/>
-      <c r="AE1" s="381"/>
+      <c r="AC1" s="371" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD1" s="371"/>
+      <c r="AE1" s="371"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -7365,154 +7342,154 @@
       <c r="AB2" s="43"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="382" t="s">
+      <c r="A3" s="372" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="372"/>
+      <c r="C3" s="372"/>
+      <c r="D3" s="372"/>
+      <c r="E3" s="372"/>
+      <c r="F3" s="372"/>
+      <c r="G3" s="372"/>
+      <c r="H3" s="372"/>
+      <c r="I3" s="372"/>
+      <c r="J3" s="372"/>
+      <c r="K3" s="372"/>
+      <c r="L3" s="372"/>
+      <c r="M3" s="372"/>
+      <c r="N3" s="372"/>
+      <c r="O3" s="372"/>
+      <c r="P3" s="372"/>
+      <c r="Q3" s="373" t="s">
+        <v>59</v>
+      </c>
+      <c r="R3" s="373"/>
+      <c r="S3" s="373"/>
+      <c r="T3" s="373"/>
+      <c r="U3" s="373"/>
+      <c r="V3" s="373"/>
+      <c r="W3" s="373"/>
+      <c r="X3" s="373"/>
+      <c r="Y3" s="373"/>
+      <c r="Z3" s="373"/>
+      <c r="AA3" s="373"/>
+      <c r="AB3" s="373"/>
+      <c r="AC3" s="373"/>
+      <c r="AD3" s="373"/>
+      <c r="AE3" s="373"/>
+      <c r="AF3" s="373"/>
+    </row>
+    <row r="4" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="372" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="382"/>
-      <c r="C3" s="382"/>
-      <c r="D3" s="382"/>
-      <c r="E3" s="382"/>
-      <c r="F3" s="382"/>
-      <c r="G3" s="382"/>
-      <c r="H3" s="382"/>
-      <c r="I3" s="382"/>
-      <c r="J3" s="382"/>
-      <c r="K3" s="382"/>
-      <c r="L3" s="382"/>
-      <c r="M3" s="382"/>
-      <c r="N3" s="382"/>
-      <c r="O3" s="382"/>
-      <c r="P3" s="382"/>
-      <c r="Q3" s="383" t="s">
+      <c r="B4" s="372"/>
+      <c r="C4" s="372"/>
+      <c r="D4" s="372"/>
+      <c r="E4" s="372"/>
+      <c r="F4" s="372"/>
+      <c r="G4" s="372"/>
+      <c r="H4" s="372"/>
+      <c r="I4" s="372"/>
+      <c r="J4" s="372"/>
+      <c r="K4" s="372"/>
+      <c r="L4" s="372"/>
+      <c r="M4" s="372"/>
+      <c r="N4" s="372"/>
+      <c r="O4" s="372"/>
+      <c r="P4" s="372"/>
+      <c r="Q4" s="374" t="s">
         <v>61</v>
       </c>
-      <c r="R3" s="383"/>
-      <c r="S3" s="383"/>
-      <c r="T3" s="383"/>
-      <c r="U3" s="383"/>
-      <c r="V3" s="383"/>
-      <c r="W3" s="383"/>
-      <c r="X3" s="383"/>
-      <c r="Y3" s="383"/>
-      <c r="Z3" s="383"/>
-      <c r="AA3" s="383"/>
-      <c r="AB3" s="383"/>
-      <c r="AC3" s="383"/>
-      <c r="AD3" s="383"/>
-      <c r="AE3" s="383"/>
-      <c r="AF3" s="383"/>
-    </row>
-    <row r="4" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="382" t="s">
+      <c r="R4" s="374"/>
+      <c r="S4" s="374"/>
+      <c r="T4" s="374"/>
+      <c r="U4" s="374"/>
+      <c r="V4" s="374"/>
+      <c r="W4" s="374"/>
+      <c r="X4" s="374"/>
+      <c r="Y4" s="374"/>
+      <c r="Z4" s="374"/>
+      <c r="AA4" s="374"/>
+      <c r="AB4" s="374"/>
+      <c r="AC4" s="374"/>
+      <c r="AD4" s="374"/>
+      <c r="AE4" s="374"/>
+      <c r="AF4" s="374"/>
+    </row>
+    <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="372" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="382"/>
-      <c r="C4" s="382"/>
-      <c r="D4" s="382"/>
-      <c r="E4" s="382"/>
-      <c r="F4" s="382"/>
-      <c r="G4" s="382"/>
-      <c r="H4" s="382"/>
-      <c r="I4" s="382"/>
-      <c r="J4" s="382"/>
-      <c r="K4" s="382"/>
-      <c r="L4" s="382"/>
-      <c r="M4" s="382"/>
-      <c r="N4" s="382"/>
-      <c r="O4" s="382"/>
-      <c r="P4" s="382"/>
-      <c r="Q4" s="384" t="s">
+      <c r="B5" s="372"/>
+      <c r="C5" s="372"/>
+      <c r="D5" s="372"/>
+      <c r="E5" s="372"/>
+      <c r="F5" s="372"/>
+      <c r="G5" s="372"/>
+      <c r="H5" s="372"/>
+      <c r="I5" s="372"/>
+      <c r="J5" s="372"/>
+      <c r="K5" s="372"/>
+      <c r="L5" s="372"/>
+      <c r="M5" s="372"/>
+      <c r="N5" s="372"/>
+      <c r="O5" s="372"/>
+      <c r="P5" s="372"/>
+      <c r="Q5" s="374"/>
+      <c r="R5" s="374"/>
+      <c r="S5" s="374"/>
+      <c r="T5" s="374"/>
+      <c r="U5" s="374"/>
+      <c r="V5" s="374"/>
+      <c r="W5" s="374"/>
+      <c r="X5" s="374"/>
+      <c r="Y5" s="374"/>
+      <c r="Z5" s="374"/>
+      <c r="AA5" s="374"/>
+      <c r="AB5" s="374"/>
+      <c r="AC5" s="374"/>
+      <c r="AD5" s="374"/>
+      <c r="AE5" s="374"/>
+      <c r="AF5" s="374"/>
+    </row>
+    <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="375" t="s">
         <v>63</v>
       </c>
-      <c r="R4" s="384"/>
-      <c r="S4" s="384"/>
-      <c r="T4" s="384"/>
-      <c r="U4" s="384"/>
-      <c r="V4" s="384"/>
-      <c r="W4" s="384"/>
-      <c r="X4" s="384"/>
-      <c r="Y4" s="384"/>
-      <c r="Z4" s="384"/>
-      <c r="AA4" s="384"/>
-      <c r="AB4" s="384"/>
-      <c r="AC4" s="384"/>
-      <c r="AD4" s="384"/>
-      <c r="AE4" s="384"/>
-      <c r="AF4" s="384"/>
-    </row>
-    <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="382" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="382"/>
-      <c r="C5" s="382"/>
-      <c r="D5" s="382"/>
-      <c r="E5" s="382"/>
-      <c r="F5" s="382"/>
-      <c r="G5" s="382"/>
-      <c r="H5" s="382"/>
-      <c r="I5" s="382"/>
-      <c r="J5" s="382"/>
-      <c r="K5" s="382"/>
-      <c r="L5" s="382"/>
-      <c r="M5" s="382"/>
-      <c r="N5" s="382"/>
-      <c r="O5" s="382"/>
-      <c r="P5" s="382"/>
-      <c r="Q5" s="384"/>
-      <c r="R5" s="384"/>
-      <c r="S5" s="384"/>
-      <c r="T5" s="384"/>
-      <c r="U5" s="384"/>
-      <c r="V5" s="384"/>
-      <c r="W5" s="384"/>
-      <c r="X5" s="384"/>
-      <c r="Y5" s="384"/>
-      <c r="Z5" s="384"/>
-      <c r="AA5" s="384"/>
-      <c r="AB5" s="384"/>
-      <c r="AC5" s="384"/>
-      <c r="AD5" s="384"/>
-      <c r="AE5" s="384"/>
-      <c r="AF5" s="384"/>
-    </row>
-    <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="385" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="385"/>
-      <c r="C6" s="385"/>
-      <c r="D6" s="386" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="386"/>
-      <c r="F6" s="386"/>
-      <c r="G6" s="386"/>
-      <c r="H6" s="386"/>
-      <c r="I6" s="386"/>
-      <c r="J6" s="386"/>
-      <c r="K6" s="386"/>
-      <c r="L6" s="386"/>
-      <c r="M6" s="386"/>
-      <c r="N6" s="386"/>
-      <c r="O6" s="386"/>
-      <c r="P6" s="386"/>
-      <c r="Q6" s="384"/>
-      <c r="R6" s="384"/>
-      <c r="S6" s="384"/>
-      <c r="T6" s="384"/>
-      <c r="U6" s="384"/>
-      <c r="V6" s="384"/>
-      <c r="W6" s="384"/>
-      <c r="X6" s="384"/>
-      <c r="Y6" s="384"/>
-      <c r="Z6" s="384"/>
-      <c r="AA6" s="384"/>
-      <c r="AB6" s="384"/>
-      <c r="AC6" s="384"/>
-      <c r="AD6" s="384"/>
-      <c r="AE6" s="384"/>
-      <c r="AF6" s="384"/>
+      <c r="B6" s="375"/>
+      <c r="C6" s="375"/>
+      <c r="D6" s="376" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="376"/>
+      <c r="F6" s="376"/>
+      <c r="G6" s="376"/>
+      <c r="H6" s="376"/>
+      <c r="I6" s="376"/>
+      <c r="J6" s="376"/>
+      <c r="K6" s="376"/>
+      <c r="L6" s="376"/>
+      <c r="M6" s="376"/>
+      <c r="N6" s="376"/>
+      <c r="O6" s="376"/>
+      <c r="P6" s="376"/>
+      <c r="Q6" s="374"/>
+      <c r="R6" s="374"/>
+      <c r="S6" s="374"/>
+      <c r="T6" s="374"/>
+      <c r="U6" s="374"/>
+      <c r="V6" s="374"/>
+      <c r="W6" s="374"/>
+      <c r="X6" s="374"/>
+      <c r="Y6" s="374"/>
+      <c r="Z6" s="374"/>
+      <c r="AA6" s="374"/>
+      <c r="AB6" s="374"/>
+      <c r="AC6" s="374"/>
+      <c r="AD6" s="374"/>
+      <c r="AE6" s="374"/>
+      <c r="AF6" s="374"/>
     </row>
     <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="79"/>
@@ -7583,40 +7560,40 @@
       <c r="AF8" s="80"/>
     </row>
     <row r="9" spans="1:40" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="387" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="388"/>
-      <c r="C9" s="388"/>
-      <c r="D9" s="388"/>
-      <c r="E9" s="388"/>
-      <c r="F9" s="388"/>
-      <c r="G9" s="388"/>
-      <c r="H9" s="388"/>
-      <c r="I9" s="388"/>
-      <c r="J9" s="388"/>
-      <c r="K9" s="388"/>
-      <c r="L9" s="388"/>
-      <c r="M9" s="388"/>
-      <c r="N9" s="388"/>
-      <c r="O9" s="388"/>
-      <c r="P9" s="388"/>
-      <c r="Q9" s="388"/>
-      <c r="R9" s="388"/>
-      <c r="S9" s="388"/>
-      <c r="T9" s="388"/>
-      <c r="U9" s="388"/>
-      <c r="V9" s="388"/>
-      <c r="W9" s="388"/>
-      <c r="X9" s="388"/>
-      <c r="Y9" s="388"/>
-      <c r="Z9" s="388"/>
-      <c r="AA9" s="388"/>
-      <c r="AB9" s="388"/>
-      <c r="AC9" s="388"/>
-      <c r="AD9" s="388"/>
-      <c r="AE9" s="388"/>
-      <c r="AF9" s="388"/>
+      <c r="A9" s="377" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="378"/>
+      <c r="C9" s="378"/>
+      <c r="D9" s="378"/>
+      <c r="E9" s="378"/>
+      <c r="F9" s="378"/>
+      <c r="G9" s="378"/>
+      <c r="H9" s="378"/>
+      <c r="I9" s="378"/>
+      <c r="J9" s="378"/>
+      <c r="K9" s="378"/>
+      <c r="L9" s="378"/>
+      <c r="M9" s="378"/>
+      <c r="N9" s="378"/>
+      <c r="O9" s="378"/>
+      <c r="P9" s="378"/>
+      <c r="Q9" s="378"/>
+      <c r="R9" s="378"/>
+      <c r="S9" s="378"/>
+      <c r="T9" s="378"/>
+      <c r="U9" s="378"/>
+      <c r="V9" s="378"/>
+      <c r="W9" s="378"/>
+      <c r="X9" s="378"/>
+      <c r="Y9" s="378"/>
+      <c r="Z9" s="378"/>
+      <c r="AA9" s="378"/>
+      <c r="AB9" s="378"/>
+      <c r="AC9" s="378"/>
+      <c r="AD9" s="378"/>
+      <c r="AE9" s="378"/>
+      <c r="AF9" s="378"/>
       <c r="AG9" s="6"/>
       <c r="AH9" s="6"/>
       <c r="AI9" s="6"/>
@@ -7665,40 +7642,40 @@
       <c r="AN10" s="8"/>
     </row>
     <row r="11" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="387" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="387"/>
-      <c r="C11" s="387"/>
-      <c r="D11" s="387"/>
-      <c r="E11" s="387"/>
-      <c r="F11" s="387"/>
-      <c r="G11" s="387"/>
-      <c r="H11" s="387"/>
-      <c r="I11" s="387"/>
-      <c r="J11" s="387"/>
-      <c r="K11" s="387"/>
-      <c r="L11" s="387"/>
-      <c r="M11" s="387"/>
-      <c r="N11" s="387"/>
-      <c r="O11" s="387"/>
-      <c r="P11" s="387"/>
-      <c r="Q11" s="387"/>
-      <c r="R11" s="387"/>
-      <c r="S11" s="387"/>
-      <c r="T11" s="387"/>
-      <c r="U11" s="387"/>
-      <c r="V11" s="387"/>
-      <c r="W11" s="387"/>
-      <c r="X11" s="387"/>
-      <c r="Y11" s="387"/>
-      <c r="Z11" s="387"/>
-      <c r="AA11" s="387"/>
-      <c r="AB11" s="387"/>
-      <c r="AC11" s="387"/>
-      <c r="AD11" s="387"/>
-      <c r="AE11" s="387"/>
-      <c r="AF11" s="387"/>
+      <c r="A11" s="377" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="377"/>
+      <c r="C11" s="377"/>
+      <c r="D11" s="377"/>
+      <c r="E11" s="377"/>
+      <c r="F11" s="377"/>
+      <c r="G11" s="377"/>
+      <c r="H11" s="377"/>
+      <c r="I11" s="377"/>
+      <c r="J11" s="377"/>
+      <c r="K11" s="377"/>
+      <c r="L11" s="377"/>
+      <c r="M11" s="377"/>
+      <c r="N11" s="377"/>
+      <c r="O11" s="377"/>
+      <c r="P11" s="377"/>
+      <c r="Q11" s="377"/>
+      <c r="R11" s="377"/>
+      <c r="S11" s="377"/>
+      <c r="T11" s="377"/>
+      <c r="U11" s="377"/>
+      <c r="V11" s="377"/>
+      <c r="W11" s="377"/>
+      <c r="X11" s="377"/>
+      <c r="Y11" s="377"/>
+      <c r="Z11" s="377"/>
+      <c r="AA11" s="377"/>
+      <c r="AB11" s="377"/>
+      <c r="AC11" s="377"/>
+      <c r="AD11" s="377"/>
+      <c r="AE11" s="377"/>
+      <c r="AF11" s="377"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
@@ -7770,18 +7747,18 @@
       <c r="Y13" s="82"/>
       <c r="Z13" s="82"/>
       <c r="AA13" s="82"/>
-      <c r="AB13" s="389" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC13" s="389"/>
-      <c r="AD13" s="389"/>
-      <c r="AE13" s="389"/>
+      <c r="AB13" s="379" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC13" s="379"/>
+      <c r="AD13" s="379"/>
+      <c r="AE13" s="379"/>
       <c r="AF13" s="62"/>
     </row>
     <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="69"/>
       <c r="B14" s="84" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C14" s="69"/>
       <c r="D14" s="69"/>
@@ -7851,7 +7828,7 @@
     <row r="16" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="69"/>
       <c r="B16" s="84" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C16" s="37"/>
       <c r="D16" s="37"/>
@@ -7865,69 +7842,69 @@
       <c r="L16" s="91"/>
       <c r="M16" s="91"/>
       <c r="N16" s="91"/>
-      <c r="O16" s="390" t="s">
-        <v>127</v>
-      </c>
-      <c r="P16" s="390"/>
-      <c r="Q16" s="390"/>
-      <c r="R16" s="390"/>
-      <c r="S16" s="390"/>
-      <c r="T16" s="390"/>
-      <c r="U16" s="390"/>
-      <c r="V16" s="390"/>
-      <c r="W16" s="390"/>
-      <c r="X16" s="390"/>
-      <c r="Y16" s="390"/>
-      <c r="Z16" s="390"/>
-      <c r="AA16" s="390"/>
-      <c r="AB16" s="390"/>
-      <c r="AC16" s="390"/>
-      <c r="AD16" s="390"/>
-      <c r="AE16" s="390"/>
+      <c r="O16" s="380" t="s">
+        <v>125</v>
+      </c>
+      <c r="P16" s="380"/>
+      <c r="Q16" s="380"/>
+      <c r="R16" s="380"/>
+      <c r="S16" s="380"/>
+      <c r="T16" s="380"/>
+      <c r="U16" s="380"/>
+      <c r="V16" s="380"/>
+      <c r="W16" s="380"/>
+      <c r="X16" s="380"/>
+      <c r="Y16" s="380"/>
+      <c r="Z16" s="380"/>
+      <c r="AA16" s="380"/>
+      <c r="AB16" s="380"/>
+      <c r="AC16" s="380"/>
+      <c r="AD16" s="380"/>
+      <c r="AE16" s="380"/>
       <c r="AF16" s="62"/>
     </row>
     <row r="17" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="69"/>
       <c r="B17" s="84" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C17" s="89"/>
       <c r="D17" s="89"/>
       <c r="E17" s="89"/>
       <c r="F17" s="89"/>
       <c r="G17" s="90"/>
-      <c r="H17" s="391" t="s">
-        <v>72</v>
-      </c>
-      <c r="I17" s="391"/>
-      <c r="J17" s="391"/>
-      <c r="K17" s="391"/>
-      <c r="L17" s="391"/>
-      <c r="M17" s="391"/>
-      <c r="N17" s="391"/>
-      <c r="O17" s="391"/>
-      <c r="P17" s="391"/>
-      <c r="Q17" s="391"/>
-      <c r="R17" s="391"/>
-      <c r="S17" s="391"/>
-      <c r="T17" s="391"/>
-      <c r="U17" s="391"/>
-      <c r="V17" s="391"/>
-      <c r="W17" s="391"/>
-      <c r="X17" s="391"/>
-      <c r="Y17" s="391"/>
-      <c r="Z17" s="391"/>
-      <c r="AA17" s="391"/>
-      <c r="AB17" s="391"/>
-      <c r="AC17" s="391"/>
-      <c r="AD17" s="391"/>
-      <c r="AE17" s="391"/>
+      <c r="H17" s="381" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="381"/>
+      <c r="J17" s="381"/>
+      <c r="K17" s="381"/>
+      <c r="L17" s="381"/>
+      <c r="M17" s="381"/>
+      <c r="N17" s="381"/>
+      <c r="O17" s="381"/>
+      <c r="P17" s="381"/>
+      <c r="Q17" s="381"/>
+      <c r="R17" s="381"/>
+      <c r="S17" s="381"/>
+      <c r="T17" s="381"/>
+      <c r="U17" s="381"/>
+      <c r="V17" s="381"/>
+      <c r="W17" s="381"/>
+      <c r="X17" s="381"/>
+      <c r="Y17" s="381"/>
+      <c r="Z17" s="381"/>
+      <c r="AA17" s="381"/>
+      <c r="AB17" s="381"/>
+      <c r="AC17" s="381"/>
+      <c r="AD17" s="381"/>
+      <c r="AE17" s="381"/>
       <c r="AF17" s="62"/>
     </row>
     <row r="18" spans="1:40" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="69"/>
       <c r="B18" s="84" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C18" s="37"/>
       <c r="D18" s="37"/>
@@ -7940,32 +7917,32 @@
       <c r="K18" s="91"/>
       <c r="L18" s="91"/>
       <c r="M18" s="91"/>
-      <c r="N18" s="380" t="s">
-        <v>74</v>
-      </c>
-      <c r="O18" s="380"/>
-      <c r="P18" s="380"/>
-      <c r="Q18" s="380"/>
-      <c r="R18" s="380"/>
-      <c r="S18" s="380"/>
-      <c r="T18" s="380"/>
-      <c r="U18" s="380"/>
-      <c r="V18" s="380"/>
-      <c r="W18" s="380"/>
-      <c r="X18" s="380"/>
-      <c r="Y18" s="380"/>
-      <c r="Z18" s="380"/>
-      <c r="AA18" s="380"/>
-      <c r="AB18" s="380"/>
-      <c r="AC18" s="380"/>
-      <c r="AD18" s="380"/>
-      <c r="AE18" s="380"/>
+      <c r="N18" s="370" t="s">
+        <v>72</v>
+      </c>
+      <c r="O18" s="370"/>
+      <c r="P18" s="370"/>
+      <c r="Q18" s="370"/>
+      <c r="R18" s="370"/>
+      <c r="S18" s="370"/>
+      <c r="T18" s="370"/>
+      <c r="U18" s="370"/>
+      <c r="V18" s="370"/>
+      <c r="W18" s="370"/>
+      <c r="X18" s="370"/>
+      <c r="Y18" s="370"/>
+      <c r="Z18" s="370"/>
+      <c r="AA18" s="370"/>
+      <c r="AB18" s="370"/>
+      <c r="AC18" s="370"/>
+      <c r="AD18" s="370"/>
+      <c r="AE18" s="370"/>
       <c r="AF18" s="62"/>
     </row>
     <row r="19" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="69"/>
       <c r="B19" s="84" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C19" s="37"/>
       <c r="D19" s="37"/>
@@ -7977,27 +7954,27 @@
       <c r="J19" s="92"/>
       <c r="K19" s="92"/>
       <c r="L19" s="93"/>
-      <c r="M19" s="376" t="s">
-        <v>29</v>
-      </c>
-      <c r="N19" s="376"/>
-      <c r="O19" s="376"/>
-      <c r="P19" s="376"/>
-      <c r="Q19" s="376"/>
-      <c r="R19" s="376"/>
-      <c r="S19" s="376"/>
-      <c r="T19" s="376"/>
-      <c r="U19" s="376"/>
-      <c r="V19" s="376"/>
-      <c r="W19" s="376"/>
-      <c r="X19" s="376"/>
-      <c r="Y19" s="376"/>
-      <c r="Z19" s="376"/>
-      <c r="AA19" s="376"/>
-      <c r="AB19" s="376"/>
-      <c r="AC19" s="376"/>
-      <c r="AD19" s="376"/>
-      <c r="AE19" s="376"/>
+      <c r="M19" s="366" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" s="366"/>
+      <c r="O19" s="366"/>
+      <c r="P19" s="366"/>
+      <c r="Q19" s="366"/>
+      <c r="R19" s="366"/>
+      <c r="S19" s="366"/>
+      <c r="T19" s="366"/>
+      <c r="U19" s="366"/>
+      <c r="V19" s="366"/>
+      <c r="W19" s="366"/>
+      <c r="X19" s="366"/>
+      <c r="Y19" s="366"/>
+      <c r="Z19" s="366"/>
+      <c r="AA19" s="366"/>
+      <c r="AB19" s="366"/>
+      <c r="AC19" s="366"/>
+      <c r="AD19" s="366"/>
+      <c r="AE19" s="366"/>
       <c r="AF19" s="62"/>
     </row>
     <row r="20" spans="1:40" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8077,36 +8054,36 @@
       <c r="B22" s="95"/>
       <c r="C22" s="95"/>
       <c r="D22" s="96" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E22" s="97"/>
       <c r="F22" s="97"/>
-      <c r="G22" s="379" t="s">
-        <v>128</v>
-      </c>
-      <c r="H22" s="379"/>
-      <c r="I22" s="379"/>
-      <c r="J22" s="379"/>
-      <c r="K22" s="379"/>
-      <c r="L22" s="379"/>
-      <c r="M22" s="379"/>
-      <c r="N22" s="379"/>
+      <c r="G22" s="369" t="s">
+        <v>126</v>
+      </c>
+      <c r="H22" s="369"/>
+      <c r="I22" s="369"/>
+      <c r="J22" s="369"/>
+      <c r="K22" s="369"/>
+      <c r="L22" s="369"/>
+      <c r="M22" s="369"/>
+      <c r="N22" s="369"/>
       <c r="O22" s="97"/>
       <c r="P22" s="96" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q22" s="97"/>
       <c r="R22" s="97"/>
-      <c r="S22" s="379" t="s">
-        <v>78</v>
-      </c>
-      <c r="T22" s="379"/>
-      <c r="U22" s="379"/>
-      <c r="V22" s="379"/>
-      <c r="W22" s="379"/>
-      <c r="X22" s="379"/>
-      <c r="Y22" s="379"/>
-      <c r="Z22" s="379"/>
+      <c r="S22" s="369" t="s">
+        <v>76</v>
+      </c>
+      <c r="T22" s="369"/>
+      <c r="U22" s="369"/>
+      <c r="V22" s="369"/>
+      <c r="W22" s="369"/>
+      <c r="X22" s="369"/>
+      <c r="Y22" s="369"/>
+      <c r="Z22" s="369"/>
       <c r="AA22" s="94"/>
       <c r="AB22" s="36"/>
       <c r="AG22" s="11"/>
@@ -8235,7 +8212,7 @@
     <row r="26" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="65"/>
       <c r="B26" s="100" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C26" s="101"/>
       <c r="D26" s="101"/>
@@ -8312,142 +8289,142 @@
     </row>
     <row r="28" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="88"/>
-      <c r="B28" s="377" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="377"/>
-      <c r="D28" s="377"/>
-      <c r="E28" s="377"/>
-      <c r="F28" s="377"/>
-      <c r="G28" s="377"/>
-      <c r="H28" s="377"/>
-      <c r="I28" s="377"/>
-      <c r="J28" s="377"/>
-      <c r="K28" s="377"/>
-      <c r="L28" s="377"/>
-      <c r="M28" s="377"/>
-      <c r="N28" s="377"/>
-      <c r="O28" s="377"/>
-      <c r="P28" s="377"/>
-      <c r="Q28" s="377"/>
-      <c r="R28" s="377"/>
-      <c r="S28" s="377"/>
-      <c r="T28" s="377"/>
-      <c r="U28" s="377"/>
-      <c r="V28" s="377"/>
-      <c r="W28" s="377"/>
-      <c r="X28" s="377"/>
-      <c r="Y28" s="377"/>
-      <c r="Z28" s="377"/>
-      <c r="AA28" s="377"/>
-      <c r="AB28" s="377"/>
-      <c r="AC28" s="377"/>
-      <c r="AD28" s="377"/>
-      <c r="AE28" s="377"/>
+      <c r="B28" s="367" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="367"/>
+      <c r="D28" s="367"/>
+      <c r="E28" s="367"/>
+      <c r="F28" s="367"/>
+      <c r="G28" s="367"/>
+      <c r="H28" s="367"/>
+      <c r="I28" s="367"/>
+      <c r="J28" s="367"/>
+      <c r="K28" s="367"/>
+      <c r="L28" s="367"/>
+      <c r="M28" s="367"/>
+      <c r="N28" s="367"/>
+      <c r="O28" s="367"/>
+      <c r="P28" s="367"/>
+      <c r="Q28" s="367"/>
+      <c r="R28" s="367"/>
+      <c r="S28" s="367"/>
+      <c r="T28" s="367"/>
+      <c r="U28" s="367"/>
+      <c r="V28" s="367"/>
+      <c r="W28" s="367"/>
+      <c r="X28" s="367"/>
+      <c r="Y28" s="367"/>
+      <c r="Z28" s="367"/>
+      <c r="AA28" s="367"/>
+      <c r="AB28" s="367"/>
+      <c r="AC28" s="367"/>
+      <c r="AD28" s="367"/>
+      <c r="AE28" s="367"/>
       <c r="AF28" s="106"/>
     </row>
     <row r="29" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="88"/>
-      <c r="B29" s="377"/>
-      <c r="C29" s="377"/>
-      <c r="D29" s="377"/>
-      <c r="E29" s="377"/>
-      <c r="F29" s="377"/>
-      <c r="G29" s="377"/>
-      <c r="H29" s="377"/>
-      <c r="I29" s="377"/>
-      <c r="J29" s="377"/>
-      <c r="K29" s="377"/>
-      <c r="L29" s="377"/>
-      <c r="M29" s="377"/>
-      <c r="N29" s="377"/>
-      <c r="O29" s="377"/>
-      <c r="P29" s="377"/>
-      <c r="Q29" s="377"/>
-      <c r="R29" s="377"/>
-      <c r="S29" s="377"/>
-      <c r="T29" s="377"/>
-      <c r="U29" s="377"/>
-      <c r="V29" s="377"/>
-      <c r="W29" s="377"/>
-      <c r="X29" s="377"/>
-      <c r="Y29" s="377"/>
-      <c r="Z29" s="377"/>
-      <c r="AA29" s="377"/>
-      <c r="AB29" s="377"/>
-      <c r="AC29" s="377"/>
-      <c r="AD29" s="377"/>
-      <c r="AE29" s="377"/>
+      <c r="B29" s="367"/>
+      <c r="C29" s="367"/>
+      <c r="D29" s="367"/>
+      <c r="E29" s="367"/>
+      <c r="F29" s="367"/>
+      <c r="G29" s="367"/>
+      <c r="H29" s="367"/>
+      <c r="I29" s="367"/>
+      <c r="J29" s="367"/>
+      <c r="K29" s="367"/>
+      <c r="L29" s="367"/>
+      <c r="M29" s="367"/>
+      <c r="N29" s="367"/>
+      <c r="O29" s="367"/>
+      <c r="P29" s="367"/>
+      <c r="Q29" s="367"/>
+      <c r="R29" s="367"/>
+      <c r="S29" s="367"/>
+      <c r="T29" s="367"/>
+      <c r="U29" s="367"/>
+      <c r="V29" s="367"/>
+      <c r="W29" s="367"/>
+      <c r="X29" s="367"/>
+      <c r="Y29" s="367"/>
+      <c r="Z29" s="367"/>
+      <c r="AA29" s="367"/>
+      <c r="AB29" s="367"/>
+      <c r="AC29" s="367"/>
+      <c r="AD29" s="367"/>
+      <c r="AE29" s="367"/>
       <c r="AF29" s="106"/>
     </row>
     <row r="30" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="107"/>
-      <c r="B30" s="377"/>
-      <c r="C30" s="377"/>
-      <c r="D30" s="377"/>
-      <c r="E30" s="377"/>
-      <c r="F30" s="377"/>
-      <c r="G30" s="377"/>
-      <c r="H30" s="377"/>
-      <c r="I30" s="377"/>
-      <c r="J30" s="377"/>
-      <c r="K30" s="377"/>
-      <c r="L30" s="377"/>
-      <c r="M30" s="377"/>
-      <c r="N30" s="377"/>
-      <c r="O30" s="377"/>
-      <c r="P30" s="377"/>
-      <c r="Q30" s="377"/>
-      <c r="R30" s="377"/>
-      <c r="S30" s="377"/>
-      <c r="T30" s="377"/>
-      <c r="U30" s="377"/>
-      <c r="V30" s="377"/>
-      <c r="W30" s="377"/>
-      <c r="X30" s="377"/>
-      <c r="Y30" s="377"/>
-      <c r="Z30" s="377"/>
-      <c r="AA30" s="377"/>
-      <c r="AB30" s="377"/>
-      <c r="AC30" s="377"/>
-      <c r="AD30" s="377"/>
-      <c r="AE30" s="377"/>
+      <c r="B30" s="367"/>
+      <c r="C30" s="367"/>
+      <c r="D30" s="367"/>
+      <c r="E30" s="367"/>
+      <c r="F30" s="367"/>
+      <c r="G30" s="367"/>
+      <c r="H30" s="367"/>
+      <c r="I30" s="367"/>
+      <c r="J30" s="367"/>
+      <c r="K30" s="367"/>
+      <c r="L30" s="367"/>
+      <c r="M30" s="367"/>
+      <c r="N30" s="367"/>
+      <c r="O30" s="367"/>
+      <c r="P30" s="367"/>
+      <c r="Q30" s="367"/>
+      <c r="R30" s="367"/>
+      <c r="S30" s="367"/>
+      <c r="T30" s="367"/>
+      <c r="U30" s="367"/>
+      <c r="V30" s="367"/>
+      <c r="W30" s="367"/>
+      <c r="X30" s="367"/>
+      <c r="Y30" s="367"/>
+      <c r="Z30" s="367"/>
+      <c r="AA30" s="367"/>
+      <c r="AB30" s="367"/>
+      <c r="AC30" s="367"/>
+      <c r="AD30" s="367"/>
+      <c r="AE30" s="367"/>
       <c r="AF30" s="106"/>
     </row>
     <row r="31" spans="1:40" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="108"/>
-      <c r="B31" s="378" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="378"/>
-      <c r="D31" s="378"/>
-      <c r="E31" s="378"/>
-      <c r="F31" s="378"/>
-      <c r="G31" s="378"/>
-      <c r="H31" s="378"/>
-      <c r="I31" s="378"/>
-      <c r="J31" s="378"/>
-      <c r="K31" s="378"/>
-      <c r="L31" s="378"/>
-      <c r="M31" s="378"/>
-      <c r="N31" s="378"/>
-      <c r="O31" s="378"/>
-      <c r="P31" s="378"/>
-      <c r="Q31" s="378"/>
-      <c r="R31" s="378"/>
-      <c r="S31" s="378"/>
-      <c r="T31" s="378"/>
-      <c r="U31" s="378"/>
-      <c r="V31" s="378"/>
-      <c r="W31" s="378"/>
-      <c r="X31" s="378"/>
-      <c r="Y31" s="378"/>
-      <c r="Z31" s="378"/>
-      <c r="AA31" s="378"/>
-      <c r="AB31" s="378"/>
-      <c r="AC31" s="378"/>
-      <c r="AD31" s="378"/>
-      <c r="AE31" s="378"/>
+      <c r="B31" s="368" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="368"/>
+      <c r="D31" s="368"/>
+      <c r="E31" s="368"/>
+      <c r="F31" s="368"/>
+      <c r="G31" s="368"/>
+      <c r="H31" s="368"/>
+      <c r="I31" s="368"/>
+      <c r="J31" s="368"/>
+      <c r="K31" s="368"/>
+      <c r="L31" s="368"/>
+      <c r="M31" s="368"/>
+      <c r="N31" s="368"/>
+      <c r="O31" s="368"/>
+      <c r="P31" s="368"/>
+      <c r="Q31" s="368"/>
+      <c r="R31" s="368"/>
+      <c r="S31" s="368"/>
+      <c r="T31" s="368"/>
+      <c r="U31" s="368"/>
+      <c r="V31" s="368"/>
+      <c r="W31" s="368"/>
+      <c r="X31" s="368"/>
+      <c r="Y31" s="368"/>
+      <c r="Z31" s="368"/>
+      <c r="AA31" s="368"/>
+      <c r="AB31" s="368"/>
+      <c r="AC31" s="368"/>
+      <c r="AD31" s="368"/>
+      <c r="AE31" s="368"/>
       <c r="AF31" s="109"/>
       <c r="AG31" s="6"/>
       <c r="AH31" s="6"/>
@@ -8460,36 +8437,36 @@
     </row>
     <row r="32" spans="1:40" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="108"/>
-      <c r="B32" s="378"/>
-      <c r="C32" s="378"/>
-      <c r="D32" s="378"/>
-      <c r="E32" s="378"/>
-      <c r="F32" s="378"/>
-      <c r="G32" s="378"/>
-      <c r="H32" s="378"/>
-      <c r="I32" s="378"/>
-      <c r="J32" s="378"/>
-      <c r="K32" s="378"/>
-      <c r="L32" s="378"/>
-      <c r="M32" s="378"/>
-      <c r="N32" s="378"/>
-      <c r="O32" s="378"/>
-      <c r="P32" s="378"/>
-      <c r="Q32" s="378"/>
-      <c r="R32" s="378"/>
-      <c r="S32" s="378"/>
-      <c r="T32" s="378"/>
-      <c r="U32" s="378"/>
-      <c r="V32" s="378"/>
-      <c r="W32" s="378"/>
-      <c r="X32" s="378"/>
-      <c r="Y32" s="378"/>
-      <c r="Z32" s="378"/>
-      <c r="AA32" s="378"/>
-      <c r="AB32" s="378"/>
-      <c r="AC32" s="378"/>
-      <c r="AD32" s="378"/>
-      <c r="AE32" s="378"/>
+      <c r="B32" s="368"/>
+      <c r="C32" s="368"/>
+      <c r="D32" s="368"/>
+      <c r="E32" s="368"/>
+      <c r="F32" s="368"/>
+      <c r="G32" s="368"/>
+      <c r="H32" s="368"/>
+      <c r="I32" s="368"/>
+      <c r="J32" s="368"/>
+      <c r="K32" s="368"/>
+      <c r="L32" s="368"/>
+      <c r="M32" s="368"/>
+      <c r="N32" s="368"/>
+      <c r="O32" s="368"/>
+      <c r="P32" s="368"/>
+      <c r="Q32" s="368"/>
+      <c r="R32" s="368"/>
+      <c r="S32" s="368"/>
+      <c r="T32" s="368"/>
+      <c r="U32" s="368"/>
+      <c r="V32" s="368"/>
+      <c r="W32" s="368"/>
+      <c r="X32" s="368"/>
+      <c r="Y32" s="368"/>
+      <c r="Z32" s="368"/>
+      <c r="AA32" s="368"/>
+      <c r="AB32" s="368"/>
+      <c r="AC32" s="368"/>
+      <c r="AD32" s="368"/>
+      <c r="AE32" s="368"/>
       <c r="AF32" s="109"/>
       <c r="AG32" s="6"/>
       <c r="AH32" s="6"/>
@@ -8502,36 +8479,36 @@
     </row>
     <row r="33" spans="1:40" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="108"/>
-      <c r="B33" s="378"/>
-      <c r="C33" s="378"/>
-      <c r="D33" s="378"/>
-      <c r="E33" s="378"/>
-      <c r="F33" s="378"/>
-      <c r="G33" s="378"/>
-      <c r="H33" s="378"/>
-      <c r="I33" s="378"/>
-      <c r="J33" s="378"/>
-      <c r="K33" s="378"/>
-      <c r="L33" s="378"/>
-      <c r="M33" s="378"/>
-      <c r="N33" s="378"/>
-      <c r="O33" s="378"/>
-      <c r="P33" s="378"/>
-      <c r="Q33" s="378"/>
-      <c r="R33" s="378"/>
-      <c r="S33" s="378"/>
-      <c r="T33" s="378"/>
-      <c r="U33" s="378"/>
-      <c r="V33" s="378"/>
-      <c r="W33" s="378"/>
-      <c r="X33" s="378"/>
-      <c r="Y33" s="378"/>
-      <c r="Z33" s="378"/>
-      <c r="AA33" s="378"/>
-      <c r="AB33" s="378"/>
-      <c r="AC33" s="378"/>
-      <c r="AD33" s="378"/>
-      <c r="AE33" s="378"/>
+      <c r="B33" s="368"/>
+      <c r="C33" s="368"/>
+      <c r="D33" s="368"/>
+      <c r="E33" s="368"/>
+      <c r="F33" s="368"/>
+      <c r="G33" s="368"/>
+      <c r="H33" s="368"/>
+      <c r="I33" s="368"/>
+      <c r="J33" s="368"/>
+      <c r="K33" s="368"/>
+      <c r="L33" s="368"/>
+      <c r="M33" s="368"/>
+      <c r="N33" s="368"/>
+      <c r="O33" s="368"/>
+      <c r="P33" s="368"/>
+      <c r="Q33" s="368"/>
+      <c r="R33" s="368"/>
+      <c r="S33" s="368"/>
+      <c r="T33" s="368"/>
+      <c r="U33" s="368"/>
+      <c r="V33" s="368"/>
+      <c r="W33" s="368"/>
+      <c r="X33" s="368"/>
+      <c r="Y33" s="368"/>
+      <c r="Z33" s="368"/>
+      <c r="AA33" s="368"/>
+      <c r="AB33" s="368"/>
+      <c r="AC33" s="368"/>
+      <c r="AD33" s="368"/>
+      <c r="AE33" s="368"/>
       <c r="AF33" s="109"/>
       <c r="AG33" s="6"/>
       <c r="AH33" s="6"/>
@@ -8745,30 +8722,30 @@
       <c r="AF38" s="106"/>
     </row>
     <row r="39" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="370" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" s="370"/>
-      <c r="C39" s="370"/>
-      <c r="D39" s="370"/>
-      <c r="E39" s="370"/>
-      <c r="F39" s="370"/>
-      <c r="G39" s="370"/>
-      <c r="H39" s="370"/>
-      <c r="I39" s="371" t="str">
+      <c r="A39" s="360" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="360"/>
+      <c r="C39" s="360"/>
+      <c r="D39" s="360"/>
+      <c r="E39" s="360"/>
+      <c r="F39" s="360"/>
+      <c r="G39" s="360"/>
+      <c r="H39" s="360"/>
+      <c r="I39" s="361" t="str">
         <f>O16</f>
         <v>SADASD</v>
       </c>
-      <c r="J39" s="371"/>
-      <c r="K39" s="371"/>
-      <c r="L39" s="371"/>
-      <c r="M39" s="371"/>
-      <c r="N39" s="371"/>
-      <c r="O39" s="371"/>
-      <c r="P39" s="371"/>
-      <c r="Q39" s="371"/>
-      <c r="R39" s="371"/>
-      <c r="S39" s="371"/>
+      <c r="J39" s="361"/>
+      <c r="K39" s="361"/>
+      <c r="L39" s="361"/>
+      <c r="M39" s="361"/>
+      <c r="N39" s="361"/>
+      <c r="O39" s="361"/>
+      <c r="P39" s="361"/>
+      <c r="Q39" s="361"/>
+      <c r="R39" s="361"/>
+      <c r="S39" s="361"/>
       <c r="T39" s="112"/>
       <c r="U39" s="112"/>
       <c r="V39" s="112"/>
@@ -8784,25 +8761,25 @@
       <c r="AF39" s="106"/>
     </row>
     <row r="40" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="370"/>
-      <c r="B40" s="370"/>
-      <c r="C40" s="370"/>
-      <c r="D40" s="370"/>
-      <c r="E40" s="370"/>
-      <c r="F40" s="370"/>
-      <c r="G40" s="370"/>
-      <c r="H40" s="370"/>
-      <c r="I40" s="372"/>
-      <c r="J40" s="372"/>
-      <c r="K40" s="372"/>
-      <c r="L40" s="372"/>
-      <c r="M40" s="372"/>
-      <c r="N40" s="372"/>
-      <c r="O40" s="372"/>
-      <c r="P40" s="372"/>
-      <c r="Q40" s="372"/>
-      <c r="R40" s="372"/>
-      <c r="S40" s="372"/>
+      <c r="A40" s="360"/>
+      <c r="B40" s="360"/>
+      <c r="C40" s="360"/>
+      <c r="D40" s="360"/>
+      <c r="E40" s="360"/>
+      <c r="F40" s="360"/>
+      <c r="G40" s="360"/>
+      <c r="H40" s="360"/>
+      <c r="I40" s="362"/>
+      <c r="J40" s="362"/>
+      <c r="K40" s="362"/>
+      <c r="L40" s="362"/>
+      <c r="M40" s="362"/>
+      <c r="N40" s="362"/>
+      <c r="O40" s="362"/>
+      <c r="P40" s="362"/>
+      <c r="Q40" s="362"/>
+      <c r="R40" s="362"/>
+      <c r="S40" s="362"/>
       <c r="T40" s="68"/>
       <c r="U40" s="113"/>
       <c r="V40" s="113"/>
@@ -8811,53 +8788,53 @@
       <c r="Y40" s="115"/>
       <c r="Z40" s="115"/>
       <c r="AA40" s="116"/>
-      <c r="AB40" s="373" t="str">
+      <c r="AB40" s="363" t="str">
         <f>AB13</f>
         <v xml:space="preserve">26.04.2019   г. </v>
       </c>
-      <c r="AC40" s="373"/>
-      <c r="AD40" s="373"/>
-      <c r="AE40" s="373"/>
+      <c r="AC40" s="363"/>
+      <c r="AD40" s="363"/>
+      <c r="AE40" s="363"/>
       <c r="AF40" s="106"/>
     </row>
     <row r="41" spans="1:40" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="370"/>
-      <c r="B41" s="370"/>
-      <c r="C41" s="370"/>
-      <c r="D41" s="370"/>
-      <c r="E41" s="370"/>
-      <c r="F41" s="370"/>
-      <c r="G41" s="370"/>
-      <c r="H41" s="370"/>
-      <c r="I41" s="374" t="s">
-        <v>83</v>
-      </c>
-      <c r="J41" s="374"/>
-      <c r="K41" s="374"/>
-      <c r="L41" s="374"/>
-      <c r="M41" s="374"/>
-      <c r="N41" s="374"/>
-      <c r="O41" s="374"/>
-      <c r="P41" s="374"/>
-      <c r="Q41" s="374"/>
-      <c r="R41" s="374"/>
-      <c r="S41" s="374"/>
+      <c r="A41" s="360"/>
+      <c r="B41" s="360"/>
+      <c r="C41" s="360"/>
+      <c r="D41" s="360"/>
+      <c r="E41" s="360"/>
+      <c r="F41" s="360"/>
+      <c r="G41" s="360"/>
+      <c r="H41" s="360"/>
+      <c r="I41" s="364" t="s">
+        <v>81</v>
+      </c>
+      <c r="J41" s="364"/>
+      <c r="K41" s="364"/>
+      <c r="L41" s="364"/>
+      <c r="M41" s="364"/>
+      <c r="N41" s="364"/>
+      <c r="O41" s="364"/>
+      <c r="P41" s="364"/>
+      <c r="Q41" s="364"/>
+      <c r="R41" s="364"/>
+      <c r="S41" s="364"/>
       <c r="T41" s="108"/>
-      <c r="U41" s="374" t="s">
-        <v>84</v>
-      </c>
-      <c r="V41" s="374"/>
-      <c r="W41" s="374"/>
-      <c r="X41" s="374"/>
-      <c r="Y41" s="374"/>
-      <c r="Z41" s="374"/>
+      <c r="U41" s="364" t="s">
+        <v>82</v>
+      </c>
+      <c r="V41" s="364"/>
+      <c r="W41" s="364"/>
+      <c r="X41" s="364"/>
+      <c r="Y41" s="364"/>
+      <c r="Z41" s="364"/>
       <c r="AA41" s="73"/>
-      <c r="AB41" s="375" t="s">
+      <c r="AB41" s="365" t="s">
         <v>1</v>
       </c>
-      <c r="AC41" s="375"/>
-      <c r="AD41" s="375"/>
-      <c r="AE41" s="375"/>
+      <c r="AC41" s="365"/>
+      <c r="AD41" s="365"/>
+      <c r="AE41" s="365"/>
       <c r="AF41" s="109"/>
       <c r="AG41" s="6"/>
       <c r="AH41" s="6"/>
@@ -8869,30 +8846,30 @@
       <c r="AN41" s="6"/>
     </row>
     <row r="42" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="370" t="s">
-        <v>85</v>
-      </c>
-      <c r="B42" s="370"/>
-      <c r="C42" s="370"/>
-      <c r="D42" s="370"/>
-      <c r="E42" s="370"/>
-      <c r="F42" s="370"/>
-      <c r="G42" s="370"/>
-      <c r="H42" s="370"/>
-      <c r="I42" s="371" t="str">
+      <c r="A42" s="360" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="360"/>
+      <c r="C42" s="360"/>
+      <c r="D42" s="360"/>
+      <c r="E42" s="360"/>
+      <c r="F42" s="360"/>
+      <c r="G42" s="360"/>
+      <c r="H42" s="360"/>
+      <c r="I42" s="361" t="str">
         <f>H17</f>
         <v>Начальник ЛАЭС ЛПДС "Рязань" Макаров М.А.</v>
       </c>
-      <c r="J42" s="371"/>
-      <c r="K42" s="371"/>
-      <c r="L42" s="371"/>
-      <c r="M42" s="371"/>
-      <c r="N42" s="371"/>
-      <c r="O42" s="371"/>
-      <c r="P42" s="371"/>
-      <c r="Q42" s="371"/>
-      <c r="R42" s="371"/>
-      <c r="S42" s="371"/>
+      <c r="J42" s="361"/>
+      <c r="K42" s="361"/>
+      <c r="L42" s="361"/>
+      <c r="M42" s="361"/>
+      <c r="N42" s="361"/>
+      <c r="O42" s="361"/>
+      <c r="P42" s="361"/>
+      <c r="Q42" s="361"/>
+      <c r="R42" s="361"/>
+      <c r="S42" s="361"/>
       <c r="T42" s="112"/>
       <c r="U42" s="112"/>
       <c r="V42" s="112"/>
@@ -8916,25 +8893,25 @@
       <c r="AN42" s="11"/>
     </row>
     <row r="43" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="370"/>
-      <c r="B43" s="370"/>
-      <c r="C43" s="370"/>
-      <c r="D43" s="370"/>
-      <c r="E43" s="370"/>
-      <c r="F43" s="370"/>
-      <c r="G43" s="370"/>
-      <c r="H43" s="370"/>
-      <c r="I43" s="372"/>
-      <c r="J43" s="372"/>
-      <c r="K43" s="372"/>
-      <c r="L43" s="372"/>
-      <c r="M43" s="372"/>
-      <c r="N43" s="372"/>
-      <c r="O43" s="372"/>
-      <c r="P43" s="372"/>
-      <c r="Q43" s="372"/>
-      <c r="R43" s="372"/>
-      <c r="S43" s="372"/>
+      <c r="A43" s="360"/>
+      <c r="B43" s="360"/>
+      <c r="C43" s="360"/>
+      <c r="D43" s="360"/>
+      <c r="E43" s="360"/>
+      <c r="F43" s="360"/>
+      <c r="G43" s="360"/>
+      <c r="H43" s="360"/>
+      <c r="I43" s="362"/>
+      <c r="J43" s="362"/>
+      <c r="K43" s="362"/>
+      <c r="L43" s="362"/>
+      <c r="M43" s="362"/>
+      <c r="N43" s="362"/>
+      <c r="O43" s="362"/>
+      <c r="P43" s="362"/>
+      <c r="Q43" s="362"/>
+      <c r="R43" s="362"/>
+      <c r="S43" s="362"/>
       <c r="T43" s="68"/>
       <c r="U43" s="113"/>
       <c r="V43" s="113"/>
@@ -8943,13 +8920,13 @@
       <c r="Y43" s="115"/>
       <c r="Z43" s="115"/>
       <c r="AA43" s="116"/>
-      <c r="AB43" s="373" t="str">
+      <c r="AB43" s="363" t="str">
         <f>AB13</f>
         <v xml:space="preserve">26.04.2019   г. </v>
       </c>
-      <c r="AC43" s="373"/>
-      <c r="AD43" s="373"/>
-      <c r="AE43" s="373"/>
+      <c r="AC43" s="363"/>
+      <c r="AD43" s="363"/>
+      <c r="AE43" s="363"/>
       <c r="AF43" s="105"/>
       <c r="AG43" s="11"/>
       <c r="AH43" s="11"/>
@@ -8961,70 +8938,70 @@
       <c r="AN43" s="11"/>
     </row>
     <row r="44" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="370"/>
-      <c r="B44" s="370"/>
-      <c r="C44" s="370"/>
-      <c r="D44" s="370"/>
-      <c r="E44" s="370"/>
-      <c r="F44" s="370"/>
-      <c r="G44" s="370"/>
-      <c r="H44" s="370"/>
-      <c r="I44" s="374" t="s">
-        <v>9</v>
-      </c>
-      <c r="J44" s="374"/>
-      <c r="K44" s="374"/>
-      <c r="L44" s="374"/>
-      <c r="M44" s="374"/>
-      <c r="N44" s="374"/>
-      <c r="O44" s="374"/>
-      <c r="P44" s="374"/>
-      <c r="Q44" s="374"/>
-      <c r="R44" s="374"/>
-      <c r="S44" s="374"/>
+      <c r="A44" s="360"/>
+      <c r="B44" s="360"/>
+      <c r="C44" s="360"/>
+      <c r="D44" s="360"/>
+      <c r="E44" s="360"/>
+      <c r="F44" s="360"/>
+      <c r="G44" s="360"/>
+      <c r="H44" s="360"/>
+      <c r="I44" s="364" t="s">
+        <v>7</v>
+      </c>
+      <c r="J44" s="364"/>
+      <c r="K44" s="364"/>
+      <c r="L44" s="364"/>
+      <c r="M44" s="364"/>
+      <c r="N44" s="364"/>
+      <c r="O44" s="364"/>
+      <c r="P44" s="364"/>
+      <c r="Q44" s="364"/>
+      <c r="R44" s="364"/>
+      <c r="S44" s="364"/>
       <c r="T44" s="108"/>
-      <c r="U44" s="374" t="s">
+      <c r="U44" s="364" t="s">
+        <v>82</v>
+      </c>
+      <c r="V44" s="364"/>
+      <c r="W44" s="364"/>
+      <c r="X44" s="364"/>
+      <c r="Y44" s="364"/>
+      <c r="Z44" s="364"/>
+      <c r="AA44" s="73"/>
+      <c r="AB44" s="365" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC44" s="365"/>
+      <c r="AD44" s="365"/>
+      <c r="AE44" s="365"/>
+      <c r="AF44" s="106"/>
+    </row>
+    <row r="45" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="360" t="s">
         <v>84</v>
       </c>
-      <c r="V44" s="374"/>
-      <c r="W44" s="374"/>
-      <c r="X44" s="374"/>
-      <c r="Y44" s="374"/>
-      <c r="Z44" s="374"/>
-      <c r="AA44" s="73"/>
-      <c r="AB44" s="375" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC44" s="375"/>
-      <c r="AD44" s="375"/>
-      <c r="AE44" s="375"/>
-      <c r="AF44" s="106"/>
-    </row>
-    <row r="45" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="370" t="s">
-        <v>86</v>
-      </c>
-      <c r="B45" s="370"/>
-      <c r="C45" s="370"/>
-      <c r="D45" s="370"/>
-      <c r="E45" s="370"/>
-      <c r="F45" s="370"/>
-      <c r="G45" s="370"/>
-      <c r="H45" s="370"/>
-      <c r="I45" s="371" t="str">
+      <c r="B45" s="360"/>
+      <c r="C45" s="360"/>
+      <c r="D45" s="360"/>
+      <c r="E45" s="360"/>
+      <c r="F45" s="360"/>
+      <c r="G45" s="360"/>
+      <c r="H45" s="360"/>
+      <c r="I45" s="361" t="str">
         <f>N18</f>
         <v>Инженер-дефектоскопист ЛККиД РРНУ Кривцов Д.Н.</v>
       </c>
-      <c r="J45" s="371"/>
-      <c r="K45" s="371"/>
-      <c r="L45" s="371"/>
-      <c r="M45" s="371"/>
-      <c r="N45" s="371"/>
-      <c r="O45" s="371"/>
-      <c r="P45" s="371"/>
-      <c r="Q45" s="371"/>
-      <c r="R45" s="371"/>
-      <c r="S45" s="371"/>
+      <c r="J45" s="361"/>
+      <c r="K45" s="361"/>
+      <c r="L45" s="361"/>
+      <c r="M45" s="361"/>
+      <c r="N45" s="361"/>
+      <c r="O45" s="361"/>
+      <c r="P45" s="361"/>
+      <c r="Q45" s="361"/>
+      <c r="R45" s="361"/>
+      <c r="S45" s="361"/>
       <c r="T45" s="112"/>
       <c r="U45" s="112"/>
       <c r="V45" s="112"/>
@@ -9040,25 +9017,25 @@
       <c r="AF45" s="106"/>
     </row>
     <row r="46" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="370"/>
-      <c r="B46" s="370"/>
-      <c r="C46" s="370"/>
-      <c r="D46" s="370"/>
-      <c r="E46" s="370"/>
-      <c r="F46" s="370"/>
-      <c r="G46" s="370"/>
-      <c r="H46" s="370"/>
-      <c r="I46" s="372"/>
-      <c r="J46" s="372"/>
-      <c r="K46" s="372"/>
-      <c r="L46" s="372"/>
-      <c r="M46" s="372"/>
-      <c r="N46" s="372"/>
-      <c r="O46" s="372"/>
-      <c r="P46" s="372"/>
-      <c r="Q46" s="372"/>
-      <c r="R46" s="372"/>
-      <c r="S46" s="372"/>
+      <c r="A46" s="360"/>
+      <c r="B46" s="360"/>
+      <c r="C46" s="360"/>
+      <c r="D46" s="360"/>
+      <c r="E46" s="360"/>
+      <c r="F46" s="360"/>
+      <c r="G46" s="360"/>
+      <c r="H46" s="360"/>
+      <c r="I46" s="362"/>
+      <c r="J46" s="362"/>
+      <c r="K46" s="362"/>
+      <c r="L46" s="362"/>
+      <c r="M46" s="362"/>
+      <c r="N46" s="362"/>
+      <c r="O46" s="362"/>
+      <c r="P46" s="362"/>
+      <c r="Q46" s="362"/>
+      <c r="R46" s="362"/>
+      <c r="S46" s="362"/>
       <c r="T46" s="68"/>
       <c r="U46" s="113"/>
       <c r="V46" s="113"/>
@@ -9067,53 +9044,53 @@
       <c r="Y46" s="115"/>
       <c r="Z46" s="115"/>
       <c r="AA46" s="116"/>
-      <c r="AB46" s="373" t="str">
+      <c r="AB46" s="363" t="str">
         <f>AB13</f>
         <v xml:space="preserve">26.04.2019   г. </v>
       </c>
-      <c r="AC46" s="373"/>
-      <c r="AD46" s="373"/>
-      <c r="AE46" s="373"/>
+      <c r="AC46" s="363"/>
+      <c r="AD46" s="363"/>
+      <c r="AE46" s="363"/>
       <c r="AF46" s="106"/>
     </row>
     <row r="47" spans="1:40" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="370"/>
-      <c r="B47" s="370"/>
-      <c r="C47" s="370"/>
-      <c r="D47" s="370"/>
-      <c r="E47" s="370"/>
-      <c r="F47" s="370"/>
-      <c r="G47" s="370"/>
-      <c r="H47" s="370"/>
-      <c r="I47" s="374" t="s">
-        <v>9</v>
-      </c>
-      <c r="J47" s="374"/>
-      <c r="K47" s="374"/>
-      <c r="L47" s="374"/>
-      <c r="M47" s="374"/>
-      <c r="N47" s="374"/>
-      <c r="O47" s="374"/>
-      <c r="P47" s="374"/>
-      <c r="Q47" s="374"/>
-      <c r="R47" s="374"/>
-      <c r="S47" s="374"/>
+      <c r="A47" s="360"/>
+      <c r="B47" s="360"/>
+      <c r="C47" s="360"/>
+      <c r="D47" s="360"/>
+      <c r="E47" s="360"/>
+      <c r="F47" s="360"/>
+      <c r="G47" s="360"/>
+      <c r="H47" s="360"/>
+      <c r="I47" s="364" t="s">
+        <v>7</v>
+      </c>
+      <c r="J47" s="364"/>
+      <c r="K47" s="364"/>
+      <c r="L47" s="364"/>
+      <c r="M47" s="364"/>
+      <c r="N47" s="364"/>
+      <c r="O47" s="364"/>
+      <c r="P47" s="364"/>
+      <c r="Q47" s="364"/>
+      <c r="R47" s="364"/>
+      <c r="S47" s="364"/>
       <c r="T47" s="108"/>
-      <c r="U47" s="374" t="s">
-        <v>84</v>
-      </c>
-      <c r="V47" s="374"/>
-      <c r="W47" s="374"/>
-      <c r="X47" s="374"/>
-      <c r="Y47" s="374"/>
-      <c r="Z47" s="374"/>
+      <c r="U47" s="364" t="s">
+        <v>82</v>
+      </c>
+      <c r="V47" s="364"/>
+      <c r="W47" s="364"/>
+      <c r="X47" s="364"/>
+      <c r="Y47" s="364"/>
+      <c r="Z47" s="364"/>
       <c r="AA47" s="73"/>
-      <c r="AB47" s="375" t="s">
+      <c r="AB47" s="365" t="s">
         <v>1</v>
       </c>
-      <c r="AC47" s="375"/>
-      <c r="AD47" s="375"/>
-      <c r="AE47" s="375"/>
+      <c r="AC47" s="365"/>
+      <c r="AD47" s="365"/>
+      <c r="AE47" s="365"/>
       <c r="AF47" s="109"/>
       <c r="AG47" s="6"/>
       <c r="AH47" s="6"/>
@@ -9861,40 +9838,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="396" t="s">
-        <v>159</v>
-      </c>
-      <c r="B1" s="396"/>
-      <c r="C1" s="396"/>
-      <c r="D1" s="396"/>
-      <c r="E1" s="396"/>
-      <c r="F1" s="396"/>
-      <c r="G1" s="396"/>
-      <c r="H1" s="396"/>
-      <c r="I1" s="396"/>
-      <c r="J1" s="396"/>
-      <c r="K1" s="396"/>
-      <c r="L1" s="396"/>
-      <c r="M1" s="396"/>
-      <c r="N1" s="396"/>
-      <c r="O1" s="396"/>
-      <c r="P1" s="396"/>
-      <c r="Q1" s="396"/>
-      <c r="R1" s="396"/>
-      <c r="S1" s="396"/>
-      <c r="T1" s="396"/>
-      <c r="U1" s="396"/>
-      <c r="V1" s="396"/>
-      <c r="W1" s="396"/>
-      <c r="X1" s="396"/>
-      <c r="Y1" s="396"/>
-      <c r="Z1" s="396"/>
-      <c r="AA1" s="396"/>
-      <c r="AB1" s="396"/>
-      <c r="AC1" s="396"/>
-      <c r="AD1" s="396"/>
-      <c r="AE1" s="396"/>
-      <c r="AF1" s="396"/>
+      <c r="A1" s="386" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="386"/>
+      <c r="C1" s="386"/>
+      <c r="D1" s="386"/>
+      <c r="E1" s="386"/>
+      <c r="F1" s="386"/>
+      <c r="G1" s="386"/>
+      <c r="H1" s="386"/>
+      <c r="I1" s="386"/>
+      <c r="J1" s="386"/>
+      <c r="K1" s="386"/>
+      <c r="L1" s="386"/>
+      <c r="M1" s="386"/>
+      <c r="N1" s="386"/>
+      <c r="O1" s="386"/>
+      <c r="P1" s="386"/>
+      <c r="Q1" s="386"/>
+      <c r="R1" s="386"/>
+      <c r="S1" s="386"/>
+      <c r="T1" s="386"/>
+      <c r="U1" s="386"/>
+      <c r="V1" s="386"/>
+      <c r="W1" s="386"/>
+      <c r="X1" s="386"/>
+      <c r="Y1" s="386"/>
+      <c r="Z1" s="386"/>
+      <c r="AA1" s="386"/>
+      <c r="AB1" s="386"/>
+      <c r="AC1" s="386"/>
+      <c r="AD1" s="386"/>
+      <c r="AE1" s="386"/>
+      <c r="AF1" s="386"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -9914,7 +9891,7 @@
       <c r="O2" s="181"/>
       <c r="P2" s="69"/>
       <c r="Q2" s="181" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="R2" s="69"/>
       <c r="S2" s="4"/>
@@ -9933,40 +9910,40 @@
       <c r="AF2" s="86"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="397" t="s">
-        <v>158</v>
-      </c>
-      <c r="B3" s="397"/>
-      <c r="C3" s="397"/>
-      <c r="D3" s="397"/>
-      <c r="E3" s="397"/>
-      <c r="F3" s="397"/>
-      <c r="G3" s="397"/>
-      <c r="H3" s="397"/>
-      <c r="I3" s="397"/>
-      <c r="J3" s="397"/>
-      <c r="K3" s="397"/>
-      <c r="L3" s="397"/>
-      <c r="M3" s="397"/>
-      <c r="N3" s="397"/>
-      <c r="O3" s="397"/>
-      <c r="P3" s="397"/>
-      <c r="Q3" s="397"/>
-      <c r="R3" s="397"/>
-      <c r="S3" s="397"/>
-      <c r="T3" s="397"/>
-      <c r="U3" s="397"/>
-      <c r="V3" s="397"/>
-      <c r="W3" s="397"/>
-      <c r="X3" s="397"/>
-      <c r="Y3" s="397"/>
-      <c r="Z3" s="397"/>
-      <c r="AA3" s="397"/>
-      <c r="AB3" s="397"/>
-      <c r="AC3" s="397"/>
-      <c r="AD3" s="397"/>
-      <c r="AE3" s="397"/>
-      <c r="AF3" s="397"/>
+      <c r="A3" s="387" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="387"/>
+      <c r="C3" s="387"/>
+      <c r="D3" s="387"/>
+      <c r="E3" s="387"/>
+      <c r="F3" s="387"/>
+      <c r="G3" s="387"/>
+      <c r="H3" s="387"/>
+      <c r="I3" s="387"/>
+      <c r="J3" s="387"/>
+      <c r="K3" s="387"/>
+      <c r="L3" s="387"/>
+      <c r="M3" s="387"/>
+      <c r="N3" s="387"/>
+      <c r="O3" s="387"/>
+      <c r="P3" s="387"/>
+      <c r="Q3" s="387"/>
+      <c r="R3" s="387"/>
+      <c r="S3" s="387"/>
+      <c r="T3" s="387"/>
+      <c r="U3" s="387"/>
+      <c r="V3" s="387"/>
+      <c r="W3" s="387"/>
+      <c r="X3" s="387"/>
+      <c r="Y3" s="387"/>
+      <c r="Z3" s="387"/>
+      <c r="AA3" s="387"/>
+      <c r="AB3" s="387"/>
+      <c r="AC3" s="387"/>
+      <c r="AD3" s="387"/>
+      <c r="AE3" s="387"/>
+      <c r="AF3" s="387"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="180"/>
@@ -9986,7 +9963,7 @@
       <c r="O4" s="181"/>
       <c r="P4" s="76"/>
       <c r="Q4" s="181" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="R4" s="76"/>
       <c r="S4" s="179"/>
@@ -10039,40 +10016,40 @@
       <c r="AF5" s="80"/>
     </row>
     <row r="6" spans="1:40" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="399" t="s">
-        <v>142</v>
-      </c>
-      <c r="B6" s="399"/>
-      <c r="C6" s="399"/>
-      <c r="D6" s="399"/>
-      <c r="E6" s="399"/>
-      <c r="F6" s="399"/>
-      <c r="G6" s="399"/>
-      <c r="H6" s="399"/>
-      <c r="I6" s="399"/>
-      <c r="J6" s="399"/>
-      <c r="K6" s="399"/>
-      <c r="L6" s="399"/>
-      <c r="M6" s="399"/>
-      <c r="N6" s="399"/>
-      <c r="O6" s="399"/>
-      <c r="P6" s="399"/>
-      <c r="Q6" s="399"/>
-      <c r="R6" s="399"/>
-      <c r="S6" s="399"/>
-      <c r="T6" s="399"/>
-      <c r="U6" s="399"/>
-      <c r="V6" s="399"/>
-      <c r="W6" s="399"/>
-      <c r="X6" s="399"/>
-      <c r="Y6" s="399"/>
-      <c r="Z6" s="399"/>
-      <c r="AA6" s="399"/>
-      <c r="AB6" s="399"/>
-      <c r="AC6" s="399"/>
-      <c r="AD6" s="399"/>
-      <c r="AE6" s="399"/>
-      <c r="AF6" s="399"/>
+      <c r="A6" s="389" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="389"/>
+      <c r="C6" s="389"/>
+      <c r="D6" s="389"/>
+      <c r="E6" s="389"/>
+      <c r="F6" s="389"/>
+      <c r="G6" s="389"/>
+      <c r="H6" s="389"/>
+      <c r="I6" s="389"/>
+      <c r="J6" s="389"/>
+      <c r="K6" s="389"/>
+      <c r="L6" s="389"/>
+      <c r="M6" s="389"/>
+      <c r="N6" s="389"/>
+      <c r="O6" s="389"/>
+      <c r="P6" s="389"/>
+      <c r="Q6" s="389"/>
+      <c r="R6" s="389"/>
+      <c r="S6" s="389"/>
+      <c r="T6" s="389"/>
+      <c r="U6" s="389"/>
+      <c r="V6" s="389"/>
+      <c r="W6" s="389"/>
+      <c r="X6" s="389"/>
+      <c r="Y6" s="389"/>
+      <c r="Z6" s="389"/>
+      <c r="AA6" s="389"/>
+      <c r="AB6" s="389"/>
+      <c r="AC6" s="389"/>
+      <c r="AD6" s="389"/>
+      <c r="AE6" s="389"/>
+      <c r="AF6" s="389"/>
       <c r="AG6" s="6"/>
       <c r="AH6" s="6"/>
       <c r="AI6" s="6"/>
@@ -10083,40 +10060,40 @@
       <c r="AN6" s="6"/>
     </row>
     <row r="7" spans="1:40" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="399" t="s">
-        <v>143</v>
-      </c>
-      <c r="B7" s="399"/>
-      <c r="C7" s="399"/>
-      <c r="D7" s="399"/>
-      <c r="E7" s="399"/>
-      <c r="F7" s="399"/>
-      <c r="G7" s="399"/>
-      <c r="H7" s="399"/>
-      <c r="I7" s="399"/>
-      <c r="J7" s="399"/>
-      <c r="K7" s="399"/>
-      <c r="L7" s="399"/>
-      <c r="M7" s="399"/>
-      <c r="N7" s="399"/>
-      <c r="O7" s="399"/>
-      <c r="P7" s="399"/>
-      <c r="Q7" s="399"/>
-      <c r="R7" s="399"/>
-      <c r="S7" s="399"/>
-      <c r="T7" s="399"/>
-      <c r="U7" s="399"/>
-      <c r="V7" s="399"/>
-      <c r="W7" s="399"/>
-      <c r="X7" s="399"/>
-      <c r="Y7" s="399"/>
-      <c r="Z7" s="399"/>
-      <c r="AA7" s="399"/>
-      <c r="AB7" s="399"/>
-      <c r="AC7" s="399"/>
-      <c r="AD7" s="399"/>
-      <c r="AE7" s="399"/>
-      <c r="AF7" s="399"/>
+      <c r="A7" s="389" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="389"/>
+      <c r="C7" s="389"/>
+      <c r="D7" s="389"/>
+      <c r="E7" s="389"/>
+      <c r="F7" s="389"/>
+      <c r="G7" s="389"/>
+      <c r="H7" s="389"/>
+      <c r="I7" s="389"/>
+      <c r="J7" s="389"/>
+      <c r="K7" s="389"/>
+      <c r="L7" s="389"/>
+      <c r="M7" s="389"/>
+      <c r="N7" s="389"/>
+      <c r="O7" s="389"/>
+      <c r="P7" s="389"/>
+      <c r="Q7" s="389"/>
+      <c r="R7" s="389"/>
+      <c r="S7" s="389"/>
+      <c r="T7" s="389"/>
+      <c r="U7" s="389"/>
+      <c r="V7" s="389"/>
+      <c r="W7" s="389"/>
+      <c r="X7" s="389"/>
+      <c r="Y7" s="389"/>
+      <c r="Z7" s="389"/>
+      <c r="AA7" s="389"/>
+      <c r="AB7" s="389"/>
+      <c r="AC7" s="389"/>
+      <c r="AD7" s="389"/>
+      <c r="AE7" s="389"/>
+      <c r="AF7" s="389"/>
       <c r="AG7" s="8"/>
       <c r="AH7" s="8"/>
       <c r="AI7" s="8"/>
@@ -10144,7 +10121,7 @@
       <c r="O8" s="183"/>
       <c r="P8" s="183"/>
       <c r="Q8" s="219" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="R8" s="183"/>
       <c r="S8" s="184"/>
@@ -10186,10 +10163,10 @@
       <c r="M9" s="188"/>
       <c r="N9" s="188"/>
       <c r="O9" s="187" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P9" s="190" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q9" s="190"/>
       <c r="R9" s="190"/>
@@ -10252,7 +10229,7 @@
     </row>
     <row r="11" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="192" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B11" s="119"/>
       <c r="C11" s="119"/>
@@ -10322,7 +10299,7 @@
     </row>
     <row r="13" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="193" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B13" s="194"/>
       <c r="C13" s="194"/>
@@ -10338,7 +10315,7 @@
       <c r="M13" s="194"/>
       <c r="N13" s="217"/>
       <c r="O13" s="217" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P13" s="194"/>
       <c r="Q13" s="194"/>
@@ -10380,7 +10357,7 @@
       <c r="S14" s="119"/>
       <c r="T14" s="119"/>
       <c r="U14" s="218" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="V14" s="119"/>
       <c r="W14" s="119"/>
@@ -10396,7 +10373,7 @@
     </row>
     <row r="15" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="186" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B15" s="119"/>
       <c r="C15" s="119"/>
@@ -10432,7 +10409,7 @@
     </row>
     <row r="16" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="193" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B16" s="194"/>
       <c r="C16" s="194"/>
@@ -10448,7 +10425,7 @@
       <c r="M16" s="194"/>
       <c r="N16" s="217"/>
       <c r="O16" s="217" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P16" s="194"/>
       <c r="Q16" s="194"/>
@@ -10490,7 +10467,7 @@
       <c r="S17" s="119"/>
       <c r="T17" s="119"/>
       <c r="U17" s="218" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="V17" s="119"/>
       <c r="W17" s="119"/>
@@ -10506,7 +10483,7 @@
     </row>
     <row r="18" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="193" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B18" s="194"/>
       <c r="C18" s="194"/>
@@ -10565,7 +10542,7 @@
       <c r="S19" s="119"/>
       <c r="T19" s="119"/>
       <c r="U19" s="218" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="V19" s="119"/>
       <c r="W19" s="119"/>
@@ -10581,7 +10558,7 @@
     </row>
     <row r="20" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="193" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B20" s="194"/>
       <c r="C20" s="194"/>
@@ -10597,7 +10574,7 @@
       <c r="M20" s="194"/>
       <c r="N20" s="194"/>
       <c r="O20" s="217" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P20" s="194"/>
       <c r="Q20" s="194"/>
@@ -10639,7 +10616,7 @@
       <c r="S21" s="119"/>
       <c r="T21" s="119"/>
       <c r="U21" s="218" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="V21" s="119"/>
       <c r="W21" s="119"/>
@@ -10655,7 +10632,7 @@
     </row>
     <row r="22" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="192" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B22" s="119"/>
       <c r="C22" s="119"/>
@@ -10683,7 +10660,7 @@
       <c r="Y22" s="119"/>
       <c r="Z22" s="119"/>
       <c r="AA22" s="195" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AB22" s="194"/>
       <c r="AC22" s="194"/>
@@ -10700,42 +10677,42 @@
       <c r="F23" s="197"/>
       <c r="G23" s="196"/>
       <c r="H23" s="196" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I23" s="198"/>
       <c r="J23" s="198"/>
-      <c r="K23" s="401" t="s">
-        <v>89</v>
-      </c>
-      <c r="L23" s="401"/>
-      <c r="M23" s="401"/>
-      <c r="N23" s="401"/>
-      <c r="O23" s="401"/>
-      <c r="P23" s="401"/>
-      <c r="Q23" s="401"/>
-      <c r="R23" s="401"/>
+      <c r="K23" s="391" t="s">
+        <v>87</v>
+      </c>
+      <c r="L23" s="391"/>
+      <c r="M23" s="391"/>
+      <c r="N23" s="391"/>
+      <c r="O23" s="391"/>
+      <c r="P23" s="391"/>
+      <c r="Q23" s="391"/>
+      <c r="R23" s="391"/>
       <c r="S23" s="196" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T23" s="196"/>
       <c r="U23" s="198"/>
-      <c r="V23" s="400" t="s">
-        <v>89</v>
-      </c>
-      <c r="W23" s="400"/>
-      <c r="X23" s="400"/>
-      <c r="Y23" s="400"/>
-      <c r="Z23" s="400"/>
-      <c r="AA23" s="400"/>
-      <c r="AB23" s="400"/>
-      <c r="AC23" s="400"/>
+      <c r="V23" s="390" t="s">
+        <v>87</v>
+      </c>
+      <c r="W23" s="390"/>
+      <c r="X23" s="390"/>
+      <c r="Y23" s="390"/>
+      <c r="Z23" s="390"/>
+      <c r="AA23" s="390"/>
+      <c r="AB23" s="390"/>
+      <c r="AC23" s="390"/>
       <c r="AD23" s="91"/>
       <c r="AE23" s="91"/>
       <c r="AF23" s="86"/>
     </row>
     <row r="24" spans="1:40" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="199" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B24" s="200"/>
       <c r="C24" s="200"/>
@@ -10780,7 +10757,7 @@
     <row r="25" spans="1:40" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="201"/>
       <c r="B25" s="199" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C25" s="202"/>
       <c r="D25" s="202"/>
@@ -10792,12 +10769,12 @@
       <c r="J25" s="202"/>
       <c r="K25" s="202"/>
       <c r="L25" s="202"/>
-      <c r="M25" s="398" t="str">
+      <c r="M25" s="388" t="str">
         <f>AA22</f>
         <v>6,4 п.м.</v>
       </c>
-      <c r="N25" s="398"/>
-      <c r="O25" s="398"/>
+      <c r="N25" s="388"/>
+      <c r="O25" s="388"/>
       <c r="P25" s="202"/>
       <c r="Q25" s="202"/>
       <c r="R25" s="202"/>
@@ -10833,44 +10810,44 @@
       <c r="F26" s="200"/>
       <c r="G26" s="200"/>
       <c r="H26" s="196" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I26" s="198"/>
       <c r="J26" s="198"/>
-      <c r="K26" s="403" t="str">
+      <c r="K26" s="393" t="str">
         <f>K23</f>
         <v>334,8 / 98 км</v>
       </c>
-      <c r="L26" s="403"/>
-      <c r="M26" s="403"/>
-      <c r="N26" s="403"/>
-      <c r="O26" s="403"/>
-      <c r="P26" s="403"/>
-      <c r="Q26" s="403"/>
-      <c r="R26" s="403"/>
+      <c r="L26" s="393"/>
+      <c r="M26" s="393"/>
+      <c r="N26" s="393"/>
+      <c r="O26" s="393"/>
+      <c r="P26" s="393"/>
+      <c r="Q26" s="393"/>
+      <c r="R26" s="393"/>
       <c r="S26" s="196" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T26" s="196"/>
       <c r="U26" s="198"/>
-      <c r="V26" s="402" t="str">
+      <c r="V26" s="392" t="str">
         <f>V23</f>
         <v>334,8 / 98 км</v>
       </c>
-      <c r="W26" s="402"/>
-      <c r="X26" s="402"/>
-      <c r="Y26" s="402"/>
-      <c r="Z26" s="402"/>
-      <c r="AA26" s="402"/>
-      <c r="AB26" s="402"/>
-      <c r="AC26" s="402"/>
+      <c r="W26" s="392"/>
+      <c r="X26" s="392"/>
+      <c r="Y26" s="392"/>
+      <c r="Z26" s="392"/>
+      <c r="AA26" s="392"/>
+      <c r="AB26" s="392"/>
+      <c r="AC26" s="392"/>
       <c r="AD26" s="125"/>
       <c r="AE26" s="125"/>
       <c r="AF26" s="76"/>
     </row>
     <row r="27" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="199" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B27" s="199"/>
       <c r="C27" s="201"/>
@@ -10906,7 +10883,7 @@
     </row>
     <row r="28" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="199" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B28" s="203"/>
       <c r="C28" s="201"/>
@@ -10943,7 +10920,7 @@
     <row r="29" spans="1:40" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="204"/>
       <c r="B29" s="199" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C29" s="202"/>
       <c r="D29" s="202"/>
@@ -10955,12 +10932,12 @@
       <c r="J29" s="202"/>
       <c r="K29" s="202"/>
       <c r="L29" s="202"/>
-      <c r="M29" s="398" t="str">
+      <c r="M29" s="388" t="str">
         <f>M25</f>
         <v>6,4 п.м.</v>
       </c>
-      <c r="N29" s="398"/>
-      <c r="O29" s="398"/>
+      <c r="N29" s="388"/>
+      <c r="O29" s="388"/>
       <c r="P29" s="205"/>
       <c r="Q29" s="205"/>
       <c r="R29" s="205"/>
@@ -10996,37 +10973,37 @@
       <c r="F30" s="206"/>
       <c r="G30" s="206"/>
       <c r="H30" s="196" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I30" s="198"/>
       <c r="J30" s="198"/>
-      <c r="K30" s="403" t="str">
+      <c r="K30" s="393" t="str">
         <f>K23</f>
         <v>334,8 / 98 км</v>
       </c>
-      <c r="L30" s="403"/>
-      <c r="M30" s="403"/>
-      <c r="N30" s="403"/>
-      <c r="O30" s="403"/>
-      <c r="P30" s="403"/>
-      <c r="Q30" s="403"/>
-      <c r="R30" s="403"/>
+      <c r="L30" s="393"/>
+      <c r="M30" s="393"/>
+      <c r="N30" s="393"/>
+      <c r="O30" s="393"/>
+      <c r="P30" s="393"/>
+      <c r="Q30" s="393"/>
+      <c r="R30" s="393"/>
       <c r="S30" s="196" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T30" s="196"/>
       <c r="U30" s="198"/>
-      <c r="V30" s="402" t="str">
+      <c r="V30" s="392" t="str">
         <f>V23</f>
         <v>334,8 / 98 км</v>
       </c>
-      <c r="W30" s="402"/>
-      <c r="X30" s="402"/>
-      <c r="Y30" s="402"/>
-      <c r="Z30" s="402"/>
-      <c r="AA30" s="402"/>
-      <c r="AB30" s="402"/>
-      <c r="AC30" s="402"/>
+      <c r="W30" s="392"/>
+      <c r="X30" s="392"/>
+      <c r="Y30" s="392"/>
+      <c r="Z30" s="392"/>
+      <c r="AA30" s="392"/>
+      <c r="AB30" s="392"/>
+      <c r="AC30" s="392"/>
       <c r="AD30" s="110"/>
       <c r="AE30" s="110"/>
       <c r="AF30" s="121"/>
@@ -11041,7 +11018,7 @@
     </row>
     <row r="31" spans="1:40" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="199" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B31" s="201"/>
       <c r="C31" s="201"/>
@@ -11085,7 +11062,7 @@
     </row>
     <row r="32" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="199" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B32" s="208"/>
       <c r="C32" s="208"/>
@@ -11121,7 +11098,7 @@
     </row>
     <row r="33" spans="1:40" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="199" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B33" s="200"/>
       <c r="C33" s="200"/>
@@ -11166,7 +11143,7 @@
     <row r="34" spans="1:40" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="200"/>
       <c r="B34" s="199" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C34" s="200"/>
       <c r="D34" s="200"/>
@@ -11242,30 +11219,30 @@
       <c r="AF35" s="76"/>
     </row>
     <row r="36" spans="1:40" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="392" t="s">
-        <v>160</v>
-      </c>
-      <c r="B36" s="392"/>
-      <c r="C36" s="392"/>
-      <c r="D36" s="392"/>
-      <c r="E36" s="392"/>
-      <c r="F36" s="392"/>
-      <c r="G36" s="392"/>
-      <c r="H36" s="392"/>
-      <c r="I36" s="393" t="str">
+      <c r="A36" s="382" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" s="382"/>
+      <c r="C36" s="382"/>
+      <c r="D36" s="382"/>
+      <c r="E36" s="382"/>
+      <c r="F36" s="382"/>
+      <c r="G36" s="382"/>
+      <c r="H36" s="382"/>
+      <c r="I36" s="383" t="str">
         <f>O13</f>
         <v>Зам. начальника ЛПДС "Рязань" Костин В.К.</v>
       </c>
-      <c r="J36" s="393"/>
-      <c r="K36" s="393"/>
-      <c r="L36" s="393"/>
-      <c r="M36" s="393"/>
-      <c r="N36" s="393"/>
-      <c r="O36" s="393"/>
-      <c r="P36" s="393"/>
-      <c r="Q36" s="393"/>
-      <c r="R36" s="393"/>
-      <c r="S36" s="393"/>
+      <c r="J36" s="383"/>
+      <c r="K36" s="383"/>
+      <c r="L36" s="383"/>
+      <c r="M36" s="383"/>
+      <c r="N36" s="383"/>
+      <c r="O36" s="383"/>
+      <c r="P36" s="383"/>
+      <c r="Q36" s="383"/>
+      <c r="R36" s="383"/>
+      <c r="S36" s="383"/>
       <c r="T36" s="112"/>
       <c r="U36" s="112"/>
       <c r="V36" s="112"/>
@@ -11289,25 +11266,25 @@
       <c r="AN36" s="11"/>
     </row>
     <row r="37" spans="1:40" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="392"/>
-      <c r="B37" s="392"/>
-      <c r="C37" s="392"/>
-      <c r="D37" s="392"/>
-      <c r="E37" s="392"/>
-      <c r="F37" s="392"/>
-      <c r="G37" s="392"/>
-      <c r="H37" s="392"/>
-      <c r="I37" s="394"/>
-      <c r="J37" s="394"/>
-      <c r="K37" s="394"/>
-      <c r="L37" s="394"/>
-      <c r="M37" s="394"/>
-      <c r="N37" s="394"/>
-      <c r="O37" s="394"/>
-      <c r="P37" s="394"/>
-      <c r="Q37" s="394"/>
-      <c r="R37" s="394"/>
-      <c r="S37" s="394"/>
+      <c r="A37" s="382"/>
+      <c r="B37" s="382"/>
+      <c r="C37" s="382"/>
+      <c r="D37" s="382"/>
+      <c r="E37" s="382"/>
+      <c r="F37" s="382"/>
+      <c r="G37" s="382"/>
+      <c r="H37" s="382"/>
+      <c r="I37" s="384"/>
+      <c r="J37" s="384"/>
+      <c r="K37" s="384"/>
+      <c r="L37" s="384"/>
+      <c r="M37" s="384"/>
+      <c r="N37" s="384"/>
+      <c r="O37" s="384"/>
+      <c r="P37" s="384"/>
+      <c r="Q37" s="384"/>
+      <c r="R37" s="384"/>
+      <c r="S37" s="384"/>
       <c r="T37" s="68"/>
       <c r="U37" s="113"/>
       <c r="V37" s="113"/>
@@ -11316,13 +11293,13 @@
       <c r="Y37" s="115"/>
       <c r="Z37" s="115"/>
       <c r="AA37" s="116"/>
-      <c r="AB37" s="395" t="str">
+      <c r="AB37" s="385" t="str">
         <f>P9</f>
         <v>27.04.2019 г.</v>
       </c>
-      <c r="AC37" s="395"/>
-      <c r="AD37" s="395"/>
-      <c r="AE37" s="395"/>
+      <c r="AC37" s="385"/>
+      <c r="AD37" s="385"/>
+      <c r="AE37" s="385"/>
       <c r="AF37" s="105"/>
       <c r="AG37" s="11"/>
       <c r="AH37" s="11"/>
@@ -11334,56 +11311,56 @@
       <c r="AN37" s="11"/>
     </row>
     <row r="38" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="392"/>
-      <c r="B38" s="392"/>
-      <c r="C38" s="392"/>
-      <c r="D38" s="392"/>
-      <c r="E38" s="392"/>
-      <c r="F38" s="392"/>
-      <c r="G38" s="392"/>
-      <c r="H38" s="392"/>
-      <c r="I38" s="374" t="s">
-        <v>9</v>
-      </c>
-      <c r="J38" s="374"/>
-      <c r="K38" s="374"/>
-      <c r="L38" s="374"/>
-      <c r="M38" s="374"/>
-      <c r="N38" s="374"/>
-      <c r="O38" s="374"/>
-      <c r="P38" s="374"/>
-      <c r="Q38" s="374"/>
-      <c r="R38" s="374"/>
-      <c r="S38" s="374"/>
+      <c r="A38" s="382"/>
+      <c r="B38" s="382"/>
+      <c r="C38" s="382"/>
+      <c r="D38" s="382"/>
+      <c r="E38" s="382"/>
+      <c r="F38" s="382"/>
+      <c r="G38" s="382"/>
+      <c r="H38" s="382"/>
+      <c r="I38" s="364" t="s">
+        <v>7</v>
+      </c>
+      <c r="J38" s="364"/>
+      <c r="K38" s="364"/>
+      <c r="L38" s="364"/>
+      <c r="M38" s="364"/>
+      <c r="N38" s="364"/>
+      <c r="O38" s="364"/>
+      <c r="P38" s="364"/>
+      <c r="Q38" s="364"/>
+      <c r="R38" s="364"/>
+      <c r="S38" s="364"/>
       <c r="T38" s="108"/>
-      <c r="U38" s="374" t="s">
-        <v>84</v>
-      </c>
-      <c r="V38" s="374"/>
-      <c r="W38" s="374"/>
-      <c r="X38" s="374"/>
-      <c r="Y38" s="374"/>
-      <c r="Z38" s="374"/>
+      <c r="U38" s="364" t="s">
+        <v>82</v>
+      </c>
+      <c r="V38" s="364"/>
+      <c r="W38" s="364"/>
+      <c r="X38" s="364"/>
+      <c r="Y38" s="364"/>
+      <c r="Z38" s="364"/>
       <c r="AA38" s="73"/>
-      <c r="AB38" s="375" t="s">
+      <c r="AB38" s="365" t="s">
         <v>1</v>
       </c>
-      <c r="AC38" s="375"/>
-      <c r="AD38" s="375"/>
-      <c r="AE38" s="375"/>
+      <c r="AC38" s="365"/>
+      <c r="AD38" s="365"/>
+      <c r="AE38" s="365"/>
       <c r="AF38" s="106"/>
     </row>
     <row r="39" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="392" t="s">
-        <v>161</v>
-      </c>
-      <c r="B39" s="392"/>
-      <c r="C39" s="392"/>
-      <c r="D39" s="392"/>
-      <c r="E39" s="392"/>
-      <c r="F39" s="392"/>
-      <c r="G39" s="392"/>
-      <c r="H39" s="392"/>
+      <c r="A39" s="382" t="s">
+        <v>159</v>
+      </c>
+      <c r="B39" s="382"/>
+      <c r="C39" s="382"/>
+      <c r="D39" s="382"/>
+      <c r="E39" s="382"/>
+      <c r="F39" s="382"/>
+      <c r="G39" s="382"/>
+      <c r="H39" s="382"/>
       <c r="I39" s="215"/>
       <c r="J39" s="215"/>
       <c r="K39" s="215"/>
@@ -11410,28 +11387,28 @@
       <c r="AF39" s="106"/>
     </row>
     <row r="40" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="392"/>
-      <c r="B40" s="392"/>
-      <c r="C40" s="392"/>
-      <c r="D40" s="392"/>
-      <c r="E40" s="392"/>
-      <c r="F40" s="392"/>
-      <c r="G40" s="392"/>
-      <c r="H40" s="392"/>
-      <c r="I40" s="393" t="str">
+      <c r="A40" s="382"/>
+      <c r="B40" s="382"/>
+      <c r="C40" s="382"/>
+      <c r="D40" s="382"/>
+      <c r="E40" s="382"/>
+      <c r="F40" s="382"/>
+      <c r="G40" s="382"/>
+      <c r="H40" s="382"/>
+      <c r="I40" s="383" t="str">
         <f>O16</f>
         <v>Зам. начальника ЛПДС "Рязань" Костин В.К.</v>
       </c>
-      <c r="J40" s="393"/>
-      <c r="K40" s="393"/>
-      <c r="L40" s="393"/>
-      <c r="M40" s="393"/>
-      <c r="N40" s="393"/>
-      <c r="O40" s="393"/>
-      <c r="P40" s="393"/>
-      <c r="Q40" s="393"/>
-      <c r="R40" s="393"/>
-      <c r="S40" s="393"/>
+      <c r="J40" s="383"/>
+      <c r="K40" s="383"/>
+      <c r="L40" s="383"/>
+      <c r="M40" s="383"/>
+      <c r="N40" s="383"/>
+      <c r="O40" s="383"/>
+      <c r="P40" s="383"/>
+      <c r="Q40" s="383"/>
+      <c r="R40" s="383"/>
+      <c r="S40" s="383"/>
       <c r="T40" s="112"/>
       <c r="U40" s="112"/>
       <c r="V40" s="112"/>
@@ -11447,25 +11424,25 @@
       <c r="AF40" s="105"/>
     </row>
     <row r="41" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="392"/>
-      <c r="B41" s="392"/>
-      <c r="C41" s="392"/>
-      <c r="D41" s="392"/>
-      <c r="E41" s="392"/>
-      <c r="F41" s="392"/>
-      <c r="G41" s="392"/>
-      <c r="H41" s="392"/>
-      <c r="I41" s="394"/>
-      <c r="J41" s="394"/>
-      <c r="K41" s="394"/>
-      <c r="L41" s="394"/>
-      <c r="M41" s="394"/>
-      <c r="N41" s="394"/>
-      <c r="O41" s="394"/>
-      <c r="P41" s="394"/>
-      <c r="Q41" s="394"/>
-      <c r="R41" s="394"/>
-      <c r="S41" s="394"/>
+      <c r="A41" s="382"/>
+      <c r="B41" s="382"/>
+      <c r="C41" s="382"/>
+      <c r="D41" s="382"/>
+      <c r="E41" s="382"/>
+      <c r="F41" s="382"/>
+      <c r="G41" s="382"/>
+      <c r="H41" s="382"/>
+      <c r="I41" s="384"/>
+      <c r="J41" s="384"/>
+      <c r="K41" s="384"/>
+      <c r="L41" s="384"/>
+      <c r="M41" s="384"/>
+      <c r="N41" s="384"/>
+      <c r="O41" s="384"/>
+      <c r="P41" s="384"/>
+      <c r="Q41" s="384"/>
+      <c r="R41" s="384"/>
+      <c r="S41" s="384"/>
       <c r="T41" s="68"/>
       <c r="U41" s="113"/>
       <c r="V41" s="113"/>
@@ -11474,80 +11451,80 @@
       <c r="Y41" s="115"/>
       <c r="Z41" s="115"/>
       <c r="AA41" s="116"/>
-      <c r="AB41" s="395" t="str">
+      <c r="AB41" s="385" t="str">
         <f>P9</f>
         <v>27.04.2019 г.</v>
       </c>
-      <c r="AC41" s="395"/>
-      <c r="AD41" s="395"/>
-      <c r="AE41" s="395"/>
+      <c r="AC41" s="385"/>
+      <c r="AD41" s="385"/>
+      <c r="AE41" s="385"/>
       <c r="AF41" s="105"/>
     </row>
     <row r="42" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="392"/>
-      <c r="B42" s="392"/>
-      <c r="C42" s="392"/>
-      <c r="D42" s="392"/>
-      <c r="E42" s="392"/>
-      <c r="F42" s="392"/>
-      <c r="G42" s="392"/>
-      <c r="H42" s="392"/>
-      <c r="I42" s="374" t="s">
-        <v>9</v>
-      </c>
-      <c r="J42" s="374"/>
-      <c r="K42" s="374"/>
-      <c r="L42" s="374"/>
-      <c r="M42" s="374"/>
-      <c r="N42" s="374"/>
-      <c r="O42" s="374"/>
-      <c r="P42" s="374"/>
-      <c r="Q42" s="374"/>
-      <c r="R42" s="374"/>
-      <c r="S42" s="374"/>
+      <c r="A42" s="382"/>
+      <c r="B42" s="382"/>
+      <c r="C42" s="382"/>
+      <c r="D42" s="382"/>
+      <c r="E42" s="382"/>
+      <c r="F42" s="382"/>
+      <c r="G42" s="382"/>
+      <c r="H42" s="382"/>
+      <c r="I42" s="364" t="s">
+        <v>7</v>
+      </c>
+      <c r="J42" s="364"/>
+      <c r="K42" s="364"/>
+      <c r="L42" s="364"/>
+      <c r="M42" s="364"/>
+      <c r="N42" s="364"/>
+      <c r="O42" s="364"/>
+      <c r="P42" s="364"/>
+      <c r="Q42" s="364"/>
+      <c r="R42" s="364"/>
+      <c r="S42" s="364"/>
       <c r="T42" s="108"/>
-      <c r="U42" s="374" t="s">
-        <v>84</v>
-      </c>
-      <c r="V42" s="374"/>
-      <c r="W42" s="374"/>
-      <c r="X42" s="374"/>
-      <c r="Y42" s="374"/>
-      <c r="Z42" s="374"/>
+      <c r="U42" s="364" t="s">
+        <v>82</v>
+      </c>
+      <c r="V42" s="364"/>
+      <c r="W42" s="364"/>
+      <c r="X42" s="364"/>
+      <c r="Y42" s="364"/>
+      <c r="Z42" s="364"/>
       <c r="AA42" s="73"/>
-      <c r="AB42" s="375" t="s">
+      <c r="AB42" s="365" t="s">
         <v>1</v>
       </c>
-      <c r="AC42" s="375"/>
-      <c r="AD42" s="375"/>
-      <c r="AE42" s="375"/>
+      <c r="AC42" s="365"/>
+      <c r="AD42" s="365"/>
+      <c r="AE42" s="365"/>
       <c r="AF42" s="106"/>
     </row>
     <row r="43" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="392" t="s">
-        <v>162</v>
-      </c>
-      <c r="B43" s="392"/>
-      <c r="C43" s="392"/>
-      <c r="D43" s="392"/>
-      <c r="E43" s="392"/>
-      <c r="F43" s="392"/>
-      <c r="G43" s="392"/>
-      <c r="H43" s="392"/>
-      <c r="I43" s="393" t="str">
+      <c r="A43" s="382" t="s">
+        <v>160</v>
+      </c>
+      <c r="B43" s="382"/>
+      <c r="C43" s="382"/>
+      <c r="D43" s="382"/>
+      <c r="E43" s="382"/>
+      <c r="F43" s="382"/>
+      <c r="G43" s="382"/>
+      <c r="H43" s="382"/>
+      <c r="I43" s="383" t="str">
         <f>O18</f>
         <v>Зам. начальника ЛПДС "Рязань" Костин В.К.</v>
       </c>
-      <c r="J43" s="393"/>
-      <c r="K43" s="393"/>
-      <c r="L43" s="393"/>
-      <c r="M43" s="393"/>
-      <c r="N43" s="393"/>
-      <c r="O43" s="393"/>
-      <c r="P43" s="393"/>
-      <c r="Q43" s="393"/>
-      <c r="R43" s="393"/>
-      <c r="S43" s="393"/>
+      <c r="J43" s="383"/>
+      <c r="K43" s="383"/>
+      <c r="L43" s="383"/>
+      <c r="M43" s="383"/>
+      <c r="N43" s="383"/>
+      <c r="O43" s="383"/>
+      <c r="P43" s="383"/>
+      <c r="Q43" s="383"/>
+      <c r="R43" s="383"/>
+      <c r="S43" s="383"/>
       <c r="T43" s="112"/>
       <c r="U43" s="112"/>
       <c r="V43" s="112"/>
@@ -11563,25 +11540,25 @@
       <c r="AF43" s="106"/>
     </row>
     <row r="44" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="392"/>
-      <c r="B44" s="392"/>
-      <c r="C44" s="392"/>
-      <c r="D44" s="392"/>
-      <c r="E44" s="392"/>
-      <c r="F44" s="392"/>
-      <c r="G44" s="392"/>
-      <c r="H44" s="392"/>
-      <c r="I44" s="394"/>
-      <c r="J44" s="394"/>
-      <c r="K44" s="394"/>
-      <c r="L44" s="394"/>
-      <c r="M44" s="394"/>
-      <c r="N44" s="394"/>
-      <c r="O44" s="394"/>
-      <c r="P44" s="394"/>
-      <c r="Q44" s="394"/>
-      <c r="R44" s="394"/>
-      <c r="S44" s="394"/>
+      <c r="A44" s="382"/>
+      <c r="B44" s="382"/>
+      <c r="C44" s="382"/>
+      <c r="D44" s="382"/>
+      <c r="E44" s="382"/>
+      <c r="F44" s="382"/>
+      <c r="G44" s="382"/>
+      <c r="H44" s="382"/>
+      <c r="I44" s="384"/>
+      <c r="J44" s="384"/>
+      <c r="K44" s="384"/>
+      <c r="L44" s="384"/>
+      <c r="M44" s="384"/>
+      <c r="N44" s="384"/>
+      <c r="O44" s="384"/>
+      <c r="P44" s="384"/>
+      <c r="Q44" s="384"/>
+      <c r="R44" s="384"/>
+      <c r="S44" s="384"/>
       <c r="T44" s="68"/>
       <c r="U44" s="113"/>
       <c r="V44" s="113"/>
@@ -11590,53 +11567,53 @@
       <c r="Y44" s="115"/>
       <c r="Z44" s="115"/>
       <c r="AA44" s="116"/>
-      <c r="AB44" s="395" t="str">
+      <c r="AB44" s="385" t="str">
         <f>P9</f>
         <v>27.04.2019 г.</v>
       </c>
-      <c r="AC44" s="395"/>
-      <c r="AD44" s="395"/>
-      <c r="AE44" s="395"/>
+      <c r="AC44" s="385"/>
+      <c r="AD44" s="385"/>
+      <c r="AE44" s="385"/>
       <c r="AF44" s="106"/>
     </row>
     <row r="45" spans="1:40" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="392"/>
-      <c r="B45" s="392"/>
-      <c r="C45" s="392"/>
-      <c r="D45" s="392"/>
-      <c r="E45" s="392"/>
-      <c r="F45" s="392"/>
-      <c r="G45" s="392"/>
-      <c r="H45" s="392"/>
-      <c r="I45" s="374" t="s">
-        <v>9</v>
-      </c>
-      <c r="J45" s="374"/>
-      <c r="K45" s="374"/>
-      <c r="L45" s="374"/>
-      <c r="M45" s="374"/>
-      <c r="N45" s="374"/>
-      <c r="O45" s="374"/>
-      <c r="P45" s="374"/>
-      <c r="Q45" s="374"/>
-      <c r="R45" s="374"/>
-      <c r="S45" s="374"/>
+      <c r="A45" s="382"/>
+      <c r="B45" s="382"/>
+      <c r="C45" s="382"/>
+      <c r="D45" s="382"/>
+      <c r="E45" s="382"/>
+      <c r="F45" s="382"/>
+      <c r="G45" s="382"/>
+      <c r="H45" s="382"/>
+      <c r="I45" s="364" t="s">
+        <v>7</v>
+      </c>
+      <c r="J45" s="364"/>
+      <c r="K45" s="364"/>
+      <c r="L45" s="364"/>
+      <c r="M45" s="364"/>
+      <c r="N45" s="364"/>
+      <c r="O45" s="364"/>
+      <c r="P45" s="364"/>
+      <c r="Q45" s="364"/>
+      <c r="R45" s="364"/>
+      <c r="S45" s="364"/>
       <c r="T45" s="108"/>
-      <c r="U45" s="374" t="s">
-        <v>84</v>
-      </c>
-      <c r="V45" s="374"/>
-      <c r="W45" s="374"/>
-      <c r="X45" s="374"/>
-      <c r="Y45" s="374"/>
-      <c r="Z45" s="374"/>
+      <c r="U45" s="364" t="s">
+        <v>82</v>
+      </c>
+      <c r="V45" s="364"/>
+      <c r="W45" s="364"/>
+      <c r="X45" s="364"/>
+      <c r="Y45" s="364"/>
+      <c r="Z45" s="364"/>
       <c r="AA45" s="73"/>
-      <c r="AB45" s="375" t="s">
+      <c r="AB45" s="365" t="s">
         <v>1</v>
       </c>
-      <c r="AC45" s="375"/>
-      <c r="AD45" s="375"/>
-      <c r="AE45" s="375"/>
+      <c r="AC45" s="365"/>
+      <c r="AD45" s="365"/>
+      <c r="AE45" s="365"/>
       <c r="AF45" s="109"/>
       <c r="AG45" s="6"/>
       <c r="AH45" s="6"/>
@@ -11648,30 +11625,30 @@
       <c r="AN45" s="6"/>
     </row>
     <row r="46" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="392" t="s">
-        <v>163</v>
-      </c>
-      <c r="B46" s="392"/>
-      <c r="C46" s="392"/>
-      <c r="D46" s="392"/>
-      <c r="E46" s="392"/>
-      <c r="F46" s="392"/>
-      <c r="G46" s="392"/>
-      <c r="H46" s="392"/>
-      <c r="I46" s="393" t="str">
+      <c r="A46" s="382" t="s">
+        <v>161</v>
+      </c>
+      <c r="B46" s="382"/>
+      <c r="C46" s="382"/>
+      <c r="D46" s="382"/>
+      <c r="E46" s="382"/>
+      <c r="F46" s="382"/>
+      <c r="G46" s="382"/>
+      <c r="H46" s="382"/>
+      <c r="I46" s="383" t="str">
         <f>O20</f>
         <v>Зам. начальника ЛПДС "Рязань" Костин В.К.</v>
       </c>
-      <c r="J46" s="393"/>
-      <c r="K46" s="393"/>
-      <c r="L46" s="393"/>
-      <c r="M46" s="393"/>
-      <c r="N46" s="393"/>
-      <c r="O46" s="393"/>
-      <c r="P46" s="393"/>
-      <c r="Q46" s="393"/>
-      <c r="R46" s="393"/>
-      <c r="S46" s="393"/>
+      <c r="J46" s="383"/>
+      <c r="K46" s="383"/>
+      <c r="L46" s="383"/>
+      <c r="M46" s="383"/>
+      <c r="N46" s="383"/>
+      <c r="O46" s="383"/>
+      <c r="P46" s="383"/>
+      <c r="Q46" s="383"/>
+      <c r="R46" s="383"/>
+      <c r="S46" s="383"/>
       <c r="T46" s="112"/>
       <c r="U46" s="112"/>
       <c r="V46" s="112"/>
@@ -11687,25 +11664,25 @@
       <c r="AF46" s="106"/>
     </row>
     <row r="47" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="392"/>
-      <c r="B47" s="392"/>
-      <c r="C47" s="392"/>
-      <c r="D47" s="392"/>
-      <c r="E47" s="392"/>
-      <c r="F47" s="392"/>
-      <c r="G47" s="392"/>
-      <c r="H47" s="392"/>
-      <c r="I47" s="394"/>
-      <c r="J47" s="394"/>
-      <c r="K47" s="394"/>
-      <c r="L47" s="394"/>
-      <c r="M47" s="394"/>
-      <c r="N47" s="394"/>
-      <c r="O47" s="394"/>
-      <c r="P47" s="394"/>
-      <c r="Q47" s="394"/>
-      <c r="R47" s="394"/>
-      <c r="S47" s="394"/>
+      <c r="A47" s="382"/>
+      <c r="B47" s="382"/>
+      <c r="C47" s="382"/>
+      <c r="D47" s="382"/>
+      <c r="E47" s="382"/>
+      <c r="F47" s="382"/>
+      <c r="G47" s="382"/>
+      <c r="H47" s="382"/>
+      <c r="I47" s="384"/>
+      <c r="J47" s="384"/>
+      <c r="K47" s="384"/>
+      <c r="L47" s="384"/>
+      <c r="M47" s="384"/>
+      <c r="N47" s="384"/>
+      <c r="O47" s="384"/>
+      <c r="P47" s="384"/>
+      <c r="Q47" s="384"/>
+      <c r="R47" s="384"/>
+      <c r="S47" s="384"/>
       <c r="T47" s="68"/>
       <c r="U47" s="113"/>
       <c r="V47" s="113"/>
@@ -11714,53 +11691,53 @@
       <c r="Y47" s="115"/>
       <c r="Z47" s="115"/>
       <c r="AA47" s="116"/>
-      <c r="AB47" s="395" t="str">
+      <c r="AB47" s="385" t="str">
         <f>P9</f>
         <v>27.04.2019 г.</v>
       </c>
-      <c r="AC47" s="395"/>
-      <c r="AD47" s="395"/>
-      <c r="AE47" s="395"/>
+      <c r="AC47" s="385"/>
+      <c r="AD47" s="385"/>
+      <c r="AE47" s="385"/>
       <c r="AF47" s="106"/>
     </row>
     <row r="48" spans="1:40" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="392"/>
-      <c r="B48" s="392"/>
-      <c r="C48" s="392"/>
-      <c r="D48" s="392"/>
-      <c r="E48" s="392"/>
-      <c r="F48" s="392"/>
-      <c r="G48" s="392"/>
-      <c r="H48" s="392"/>
-      <c r="I48" s="374" t="s">
-        <v>9</v>
-      </c>
-      <c r="J48" s="374"/>
-      <c r="K48" s="374"/>
-      <c r="L48" s="374"/>
-      <c r="M48" s="374"/>
-      <c r="N48" s="374"/>
-      <c r="O48" s="374"/>
-      <c r="P48" s="374"/>
-      <c r="Q48" s="374"/>
-      <c r="R48" s="374"/>
-      <c r="S48" s="374"/>
+      <c r="A48" s="382"/>
+      <c r="B48" s="382"/>
+      <c r="C48" s="382"/>
+      <c r="D48" s="382"/>
+      <c r="E48" s="382"/>
+      <c r="F48" s="382"/>
+      <c r="G48" s="382"/>
+      <c r="H48" s="382"/>
+      <c r="I48" s="364" t="s">
+        <v>7</v>
+      </c>
+      <c r="J48" s="364"/>
+      <c r="K48" s="364"/>
+      <c r="L48" s="364"/>
+      <c r="M48" s="364"/>
+      <c r="N48" s="364"/>
+      <c r="O48" s="364"/>
+      <c r="P48" s="364"/>
+      <c r="Q48" s="364"/>
+      <c r="R48" s="364"/>
+      <c r="S48" s="364"/>
       <c r="T48" s="108"/>
-      <c r="U48" s="374" t="s">
-        <v>84</v>
-      </c>
-      <c r="V48" s="374"/>
-      <c r="W48" s="374"/>
-      <c r="X48" s="374"/>
-      <c r="Y48" s="374"/>
-      <c r="Z48" s="374"/>
+      <c r="U48" s="364" t="s">
+        <v>82</v>
+      </c>
+      <c r="V48" s="364"/>
+      <c r="W48" s="364"/>
+      <c r="X48" s="364"/>
+      <c r="Y48" s="364"/>
+      <c r="Z48" s="364"/>
       <c r="AA48" s="73"/>
-      <c r="AB48" s="375" t="s">
+      <c r="AB48" s="365" t="s">
         <v>1</v>
       </c>
-      <c r="AC48" s="375"/>
-      <c r="AD48" s="375"/>
-      <c r="AE48" s="375"/>
+      <c r="AC48" s="365"/>
+      <c r="AD48" s="365"/>
+      <c r="AE48" s="365"/>
       <c r="AF48" s="109"/>
       <c r="AG48" s="6"/>
       <c r="AH48" s="6"/>
@@ -12219,8 +12196,8 @@
   </sheetPr>
   <dimension ref="A1:AN67"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:AB20"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29:Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12317,15 +12294,15 @@
       <c r="S3" s="129"/>
       <c r="T3" s="43"/>
       <c r="U3" s="43"/>
-      <c r="V3" s="360" t="s">
-        <v>20</v>
-      </c>
-      <c r="W3" s="360"/>
-      <c r="X3" s="360"/>
-      <c r="Y3" s="360"/>
-      <c r="Z3" s="360"/>
-      <c r="AA3" s="360"/>
-      <c r="AB3" s="360"/>
+      <c r="V3" s="350" t="s">
+        <v>18</v>
+      </c>
+      <c r="W3" s="350"/>
+      <c r="X3" s="350"/>
+      <c r="Y3" s="350"/>
+      <c r="Z3" s="350"/>
+      <c r="AA3" s="350"/>
+      <c r="AB3" s="350"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="106"/>
@@ -12349,15 +12326,15 @@
       <c r="S4" s="106"/>
       <c r="T4" s="106"/>
       <c r="U4" s="106"/>
-      <c r="V4" s="368" t="s">
-        <v>21</v>
-      </c>
-      <c r="W4" s="368"/>
-      <c r="X4" s="368"/>
-      <c r="Y4" s="368"/>
-      <c r="Z4" s="368"/>
-      <c r="AA4" s="368"/>
-      <c r="AB4" s="368"/>
+      <c r="V4" s="358" t="s">
+        <v>19</v>
+      </c>
+      <c r="W4" s="358"/>
+      <c r="X4" s="358"/>
+      <c r="Y4" s="358"/>
+      <c r="Z4" s="358"/>
+      <c r="AA4" s="358"/>
+      <c r="AB4" s="358"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="106"/>
@@ -12381,15 +12358,15 @@
       <c r="S5" s="106"/>
       <c r="T5" s="106"/>
       <c r="U5" s="106"/>
-      <c r="V5" s="368" t="s">
-        <v>22</v>
-      </c>
-      <c r="W5" s="368"/>
-      <c r="X5" s="368"/>
-      <c r="Y5" s="368"/>
-      <c r="Z5" s="368"/>
-      <c r="AA5" s="368"/>
-      <c r="AB5" s="368"/>
+      <c r="V5" s="358" t="s">
+        <v>20</v>
+      </c>
+      <c r="W5" s="358"/>
+      <c r="X5" s="358"/>
+      <c r="Y5" s="358"/>
+      <c r="Z5" s="358"/>
+      <c r="AA5" s="358"/>
+      <c r="AB5" s="358"/>
     </row>
     <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="106"/>
@@ -12413,15 +12390,15 @@
       <c r="S6" s="106"/>
       <c r="T6" s="106"/>
       <c r="U6" s="106"/>
-      <c r="V6" s="435" t="s">
-        <v>23</v>
-      </c>
-      <c r="W6" s="435"/>
-      <c r="X6" s="435"/>
-      <c r="Y6" s="435"/>
-      <c r="Z6" s="435"/>
-      <c r="AA6" s="435"/>
-      <c r="AB6" s="435"/>
+      <c r="V6" s="425" t="s">
+        <v>21</v>
+      </c>
+      <c r="W6" s="425"/>
+      <c r="X6" s="425"/>
+      <c r="Y6" s="425"/>
+      <c r="Z6" s="425"/>
+      <c r="AA6" s="425"/>
+      <c r="AB6" s="425"/>
     </row>
     <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="106"/>
@@ -12495,16 +12472,16 @@
       <c r="I9" s="39"/>
       <c r="J9" s="39"/>
       <c r="K9" s="39"/>
-      <c r="L9" s="437" t="s">
-        <v>133</v>
-      </c>
-      <c r="M9" s="437"/>
-      <c r="N9" s="437"/>
-      <c r="O9" s="436">
+      <c r="L9" s="427" t="s">
+        <v>131</v>
+      </c>
+      <c r="M9" s="427"/>
+      <c r="N9" s="427"/>
+      <c r="O9" s="426">
         <f>'Выборочный ремонт'!P9</f>
         <v>3</v>
       </c>
-      <c r="P9" s="436"/>
+      <c r="P9" s="426"/>
       <c r="Q9" s="39"/>
       <c r="R9" s="39"/>
       <c r="S9" s="39"/>
@@ -12531,36 +12508,36 @@
       <c r="AN9" s="6"/>
     </row>
     <row r="10" spans="1:40" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="387" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" s="387"/>
-      <c r="C10" s="387"/>
-      <c r="D10" s="387"/>
-      <c r="E10" s="387"/>
-      <c r="F10" s="387"/>
-      <c r="G10" s="387"/>
-      <c r="H10" s="387"/>
-      <c r="I10" s="387"/>
-      <c r="J10" s="387"/>
-      <c r="K10" s="387"/>
-      <c r="L10" s="387"/>
-      <c r="M10" s="387"/>
-      <c r="N10" s="387"/>
-      <c r="O10" s="387"/>
-      <c r="P10" s="387"/>
-      <c r="Q10" s="387"/>
-      <c r="R10" s="387"/>
-      <c r="S10" s="387"/>
-      <c r="T10" s="387"/>
-      <c r="U10" s="387"/>
-      <c r="V10" s="387"/>
-      <c r="W10" s="387"/>
-      <c r="X10" s="387"/>
-      <c r="Y10" s="387"/>
-      <c r="Z10" s="387"/>
-      <c r="AA10" s="387"/>
-      <c r="AB10" s="387"/>
+      <c r="A10" s="377" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="377"/>
+      <c r="C10" s="377"/>
+      <c r="D10" s="377"/>
+      <c r="E10" s="377"/>
+      <c r="F10" s="377"/>
+      <c r="G10" s="377"/>
+      <c r="H10" s="377"/>
+      <c r="I10" s="377"/>
+      <c r="J10" s="377"/>
+      <c r="K10" s="377"/>
+      <c r="L10" s="377"/>
+      <c r="M10" s="377"/>
+      <c r="N10" s="377"/>
+      <c r="O10" s="377"/>
+      <c r="P10" s="377"/>
+      <c r="Q10" s="377"/>
+      <c r="R10" s="377"/>
+      <c r="S10" s="377"/>
+      <c r="T10" s="377"/>
+      <c r="U10" s="377"/>
+      <c r="V10" s="377"/>
+      <c r="W10" s="377"/>
+      <c r="X10" s="377"/>
+      <c r="Y10" s="377"/>
+      <c r="Z10" s="377"/>
+      <c r="AA10" s="377"/>
+      <c r="AB10" s="377"/>
       <c r="AC10" s="8"/>
       <c r="AD10" s="8"/>
       <c r="AE10" s="8"/>
@@ -12575,36 +12552,36 @@
       <c r="AN10" s="8"/>
     </row>
     <row r="11" spans="1:40" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="387" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="387"/>
-      <c r="C11" s="387"/>
-      <c r="D11" s="387"/>
-      <c r="E11" s="387"/>
-      <c r="F11" s="387"/>
-      <c r="G11" s="387"/>
-      <c r="H11" s="387"/>
-      <c r="I11" s="387"/>
-      <c r="J11" s="387"/>
-      <c r="K11" s="387"/>
-      <c r="L11" s="387"/>
-      <c r="M11" s="387"/>
-      <c r="N11" s="387"/>
-      <c r="O11" s="387"/>
-      <c r="P11" s="387"/>
-      <c r="Q11" s="387"/>
-      <c r="R11" s="387"/>
-      <c r="S11" s="387"/>
-      <c r="T11" s="387"/>
-      <c r="U11" s="387"/>
-      <c r="V11" s="387"/>
-      <c r="W11" s="387"/>
-      <c r="X11" s="387"/>
-      <c r="Y11" s="387"/>
-      <c r="Z11" s="387"/>
-      <c r="AA11" s="387"/>
-      <c r="AB11" s="387"/>
+      <c r="A11" s="377" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="377"/>
+      <c r="C11" s="377"/>
+      <c r="D11" s="377"/>
+      <c r="E11" s="377"/>
+      <c r="F11" s="377"/>
+      <c r="G11" s="377"/>
+      <c r="H11" s="377"/>
+      <c r="I11" s="377"/>
+      <c r="J11" s="377"/>
+      <c r="K11" s="377"/>
+      <c r="L11" s="377"/>
+      <c r="M11" s="377"/>
+      <c r="N11" s="377"/>
+      <c r="O11" s="377"/>
+      <c r="P11" s="377"/>
+      <c r="Q11" s="377"/>
+      <c r="R11" s="377"/>
+      <c r="S11" s="377"/>
+      <c r="T11" s="377"/>
+      <c r="U11" s="377"/>
+      <c r="V11" s="377"/>
+      <c r="W11" s="377"/>
+      <c r="X11" s="377"/>
+      <c r="Y11" s="377"/>
+      <c r="Z11" s="377"/>
+      <c r="AA11" s="377"/>
+      <c r="AB11" s="377"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
@@ -12655,27 +12632,27 @@
       <c r="D13" s="43"/>
       <c r="E13" s="106"/>
       <c r="F13" s="106"/>
-      <c r="G13" s="360" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="360"/>
-      <c r="I13" s="360"/>
-      <c r="J13" s="360"/>
-      <c r="K13" s="360"/>
-      <c r="L13" s="363" t="s">
+      <c r="G13" s="350" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="350"/>
+      <c r="I13" s="350"/>
+      <c r="J13" s="350"/>
+      <c r="K13" s="350"/>
+      <c r="L13" s="353" t="s">
         <v>2</v>
       </c>
-      <c r="M13" s="363"/>
-      <c r="N13" s="363"/>
-      <c r="O13" s="363"/>
-      <c r="P13" s="363"/>
-      <c r="Q13" s="363"/>
-      <c r="R13" s="363"/>
-      <c r="S13" s="363"/>
-      <c r="T13" s="363"/>
-      <c r="U13" s="363"/>
-      <c r="V13" s="363"/>
-      <c r="W13" s="363"/>
+      <c r="M13" s="353"/>
+      <c r="N13" s="353"/>
+      <c r="O13" s="353"/>
+      <c r="P13" s="353"/>
+      <c r="Q13" s="353"/>
+      <c r="R13" s="353"/>
+      <c r="S13" s="353"/>
+      <c r="T13" s="353"/>
+      <c r="U13" s="353"/>
+      <c r="V13" s="353"/>
+      <c r="W13" s="353"/>
       <c r="X13" s="58"/>
       <c r="Y13" s="59"/>
       <c r="Z13" s="59"/>
@@ -12689,26 +12666,26 @@
       <c r="D14" s="43"/>
       <c r="E14" s="106"/>
       <c r="F14" s="106"/>
-      <c r="G14" s="360" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="360"/>
-      <c r="I14" s="360"/>
-      <c r="J14" s="360"/>
-      <c r="K14" s="360"/>
-      <c r="L14" s="363" t="s">
-        <v>27</v>
-      </c>
-      <c r="M14" s="363"/>
-      <c r="N14" s="363"/>
-      <c r="O14" s="363"/>
-      <c r="P14" s="363"/>
-      <c r="Q14" s="363"/>
-      <c r="R14" s="363"/>
-      <c r="S14" s="363"/>
-      <c r="T14" s="363"/>
-      <c r="U14" s="363"/>
-      <c r="V14" s="363"/>
+      <c r="G14" s="350" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="350"/>
+      <c r="I14" s="350"/>
+      <c r="J14" s="350"/>
+      <c r="K14" s="350"/>
+      <c r="L14" s="353" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="353"/>
+      <c r="N14" s="353"/>
+      <c r="O14" s="353"/>
+      <c r="P14" s="353"/>
+      <c r="Q14" s="353"/>
+      <c r="R14" s="353"/>
+      <c r="S14" s="353"/>
+      <c r="T14" s="353"/>
+      <c r="U14" s="353"/>
+      <c r="V14" s="353"/>
       <c r="W14" s="60"/>
       <c r="X14" s="60"/>
       <c r="Y14" s="42"/>
@@ -12723,15 +12700,15 @@
       <c r="D15" s="131"/>
       <c r="E15" s="131"/>
       <c r="F15" s="131"/>
-      <c r="G15" s="366" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="366"/>
-      <c r="I15" s="366"/>
-      <c r="J15" s="366"/>
-      <c r="K15" s="366"/>
+      <c r="G15" s="356" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="356"/>
+      <c r="I15" s="356"/>
+      <c r="J15" s="356"/>
+      <c r="K15" s="356"/>
       <c r="L15" s="172" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M15" s="172"/>
       <c r="N15" s="172"/>
@@ -12757,19 +12734,19 @@
       <c r="D16" s="43"/>
       <c r="E16" s="106"/>
       <c r="F16" s="106"/>
-      <c r="G16" s="360" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="360"/>
-      <c r="I16" s="360"/>
-      <c r="J16" s="360"/>
-      <c r="K16" s="360"/>
-      <c r="L16" s="361" t="s">
-        <v>17</v>
-      </c>
-      <c r="M16" s="361"/>
-      <c r="N16" s="361"/>
-      <c r="O16" s="361"/>
+      <c r="G16" s="350" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="350"/>
+      <c r="I16" s="350"/>
+      <c r="J16" s="350"/>
+      <c r="K16" s="350"/>
+      <c r="L16" s="351" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="351"/>
+      <c r="N16" s="351"/>
+      <c r="O16" s="351"/>
       <c r="P16" s="60"/>
       <c r="Q16" s="60"/>
       <c r="R16" s="60"/>
@@ -12815,66 +12792,66 @@
       <c r="AB17" s="43"/>
     </row>
     <row r="18" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="377" t="s">
-        <v>134</v>
-      </c>
-      <c r="B18" s="377"/>
-      <c r="C18" s="377"/>
-      <c r="D18" s="377"/>
-      <c r="E18" s="377"/>
-      <c r="F18" s="377"/>
-      <c r="G18" s="377"/>
-      <c r="H18" s="377"/>
-      <c r="I18" s="377"/>
-      <c r="J18" s="377"/>
-      <c r="K18" s="377"/>
-      <c r="L18" s="377"/>
-      <c r="M18" s="377"/>
-      <c r="N18" s="377"/>
-      <c r="O18" s="377"/>
-      <c r="P18" s="377"/>
-      <c r="Q18" s="377"/>
-      <c r="R18" s="377"/>
-      <c r="S18" s="377"/>
-      <c r="T18" s="377"/>
-      <c r="U18" s="377"/>
-      <c r="V18" s="377"/>
-      <c r="W18" s="377"/>
-      <c r="X18" s="377"/>
-      <c r="Y18" s="377"/>
-      <c r="Z18" s="377"/>
-      <c r="AA18" s="377"/>
-      <c r="AB18" s="377"/>
+      <c r="A18" s="367" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" s="367"/>
+      <c r="C18" s="367"/>
+      <c r="D18" s="367"/>
+      <c r="E18" s="367"/>
+      <c r="F18" s="367"/>
+      <c r="G18" s="367"/>
+      <c r="H18" s="367"/>
+      <c r="I18" s="367"/>
+      <c r="J18" s="367"/>
+      <c r="K18" s="367"/>
+      <c r="L18" s="367"/>
+      <c r="M18" s="367"/>
+      <c r="N18" s="367"/>
+      <c r="O18" s="367"/>
+      <c r="P18" s="367"/>
+      <c r="Q18" s="367"/>
+      <c r="R18" s="367"/>
+      <c r="S18" s="367"/>
+      <c r="T18" s="367"/>
+      <c r="U18" s="367"/>
+      <c r="V18" s="367"/>
+      <c r="W18" s="367"/>
+      <c r="X18" s="367"/>
+      <c r="Y18" s="367"/>
+      <c r="Z18" s="367"/>
+      <c r="AA18" s="367"/>
+      <c r="AB18" s="367"/>
     </row>
     <row r="19" spans="1:40" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="377"/>
-      <c r="B19" s="377"/>
-      <c r="C19" s="377"/>
-      <c r="D19" s="377"/>
-      <c r="E19" s="377"/>
-      <c r="F19" s="377"/>
-      <c r="G19" s="377"/>
-      <c r="H19" s="377"/>
-      <c r="I19" s="377"/>
-      <c r="J19" s="377"/>
-      <c r="K19" s="377"/>
-      <c r="L19" s="377"/>
-      <c r="M19" s="377"/>
-      <c r="N19" s="377"/>
-      <c r="O19" s="377"/>
-      <c r="P19" s="377"/>
-      <c r="Q19" s="377"/>
-      <c r="R19" s="377"/>
-      <c r="S19" s="377"/>
-      <c r="T19" s="377"/>
-      <c r="U19" s="377"/>
-      <c r="V19" s="377"/>
-      <c r="W19" s="377"/>
-      <c r="X19" s="377"/>
-      <c r="Y19" s="377"/>
-      <c r="Z19" s="377"/>
-      <c r="AA19" s="377"/>
-      <c r="AB19" s="377"/>
+      <c r="A19" s="367"/>
+      <c r="B19" s="367"/>
+      <c r="C19" s="367"/>
+      <c r="D19" s="367"/>
+      <c r="E19" s="367"/>
+      <c r="F19" s="367"/>
+      <c r="G19" s="367"/>
+      <c r="H19" s="367"/>
+      <c r="I19" s="367"/>
+      <c r="J19" s="367"/>
+      <c r="K19" s="367"/>
+      <c r="L19" s="367"/>
+      <c r="M19" s="367"/>
+      <c r="N19" s="367"/>
+      <c r="O19" s="367"/>
+      <c r="P19" s="367"/>
+      <c r="Q19" s="367"/>
+      <c r="R19" s="367"/>
+      <c r="S19" s="367"/>
+      <c r="T19" s="367"/>
+      <c r="U19" s="367"/>
+      <c r="V19" s="367"/>
+      <c r="W19" s="367"/>
+      <c r="X19" s="367"/>
+      <c r="Y19" s="367"/>
+      <c r="Z19" s="367"/>
+      <c r="AA19" s="367"/>
+      <c r="AB19" s="367"/>
       <c r="AC19" s="8"/>
       <c r="AD19" s="8"/>
       <c r="AE19" s="8"/>
@@ -12889,110 +12866,110 @@
       <c r="AN19" s="8"/>
     </row>
     <row r="20" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="377"/>
-      <c r="B20" s="377"/>
-      <c r="C20" s="377"/>
-      <c r="D20" s="377"/>
-      <c r="E20" s="377"/>
-      <c r="F20" s="377"/>
-      <c r="G20" s="377"/>
-      <c r="H20" s="377"/>
-      <c r="I20" s="377"/>
-      <c r="J20" s="377"/>
-      <c r="K20" s="377"/>
-      <c r="L20" s="377"/>
-      <c r="M20" s="377"/>
-      <c r="N20" s="377"/>
-      <c r="O20" s="377"/>
-      <c r="P20" s="377"/>
-      <c r="Q20" s="377"/>
-      <c r="R20" s="377"/>
-      <c r="S20" s="377"/>
-      <c r="T20" s="377"/>
-      <c r="U20" s="377"/>
-      <c r="V20" s="377"/>
-      <c r="W20" s="377"/>
-      <c r="X20" s="377"/>
-      <c r="Y20" s="377"/>
-      <c r="Z20" s="377"/>
-      <c r="AA20" s="377"/>
-      <c r="AB20" s="377"/>
+      <c r="A20" s="367"/>
+      <c r="B20" s="367"/>
+      <c r="C20" s="367"/>
+      <c r="D20" s="367"/>
+      <c r="E20" s="367"/>
+      <c r="F20" s="367"/>
+      <c r="G20" s="367"/>
+      <c r="H20" s="367"/>
+      <c r="I20" s="367"/>
+      <c r="J20" s="367"/>
+      <c r="K20" s="367"/>
+      <c r="L20" s="367"/>
+      <c r="M20" s="367"/>
+      <c r="N20" s="367"/>
+      <c r="O20" s="367"/>
+      <c r="P20" s="367"/>
+      <c r="Q20" s="367"/>
+      <c r="R20" s="367"/>
+      <c r="S20" s="367"/>
+      <c r="T20" s="367"/>
+      <c r="U20" s="367"/>
+      <c r="V20" s="367"/>
+      <c r="W20" s="367"/>
+      <c r="X20" s="367"/>
+      <c r="Y20" s="367"/>
+      <c r="Z20" s="367"/>
+      <c r="AA20" s="367"/>
+      <c r="AB20" s="367"/>
     </row>
     <row r="21" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="387" t="s">
+      <c r="A21" s="377" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="377"/>
+      <c r="C21" s="377"/>
+      <c r="D21" s="377"/>
+      <c r="E21" s="377"/>
+      <c r="F21" s="377"/>
+      <c r="G21" s="377"/>
+      <c r="H21" s="377"/>
+      <c r="I21" s="377"/>
+      <c r="J21" s="377"/>
+      <c r="K21" s="377"/>
+      <c r="L21" s="377"/>
+      <c r="M21" s="377"/>
+      <c r="N21" s="377"/>
+      <c r="O21" s="377"/>
+      <c r="P21" s="377"/>
+      <c r="Q21" s="377"/>
+      <c r="R21" s="377"/>
+      <c r="S21" s="377"/>
+      <c r="T21" s="377"/>
+      <c r="U21" s="377"/>
+      <c r="V21" s="377"/>
+      <c r="W21" s="377"/>
+      <c r="X21" s="377"/>
+      <c r="Y21" s="377"/>
+      <c r="Z21" s="377"/>
+      <c r="AA21" s="377"/>
+      <c r="AB21" s="377"/>
+    </row>
+    <row r="22" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="422" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="417" t="s">
         <v>97</v>
       </c>
-      <c r="B21" s="387"/>
-      <c r="C21" s="387"/>
-      <c r="D21" s="387"/>
-      <c r="E21" s="387"/>
-      <c r="F21" s="387"/>
-      <c r="G21" s="387"/>
-      <c r="H21" s="387"/>
-      <c r="I21" s="387"/>
-      <c r="J21" s="387"/>
-      <c r="K21" s="387"/>
-      <c r="L21" s="387"/>
-      <c r="M21" s="387"/>
-      <c r="N21" s="387"/>
-      <c r="O21" s="387"/>
-      <c r="P21" s="387"/>
-      <c r="Q21" s="387"/>
-      <c r="R21" s="387"/>
-      <c r="S21" s="387"/>
-      <c r="T21" s="387"/>
-      <c r="U21" s="387"/>
-      <c r="V21" s="387"/>
-      <c r="W21" s="387"/>
-      <c r="X21" s="387"/>
-      <c r="Y21" s="387"/>
-      <c r="Z21" s="387"/>
-      <c r="AA21" s="387"/>
-      <c r="AB21" s="387"/>
-    </row>
-    <row r="22" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="432" t="s">
+      <c r="C22" s="417"/>
+      <c r="D22" s="417"/>
+      <c r="E22" s="417"/>
+      <c r="F22" s="417"/>
+      <c r="G22" s="417"/>
+      <c r="H22" s="417"/>
+      <c r="I22" s="417"/>
+      <c r="J22" s="417"/>
+      <c r="K22" s="417"/>
+      <c r="L22" s="417"/>
+      <c r="M22" s="417"/>
+      <c r="N22" s="424" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="427" t="s">
+      <c r="O22" s="424"/>
+      <c r="P22" s="424" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="427"/>
-      <c r="D22" s="427"/>
-      <c r="E22" s="427"/>
-      <c r="F22" s="427"/>
-      <c r="G22" s="427"/>
-      <c r="H22" s="427"/>
-      <c r="I22" s="427"/>
-      <c r="J22" s="427"/>
-      <c r="K22" s="427"/>
-      <c r="L22" s="427"/>
-      <c r="M22" s="427"/>
-      <c r="N22" s="434" t="s">
+      <c r="Q22" s="424"/>
+      <c r="R22" s="422" t="s">
         <v>100</v>
       </c>
-      <c r="O22" s="434"/>
-      <c r="P22" s="434" t="s">
+      <c r="S22" s="422"/>
+      <c r="T22" s="422"/>
+      <c r="U22" s="422"/>
+      <c r="V22" s="422" t="s">
         <v>101</v>
       </c>
-      <c r="Q22" s="434"/>
-      <c r="R22" s="432" t="s">
+      <c r="W22" s="422"/>
+      <c r="X22" s="422"/>
+      <c r="Y22" s="422"/>
+      <c r="Z22" s="422"/>
+      <c r="AA22" s="417" t="s">
         <v>102</v>
       </c>
-      <c r="S22" s="432"/>
-      <c r="T22" s="432"/>
-      <c r="U22" s="432"/>
-      <c r="V22" s="432" t="s">
-        <v>103</v>
-      </c>
-      <c r="W22" s="432"/>
-      <c r="X22" s="432"/>
-      <c r="Y22" s="432"/>
-      <c r="Z22" s="432"/>
-      <c r="AA22" s="427" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB22" s="427"/>
+      <c r="AB22" s="417"/>
       <c r="AC22" s="11"/>
       <c r="AD22" s="11"/>
       <c r="AE22" s="11"/>
@@ -13007,34 +12984,34 @@
       <c r="AN22" s="11"/>
     </row>
     <row r="23" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="433"/>
-      <c r="B23" s="427"/>
-      <c r="C23" s="427"/>
-      <c r="D23" s="427"/>
-      <c r="E23" s="427"/>
-      <c r="F23" s="427"/>
-      <c r="G23" s="427"/>
-      <c r="H23" s="427"/>
-      <c r="I23" s="427"/>
-      <c r="J23" s="427"/>
-      <c r="K23" s="427"/>
-      <c r="L23" s="427"/>
-      <c r="M23" s="427"/>
-      <c r="N23" s="434"/>
-      <c r="O23" s="434"/>
-      <c r="P23" s="434"/>
-      <c r="Q23" s="434"/>
-      <c r="R23" s="432"/>
-      <c r="S23" s="432"/>
-      <c r="T23" s="432"/>
-      <c r="U23" s="432"/>
-      <c r="V23" s="432"/>
-      <c r="W23" s="432"/>
-      <c r="X23" s="432"/>
-      <c r="Y23" s="432"/>
-      <c r="Z23" s="432"/>
-      <c r="AA23" s="427"/>
-      <c r="AB23" s="427"/>
+      <c r="A23" s="423"/>
+      <c r="B23" s="417"/>
+      <c r="C23" s="417"/>
+      <c r="D23" s="417"/>
+      <c r="E23" s="417"/>
+      <c r="F23" s="417"/>
+      <c r="G23" s="417"/>
+      <c r="H23" s="417"/>
+      <c r="I23" s="417"/>
+      <c r="J23" s="417"/>
+      <c r="K23" s="417"/>
+      <c r="L23" s="417"/>
+      <c r="M23" s="417"/>
+      <c r="N23" s="424"/>
+      <c r="O23" s="424"/>
+      <c r="P23" s="424"/>
+      <c r="Q23" s="424"/>
+      <c r="R23" s="422"/>
+      <c r="S23" s="422"/>
+      <c r="T23" s="422"/>
+      <c r="U23" s="422"/>
+      <c r="V23" s="422"/>
+      <c r="W23" s="422"/>
+      <c r="X23" s="422"/>
+      <c r="Y23" s="422"/>
+      <c r="Z23" s="422"/>
+      <c r="AA23" s="417"/>
+      <c r="AB23" s="417"/>
       <c r="AC23" s="11"/>
       <c r="AD23" s="11"/>
       <c r="AE23" s="11"/>
@@ -13049,34 +13026,34 @@
       <c r="AN23" s="11"/>
     </row>
     <row r="24" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="433"/>
-      <c r="B24" s="427"/>
-      <c r="C24" s="427"/>
-      <c r="D24" s="427"/>
-      <c r="E24" s="427"/>
-      <c r="F24" s="427"/>
-      <c r="G24" s="427"/>
-      <c r="H24" s="427"/>
-      <c r="I24" s="427"/>
-      <c r="J24" s="427"/>
-      <c r="K24" s="427"/>
-      <c r="L24" s="427"/>
-      <c r="M24" s="427"/>
-      <c r="N24" s="434"/>
-      <c r="O24" s="434"/>
-      <c r="P24" s="434"/>
-      <c r="Q24" s="434"/>
-      <c r="R24" s="432"/>
-      <c r="S24" s="432"/>
-      <c r="T24" s="432"/>
-      <c r="U24" s="432"/>
-      <c r="V24" s="432"/>
-      <c r="W24" s="432"/>
-      <c r="X24" s="432"/>
-      <c r="Y24" s="432"/>
-      <c r="Z24" s="432"/>
-      <c r="AA24" s="427"/>
-      <c r="AB24" s="427"/>
+      <c r="A24" s="423"/>
+      <c r="B24" s="417"/>
+      <c r="C24" s="417"/>
+      <c r="D24" s="417"/>
+      <c r="E24" s="417"/>
+      <c r="F24" s="417"/>
+      <c r="G24" s="417"/>
+      <c r="H24" s="417"/>
+      <c r="I24" s="417"/>
+      <c r="J24" s="417"/>
+      <c r="K24" s="417"/>
+      <c r="L24" s="417"/>
+      <c r="M24" s="417"/>
+      <c r="N24" s="424"/>
+      <c r="O24" s="424"/>
+      <c r="P24" s="424"/>
+      <c r="Q24" s="424"/>
+      <c r="R24" s="422"/>
+      <c r="S24" s="422"/>
+      <c r="T24" s="422"/>
+      <c r="U24" s="422"/>
+      <c r="V24" s="422"/>
+      <c r="W24" s="422"/>
+      <c r="X24" s="422"/>
+      <c r="Y24" s="422"/>
+      <c r="Z24" s="422"/>
+      <c r="AA24" s="417"/>
+      <c r="AB24" s="417"/>
       <c r="AC24" s="11"/>
       <c r="AD24" s="11"/>
       <c r="AE24" s="11"/>
@@ -13094,43 +13071,43 @@
       <c r="A25" s="132">
         <v>1</v>
       </c>
-      <c r="B25" s="417" t="s">
-        <v>132</v>
-      </c>
-      <c r="C25" s="418"/>
-      <c r="D25" s="418"/>
-      <c r="E25" s="418"/>
-      <c r="F25" s="418"/>
-      <c r="G25" s="418"/>
-      <c r="H25" s="418"/>
-      <c r="I25" s="418"/>
-      <c r="J25" s="418"/>
-      <c r="K25" s="418"/>
-      <c r="L25" s="418"/>
-      <c r="M25" s="419"/>
-      <c r="N25" s="413" t="s">
+      <c r="B25" s="407" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="408"/>
+      <c r="D25" s="408"/>
+      <c r="E25" s="408"/>
+      <c r="F25" s="408"/>
+      <c r="G25" s="408"/>
+      <c r="H25" s="408"/>
+      <c r="I25" s="408"/>
+      <c r="J25" s="408"/>
+      <c r="K25" s="408"/>
+      <c r="L25" s="408"/>
+      <c r="M25" s="409"/>
+      <c r="N25" s="403" t="s">
+        <v>103</v>
+      </c>
+      <c r="O25" s="404"/>
+      <c r="P25" s="418">
+        <v>63</v>
+      </c>
+      <c r="Q25" s="419"/>
+      <c r="R25" s="410" t="s">
+        <v>104</v>
+      </c>
+      <c r="S25" s="411"/>
+      <c r="T25" s="411"/>
+      <c r="U25" s="412"/>
+      <c r="V25" s="407" t="s">
         <v>105</v>
       </c>
-      <c r="O25" s="414"/>
-      <c r="P25" s="428">
-        <v>63</v>
-      </c>
-      <c r="Q25" s="429"/>
-      <c r="R25" s="420" t="s">
-        <v>106</v>
-      </c>
-      <c r="S25" s="421"/>
-      <c r="T25" s="421"/>
-      <c r="U25" s="422"/>
-      <c r="V25" s="417" t="s">
-        <v>107</v>
-      </c>
-      <c r="W25" s="418"/>
-      <c r="X25" s="418"/>
-      <c r="Y25" s="418"/>
-      <c r="Z25" s="419"/>
-      <c r="AA25" s="430"/>
-      <c r="AB25" s="431"/>
+      <c r="W25" s="408"/>
+      <c r="X25" s="408"/>
+      <c r="Y25" s="408"/>
+      <c r="Z25" s="409"/>
+      <c r="AA25" s="420"/>
+      <c r="AB25" s="421"/>
       <c r="AC25" s="11"/>
       <c r="AD25" s="11"/>
       <c r="AE25" s="11"/>
@@ -13148,44 +13125,44 @@
       <c r="A26" s="133">
         <v>2</v>
       </c>
-      <c r="B26" s="417" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="418"/>
-      <c r="D26" s="418"/>
-      <c r="E26" s="418"/>
-      <c r="F26" s="418"/>
-      <c r="G26" s="418"/>
-      <c r="H26" s="418"/>
-      <c r="I26" s="418"/>
-      <c r="J26" s="418"/>
-      <c r="K26" s="418"/>
-      <c r="L26" s="418"/>
-      <c r="M26" s="419"/>
-      <c r="N26" s="413" t="s">
-        <v>109</v>
-      </c>
-      <c r="O26" s="414"/>
-      <c r="P26" s="423">
+      <c r="B26" s="407" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="408"/>
+      <c r="D26" s="408"/>
+      <c r="E26" s="408"/>
+      <c r="F26" s="408"/>
+      <c r="G26" s="408"/>
+      <c r="H26" s="408"/>
+      <c r="I26" s="408"/>
+      <c r="J26" s="408"/>
+      <c r="K26" s="408"/>
+      <c r="L26" s="408"/>
+      <c r="M26" s="409"/>
+      <c r="N26" s="403" t="s">
+        <v>107</v>
+      </c>
+      <c r="O26" s="404"/>
+      <c r="P26" s="413">
         <v>1.2</v>
       </c>
-      <c r="Q26" s="424"/>
-      <c r="R26" s="417" t="str">
+      <c r="Q26" s="414"/>
+      <c r="R26" s="407" t="str">
         <f>R25</f>
         <v>25.04.2019 г.</v>
       </c>
-      <c r="S26" s="418"/>
-      <c r="T26" s="418"/>
-      <c r="U26" s="419"/>
-      <c r="V26" s="417" t="s">
-        <v>107</v>
-      </c>
-      <c r="W26" s="418"/>
-      <c r="X26" s="418"/>
-      <c r="Y26" s="418"/>
-      <c r="Z26" s="419"/>
-      <c r="AA26" s="417"/>
-      <c r="AB26" s="419"/>
+      <c r="S26" s="408"/>
+      <c r="T26" s="408"/>
+      <c r="U26" s="409"/>
+      <c r="V26" s="407" t="s">
+        <v>105</v>
+      </c>
+      <c r="W26" s="408"/>
+      <c r="X26" s="408"/>
+      <c r="Y26" s="408"/>
+      <c r="Z26" s="409"/>
+      <c r="AA26" s="407"/>
+      <c r="AB26" s="409"/>
       <c r="AC26" s="11"/>
       <c r="AD26" s="11"/>
       <c r="AE26" s="11"/>
@@ -13203,44 +13180,44 @@
       <c r="A27" s="133">
         <v>3</v>
       </c>
-      <c r="B27" s="417" t="s">
-        <v>131</v>
-      </c>
-      <c r="C27" s="418"/>
-      <c r="D27" s="418"/>
-      <c r="E27" s="418"/>
-      <c r="F27" s="418"/>
-      <c r="G27" s="418"/>
-      <c r="H27" s="418"/>
-      <c r="I27" s="418"/>
-      <c r="J27" s="418"/>
-      <c r="K27" s="418"/>
-      <c r="L27" s="418"/>
-      <c r="M27" s="419"/>
-      <c r="N27" s="413" t="s">
-        <v>110</v>
-      </c>
-      <c r="O27" s="414"/>
-      <c r="P27" s="413">
+      <c r="B27" s="407" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" s="408"/>
+      <c r="D27" s="408"/>
+      <c r="E27" s="408"/>
+      <c r="F27" s="408"/>
+      <c r="G27" s="408"/>
+      <c r="H27" s="408"/>
+      <c r="I27" s="408"/>
+      <c r="J27" s="408"/>
+      <c r="K27" s="408"/>
+      <c r="L27" s="408"/>
+      <c r="M27" s="409"/>
+      <c r="N27" s="403" t="s">
+        <v>108</v>
+      </c>
+      <c r="O27" s="404"/>
+      <c r="P27" s="403">
         <v>1</v>
       </c>
-      <c r="Q27" s="414"/>
-      <c r="R27" s="417" t="str">
+      <c r="Q27" s="404"/>
+      <c r="R27" s="407" t="str">
         <f>R25</f>
         <v>25.04.2019 г.</v>
       </c>
-      <c r="S27" s="418"/>
-      <c r="T27" s="418"/>
-      <c r="U27" s="419"/>
-      <c r="V27" s="417" t="s">
-        <v>111</v>
-      </c>
-      <c r="W27" s="418"/>
-      <c r="X27" s="418"/>
-      <c r="Y27" s="418"/>
-      <c r="Z27" s="419"/>
-      <c r="AA27" s="417"/>
-      <c r="AB27" s="419"/>
+      <c r="S27" s="408"/>
+      <c r="T27" s="408"/>
+      <c r="U27" s="409"/>
+      <c r="V27" s="407" t="s">
+        <v>109</v>
+      </c>
+      <c r="W27" s="408"/>
+      <c r="X27" s="408"/>
+      <c r="Y27" s="408"/>
+      <c r="Z27" s="409"/>
+      <c r="AA27" s="407"/>
+      <c r="AB27" s="409"/>
       <c r="AC27" s="11"/>
       <c r="AD27" s="11"/>
       <c r="AE27" s="11"/>
@@ -13258,45 +13235,45 @@
       <c r="A28" s="133">
         <v>4</v>
       </c>
-      <c r="B28" s="417" t="s">
-        <v>164</v>
-      </c>
-      <c r="C28" s="418"/>
-      <c r="D28" s="418"/>
-      <c r="E28" s="418"/>
-      <c r="F28" s="418"/>
-      <c r="G28" s="418"/>
-      <c r="H28" s="418"/>
-      <c r="I28" s="418"/>
-      <c r="J28" s="418"/>
-      <c r="K28" s="418"/>
-      <c r="L28" s="418"/>
-      <c r="M28" s="419"/>
-      <c r="N28" s="413" t="s">
-        <v>110</v>
-      </c>
-      <c r="O28" s="414"/>
-      <c r="P28" s="425">
+      <c r="B28" s="407" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" s="408"/>
+      <c r="D28" s="408"/>
+      <c r="E28" s="408"/>
+      <c r="F28" s="408"/>
+      <c r="G28" s="408"/>
+      <c r="H28" s="408"/>
+      <c r="I28" s="408"/>
+      <c r="J28" s="408"/>
+      <c r="K28" s="408"/>
+      <c r="L28" s="408"/>
+      <c r="M28" s="409"/>
+      <c r="N28" s="403" t="s">
+        <v>108</v>
+      </c>
+      <c r="O28" s="404"/>
+      <c r="P28" s="415">
         <v>1</v>
       </c>
-      <c r="Q28" s="426"/>
-      <c r="R28" s="417" t="str">
+      <c r="Q28" s="416"/>
+      <c r="R28" s="407" t="str">
         <f>R25</f>
         <v>25.04.2019 г.</v>
       </c>
-      <c r="S28" s="418"/>
-      <c r="T28" s="418"/>
-      <c r="U28" s="419"/>
-      <c r="V28" s="417" t="str">
+      <c r="S28" s="408"/>
+      <c r="T28" s="408"/>
+      <c r="U28" s="409"/>
+      <c r="V28" s="407" t="str">
         <f>V26</f>
         <v>ППС "Плавск" РРНУ</v>
       </c>
-      <c r="W28" s="418"/>
-      <c r="X28" s="418"/>
-      <c r="Y28" s="418"/>
-      <c r="Z28" s="419"/>
-      <c r="AA28" s="417"/>
-      <c r="AB28" s="419"/>
+      <c r="W28" s="408"/>
+      <c r="X28" s="408"/>
+      <c r="Y28" s="408"/>
+      <c r="Z28" s="409"/>
+      <c r="AA28" s="407"/>
+      <c r="AB28" s="409"/>
       <c r="AC28" s="11"/>
       <c r="AD28" s="11"/>
       <c r="AE28" s="11"/>
@@ -13314,44 +13291,44 @@
       <c r="A29" s="133">
         <v>5</v>
       </c>
-      <c r="B29" s="417" t="s">
-        <v>112</v>
-      </c>
-      <c r="C29" s="418"/>
-      <c r="D29" s="418"/>
-      <c r="E29" s="418"/>
-      <c r="F29" s="418"/>
-      <c r="G29" s="418"/>
-      <c r="H29" s="418"/>
-      <c r="I29" s="418"/>
-      <c r="J29" s="418"/>
-      <c r="K29" s="418"/>
-      <c r="L29" s="418"/>
-      <c r="M29" s="419"/>
-      <c r="N29" s="413" t="s">
+      <c r="B29" s="407" t="s">
         <v>110</v>
       </c>
-      <c r="O29" s="414"/>
-      <c r="P29" s="425">
+      <c r="C29" s="408"/>
+      <c r="D29" s="408"/>
+      <c r="E29" s="408"/>
+      <c r="F29" s="408"/>
+      <c r="G29" s="408"/>
+      <c r="H29" s="408"/>
+      <c r="I29" s="408"/>
+      <c r="J29" s="408"/>
+      <c r="K29" s="408"/>
+      <c r="L29" s="408"/>
+      <c r="M29" s="409"/>
+      <c r="N29" s="403" t="s">
+        <v>108</v>
+      </c>
+      <c r="O29" s="404"/>
+      <c r="P29" s="415">
         <v>2</v>
       </c>
-      <c r="Q29" s="426"/>
-      <c r="R29" s="417" t="str">
+      <c r="Q29" s="416"/>
+      <c r="R29" s="407" t="str">
         <f>R25</f>
         <v>25.04.2019 г.</v>
       </c>
-      <c r="S29" s="418"/>
-      <c r="T29" s="418"/>
-      <c r="U29" s="419"/>
-      <c r="V29" s="417" t="s">
-        <v>111</v>
-      </c>
-      <c r="W29" s="418"/>
-      <c r="X29" s="418"/>
-      <c r="Y29" s="418"/>
-      <c r="Z29" s="419"/>
-      <c r="AA29" s="417"/>
-      <c r="AB29" s="419"/>
+      <c r="S29" s="408"/>
+      <c r="T29" s="408"/>
+      <c r="U29" s="409"/>
+      <c r="V29" s="407" t="s">
+        <v>109</v>
+      </c>
+      <c r="W29" s="408"/>
+      <c r="X29" s="408"/>
+      <c r="Y29" s="408"/>
+      <c r="Z29" s="409"/>
+      <c r="AA29" s="407"/>
+      <c r="AB29" s="409"/>
       <c r="AC29" s="11"/>
       <c r="AD29" s="11"/>
       <c r="AE29" s="11"/>
@@ -13369,45 +13346,45 @@
       <c r="A30" s="133">
         <v>6</v>
       </c>
-      <c r="B30" s="417" t="s">
-        <v>113</v>
-      </c>
-      <c r="C30" s="418"/>
-      <c r="D30" s="418"/>
-      <c r="E30" s="418"/>
-      <c r="F30" s="418"/>
-      <c r="G30" s="418"/>
-      <c r="H30" s="418"/>
-      <c r="I30" s="418"/>
-      <c r="J30" s="418"/>
-      <c r="K30" s="418"/>
-      <c r="L30" s="418"/>
-      <c r="M30" s="419"/>
-      <c r="N30" s="413" t="s">
-        <v>109</v>
-      </c>
-      <c r="O30" s="414"/>
-      <c r="P30" s="423">
+      <c r="B30" s="407" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="408"/>
+      <c r="D30" s="408"/>
+      <c r="E30" s="408"/>
+      <c r="F30" s="408"/>
+      <c r="G30" s="408"/>
+      <c r="H30" s="408"/>
+      <c r="I30" s="408"/>
+      <c r="J30" s="408"/>
+      <c r="K30" s="408"/>
+      <c r="L30" s="408"/>
+      <c r="M30" s="409"/>
+      <c r="N30" s="403" t="s">
+        <v>107</v>
+      </c>
+      <c r="O30" s="404"/>
+      <c r="P30" s="413">
         <f>P26+0.45</f>
         <v>1.65</v>
       </c>
-      <c r="Q30" s="424"/>
-      <c r="R30" s="420" t="s">
-        <v>106</v>
-      </c>
-      <c r="S30" s="421"/>
-      <c r="T30" s="421"/>
-      <c r="U30" s="422"/>
-      <c r="V30" s="417" t="str">
+      <c r="Q30" s="414"/>
+      <c r="R30" s="410" t="s">
+        <v>104</v>
+      </c>
+      <c r="S30" s="411"/>
+      <c r="T30" s="411"/>
+      <c r="U30" s="412"/>
+      <c r="V30" s="407" t="str">
         <f>V26</f>
         <v>ППС "Плавск" РРНУ</v>
       </c>
-      <c r="W30" s="418"/>
-      <c r="X30" s="418"/>
-      <c r="Y30" s="418"/>
-      <c r="Z30" s="419"/>
-      <c r="AA30" s="417"/>
-      <c r="AB30" s="419"/>
+      <c r="W30" s="408"/>
+      <c r="X30" s="408"/>
+      <c r="Y30" s="408"/>
+      <c r="Z30" s="409"/>
+      <c r="AA30" s="407"/>
+      <c r="AB30" s="409"/>
       <c r="AC30" s="11"/>
       <c r="AD30" s="11"/>
       <c r="AE30" s="11"/>
@@ -13425,44 +13402,44 @@
       <c r="A31" s="133">
         <v>7</v>
       </c>
-      <c r="B31" s="417" t="s">
-        <v>114</v>
-      </c>
-      <c r="C31" s="418"/>
-      <c r="D31" s="418"/>
-      <c r="E31" s="418"/>
-      <c r="F31" s="418"/>
-      <c r="G31" s="418"/>
-      <c r="H31" s="418"/>
-      <c r="I31" s="418"/>
-      <c r="J31" s="418"/>
-      <c r="K31" s="418"/>
-      <c r="L31" s="418"/>
-      <c r="M31" s="419"/>
-      <c r="N31" s="413" t="s">
-        <v>135</v>
-      </c>
-      <c r="O31" s="414"/>
-      <c r="P31" s="413">
+      <c r="B31" s="407" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="408"/>
+      <c r="D31" s="408"/>
+      <c r="E31" s="408"/>
+      <c r="F31" s="408"/>
+      <c r="G31" s="408"/>
+      <c r="H31" s="408"/>
+      <c r="I31" s="408"/>
+      <c r="J31" s="408"/>
+      <c r="K31" s="408"/>
+      <c r="L31" s="408"/>
+      <c r="M31" s="409"/>
+      <c r="N31" s="403" t="s">
+        <v>133</v>
+      </c>
+      <c r="O31" s="404"/>
+      <c r="P31" s="403">
         <v>3</v>
       </c>
-      <c r="Q31" s="414"/>
-      <c r="R31" s="420" t="s">
-        <v>106</v>
-      </c>
-      <c r="S31" s="421"/>
-      <c r="T31" s="421"/>
-      <c r="U31" s="422"/>
-      <c r="V31" s="417" t="str">
+      <c r="Q31" s="404"/>
+      <c r="R31" s="410" t="s">
+        <v>104</v>
+      </c>
+      <c r="S31" s="411"/>
+      <c r="T31" s="411"/>
+      <c r="U31" s="412"/>
+      <c r="V31" s="407" t="str">
         <f>V26</f>
         <v>ППС "Плавск" РРНУ</v>
       </c>
-      <c r="W31" s="418"/>
-      <c r="X31" s="418"/>
-      <c r="Y31" s="418"/>
-      <c r="Z31" s="419"/>
-      <c r="AA31" s="417"/>
-      <c r="AB31" s="419"/>
+      <c r="W31" s="408"/>
+      <c r="X31" s="408"/>
+      <c r="Y31" s="408"/>
+      <c r="Z31" s="409"/>
+      <c r="AA31" s="407"/>
+      <c r="AB31" s="409"/>
       <c r="AC31" s="11"/>
       <c r="AD31" s="11"/>
       <c r="AE31" s="11"/>
@@ -13480,46 +13457,46 @@
       <c r="A32" s="134">
         <v>8</v>
       </c>
-      <c r="B32" s="410" t="s">
-        <v>130</v>
-      </c>
-      <c r="C32" s="411"/>
-      <c r="D32" s="411"/>
-      <c r="E32" s="411"/>
-      <c r="F32" s="411"/>
-      <c r="G32" s="411"/>
-      <c r="H32" s="411"/>
-      <c r="I32" s="411"/>
-      <c r="J32" s="411"/>
-      <c r="K32" s="411"/>
-      <c r="L32" s="411"/>
-      <c r="M32" s="412"/>
-      <c r="N32" s="413" t="s">
-        <v>105</v>
-      </c>
-      <c r="O32" s="414"/>
-      <c r="P32" s="415">
+      <c r="B32" s="400" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" s="401"/>
+      <c r="D32" s="401"/>
+      <c r="E32" s="401"/>
+      <c r="F32" s="401"/>
+      <c r="G32" s="401"/>
+      <c r="H32" s="401"/>
+      <c r="I32" s="401"/>
+      <c r="J32" s="401"/>
+      <c r="K32" s="401"/>
+      <c r="L32" s="401"/>
+      <c r="M32" s="402"/>
+      <c r="N32" s="403" t="s">
+        <v>103</v>
+      </c>
+      <c r="O32" s="404"/>
+      <c r="P32" s="405">
         <f>P25</f>
         <v>63</v>
       </c>
-      <c r="Q32" s="416"/>
-      <c r="R32" s="417" t="str">
+      <c r="Q32" s="406"/>
+      <c r="R32" s="407" t="str">
         <f>R31</f>
         <v>25.04.2019 г.</v>
       </c>
-      <c r="S32" s="418"/>
-      <c r="T32" s="418"/>
-      <c r="U32" s="419"/>
-      <c r="V32" s="417" t="str">
+      <c r="S32" s="408"/>
+      <c r="T32" s="408"/>
+      <c r="U32" s="409"/>
+      <c r="V32" s="407" t="str">
         <f>V25</f>
         <v>ППС "Плавск" РРНУ</v>
       </c>
-      <c r="W32" s="418"/>
-      <c r="X32" s="418"/>
-      <c r="Y32" s="418"/>
-      <c r="Z32" s="419"/>
-      <c r="AA32" s="410"/>
-      <c r="AB32" s="412"/>
+      <c r="W32" s="408"/>
+      <c r="X32" s="408"/>
+      <c r="Y32" s="408"/>
+      <c r="Z32" s="409"/>
+      <c r="AA32" s="400"/>
+      <c r="AB32" s="402"/>
       <c r="AC32" s="6"/>
       <c r="AD32" s="6"/>
       <c r="AE32" s="6"/>
@@ -13576,31 +13553,31 @@
       <c r="AN33" s="11"/>
     </row>
     <row r="34" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="406" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="406"/>
-      <c r="C34" s="406"/>
-      <c r="D34" s="406"/>
-      <c r="E34" s="406"/>
-      <c r="F34" s="406"/>
-      <c r="G34" s="406"/>
-      <c r="H34" s="406"/>
-      <c r="I34" s="406"/>
-      <c r="J34" s="406"/>
-      <c r="K34" s="406"/>
-      <c r="L34" s="406"/>
-      <c r="M34" s="406"/>
-      <c r="N34" s="406"/>
-      <c r="O34" s="407"/>
-      <c r="P34" s="407"/>
-      <c r="Q34" s="407"/>
-      <c r="R34" s="407"/>
-      <c r="S34" s="407"/>
-      <c r="T34" s="407"/>
-      <c r="U34" s="407"/>
-      <c r="V34" s="407"/>
-      <c r="W34" s="407"/>
+      <c r="A34" s="396" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="396"/>
+      <c r="C34" s="396"/>
+      <c r="D34" s="396"/>
+      <c r="E34" s="396"/>
+      <c r="F34" s="396"/>
+      <c r="G34" s="396"/>
+      <c r="H34" s="396"/>
+      <c r="I34" s="396"/>
+      <c r="J34" s="396"/>
+      <c r="K34" s="396"/>
+      <c r="L34" s="396"/>
+      <c r="M34" s="396"/>
+      <c r="N34" s="396"/>
+      <c r="O34" s="397"/>
+      <c r="P34" s="397"/>
+      <c r="Q34" s="397"/>
+      <c r="R34" s="397"/>
+      <c r="S34" s="397"/>
+      <c r="T34" s="397"/>
+      <c r="U34" s="397"/>
+      <c r="V34" s="397"/>
+      <c r="W34" s="397"/>
       <c r="X34" s="65"/>
       <c r="Y34" s="65"/>
       <c r="Z34" s="65"/>
@@ -13634,17 +13611,17 @@
       <c r="L35" s="67"/>
       <c r="M35" s="68"/>
       <c r="N35" s="68"/>
-      <c r="O35" s="408" t="s">
-        <v>45</v>
-      </c>
-      <c r="P35" s="408"/>
-      <c r="Q35" s="408"/>
-      <c r="R35" s="408"/>
-      <c r="S35" s="408"/>
-      <c r="T35" s="408"/>
-      <c r="U35" s="408"/>
-      <c r="V35" s="408"/>
-      <c r="W35" s="408"/>
+      <c r="O35" s="398" t="s">
+        <v>43</v>
+      </c>
+      <c r="P35" s="398"/>
+      <c r="Q35" s="398"/>
+      <c r="R35" s="398"/>
+      <c r="S35" s="398"/>
+      <c r="T35" s="398"/>
+      <c r="U35" s="398"/>
+      <c r="V35" s="398"/>
+      <c r="W35" s="398"/>
       <c r="X35" s="68"/>
       <c r="Y35" s="68"/>
       <c r="Z35" s="68"/>
@@ -13682,79 +13659,79 @@
       <c r="AB36" s="69"/>
     </row>
     <row r="37" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="391" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="391"/>
-      <c r="C37" s="391"/>
-      <c r="D37" s="391"/>
-      <c r="E37" s="391"/>
-      <c r="F37" s="391"/>
-      <c r="G37" s="391"/>
+      <c r="A37" s="381" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="381"/>
+      <c r="C37" s="381"/>
+      <c r="D37" s="381"/>
+      <c r="E37" s="381"/>
+      <c r="F37" s="381"/>
+      <c r="G37" s="381"/>
       <c r="H37" s="68"/>
-      <c r="I37" s="391" t="s">
-        <v>47</v>
-      </c>
-      <c r="J37" s="391"/>
-      <c r="K37" s="391"/>
-      <c r="L37" s="391"/>
-      <c r="M37" s="391"/>
-      <c r="N37" s="391"/>
-      <c r="O37" s="391"/>
+      <c r="I37" s="381" t="s">
+        <v>45</v>
+      </c>
+      <c r="J37" s="381"/>
+      <c r="K37" s="381"/>
+      <c r="L37" s="381"/>
+      <c r="M37" s="381"/>
+      <c r="N37" s="381"/>
+      <c r="O37" s="381"/>
       <c r="P37" s="68"/>
-      <c r="Q37" s="409"/>
-      <c r="R37" s="409"/>
-      <c r="S37" s="409"/>
-      <c r="T37" s="409"/>
-      <c r="U37" s="409"/>
-      <c r="V37" s="409"/>
-      <c r="W37" s="409"/>
+      <c r="Q37" s="399"/>
+      <c r="R37" s="399"/>
+      <c r="S37" s="399"/>
+      <c r="T37" s="399"/>
+      <c r="U37" s="399"/>
+      <c r="V37" s="399"/>
+      <c r="W37" s="399"/>
       <c r="X37" s="71"/>
-      <c r="Y37" s="404" t="str">
+      <c r="Y37" s="394" t="str">
         <f>V6</f>
         <v>27.04.2019  года.</v>
       </c>
-      <c r="Z37" s="404"/>
-      <c r="AA37" s="404"/>
-      <c r="AB37" s="404"/>
+      <c r="Z37" s="394"/>
+      <c r="AA37" s="394"/>
+      <c r="AB37" s="394"/>
     </row>
     <row r="38" spans="1:40" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="374" t="s">
+      <c r="A38" s="364" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="364"/>
+      <c r="C38" s="364"/>
+      <c r="D38" s="364"/>
+      <c r="E38" s="364"/>
+      <c r="F38" s="364"/>
+      <c r="G38" s="364"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="364" t="s">
+        <v>47</v>
+      </c>
+      <c r="J38" s="364"/>
+      <c r="K38" s="364"/>
+      <c r="L38" s="364"/>
+      <c r="M38" s="364"/>
+      <c r="N38" s="364"/>
+      <c r="O38" s="364"/>
+      <c r="P38" s="72"/>
+      <c r="Q38" s="364" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="374"/>
-      <c r="C38" s="374"/>
-      <c r="D38" s="374"/>
-      <c r="E38" s="374"/>
-      <c r="F38" s="374"/>
-      <c r="G38" s="374"/>
-      <c r="H38" s="72"/>
-      <c r="I38" s="374" t="s">
+      <c r="R38" s="364"/>
+      <c r="S38" s="364"/>
+      <c r="T38" s="364"/>
+      <c r="U38" s="364"/>
+      <c r="V38" s="364"/>
+      <c r="W38" s="364"/>
+      <c r="X38" s="73"/>
+      <c r="Y38" s="395" t="s">
         <v>49</v>
       </c>
-      <c r="J38" s="374"/>
-      <c r="K38" s="374"/>
-      <c r="L38" s="374"/>
-      <c r="M38" s="374"/>
-      <c r="N38" s="374"/>
-      <c r="O38" s="374"/>
-      <c r="P38" s="72"/>
-      <c r="Q38" s="374" t="s">
-        <v>50</v>
-      </c>
-      <c r="R38" s="374"/>
-      <c r="S38" s="374"/>
-      <c r="T38" s="374"/>
-      <c r="U38" s="374"/>
-      <c r="V38" s="374"/>
-      <c r="W38" s="374"/>
-      <c r="X38" s="73"/>
-      <c r="Y38" s="405" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z38" s="405"/>
-      <c r="AA38" s="405"/>
-      <c r="AB38" s="405"/>
+      <c r="Z38" s="395"/>
+      <c r="AA38" s="395"/>
+      <c r="AB38" s="395"/>
       <c r="AC38" s="6"/>
       <c r="AD38" s="6"/>
       <c r="AE38" s="6"/>
@@ -13811,33 +13788,33 @@
       <c r="AN39" s="11"/>
     </row>
     <row r="40" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="406" t="s">
-        <v>52</v>
-      </c>
-      <c r="B40" s="406"/>
-      <c r="C40" s="406"/>
-      <c r="D40" s="406"/>
-      <c r="E40" s="406"/>
-      <c r="F40" s="406"/>
-      <c r="G40" s="406"/>
-      <c r="H40" s="406"/>
-      <c r="I40" s="406"/>
-      <c r="J40" s="406"/>
-      <c r="K40" s="406"/>
-      <c r="L40" s="406"/>
-      <c r="M40" s="406"/>
-      <c r="N40" s="406"/>
-      <c r="O40" s="407" t="s">
-        <v>44</v>
-      </c>
-      <c r="P40" s="407"/>
-      <c r="Q40" s="407"/>
-      <c r="R40" s="407"/>
-      <c r="S40" s="407"/>
-      <c r="T40" s="407"/>
-      <c r="U40" s="407"/>
-      <c r="V40" s="407"/>
-      <c r="W40" s="407"/>
+      <c r="A40" s="396" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="396"/>
+      <c r="C40" s="396"/>
+      <c r="D40" s="396"/>
+      <c r="E40" s="396"/>
+      <c r="F40" s="396"/>
+      <c r="G40" s="396"/>
+      <c r="H40" s="396"/>
+      <c r="I40" s="396"/>
+      <c r="J40" s="396"/>
+      <c r="K40" s="396"/>
+      <c r="L40" s="396"/>
+      <c r="M40" s="396"/>
+      <c r="N40" s="396"/>
+      <c r="O40" s="397" t="s">
+        <v>42</v>
+      </c>
+      <c r="P40" s="397"/>
+      <c r="Q40" s="397"/>
+      <c r="R40" s="397"/>
+      <c r="S40" s="397"/>
+      <c r="T40" s="397"/>
+      <c r="U40" s="397"/>
+      <c r="V40" s="397"/>
+      <c r="W40" s="397"/>
       <c r="X40" s="65"/>
       <c r="Y40" s="65"/>
       <c r="Z40" s="65"/>
@@ -13871,17 +13848,17 @@
       <c r="L41" s="67"/>
       <c r="M41" s="68"/>
       <c r="N41" s="68"/>
-      <c r="O41" s="408" t="s">
-        <v>45</v>
-      </c>
-      <c r="P41" s="408"/>
-      <c r="Q41" s="408"/>
-      <c r="R41" s="408"/>
-      <c r="S41" s="408"/>
-      <c r="T41" s="408"/>
-      <c r="U41" s="408"/>
-      <c r="V41" s="408"/>
-      <c r="W41" s="408"/>
+      <c r="O41" s="398" t="s">
+        <v>43</v>
+      </c>
+      <c r="P41" s="398"/>
+      <c r="Q41" s="398"/>
+      <c r="R41" s="398"/>
+      <c r="S41" s="398"/>
+      <c r="T41" s="398"/>
+      <c r="U41" s="398"/>
+      <c r="V41" s="398"/>
+      <c r="W41" s="398"/>
       <c r="X41" s="68"/>
       <c r="Y41" s="68"/>
       <c r="Z41" s="68"/>
@@ -13919,79 +13896,79 @@
       <c r="AB42" s="69"/>
     </row>
     <row r="43" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="391" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43" s="391"/>
-      <c r="C43" s="391"/>
-      <c r="D43" s="391"/>
-      <c r="E43" s="391"/>
-      <c r="F43" s="391"/>
-      <c r="G43" s="391"/>
+      <c r="A43" s="381" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="381"/>
+      <c r="C43" s="381"/>
+      <c r="D43" s="381"/>
+      <c r="E43" s="381"/>
+      <c r="F43" s="381"/>
+      <c r="G43" s="381"/>
       <c r="H43" s="68"/>
-      <c r="I43" s="391" t="s">
-        <v>54</v>
-      </c>
-      <c r="J43" s="391"/>
-      <c r="K43" s="391"/>
-      <c r="L43" s="391"/>
-      <c r="M43" s="391"/>
-      <c r="N43" s="391"/>
-      <c r="O43" s="391"/>
+      <c r="I43" s="381" t="s">
+        <v>52</v>
+      </c>
+      <c r="J43" s="381"/>
+      <c r="K43" s="381"/>
+      <c r="L43" s="381"/>
+      <c r="M43" s="381"/>
+      <c r="N43" s="381"/>
+      <c r="O43" s="381"/>
       <c r="P43" s="68"/>
-      <c r="Q43" s="409"/>
-      <c r="R43" s="409"/>
-      <c r="S43" s="409"/>
-      <c r="T43" s="409"/>
-      <c r="U43" s="409"/>
-      <c r="V43" s="409"/>
-      <c r="W43" s="409"/>
+      <c r="Q43" s="399"/>
+      <c r="R43" s="399"/>
+      <c r="S43" s="399"/>
+      <c r="T43" s="399"/>
+      <c r="U43" s="399"/>
+      <c r="V43" s="399"/>
+      <c r="W43" s="399"/>
       <c r="X43" s="71"/>
-      <c r="Y43" s="404" t="str">
+      <c r="Y43" s="394" t="str">
         <f>V6</f>
         <v>27.04.2019  года.</v>
       </c>
-      <c r="Z43" s="404"/>
-      <c r="AA43" s="404"/>
-      <c r="AB43" s="404"/>
+      <c r="Z43" s="394"/>
+      <c r="AA43" s="394"/>
+      <c r="AB43" s="394"/>
     </row>
     <row r="44" spans="1:40" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="374" t="s">
+      <c r="A44" s="364" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="364"/>
+      <c r="C44" s="364"/>
+      <c r="D44" s="364"/>
+      <c r="E44" s="364"/>
+      <c r="F44" s="364"/>
+      <c r="G44" s="364"/>
+      <c r="H44" s="72"/>
+      <c r="I44" s="364" t="s">
+        <v>47</v>
+      </c>
+      <c r="J44" s="364"/>
+      <c r="K44" s="364"/>
+      <c r="L44" s="364"/>
+      <c r="M44" s="364"/>
+      <c r="N44" s="364"/>
+      <c r="O44" s="364"/>
+      <c r="P44" s="72"/>
+      <c r="Q44" s="364" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="374"/>
-      <c r="C44" s="374"/>
-      <c r="D44" s="374"/>
-      <c r="E44" s="374"/>
-      <c r="F44" s="374"/>
-      <c r="G44" s="374"/>
-      <c r="H44" s="72"/>
-      <c r="I44" s="374" t="s">
+      <c r="R44" s="364"/>
+      <c r="S44" s="364"/>
+      <c r="T44" s="364"/>
+      <c r="U44" s="364"/>
+      <c r="V44" s="364"/>
+      <c r="W44" s="364"/>
+      <c r="X44" s="73"/>
+      <c r="Y44" s="395" t="s">
         <v>49</v>
       </c>
-      <c r="J44" s="374"/>
-      <c r="K44" s="374"/>
-      <c r="L44" s="374"/>
-      <c r="M44" s="374"/>
-      <c r="N44" s="374"/>
-      <c r="O44" s="374"/>
-      <c r="P44" s="72"/>
-      <c r="Q44" s="374" t="s">
-        <v>50</v>
-      </c>
-      <c r="R44" s="374"/>
-      <c r="S44" s="374"/>
-      <c r="T44" s="374"/>
-      <c r="U44" s="374"/>
-      <c r="V44" s="374"/>
-      <c r="W44" s="374"/>
-      <c r="X44" s="73"/>
-      <c r="Y44" s="405" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z44" s="405"/>
-      <c r="AA44" s="405"/>
-      <c r="AB44" s="405"/>
+      <c r="Z44" s="395"/>
+      <c r="AA44" s="395"/>
+      <c r="AB44" s="395"/>
       <c r="AC44" s="6"/>
       <c r="AD44" s="6"/>
       <c r="AE44" s="6"/>
@@ -14048,33 +14025,33 @@
       <c r="AN45" s="11"/>
     </row>
     <row r="46" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="406" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46" s="406"/>
-      <c r="C46" s="406"/>
-      <c r="D46" s="406"/>
-      <c r="E46" s="406"/>
-      <c r="F46" s="406"/>
-      <c r="G46" s="406"/>
-      <c r="H46" s="406"/>
-      <c r="I46" s="406"/>
-      <c r="J46" s="406"/>
-      <c r="K46" s="406"/>
-      <c r="L46" s="406"/>
-      <c r="M46" s="406"/>
-      <c r="N46" s="406"/>
-      <c r="O46" s="407" t="s">
-        <v>56</v>
-      </c>
-      <c r="P46" s="407"/>
-      <c r="Q46" s="407"/>
-      <c r="R46" s="407"/>
-      <c r="S46" s="407"/>
-      <c r="T46" s="407"/>
-      <c r="U46" s="407"/>
-      <c r="V46" s="407"/>
-      <c r="W46" s="407"/>
+      <c r="A46" s="396" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="396"/>
+      <c r="C46" s="396"/>
+      <c r="D46" s="396"/>
+      <c r="E46" s="396"/>
+      <c r="F46" s="396"/>
+      <c r="G46" s="396"/>
+      <c r="H46" s="396"/>
+      <c r="I46" s="396"/>
+      <c r="J46" s="396"/>
+      <c r="K46" s="396"/>
+      <c r="L46" s="396"/>
+      <c r="M46" s="396"/>
+      <c r="N46" s="396"/>
+      <c r="O46" s="397" t="s">
+        <v>54</v>
+      </c>
+      <c r="P46" s="397"/>
+      <c r="Q46" s="397"/>
+      <c r="R46" s="397"/>
+      <c r="S46" s="397"/>
+      <c r="T46" s="397"/>
+      <c r="U46" s="397"/>
+      <c r="V46" s="397"/>
+      <c r="W46" s="397"/>
       <c r="X46" s="65"/>
       <c r="Y46" s="65"/>
       <c r="Z46" s="65"/>
@@ -14108,17 +14085,17 @@
       <c r="L47" s="67"/>
       <c r="M47" s="68"/>
       <c r="N47" s="68"/>
-      <c r="O47" s="408" t="s">
-        <v>45</v>
-      </c>
-      <c r="P47" s="408"/>
-      <c r="Q47" s="408"/>
-      <c r="R47" s="408"/>
-      <c r="S47" s="408"/>
-      <c r="T47" s="408"/>
-      <c r="U47" s="408"/>
-      <c r="V47" s="408"/>
-      <c r="W47" s="408"/>
+      <c r="O47" s="398" t="s">
+        <v>43</v>
+      </c>
+      <c r="P47" s="398"/>
+      <c r="Q47" s="398"/>
+      <c r="R47" s="398"/>
+      <c r="S47" s="398"/>
+      <c r="T47" s="398"/>
+      <c r="U47" s="398"/>
+      <c r="V47" s="398"/>
+      <c r="W47" s="398"/>
       <c r="X47" s="68"/>
       <c r="Y47" s="68"/>
       <c r="Z47" s="68"/>
@@ -14156,79 +14133,79 @@
       <c r="AB48" s="69"/>
     </row>
     <row r="49" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="391" t="s">
-        <v>57</v>
-      </c>
-      <c r="B49" s="391"/>
-      <c r="C49" s="391"/>
-      <c r="D49" s="391"/>
-      <c r="E49" s="391"/>
-      <c r="F49" s="391"/>
-      <c r="G49" s="391"/>
+      <c r="A49" s="381" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="381"/>
+      <c r="C49" s="381"/>
+      <c r="D49" s="381"/>
+      <c r="E49" s="381"/>
+      <c r="F49" s="381"/>
+      <c r="G49" s="381"/>
       <c r="H49" s="68"/>
-      <c r="I49" s="391" t="s">
-        <v>58</v>
-      </c>
-      <c r="J49" s="391"/>
-      <c r="K49" s="391"/>
-      <c r="L49" s="391"/>
-      <c r="M49" s="391"/>
-      <c r="N49" s="391"/>
-      <c r="O49" s="391"/>
+      <c r="I49" s="381" t="s">
+        <v>56</v>
+      </c>
+      <c r="J49" s="381"/>
+      <c r="K49" s="381"/>
+      <c r="L49" s="381"/>
+      <c r="M49" s="381"/>
+      <c r="N49" s="381"/>
+      <c r="O49" s="381"/>
       <c r="P49" s="68"/>
-      <c r="Q49" s="409"/>
-      <c r="R49" s="409"/>
-      <c r="S49" s="409"/>
-      <c r="T49" s="409"/>
-      <c r="U49" s="409"/>
-      <c r="V49" s="409"/>
-      <c r="W49" s="409"/>
+      <c r="Q49" s="399"/>
+      <c r="R49" s="399"/>
+      <c r="S49" s="399"/>
+      <c r="T49" s="399"/>
+      <c r="U49" s="399"/>
+      <c r="V49" s="399"/>
+      <c r="W49" s="399"/>
       <c r="X49" s="71"/>
-      <c r="Y49" s="404" t="str">
+      <c r="Y49" s="394" t="str">
         <f>V6</f>
         <v>27.04.2019  года.</v>
       </c>
-      <c r="Z49" s="404"/>
-      <c r="AA49" s="404"/>
-      <c r="AB49" s="404"/>
+      <c r="Z49" s="394"/>
+      <c r="AA49" s="394"/>
+      <c r="AB49" s="394"/>
     </row>
     <row r="50" spans="1:40" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="374" t="s">
+      <c r="A50" s="364" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="364"/>
+      <c r="C50" s="364"/>
+      <c r="D50" s="364"/>
+      <c r="E50" s="364"/>
+      <c r="F50" s="364"/>
+      <c r="G50" s="364"/>
+      <c r="H50" s="72"/>
+      <c r="I50" s="364" t="s">
+        <v>47</v>
+      </c>
+      <c r="J50" s="364"/>
+      <c r="K50" s="364"/>
+      <c r="L50" s="364"/>
+      <c r="M50" s="364"/>
+      <c r="N50" s="364"/>
+      <c r="O50" s="364"/>
+      <c r="P50" s="72"/>
+      <c r="Q50" s="364" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="374"/>
-      <c r="C50" s="374"/>
-      <c r="D50" s="374"/>
-      <c r="E50" s="374"/>
-      <c r="F50" s="374"/>
-      <c r="G50" s="374"/>
-      <c r="H50" s="72"/>
-      <c r="I50" s="374" t="s">
+      <c r="R50" s="364"/>
+      <c r="S50" s="364"/>
+      <c r="T50" s="364"/>
+      <c r="U50" s="364"/>
+      <c r="V50" s="364"/>
+      <c r="W50" s="364"/>
+      <c r="X50" s="73"/>
+      <c r="Y50" s="395" t="s">
         <v>49</v>
       </c>
-      <c r="J50" s="374"/>
-      <c r="K50" s="374"/>
-      <c r="L50" s="374"/>
-      <c r="M50" s="374"/>
-      <c r="N50" s="374"/>
-      <c r="O50" s="374"/>
-      <c r="P50" s="72"/>
-      <c r="Q50" s="374" t="s">
-        <v>50</v>
-      </c>
-      <c r="R50" s="374"/>
-      <c r="S50" s="374"/>
-      <c r="T50" s="374"/>
-      <c r="U50" s="374"/>
-      <c r="V50" s="374"/>
-      <c r="W50" s="374"/>
-      <c r="X50" s="73"/>
-      <c r="Y50" s="405" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z50" s="405"/>
-      <c r="AA50" s="405"/>
-      <c r="AB50" s="405"/>
+      <c r="Z50" s="395"/>
+      <c r="AA50" s="395"/>
+      <c r="AB50" s="395"/>
       <c r="AC50" s="6"/>
       <c r="AD50" s="6"/>
       <c r="AE50" s="6"/>
@@ -14884,7 +14861,7 @@
   </sheetPr>
   <dimension ref="A1:AO79"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:AH8"/>
     </sheetView>
   </sheetViews>
@@ -15005,7 +14982,7 @@
       <c r="I4" s="43"/>
       <c r="J4" s="43"/>
       <c r="K4" s="135" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L4" s="135"/>
       <c r="M4" s="43"/>
@@ -15087,79 +15064,79 @@
       <c r="AC6" s="76"/>
     </row>
     <row r="7" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="439" t="s">
-        <v>139</v>
-      </c>
-      <c r="B7" s="439"/>
-      <c r="C7" s="439"/>
-      <c r="D7" s="439"/>
-      <c r="E7" s="439"/>
-      <c r="F7" s="439"/>
-      <c r="G7" s="439"/>
-      <c r="H7" s="439"/>
-      <c r="I7" s="439"/>
-      <c r="J7" s="439"/>
-      <c r="K7" s="439"/>
-      <c r="L7" s="439"/>
-      <c r="M7" s="439"/>
-      <c r="N7" s="439"/>
-      <c r="O7" s="439"/>
-      <c r="P7" s="439"/>
-      <c r="Q7" s="439"/>
-      <c r="R7" s="439"/>
-      <c r="S7" s="439"/>
-      <c r="T7" s="439"/>
-      <c r="U7" s="439"/>
-      <c r="V7" s="439"/>
-      <c r="W7" s="439"/>
-      <c r="X7" s="439"/>
-      <c r="Y7" s="439"/>
-      <c r="Z7" s="439"/>
-      <c r="AA7" s="439"/>
-      <c r="AB7" s="439"/>
-      <c r="AC7" s="439"/>
-      <c r="AD7" s="439"/>
-      <c r="AE7" s="439"/>
-      <c r="AF7" s="439"/>
-      <c r="AG7" s="439"/>
-      <c r="AH7" s="439"/>
+      <c r="A7" s="429" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="429"/>
+      <c r="C7" s="429"/>
+      <c r="D7" s="429"/>
+      <c r="E7" s="429"/>
+      <c r="F7" s="429"/>
+      <c r="G7" s="429"/>
+      <c r="H7" s="429"/>
+      <c r="I7" s="429"/>
+      <c r="J7" s="429"/>
+      <c r="K7" s="429"/>
+      <c r="L7" s="429"/>
+      <c r="M7" s="429"/>
+      <c r="N7" s="429"/>
+      <c r="O7" s="429"/>
+      <c r="P7" s="429"/>
+      <c r="Q7" s="429"/>
+      <c r="R7" s="429"/>
+      <c r="S7" s="429"/>
+      <c r="T7" s="429"/>
+      <c r="U7" s="429"/>
+      <c r="V7" s="429"/>
+      <c r="W7" s="429"/>
+      <c r="X7" s="429"/>
+      <c r="Y7" s="429"/>
+      <c r="Z7" s="429"/>
+      <c r="AA7" s="429"/>
+      <c r="AB7" s="429"/>
+      <c r="AC7" s="429"/>
+      <c r="AD7" s="429"/>
+      <c r="AE7" s="429"/>
+      <c r="AF7" s="429"/>
+      <c r="AG7" s="429"/>
+      <c r="AH7" s="429"/>
       <c r="AI7" s="137"/>
     </row>
     <row r="8" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="439"/>
-      <c r="B8" s="439"/>
-      <c r="C8" s="439"/>
-      <c r="D8" s="439"/>
-      <c r="E8" s="439"/>
-      <c r="F8" s="439"/>
-      <c r="G8" s="439"/>
-      <c r="H8" s="439"/>
-      <c r="I8" s="439"/>
-      <c r="J8" s="439"/>
-      <c r="K8" s="439"/>
-      <c r="L8" s="439"/>
-      <c r="M8" s="439"/>
-      <c r="N8" s="439"/>
-      <c r="O8" s="439"/>
-      <c r="P8" s="439"/>
-      <c r="Q8" s="439"/>
-      <c r="R8" s="439"/>
-      <c r="S8" s="439"/>
-      <c r="T8" s="439"/>
-      <c r="U8" s="439"/>
-      <c r="V8" s="439"/>
-      <c r="W8" s="439"/>
-      <c r="X8" s="439"/>
-      <c r="Y8" s="439"/>
-      <c r="Z8" s="439"/>
-      <c r="AA8" s="439"/>
-      <c r="AB8" s="439"/>
-      <c r="AC8" s="439"/>
-      <c r="AD8" s="439"/>
-      <c r="AE8" s="439"/>
-      <c r="AF8" s="439"/>
-      <c r="AG8" s="439"/>
-      <c r="AH8" s="439"/>
+      <c r="A8" s="429"/>
+      <c r="B8" s="429"/>
+      <c r="C8" s="429"/>
+      <c r="D8" s="429"/>
+      <c r="E8" s="429"/>
+      <c r="F8" s="429"/>
+      <c r="G8" s="429"/>
+      <c r="H8" s="429"/>
+      <c r="I8" s="429"/>
+      <c r="J8" s="429"/>
+      <c r="K8" s="429"/>
+      <c r="L8" s="429"/>
+      <c r="M8" s="429"/>
+      <c r="N8" s="429"/>
+      <c r="O8" s="429"/>
+      <c r="P8" s="429"/>
+      <c r="Q8" s="429"/>
+      <c r="R8" s="429"/>
+      <c r="S8" s="429"/>
+      <c r="T8" s="429"/>
+      <c r="U8" s="429"/>
+      <c r="V8" s="429"/>
+      <c r="W8" s="429"/>
+      <c r="X8" s="429"/>
+      <c r="Y8" s="429"/>
+      <c r="Z8" s="429"/>
+      <c r="AA8" s="429"/>
+      <c r="AB8" s="429"/>
+      <c r="AC8" s="429"/>
+      <c r="AD8" s="429"/>
+      <c r="AE8" s="429"/>
+      <c r="AF8" s="429"/>
+      <c r="AG8" s="429"/>
+      <c r="AH8" s="429"/>
       <c r="AI8" s="137"/>
     </row>
     <row r="9" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15200,13 +15177,13 @@
     </row>
     <row r="10" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="139" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C10" s="140"/>
       <c r="D10" s="140"/>
       <c r="E10" s="140"/>
       <c r="F10" s="177" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G10" s="123"/>
       <c r="H10" s="123"/>
@@ -15318,7 +15295,7 @@
     </row>
     <row r="13" spans="1:41" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="139" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C13" s="52"/>
       <c r="D13" s="52"/>
@@ -15330,18 +15307,18 @@
       <c r="J13" s="52"/>
       <c r="K13" s="52"/>
       <c r="L13" s="52"/>
-      <c r="M13" s="440" t="s">
-        <v>44</v>
-      </c>
-      <c r="N13" s="440"/>
-      <c r="O13" s="440"/>
-      <c r="P13" s="440"/>
-      <c r="Q13" s="440"/>
-      <c r="R13" s="440"/>
-      <c r="S13" s="440"/>
-      <c r="T13" s="440"/>
-      <c r="U13" s="440"/>
-      <c r="V13" s="440"/>
+      <c r="M13" s="430" t="s">
+        <v>42</v>
+      </c>
+      <c r="N13" s="430"/>
+      <c r="O13" s="430"/>
+      <c r="P13" s="430"/>
+      <c r="Q13" s="430"/>
+      <c r="R13" s="430"/>
+      <c r="S13" s="430"/>
+      <c r="T13" s="430"/>
+      <c r="U13" s="430"/>
+      <c r="V13" s="430"/>
       <c r="W13" s="52"/>
       <c r="X13" s="52"/>
       <c r="Y13" s="52"/>
@@ -16072,25 +16049,25 @@
     </row>
     <row r="34" spans="2:41" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="151"/>
-      <c r="C34" s="432" t="s">
+      <c r="C34" s="422" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="422"/>
+      <c r="E34" s="422"/>
+      <c r="F34" s="417" t="s">
+        <v>117</v>
+      </c>
+      <c r="G34" s="417"/>
+      <c r="H34" s="417"/>
+      <c r="I34" s="417"/>
+      <c r="J34" s="417"/>
+      <c r="K34" s="417"/>
+      <c r="L34" s="417"/>
+      <c r="M34" s="417" t="s">
         <v>118</v>
       </c>
-      <c r="D34" s="432"/>
-      <c r="E34" s="432"/>
-      <c r="F34" s="427" t="s">
-        <v>119</v>
-      </c>
-      <c r="G34" s="427"/>
-      <c r="H34" s="427"/>
-      <c r="I34" s="427"/>
-      <c r="J34" s="427"/>
-      <c r="K34" s="427"/>
-      <c r="L34" s="427"/>
-      <c r="M34" s="427" t="s">
-        <v>120</v>
-      </c>
-      <c r="N34" s="427"/>
-      <c r="O34" s="427"/>
+      <c r="N34" s="417"/>
+      <c r="O34" s="417"/>
       <c r="P34" s="147"/>
       <c r="Q34" s="149"/>
       <c r="R34" s="149"/>
@@ -16120,19 +16097,19 @@
     </row>
     <row r="35" spans="2:41" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="151"/>
-      <c r="C35" s="432"/>
-      <c r="D35" s="432"/>
-      <c r="E35" s="432"/>
-      <c r="F35" s="427"/>
-      <c r="G35" s="427"/>
-      <c r="H35" s="427"/>
-      <c r="I35" s="427"/>
-      <c r="J35" s="427"/>
-      <c r="K35" s="427"/>
-      <c r="L35" s="427"/>
-      <c r="M35" s="427"/>
-      <c r="N35" s="427"/>
-      <c r="O35" s="427"/>
+      <c r="C35" s="422"/>
+      <c r="D35" s="422"/>
+      <c r="E35" s="422"/>
+      <c r="F35" s="417"/>
+      <c r="G35" s="417"/>
+      <c r="H35" s="417"/>
+      <c r="I35" s="417"/>
+      <c r="J35" s="417"/>
+      <c r="K35" s="417"/>
+      <c r="L35" s="417"/>
+      <c r="M35" s="417"/>
+      <c r="N35" s="417"/>
+      <c r="O35" s="417"/>
       <c r="P35" s="147"/>
       <c r="Q35" s="149"/>
       <c r="R35" s="149"/>
@@ -16162,25 +16139,25 @@
     </row>
     <row r="36" spans="2:41" s="12" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="151"/>
-      <c r="C36" s="432" t="s">
-        <v>137</v>
-      </c>
-      <c r="D36" s="432"/>
-      <c r="E36" s="432"/>
-      <c r="F36" s="438" t="s">
-        <v>121</v>
-      </c>
-      <c r="G36" s="438"/>
-      <c r="H36" s="438"/>
-      <c r="I36" s="438"/>
-      <c r="J36" s="438"/>
-      <c r="K36" s="438"/>
-      <c r="L36" s="438"/>
-      <c r="M36" s="438">
+      <c r="C36" s="422" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36" s="422"/>
+      <c r="E36" s="422"/>
+      <c r="F36" s="428" t="s">
+        <v>119</v>
+      </c>
+      <c r="G36" s="428"/>
+      <c r="H36" s="428"/>
+      <c r="I36" s="428"/>
+      <c r="J36" s="428"/>
+      <c r="K36" s="428"/>
+      <c r="L36" s="428"/>
+      <c r="M36" s="428">
         <v>2165</v>
       </c>
-      <c r="N36" s="438"/>
-      <c r="O36" s="438"/>
+      <c r="N36" s="428"/>
+      <c r="O36" s="428"/>
       <c r="P36" s="147"/>
       <c r="Q36" s="149"/>
       <c r="R36" s="149"/>
@@ -16210,25 +16187,25 @@
     </row>
     <row r="37" spans="2:41" s="12" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="151"/>
-      <c r="C37" s="432" t="s">
-        <v>138</v>
-      </c>
-      <c r="D37" s="432"/>
-      <c r="E37" s="432"/>
-      <c r="F37" s="438" t="s">
-        <v>121</v>
-      </c>
-      <c r="G37" s="438"/>
-      <c r="H37" s="438"/>
-      <c r="I37" s="438"/>
-      <c r="J37" s="438"/>
-      <c r="K37" s="438"/>
-      <c r="L37" s="438"/>
-      <c r="M37" s="438">
+      <c r="C37" s="422" t="s">
+        <v>136</v>
+      </c>
+      <c r="D37" s="422"/>
+      <c r="E37" s="422"/>
+      <c r="F37" s="428" t="s">
+        <v>119</v>
+      </c>
+      <c r="G37" s="428"/>
+      <c r="H37" s="428"/>
+      <c r="I37" s="428"/>
+      <c r="J37" s="428"/>
+      <c r="K37" s="428"/>
+      <c r="L37" s="428"/>
+      <c r="M37" s="428">
         <v>2165</v>
       </c>
-      <c r="N37" s="438"/>
-      <c r="O37" s="438"/>
+      <c r="N37" s="428"/>
+      <c r="O37" s="428"/>
       <c r="P37" s="147"/>
       <c r="Q37" s="147"/>
       <c r="R37" s="147"/>
@@ -16810,7 +16787,7 @@
     </row>
     <row r="52" spans="2:41" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C52" s="102"/>
       <c r="D52" s="102"/>
